--- a/Document Library/Bill Of Materials/Valkyrie BOM v1.0.0.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM v1.0.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6634FB4-D0F4-4F0E-9520-353E96629594}"/>
+  <xr:revisionPtr revIDLastSave="402" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E65092B8-BD2D-4BCF-81AB-3C8352091E05}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Valkyrie Stage-0" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hardware List'!$A$7:$J$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hardware List'!$A$3:$J$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Valkyrie Stage-0'!$A$7:$K$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$7:$K$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$3:$K$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{3D5D8C05-90A8-4D6E-BE03-1AD00E9C6A11}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+TBD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{424AF3D0-03E3-494F-8C85-BE7674C10716}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+TBD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="L22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -205,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +277,45 @@
         </r>
       </text>
     </comment>
-    <comment ref="J45" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{5BAE28AF-EFF9-49BF-8B1C-90F36BBB41B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Lookng for a High temp option</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{C0C1BBC7-2BC8-49F9-9DF3-A86897191E49}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:For RRF</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J41" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -286,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="D3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="E3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -548,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="325">
   <si>
     <t>Develompment Team Members</t>
   </si>
@@ -1428,9 +1514,6 @@
     <t>1x5kg loadcell + HX711</t>
   </si>
   <si>
-    <t>EQV Official Store</t>
-  </si>
-  <si>
     <t>1xESP-32 30Pin</t>
   </si>
   <si>
@@ -1519,6 +1602,30 @@
   </si>
   <si>
     <t>Ask Venstpow for a bundle deal</t>
+  </si>
+  <si>
+    <t>To Be Decided - BL Touch for now</t>
+  </si>
+  <si>
+    <t>Project Valkyrie - Stage-0-BOM</t>
+  </si>
+  <si>
+    <t>EQV Store</t>
+  </si>
+  <si>
+    <t>Misumi Frame + Hardware Kit</t>
+  </si>
+  <si>
+    <t>valkyrie</t>
+  </si>
+  <si>
+    <t>stage - I</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>fasteners</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1640,7 @@
     <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
     <numFmt numFmtId="169" formatCode="[$$-409]#,##0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1681,8 +1788,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1692,6 +1812,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1922,7 +2048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2064,9 +2190,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2091,7 +2214,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2126,6 +2248,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2306,8 +2461,215 @@
     <dxf>
       <border>
         <bottom style="medium">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
       </border>
     </dxf>
     <dxf>
@@ -2327,6 +2689,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2528,220 +2897,6 @@
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2759,18 +2914,18 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1883835" cy="1059656"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
+        <xdr:cNvPr id="3" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE650D0-2D6E-4678-9AEA-D0A5941A3D00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2789,7 +2944,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="12132468" y="4238626"/>
           <a:ext cx="1883835" cy="1059656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2807,18 +2962,18 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1927412" cy="1084168"/>
+    <xdr:ext cx="1883835" cy="1059656"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image1.png">
+        <xdr:cNvPr id="5" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7682EE9C-829A-4195-A7DF-B29381CF9561}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9ED705-B584-43D3-B91F-603028A23713}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2837,8 +2992,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1927412" cy="1084168"/>
+          <a:off x="9168512" y="4573401"/>
+          <a:ext cx="1883835" cy="1059656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2899,62 +3054,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A7:L60" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:L56" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="System" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part Type" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cut Length mm" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="BOM Quantity" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pack Price $" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pack Order Quantity" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Line Price $" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Order Parts Link" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Supplier" dataDxfId="31"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Option" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="System" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part Type" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cut Length mm" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="BOM Quantity" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pack Price $" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pack Order Quantity" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Line Price $" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Order Parts Link" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Supplier" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Option" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A7:J50" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:J51">
-    <sortCondition ref="B8:B51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A3:J46" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J47">
+    <sortCondition ref="B4:B47"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Part Type" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Description" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="BOM Quantity" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Pack Price $" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Pack Order Quantity" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Line Price $" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Order Parts Link" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Supplier" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="DIN" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="ISO" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Part Type" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Description" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="BOM Quantity" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Pack Price $" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Pack Order Quantity" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Line Price $" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Order Parts Link" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Supplier" dataDxfId="34"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="DIN" dataDxfId="33"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="ISO" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BB8E62E6-79EF-4C10-B241-5331D8D58F9B}" name="Table14" displayName="Table14" ref="A7:L45" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BB8E62E6-79EF-4C10-B241-5331D8D58F9B}" name="Table14" displayName="Table14" ref="A7:L45" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{CA0C5979-6B6C-4045-AC28-5E6CB8072C41}" name="System" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{6938B938-1ABB-4F7F-B7D0-55543997EB8C}" name="Category" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{3B0F0BD0-6D5E-40FA-8AE4-2C3410C2E334}" name="Part Type" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{CB532F0F-0D38-499D-93B9-4CB47CA68B05}" name="Description" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{314FC685-5A32-40D7-81B8-6B2EA69DD093}" name="Cut Length mm" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{FF7A1159-E348-4513-A202-A717369901D0}" name="BOM Quantity" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{AB473781-150D-4CB1-9A3B-F2113A0793C0}" name="Pack Price $" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{48CAF5D9-9DFA-4251-8EF5-7F030B50CA99}" name="Pack Order Quantity" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{C0DBA74A-5D8D-4760-ABDE-B95829C1A60D}" name="Line Price $" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{AAEED0C7-15F7-4790-9E62-E27032C81CC3}" name="Order Parts Link" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{BFA01DDC-E15B-4C61-995E-53335C843259}" name="Supplier" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{73213268-4CE9-408B-89D8-1856AA2E7AB1}" name="Option" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CA0C5979-6B6C-4045-AC28-5E6CB8072C41}" name="System" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{6938B938-1ABB-4F7F-B7D0-55543997EB8C}" name="Category" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{3B0F0BD0-6D5E-40FA-8AE4-2C3410C2E334}" name="Part Type" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{CB532F0F-0D38-499D-93B9-4CB47CA68B05}" name="Description" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{314FC685-5A32-40D7-81B8-6B2EA69DD093}" name="Cut Length mm" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{FF7A1159-E348-4513-A202-A717369901D0}" name="BOM Quantity" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{AB473781-150D-4CB1-9A3B-F2113A0793C0}" name="Pack Price $" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{48CAF5D9-9DFA-4251-8EF5-7F030B50CA99}" name="Pack Order Quantity" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{C0DBA74A-5D8D-4760-ABDE-B95829C1A60D}" name="Line Price $" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{AAEED0C7-15F7-4790-9E62-E27032C81CC3}" name="Order Parts Link" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{BFA01DDC-E15B-4C61-995E-53335C843259}" name="Supplier" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{73213268-4CE9-408B-89D8-1856AA2E7AB1}" name="Option" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3161,11 +3320,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -3180,168 +3339,294 @@
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27">
-      <c r="A1" s="115" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1" t="s">
+    <row r="1" spans="1:14" ht="27.75" hidden="1" thickBot="1">
+      <c r="A1" s="113" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A2" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65">
+        <f>I57</f>
+        <v>1849.3840000000005</v>
+      </c>
+      <c r="J2" s="63"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="122"/>
+    </row>
+    <row r="3" spans="1:14" s="78" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="123"/>
+    </row>
+    <row r="4" spans="1:14" s="59" customFormat="1">
+      <c r="A4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="26">
+        <v>369</v>
+      </c>
+      <c r="F4" s="27">
+        <v>1</v>
+      </c>
+      <c r="G4" s="28">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H4" s="27">
+        <v>1</v>
+      </c>
+      <c r="I4" s="50">
+        <v>8</v>
+      </c>
+      <c r="J4" s="81" t="s">
+        <v>303</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="101"/>
+      <c r="M4" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="85" t="s">
-        <v>311</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="N4" s="125"/>
+    </row>
+    <row r="5" spans="1:14" s="59" customFormat="1">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="11">
+        <f>E6</f>
+        <v>420</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
+      <c r="I5" s="52">
+        <f t="shared" ref="I5:I21" si="0">H5*G5</f>
+        <v>9.5</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="102"/>
+      <c r="M5" s="126" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="125"/>
+    </row>
+    <row r="6" spans="1:14" s="59" customFormat="1">
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="11">
+        <v>420</v>
+      </c>
+      <c r="F6" s="12">
+        <v>4</v>
+      </c>
+      <c r="G6" s="13">
+        <v>10.54</v>
+      </c>
+      <c r="H6" s="12">
+        <v>4</v>
+      </c>
+      <c r="I6" s="52">
+        <f t="shared" si="0"/>
+        <v>42.16</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="103"/>
+      <c r="M6" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="85" t="s">
-        <v>312</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="N6" s="125"/>
+    </row>
+    <row r="7" spans="1:14" s="59" customFormat="1">
+      <c r="A7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="11">
+        <v>480</v>
+      </c>
+      <c r="F7" s="12">
+        <v>4</v>
+      </c>
+      <c r="G7" s="13">
+        <v>11.121</v>
+      </c>
+      <c r="H7" s="12">
+        <v>4</v>
+      </c>
+      <c r="I7" s="52">
+        <f t="shared" si="0"/>
+        <v>44.484000000000002</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="102"/>
+      <c r="M7" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="85" t="s">
-        <v>313</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="D6" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="65">
-        <f>I61</f>
-        <v>1849.3840000000005</v>
-      </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-    </row>
-    <row r="7" spans="1:12" s="78" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A7" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="59" customFormat="1">
+      <c r="N7" s="125"/>
+    </row>
+    <row r="8" spans="1:14" s="59" customFormat="1">
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="26">
-        <v>369</v>
-      </c>
-      <c r="F8" s="27">
-        <v>1</v>
-      </c>
-      <c r="G8" s="28">
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="H8" s="27">
-        <v>1</v>
-      </c>
-      <c r="I8" s="50">
-        <v>8</v>
-      </c>
-      <c r="J8" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="K8" s="38" t="s">
+      <c r="C8" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="11">
+        <v>750</v>
+      </c>
+      <c r="F8" s="12">
+        <v>4</v>
+      </c>
+      <c r="G8" s="13">
+        <v>14.7</v>
+      </c>
+      <c r="H8" s="12">
+        <v>4</v>
+      </c>
+      <c r="I8" s="52">
+        <f t="shared" si="0"/>
+        <v>58.8</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="37" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="103"/>
-    </row>
-    <row r="9" spans="1:12" s="59" customFormat="1">
+      <c r="M8" s="18"/>
+      <c r="N8" s="125"/>
+    </row>
+    <row r="9" spans="1:14" s="59" customFormat="1">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -3349,37 +3634,38 @@
         <v>21</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="12">
+        <v>42</v>
+      </c>
+      <c r="G9" s="13">
+        <v>5</v>
+      </c>
+      <c r="H9" s="12">
+        <v>5</v>
+      </c>
+      <c r="I9" s="52">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E9" s="11">
-        <f>E10</f>
-        <v>420</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13">
-        <v>9.5</v>
-      </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="52">
-        <f t="shared" ref="I9:I25" si="0">H9*G9</f>
-        <v>9.5</v>
-      </c>
       <c r="J9" s="35" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="K9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="104"/>
-    </row>
-    <row r="10" spans="1:12" s="59" customFormat="1">
+      <c r="L9" s="102"/>
+      <c r="M9" s="124" t="s">
+        <v>309</v>
+      </c>
+      <c r="N9" s="125"/>
+    </row>
+    <row r="10" spans="1:14" s="59" customFormat="1">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -3387,572 +3673,616 @@
         <v>21</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="11">
-        <v>420</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E10" s="9"/>
       <c r="F10" s="12">
         <v>4</v>
       </c>
       <c r="G10" s="13">
-        <v>10.54</v>
+        <v>10</v>
       </c>
       <c r="H10" s="12">
         <v>4</v>
       </c>
       <c r="I10" s="52">
         <f t="shared" si="0"/>
-        <v>42.16</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>26</v>
+        <v>40</v>
+      </c>
+      <c r="J10" s="79" t="s">
+        <v>264</v>
       </c>
       <c r="K10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="105"/>
-    </row>
-    <row r="11" spans="1:12" s="59" customFormat="1">
+      <c r="L10" s="104"/>
+      <c r="M10" s="127" t="s">
+        <v>310</v>
+      </c>
+      <c r="N10" s="125"/>
+    </row>
+    <row r="11" spans="1:14" s="59" customFormat="1">
       <c r="A11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="11">
-        <v>480</v>
-      </c>
-      <c r="F11" s="12">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="9">
+        <v>350</v>
+      </c>
+      <c r="F11" s="19">
+        <v>3</v>
       </c>
       <c r="G11" s="13">
-        <v>11.121</v>
-      </c>
-      <c r="H11" s="12">
-        <v>4</v>
+        <v>15.6</v>
+      </c>
+      <c r="H11" s="19">
+        <v>3</v>
       </c>
       <c r="I11" s="52">
-        <f t="shared" si="0"/>
-        <v>44.484000000000002</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>30</v>
+        <f>H11*G11</f>
+        <v>46.8</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>228</v>
       </c>
       <c r="K11" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="104"/>
-    </row>
-    <row r="12" spans="1:12" s="59" customFormat="1">
+        <v>66</v>
+      </c>
+      <c r="L11" s="105"/>
+      <c r="M11" s="127" t="s">
+        <v>311</v>
+      </c>
+      <c r="N11" s="125"/>
+    </row>
+    <row r="12" spans="1:14" s="59" customFormat="1">
       <c r="A12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="11">
-        <v>750</v>
-      </c>
-      <c r="F12" s="12">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="9">
+        <v>400</v>
+      </c>
+      <c r="F12" s="19">
+        <v>2</v>
       </c>
       <c r="G12" s="13">
-        <v>14.7</v>
-      </c>
-      <c r="H12" s="12">
-        <v>4</v>
+        <v>17.5</v>
+      </c>
+      <c r="H12" s="19">
+        <v>2</v>
       </c>
       <c r="I12" s="52">
-        <f t="shared" si="0"/>
-        <v>58.8</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>32</v>
+        <f>H12*G12</f>
+        <v>35</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>229</v>
       </c>
       <c r="K12" s="37" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="L12" s="105"/>
-    </row>
-    <row r="13" spans="1:12" s="59" customFormat="1">
+      <c r="M12" s="127" t="s">
+        <v>312</v>
+      </c>
+      <c r="N12" s="125"/>
+    </row>
+    <row r="13" spans="1:14" s="59" customFormat="1">
       <c r="A13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="12">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="9">
+        <v>400</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
       </c>
       <c r="G13" s="13">
-        <v>5</v>
-      </c>
-      <c r="H13" s="12">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1</v>
       </c>
       <c r="I13" s="52">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>206</v>
+        <f>H13*G13</f>
+        <v>16</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>230</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="104"/>
-    </row>
-    <row r="14" spans="1:12" s="59" customFormat="1">
+        <v>66</v>
+      </c>
+      <c r="L13" s="105"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="125"/>
+    </row>
+    <row r="14" spans="1:14" s="59" customFormat="1" ht="15.75" thickBot="1">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>263</v>
+      <c r="C14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>315</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="12">
-        <v>4</v>
-      </c>
-      <c r="G14" s="13">
-        <v>10</v>
-      </c>
-      <c r="H14" s="12">
-        <v>4</v>
-      </c>
-      <c r="I14" s="52">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="F14" s="19"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="116">
+        <f>SUBTOTAL(109,I4:I13)</f>
+        <v>325.74400000000003</v>
       </c>
       <c r="J14" s="79" t="s">
-        <v>264</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="106"/>
-    </row>
-    <row r="15" spans="1:12" s="59" customFormat="1">
-      <c r="A15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="E15" s="9">
-        <v>350</v>
-      </c>
-      <c r="F15" s="19">
-        <v>3</v>
-      </c>
-      <c r="G15" s="13">
-        <v>15.6</v>
-      </c>
-      <c r="H15" s="19">
-        <v>3</v>
-      </c>
-      <c r="I15" s="52">
-        <f>H15*G15</f>
-        <v>46.8</v>
-      </c>
-      <c r="J15" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="K15" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="107"/>
-    </row>
-    <row r="16" spans="1:12" s="59" customFormat="1">
+        <v>316</v>
+      </c>
+      <c r="K14" s="37"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="125"/>
+    </row>
+    <row r="15" spans="1:14" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="120" t="s">
+        <v>320</v>
+      </c>
+      <c r="E15" s="94"/>
+      <c r="F15" s="97">
+        <v>1</v>
+      </c>
+      <c r="G15" s="98">
+        <v>564</v>
+      </c>
+      <c r="H15" s="97">
+        <v>1</v>
+      </c>
+      <c r="I15" s="114">
+        <f>Table1[[#This Row],[Pack Price $]]*Table1[[#This Row],[Pack Order Quantity]]</f>
+        <v>564</v>
+      </c>
+      <c r="J15" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="106"/>
+      <c r="M15" s="131" t="s">
+        <v>321</v>
+      </c>
+      <c r="N15" s="132"/>
+    </row>
+    <row r="16" spans="1:14" s="59" customFormat="1">
       <c r="A16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>159</v>
+        <v>20</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="E16" s="9">
-        <v>400</v>
-      </c>
-      <c r="F16" s="19">
-        <v>2</v>
+        <v>410</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
       </c>
       <c r="G16" s="13">
-        <v>17.5</v>
-      </c>
-      <c r="H16" s="19">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1</v>
       </c>
       <c r="I16" s="52">
         <f>H16*G16</f>
+        <v>20</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="107"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="132"/>
+    </row>
+    <row r="17" spans="1:14" s="59" customFormat="1">
+      <c r="A17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" s="9">
+        <v>230</v>
+      </c>
+      <c r="F17" s="12">
+        <v>4</v>
+      </c>
+      <c r="G17" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="H17" s="12">
+        <v>2</v>
+      </c>
+      <c r="I17" s="52">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="J16" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="K16" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="107"/>
-    </row>
-    <row r="17" spans="1:12" s="59" customFormat="1">
-      <c r="A17" s="8" t="s">
+      <c r="J17" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="107"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="125"/>
+    </row>
+    <row r="18" spans="1:14" s="59" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="9">
+        <v>350</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1225</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1225</v>
+      </c>
+      <c r="I18" s="52">
+        <v>104</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="107"/>
+      <c r="M18" s="131" t="s">
+        <v>322</v>
+      </c>
+      <c r="N18" s="132"/>
+    </row>
+    <row r="19" spans="1:14" s="59" customFormat="1">
+      <c r="A19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="9">
+        <v>330</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13">
         <v>46</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="9">
-        <v>400</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13">
-        <v>16</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1</v>
-      </c>
-      <c r="I17" s="52">
-        <f>H17*G17</f>
-        <v>16</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="K17" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="107"/>
-    </row>
-    <row r="18" spans="1:12" s="59" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="52">
-        <f>SUBTOTAL(109,I8:I17)</f>
-        <v>325.74400000000003</v>
-      </c>
-      <c r="J18" s="79" t="s">
-        <v>317</v>
-      </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="107"/>
-    </row>
-    <row r="19" spans="1:12" s="59" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A19" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="95" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="E19" s="95"/>
-      <c r="F19" s="98">
-        <v>1</v>
-      </c>
-      <c r="G19" s="99">
-        <v>500</v>
-      </c>
-      <c r="H19" s="98">
-        <v>1</v>
-      </c>
-      <c r="I19" s="100">
-        <f t="shared" ref="I19" si="1">H19*G19</f>
-        <v>500</v>
-      </c>
-      <c r="J19" s="101" t="s">
-        <v>222</v>
-      </c>
-      <c r="K19" s="102" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="108"/>
-    </row>
-    <row r="20" spans="1:12" s="59" customFormat="1">
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
+      <c r="I19" s="52">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="105" t="s">
+        <v>239</v>
+      </c>
+      <c r="M19" s="131"/>
+      <c r="N19" s="132"/>
+    </row>
+    <row r="20" spans="1:14" s="59" customFormat="1">
       <c r="A20" s="8" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="9">
-        <v>410</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G20" s="13">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H20" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="52">
-        <f>H20*G20</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>246</v>
+        <v>54</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L20" s="109"/>
-    </row>
-    <row r="21" spans="1:12" s="59" customFormat="1">
-      <c r="A21" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="107"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="125"/>
+    </row>
+    <row r="21" spans="1:14" s="59" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="E21" s="9">
-        <v>230</v>
-      </c>
+      <c r="C21" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21" s="13">
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="H21" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="52">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="J21" s="68" t="s">
-        <v>245</v>
-      </c>
-      <c r="K21" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="L21" s="109"/>
-    </row>
-    <row r="22" spans="1:12" s="59" customFormat="1">
+        <v>3</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="107"/>
+      <c r="M21" s="131" t="s">
+        <v>323</v>
+      </c>
+      <c r="N21" s="132"/>
+    </row>
+    <row r="22" spans="1:14" s="59" customFormat="1">
       <c r="A22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="9">
-        <v>350</v>
-      </c>
-      <c r="F22" s="12">
-        <v>1225</v>
+        <v>111</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="19">
+        <v>1</v>
       </c>
       <c r="G22" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="H22" s="12">
-        <v>1225</v>
+        <v>145</v>
+      </c>
+      <c r="H22" s="19">
+        <v>1</v>
       </c>
       <c r="I22" s="52">
-        <v>104</v>
+        <f t="shared" ref="I22:I49" si="1">H22*G22</f>
+        <v>145</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="109"/>
-    </row>
-    <row r="23" spans="1:12" s="59" customFormat="1">
+        <v>114</v>
+      </c>
+      <c r="L22" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22" s="131"/>
+      <c r="N22" s="132"/>
+    </row>
+    <row r="23" spans="1:14" s="59" customFormat="1">
       <c r="A23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="E23" s="9">
-        <v>330</v>
-      </c>
-      <c r="F23" s="12">
+        <v>111</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="19">
         <v>1</v>
       </c>
       <c r="G23" s="13">
-        <v>46</v>
-      </c>
-      <c r="H23" s="12">
+        <v>23</v>
+      </c>
+      <c r="H23" s="19">
         <v>1</v>
       </c>
       <c r="I23" s="52">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>240</v>
+        <v>117</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="107" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="59" customFormat="1">
+        <v>118</v>
+      </c>
+      <c r="L23" s="107"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="125"/>
+    </row>
+    <row r="24" spans="1:14" s="59" customFormat="1">
       <c r="A24" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>53</v>
+        <v>111</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="12">
-        <v>6</v>
+      <c r="F24" s="19">
+        <v>1</v>
       </c>
       <c r="G24" s="13">
-        <v>3</v>
-      </c>
-      <c r="H24" s="12">
-        <v>2</v>
+        <v>7.5</v>
+      </c>
+      <c r="H24" s="19">
+        <v>1</v>
       </c>
       <c r="I24" s="52">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>7.5</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L24" s="109"/>
-    </row>
-    <row r="25" spans="1:12" s="59" customFormat="1">
+        <v>122</v>
+      </c>
+      <c r="L24" s="107"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="125"/>
+    </row>
+    <row r="25" spans="1:14" s="59" customFormat="1">
       <c r="A25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="12">
-        <v>3</v>
+        <v>111</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="9">
+        <v>300</v>
+      </c>
+      <c r="F25" s="19">
+        <v>1</v>
       </c>
       <c r="G25" s="13">
-        <v>3</v>
-      </c>
-      <c r="H25" s="12">
+        <v>78.39</v>
+      </c>
+      <c r="H25" s="19">
         <v>1</v>
       </c>
       <c r="I25" s="52">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>78.39</v>
+      </c>
+      <c r="J25" s="69" t="s">
+        <v>250</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25" s="109"/>
-    </row>
-    <row r="26" spans="1:12" s="59" customFormat="1">
+        <v>219</v>
+      </c>
+      <c r="L25" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="M25" s="129"/>
+      <c r="N25" s="125"/>
+    </row>
+    <row r="26" spans="1:14" s="59" customFormat="1">
       <c r="A26" s="8" t="s">
         <v>111</v>
       </c>
@@ -3960,36 +4290,38 @@
         <v>112</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>249</v>
+        <v>119</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="13">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="H26" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="52">
-        <f t="shared" ref="I26:I53" si="2">H26*G26</f>
-        <v>145</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>248</v>
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="J26" s="70" t="s">
+        <v>251</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L26" s="107" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="59" customFormat="1">
+        <v>143</v>
+      </c>
+      <c r="L26" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="M26" s="129"/>
+      <c r="N26" s="125"/>
+    </row>
+    <row r="27" spans="1:14" s="59" customFormat="1">
       <c r="A27" s="8" t="s">
         <v>111</v>
       </c>
@@ -3997,252 +4329,260 @@
         <v>112</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>116</v>
+        <v>130</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>244</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="19">
         <v>1</v>
       </c>
       <c r="G27" s="13">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="H27" s="19">
         <v>1</v>
       </c>
       <c r="I27" s="52">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>117</v>
+        <f>H27*G27</f>
+        <v>3</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="L27" s="109"/>
-    </row>
-    <row r="28" spans="1:12" s="59" customFormat="1">
+        <v>131</v>
+      </c>
+      <c r="L27" s="107"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="125"/>
+    </row>
+    <row r="28" spans="1:14" s="59" customFormat="1">
       <c r="A28" s="8" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>120</v>
+        <v>127</v>
+      </c>
+      <c r="D28" s="115" t="s">
+        <v>317</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="19">
         <v>1</v>
       </c>
       <c r="G28" s="13">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="H28" s="19">
         <v>1</v>
       </c>
       <c r="I28" s="52">
-        <f t="shared" si="2"/>
-        <v>7.5</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="L28" s="109"/>
-    </row>
-    <row r="29" spans="1:12" s="59" customFormat="1">
+      <c r="L28" s="107"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="125"/>
+    </row>
+    <row r="29" spans="1:14" s="59" customFormat="1">
       <c r="A29" s="8" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E29" s="9">
-        <v>300</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" s="9"/>
       <c r="F29" s="19">
         <v>1</v>
       </c>
       <c r="G29" s="13">
-        <v>78.39</v>
+        <v>2</v>
       </c>
       <c r="H29" s="19">
         <v>1</v>
       </c>
       <c r="I29" s="52">
-        <f t="shared" si="2"/>
-        <v>78.39</v>
-      </c>
-      <c r="J29" s="69" t="s">
-        <v>250</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="L29" s="107" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="59" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="M29" s="129"/>
+      <c r="N29" s="125"/>
+    </row>
+    <row r="30" spans="1:14" s="59" customFormat="1">
       <c r="A30" s="8" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>124</v>
+        <v>133</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>253</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="13">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H30" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="52">
-        <f t="shared" si="2"/>
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="J30" s="70" t="s">
-        <v>251</v>
-      </c>
-      <c r="K30" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="K30" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="L30" s="107" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="59" customFormat="1">
+      <c r="L30" s="107"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="125"/>
+    </row>
+    <row r="31" spans="1:14" s="59" customFormat="1">
       <c r="A31" s="8" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>244</v>
+        <v>236</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>237</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="19">
         <v>1</v>
       </c>
       <c r="G31" s="13">
-        <v>3</v>
+        <v>13.5</v>
       </c>
       <c r="H31" s="19">
         <v>1</v>
       </c>
       <c r="I31" s="52">
-        <f>H31*G31</f>
-        <v>3</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="L31" s="109"/>
-    </row>
-    <row r="32" spans="1:12" s="59" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="L31" s="107"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="125"/>
+    </row>
+    <row r="32" spans="1:14" s="59" customFormat="1">
       <c r="A32" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="19">
         <v>1</v>
       </c>
       <c r="G32" s="13">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="H32" s="19">
         <v>1</v>
       </c>
       <c r="I32" s="52">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>129</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J32" s="68" t="s">
+        <v>134</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L32" s="109"/>
-    </row>
-    <row r="33" spans="1:12" s="59" customFormat="1">
+        <v>135</v>
+      </c>
+      <c r="L32" s="107"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="125"/>
+    </row>
+    <row r="33" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="19">
         <v>1</v>
       </c>
       <c r="G33" s="13">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="H33" s="19">
         <v>1</v>
       </c>
       <c r="I33" s="52">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="K33" s="60" t="s">
-        <v>252</v>
-      </c>
-      <c r="L33" s="107" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="59" customFormat="1">
+        <f>H33*G33</f>
+        <v>3.75</v>
+      </c>
+      <c r="J33" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L33" s="108"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="125"/>
+    </row>
+    <row r="34" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A34" s="8" t="s">
         <v>126</v>
       </c>
@@ -4250,244 +4590,258 @@
         <v>132</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>253</v>
+        <v>36</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>300</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="13">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H34" s="19">
         <v>1</v>
       </c>
       <c r="I34" s="52">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="J34" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="K34" s="60" t="s">
+        <f>H34*G34</f>
+        <v>10</v>
+      </c>
+      <c r="J34" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="K34" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="L34" s="109"/>
-    </row>
-    <row r="35" spans="1:12" s="59" customFormat="1">
+      <c r="L34" s="108"/>
+      <c r="M34" s="129"/>
+      <c r="N34" s="125"/>
+    </row>
+    <row r="35" spans="1:14" s="59" customFormat="1">
       <c r="A35" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>236</v>
+        <v>46</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>47</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="E35" s="9"/>
-      <c r="F35" s="19">
-        <v>1</v>
+      <c r="F35" s="12">
+        <v>5</v>
       </c>
       <c r="G35" s="13">
-        <v>13.5</v>
-      </c>
-      <c r="H35" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="H35" s="12">
         <v>1</v>
       </c>
       <c r="I35" s="52">
-        <f t="shared" si="2"/>
-        <v>13.5</v>
+        <f>H35*G35</f>
+        <v>1.2</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K35" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="L35" s="109"/>
-    </row>
-    <row r="36" spans="1:12" s="59" customFormat="1">
+        <v>49</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L35" s="107"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="125"/>
+    </row>
+    <row r="36" spans="1:14" s="59" customFormat="1">
       <c r="A36" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>255</v>
+        <v>46</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="19">
-        <v>1</v>
+      <c r="F36" s="12">
+        <v>12</v>
       </c>
       <c r="G36" s="13">
-        <v>80</v>
-      </c>
-      <c r="H36" s="19">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H36" s="12">
+        <v>3</v>
       </c>
       <c r="I36" s="52">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="J36" s="68" t="s">
-        <v>134</v>
+        <f>H36*G36</f>
+        <v>9</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="L36" s="109"/>
-    </row>
-    <row r="37" spans="1:12" s="59" customFormat="1" ht="14.45" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="L36" s="107"/>
+      <c r="M36" s="129"/>
+      <c r="N36" s="125"/>
+    </row>
+    <row r="37" spans="1:14" s="59" customFormat="1">
       <c r="A37" s="8" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>301</v>
+        <v>138</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="19">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G37" s="13">
-        <v>3.75</v>
+        <v>59</v>
       </c>
       <c r="H37" s="19">
         <v>1</v>
       </c>
       <c r="I37" s="52">
-        <f>H37*G37</f>
-        <v>3.75</v>
-      </c>
-      <c r="J37" s="68" t="s">
-        <v>302</v>
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L37" s="110"/>
-    </row>
-    <row r="38" spans="1:12" s="59" customFormat="1" ht="14.45" customHeight="1">
+        <v>122</v>
+      </c>
+      <c r="L37" s="107"/>
+      <c r="M37" s="129"/>
+      <c r="N37" s="125"/>
+    </row>
+    <row r="38" spans="1:14" s="59" customFormat="1">
       <c r="A38" s="8" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>301</v>
+        <v>141</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G38" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H38" s="19">
         <v>10</v>
       </c>
-      <c r="H38" s="19">
-        <v>1</v>
-      </c>
       <c r="I38" s="52">
-        <f>H38*G38</f>
-        <v>10</v>
-      </c>
-      <c r="J38" s="68" t="s">
-        <v>303</v>
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="K38" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="L38" s="110"/>
-    </row>
-    <row r="39" spans="1:12" s="59" customFormat="1">
+      <c r="L38" s="107"/>
+      <c r="M38" s="129"/>
+      <c r="N38" s="125"/>
+    </row>
+    <row r="39" spans="1:14" s="59" customFormat="1">
       <c r="A39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>47</v>
+      <c r="B39" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="E39" s="9"/>
-      <c r="F39" s="12">
+      <c r="F39" s="19">
         <v>5</v>
       </c>
       <c r="G39" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="H39" s="12">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H39" s="19">
+        <v>5</v>
       </c>
       <c r="I39" s="52">
-        <f>H39*G39</f>
-        <v>1.2</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L39" s="109"/>
-    </row>
-    <row r="40" spans="1:12" s="59" customFormat="1">
+        <v>143</v>
+      </c>
+      <c r="L39" s="107"/>
+      <c r="M39" s="129"/>
+      <c r="N39" s="125"/>
+    </row>
+    <row r="40" spans="1:14" s="59" customFormat="1">
       <c r="A40" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>51</v>
+      <c r="B40" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="E40" s="9"/>
-      <c r="F40" s="12">
-        <v>12</v>
+      <c r="F40" s="19">
+        <v>5</v>
       </c>
       <c r="G40" s="13">
-        <v>3</v>
-      </c>
-      <c r="H40" s="12">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="H40" s="19">
+        <v>5</v>
       </c>
       <c r="I40" s="52">
-        <f>H40*G40</f>
-        <v>9</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L40" s="109"/>
-    </row>
-    <row r="41" spans="1:12" s="59" customFormat="1">
+        <v>143</v>
+      </c>
+      <c r="L40" s="107"/>
+      <c r="M40" s="129"/>
+      <c r="N40" s="125"/>
+    </row>
+    <row r="41" spans="1:14" s="59" customFormat="1">
       <c r="A41" s="8" t="s">
         <v>46</v>
       </c>
@@ -4495,34 +4849,38 @@
         <v>136</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="E41" s="9">
+        <v>200</v>
+      </c>
       <c r="F41" s="19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G41" s="13">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="H41" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" s="52">
-        <f t="shared" si="2"/>
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L41" s="109"/>
-    </row>
-    <row r="42" spans="1:12" s="59" customFormat="1">
+        <v>152</v>
+      </c>
+      <c r="L41" s="107"/>
+      <c r="M41" s="129"/>
+      <c r="N41" s="125"/>
+    </row>
+    <row r="42" spans="1:14" s="59" customFormat="1">
       <c r="A42" s="8" t="s">
         <v>46</v>
       </c>
@@ -4530,750 +4888,644 @@
         <v>136</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G42" s="13">
-        <v>4.0999999999999996</v>
+        <v>14.5</v>
       </c>
       <c r="H42" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I42" s="52">
-        <f t="shared" si="2"/>
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>72.5</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L42" s="109"/>
-    </row>
-    <row r="43" spans="1:12" s="59" customFormat="1">
+        <v>156</v>
+      </c>
+      <c r="L42" s="108"/>
+      <c r="M42" s="129"/>
+      <c r="N42" s="125"/>
+    </row>
+    <row r="43" spans="1:14" s="59" customFormat="1">
       <c r="A43" s="8" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="19">
         <v>5</v>
       </c>
       <c r="G43" s="13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H43" s="19">
         <v>5</v>
       </c>
       <c r="I43" s="52">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="K43" s="15" t="s">
-        <v>143</v>
+        <v>161</v>
+      </c>
+      <c r="K43" s="119" t="s">
+        <v>295</v>
       </c>
       <c r="L43" s="109"/>
-    </row>
-    <row r="44" spans="1:12" s="59" customFormat="1">
+      <c r="M43" s="129"/>
+      <c r="N43" s="125"/>
+    </row>
+    <row r="44" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>147</v>
+        <v>166</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>198</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="19">
         <v>5</v>
       </c>
       <c r="G44" s="13">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H44" s="19">
         <v>5</v>
       </c>
       <c r="I44" s="52">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>125</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="K44" s="15" t="s">
-        <v>143</v>
+        <v>161</v>
+      </c>
+      <c r="K44" s="119" t="s">
+        <v>295</v>
       </c>
       <c r="L44" s="109"/>
-    </row>
-    <row r="45" spans="1:12" s="59" customFormat="1">
+      <c r="M44" s="129"/>
+      <c r="N44" s="125"/>
+    </row>
+    <row r="45" spans="1:14" s="59" customFormat="1">
       <c r="A45" s="8" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>150</v>
+        <v>165</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>226</v>
       </c>
       <c r="E45" s="9">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F45" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45" s="13">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H45" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" s="52">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>151</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>227</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="L45" s="109"/>
-    </row>
-    <row r="46" spans="1:12" s="59" customFormat="1">
+        <v>296</v>
+      </c>
+      <c r="L45" s="108"/>
+      <c r="M45" s="129"/>
+      <c r="N45" s="125"/>
+    </row>
+    <row r="46" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>153</v>
+        <v>297</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>154</v>
+        <v>298</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="19">
         <v>5</v>
       </c>
       <c r="G46" s="13">
-        <v>14.5</v>
+        <v>3.23</v>
       </c>
       <c r="H46" s="19">
         <v>5</v>
       </c>
       <c r="I46" s="52">
-        <f t="shared" si="2"/>
-        <v>72.5</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>155</v>
+        <f>H46*G46</f>
+        <v>16.149999999999999</v>
+      </c>
+      <c r="J46" s="68" t="s">
+        <v>299</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="L46" s="110"/>
-    </row>
-    <row r="47" spans="1:12" s="59" customFormat="1">
+        <v>304</v>
+      </c>
+      <c r="L46" s="108"/>
+      <c r="M46" s="129"/>
+      <c r="N46" s="125"/>
+    </row>
+    <row r="47" spans="1:14" s="59" customFormat="1">
       <c r="A47" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G47" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H47" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I47" s="52">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="K47" s="81" t="s">
-        <v>296</v>
-      </c>
-      <c r="L47" s="111"/>
-    </row>
-    <row r="48" spans="1:12" s="59" customFormat="1" ht="14.45" customHeight="1">
+        <v>179</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="L47" s="108"/>
+      <c r="M47" s="129"/>
+      <c r="N47" s="125"/>
+    </row>
+    <row r="48" spans="1:14" s="59" customFormat="1">
       <c r="A48" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>198</v>
+        <v>162</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>190</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G48" s="13">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H48" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I48" s="52">
-        <f t="shared" si="2"/>
-        <v>125</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="K48" s="81" t="s">
-        <v>296</v>
-      </c>
-      <c r="L48" s="111"/>
-    </row>
-    <row r="49" spans="1:12" s="59" customFormat="1">
+        <v>191</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="L48" s="108"/>
+      <c r="M48" s="129"/>
+      <c r="N48" s="125"/>
+    </row>
+    <row r="49" spans="1:14" s="59" customFormat="1">
       <c r="A49" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="E49" s="9">
-        <v>300</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" s="9"/>
       <c r="F49" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="13">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H49" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" s="52">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="L49" s="110"/>
-    </row>
-    <row r="50" spans="1:12" s="59" customFormat="1" ht="14.45" customHeight="1">
+        <v>234</v>
+      </c>
+      <c r="L49" s="108"/>
+      <c r="M49" s="129"/>
+      <c r="N49" s="125"/>
+    </row>
+    <row r="50" spans="1:14" s="59" customFormat="1">
       <c r="A50" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>298</v>
+        <v>130</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>299</v>
+        <v>195</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G50" s="13">
-        <v>3.23</v>
+        <f>(3+0.96)</f>
+        <v>3.96</v>
       </c>
       <c r="H50" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I50" s="52">
-        <f>H50*G50</f>
-        <v>16.149999999999999</v>
-      </c>
-      <c r="J50" s="68" t="s">
-        <v>300</v>
+        <f t="shared" ref="I50" si="2">H50*G50</f>
+        <v>3.96</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="L50" s="110"/>
-    </row>
-    <row r="51" spans="1:12" s="59" customFormat="1">
+        <v>233</v>
+      </c>
+      <c r="L50" s="108"/>
+      <c r="M50" s="129"/>
+      <c r="N50" s="125"/>
+    </row>
+    <row r="51" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>112</v>
+        <v>284</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>177</v>
+        <v>285</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="19">
         <v>1</v>
       </c>
       <c r="G51" s="13">
-        <v>3</v>
+        <v>3.72</v>
       </c>
       <c r="H51" s="19">
         <v>1</v>
       </c>
       <c r="I51" s="52">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J51" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="K51" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="L51" s="110"/>
-    </row>
-    <row r="52" spans="1:12" s="59" customFormat="1">
+        <f t="shared" ref="I51:I54" si="3">H51*G51</f>
+        <v>3.72</v>
+      </c>
+      <c r="J51" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="K51" s="118" t="s">
+        <v>319</v>
+      </c>
+      <c r="L51" s="108"/>
+      <c r="M51" s="129"/>
+      <c r="N51" s="125"/>
+    </row>
+    <row r="52" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>112</v>
+        <v>284</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>190</v>
+        <v>293</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="19">
         <v>1</v>
       </c>
       <c r="G52" s="13">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H52" s="19">
         <v>1</v>
       </c>
       <c r="I52" s="52">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="J52" s="17" t="s">
-        <v>191</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>287</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="L52" s="110"/>
-    </row>
-    <row r="53" spans="1:12" s="59" customFormat="1">
+        <v>319</v>
+      </c>
+      <c r="L52" s="108"/>
+      <c r="M52" s="129"/>
+      <c r="N52" s="125"/>
+    </row>
+    <row r="53" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>112</v>
+        <v>284</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>193</v>
+        <v>288</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="19">
         <v>1</v>
       </c>
       <c r="G53" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H53" s="19">
         <v>1</v>
       </c>
       <c r="I53" s="52">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="L53" s="110"/>
-    </row>
-    <row r="54" spans="1:12" s="59" customFormat="1">
+        <v>319</v>
+      </c>
+      <c r="L53" s="108"/>
+      <c r="M53" s="129"/>
+      <c r="N53" s="125"/>
+    </row>
+    <row r="54" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>112</v>
+        <v>284</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>195</v>
+        <v>292</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="19">
         <v>1</v>
       </c>
       <c r="G54" s="13">
-        <f>(3+0.96)</f>
-        <v>3.96</v>
+        <v>3</v>
       </c>
       <c r="H54" s="19">
         <v>1</v>
       </c>
       <c r="I54" s="52">
-        <f t="shared" ref="I54" si="3">H54*G54</f>
-        <v>3.96</v>
-      </c>
-      <c r="J54" s="14" t="s">
-        <v>196</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J54" s="68" t="s">
+        <v>290</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="L54" s="110"/>
-    </row>
-    <row r="55" spans="1:12" s="59" customFormat="1" ht="14.45" customHeight="1">
+        <v>319</v>
+      </c>
+      <c r="L54" s="108"/>
+      <c r="M54" s="129"/>
+      <c r="N54" s="125"/>
+    </row>
+    <row r="55" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>285</v>
+        <v>208</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="19">
         <v>1</v>
       </c>
       <c r="G55" s="13">
-        <v>3.72</v>
+        <v>21.5</v>
       </c>
       <c r="H55" s="19">
         <v>1</v>
       </c>
       <c r="I55" s="52">
-        <f t="shared" ref="I55:I58" si="4">H55*G55</f>
-        <v>3.72</v>
+        <f>G55*H55</f>
+        <v>21.5</v>
       </c>
       <c r="J55" s="68" t="s">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="K55" s="15" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="L55" s="110"/>
-    </row>
-    <row r="56" spans="1:12" s="59" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A56" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="19">
-        <v>1</v>
-      </c>
-      <c r="G56" s="13">
+      <c r="M55" s="129"/>
+      <c r="N55" s="125"/>
+    </row>
+    <row r="56" spans="1:14" s="59" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A56" s="112"/>
+      <c r="B56" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="D56" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="E56" s="87"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="88">
+        <v>1</v>
+      </c>
+      <c r="I56" s="90">
+        <f>'Hardware List'!F47</f>
+        <v>238.46999999999997</v>
+      </c>
+      <c r="J56" s="91"/>
+      <c r="K56" s="92"/>
+      <c r="L56" s="111"/>
+      <c r="M56" s="129"/>
+      <c r="N56" s="125"/>
+    </row>
+    <row r="57" spans="1:14" s="7" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A57" s="61"/>
+      <c r="B57" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="H56" s="19">
-        <v>1</v>
-      </c>
-      <c r="I56" s="52">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J56" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="K56" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="L56" s="110"/>
-    </row>
-    <row r="57" spans="1:12" s="59" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A57" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="19">
-        <v>1</v>
-      </c>
-      <c r="G57" s="13">
-        <v>3</v>
-      </c>
-      <c r="H57" s="19">
-        <v>1</v>
-      </c>
-      <c r="I57" s="52">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J57" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="K57" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="L57" s="110"/>
-    </row>
-    <row r="58" spans="1:12" s="59" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A58" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="19">
-        <v>1</v>
-      </c>
-      <c r="G58" s="13">
-        <v>3</v>
-      </c>
-      <c r="H58" s="19">
-        <v>1</v>
-      </c>
-      <c r="I58" s="52">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J58" s="68" t="s">
-        <v>291</v>
-      </c>
-      <c r="K58" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="L58" s="110"/>
-    </row>
-    <row r="59" spans="1:12" s="59" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="19">
-        <v>1</v>
-      </c>
-      <c r="G59" s="13">
-        <v>21.5</v>
-      </c>
-      <c r="H59" s="19">
-        <v>1</v>
-      </c>
-      <c r="I59" s="52">
-        <f>G59*H59</f>
-        <v>21.5</v>
-      </c>
-      <c r="J59" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="K59" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="L59" s="112"/>
-    </row>
-    <row r="60" spans="1:12" s="59" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A60" s="114"/>
-      <c r="B60" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="87" t="s">
-        <v>247</v>
-      </c>
-      <c r="D60" s="86" t="s">
-        <v>280</v>
-      </c>
-      <c r="E60" s="88"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="90"/>
-      <c r="H60" s="89">
-        <v>1</v>
-      </c>
-      <c r="I60" s="91">
-        <f>'Hardware List'!F51</f>
-        <v>238.46999999999997</v>
-      </c>
-      <c r="J60" s="92"/>
-      <c r="K60" s="93"/>
-      <c r="L60" s="113"/>
-    </row>
-    <row r="61" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A61" s="61"/>
-      <c r="B61" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="D61" s="63" t="s">
+      <c r="C57" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="D57" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="65">
-        <f>SUM(I20:I60)+I18</f>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="65">
+        <f>SUM(I16:I56)+I14</f>
         <v>1849.3840000000005</v>
       </c>
-      <c r="J61" s="63"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="56"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="130"/>
+      <c r="N57" s="128"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="M21:N22"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J20" r:id="rId1" display="20X20X18MM 500MM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J23" r:id="rId3" display="Size: 310x310mm" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J39" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J40" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J25" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J26" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J28" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J29" r:id="rId11" display="1x Select Color: 220V/110V" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L30" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J32" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J31" r:id="rId14" display="1x 10Pcs Temperature: 160 degree" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J34" r:id="rId15" display="Color: Dragon-Standard flow" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J36" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J42" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J43" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J44" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J45" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J46" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J51" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J52" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J53" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J54" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J33" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J30" r:id="rId28" display="Genuine Omron Solid State Relay" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L29" r:id="rId29" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L26" r:id="rId30" display="1x TMC2209 x8" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="L33" r:id="rId31" display="1x ADXL345 Accelerometer" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J47" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J48" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J49" r:id="rId34" display="TBD" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J35" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="L23" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J19" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J59" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J56" r:id="rId39" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J57" r:id="rId40" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J58" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J55" r:id="rId42" xr:uid="{AA63318B-CE23-4460-98F0-9BED57088735}"/>
-    <hyperlink ref="J50" r:id="rId43" xr:uid="{C73F053A-AB99-4F9A-AB96-34675FD56AAD}"/>
-    <hyperlink ref="J37" r:id="rId44" xr:uid="{6B0C3554-C92C-477C-968B-C3A56DEE5BB2}"/>
-    <hyperlink ref="J38" r:id="rId45" xr:uid="{230B31B2-E3E9-4D33-8792-EA389633978B}"/>
-    <hyperlink ref="J21" r:id="rId46" xr:uid="{AE44EAD7-69DD-4806-9E2F-C1401214B95A}"/>
-    <hyperlink ref="E3" r:id="rId47" xr:uid="{35AC7568-5992-4E39-B507-D7C99E96158E}"/>
-    <hyperlink ref="E4" r:id="rId48" xr:uid="{0CBCDAE2-9212-4C0E-8617-5E69172D3200}"/>
-    <hyperlink ref="E5" r:id="rId49" xr:uid="{6CF5FDA2-DDFD-4F44-BE41-A8C117B9F80B}"/>
-    <hyperlink ref="J8" r:id="rId50" xr:uid="{DEB61E4F-1486-491A-838D-61337A0DB5B3}"/>
-    <hyperlink ref="J9" r:id="rId51" xr:uid="{B0B2353F-D76B-49D2-92E2-924AA7C3940B}"/>
-    <hyperlink ref="J10" r:id="rId52" xr:uid="{A49E22B6-E552-4BE6-8729-184F520A838F}"/>
-    <hyperlink ref="J11" r:id="rId53" xr:uid="{47004657-0518-4245-B471-B34B5125E399}"/>
-    <hyperlink ref="J12" r:id="rId54" xr:uid="{6BAD6695-28C3-4B6D-8A72-B08E82F940DF}"/>
-    <hyperlink ref="J13" r:id="rId55" display="Color: 10pcs 2028" xr:uid="{C4B95C3B-16B9-4394-9F39-5B9FF78AC176}"/>
-    <hyperlink ref="J15" r:id="rId56" display="3x GL: 350 - Color: MGN12 H" xr:uid="{9DCC9853-4D9E-4093-9D52-2A218587FDA4}"/>
-    <hyperlink ref="J16" r:id="rId57" display="2x GL: 400 - Color: MGN12 H" xr:uid="{A43DD5EF-D822-48AA-A6D3-DB6211D18B07}"/>
-    <hyperlink ref="J17" r:id="rId58" display="1x GL: 400 - Color: MGN9 H" xr:uid="{792C8BB0-E4E5-4DDC-8020-C3F9BE9E4B2E}"/>
-    <hyperlink ref="J14" r:id="rId59" xr:uid="{3FB75D13-E1B1-4B85-B99D-0379606A4DAC}"/>
-    <hyperlink ref="J18" r:id="rId60" xr:uid="{BBCEEBDE-1F15-4765-BD26-7DC0C65AB61B}"/>
+    <hyperlink ref="J16" r:id="rId1" display="20X20X18MM 500MM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J19" r:id="rId3" display="Size: 310x310mm" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J35" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J36" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J21" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J22" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J23" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J25" r:id="rId11" display="1x Select Color: 220V/110V" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L26" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J27" r:id="rId14" display="1x 10Pcs Temperature: 160 degree" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J30" r:id="rId15" display="Color: Dragon-Standard flow" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J32" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J37" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J38" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J39" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J40" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J41" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J42" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J47" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J48" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J50" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J26" r:id="rId28" display="Genuine Omron Solid State Relay" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L25" r:id="rId29" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L22" r:id="rId30" display="1x TMC2209 x8" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L29" r:id="rId31" display="1x ADXL345 Accelerometer" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J43" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J44" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J45" r:id="rId34" display="TBD" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J31" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J15" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J55" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J52" r:id="rId39" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J53" r:id="rId40" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J54" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J51" r:id="rId42" xr:uid="{AA63318B-CE23-4460-98F0-9BED57088735}"/>
+    <hyperlink ref="J46" r:id="rId43" xr:uid="{C73F053A-AB99-4F9A-AB96-34675FD56AAD}"/>
+    <hyperlink ref="J33" r:id="rId44" xr:uid="{6B0C3554-C92C-477C-968B-C3A56DEE5BB2}"/>
+    <hyperlink ref="J34" r:id="rId45" xr:uid="{230B31B2-E3E9-4D33-8792-EA389633978B}"/>
+    <hyperlink ref="J17" r:id="rId46" xr:uid="{AE44EAD7-69DD-4806-9E2F-C1401214B95A}"/>
+    <hyperlink ref="J4" r:id="rId47" xr:uid="{DEB61E4F-1486-491A-838D-61337A0DB5B3}"/>
+    <hyperlink ref="J5" r:id="rId48" xr:uid="{B0B2353F-D76B-49D2-92E2-924AA7C3940B}"/>
+    <hyperlink ref="J6" r:id="rId49" xr:uid="{A49E22B6-E552-4BE6-8729-184F520A838F}"/>
+    <hyperlink ref="J7" r:id="rId50" xr:uid="{47004657-0518-4245-B471-B34B5125E399}"/>
+    <hyperlink ref="J8" r:id="rId51" xr:uid="{6BAD6695-28C3-4B6D-8A72-B08E82F940DF}"/>
+    <hyperlink ref="J9" r:id="rId52" display="Color: 10pcs 2028" xr:uid="{C4B95C3B-16B9-4394-9F39-5B9FF78AC176}"/>
+    <hyperlink ref="J11" r:id="rId53" display="3x GL: 350 - Color: MGN12 H" xr:uid="{9DCC9853-4D9E-4093-9D52-2A218587FDA4}"/>
+    <hyperlink ref="J12" r:id="rId54" display="2x GL: 400 - Color: MGN12 H" xr:uid="{A43DD5EF-D822-48AA-A6D3-DB6211D18B07}"/>
+    <hyperlink ref="J13" r:id="rId55" display="1x GL: 400 - Color: MGN9 H" xr:uid="{792C8BB0-E4E5-4DDC-8020-C3F9BE9E4B2E}"/>
+    <hyperlink ref="J10" r:id="rId56" xr:uid="{3FB75D13-E1B1-4B85-B99D-0379606A4DAC}"/>
+    <hyperlink ref="J14" r:id="rId57" xr:uid="{BBCEEBDE-1F15-4765-BD26-7DC0C65AB61B}"/>
+    <hyperlink ref="M10" r:id="rId58" xr:uid="{03D23144-4452-41B9-B4B9-F51023FDC698}"/>
+    <hyperlink ref="M11" r:id="rId59" xr:uid="{410E10AD-6201-406C-BD2E-0E2A08BBF18C}"/>
+    <hyperlink ref="M12" r:id="rId60" xr:uid="{D0E8BE37-F76A-4921-AA1C-3F7A7D64A7BC}"/>
   </hyperlinks>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId61"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="68" fitToWidth="0" orientation="landscape" r:id="rId61"/>
   <drawing r:id="rId62"/>
   <legacyDrawing r:id="rId63"/>
   <tableParts count="1">
@@ -5287,16 +5539,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="4" customWidth="1"/>
@@ -5305,403 +5557,535 @@
     <col min="7" max="7" width="31.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="4" customWidth="1"/>
     <col min="9" max="10" width="7.42578125" style="4" customWidth="1"/>
-    <col min="11" max="20" width="8.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="4" customWidth="1"/>
+    <col min="13" max="20" width="8.7109375" style="4" customWidth="1"/>
     <col min="21" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27">
-      <c r="A1" s="115" t="s">
+    <row r="1" spans="1:20" ht="27.75" thickBot="1">
+      <c r="A1" s="113" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="5"/>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="G2" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="85" t="s">
-        <v>311</v>
-      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+    </row>
+    <row r="2" spans="1:20" s="7" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A2" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65">
+        <f>F47</f>
+        <v>238.46999999999997</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+    </row>
+    <row r="3" spans="1:20" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A3" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="78"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="19">
         <v>2</v>
       </c>
-      <c r="G4" s="85" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="85" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A6" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65">
-        <f>F51</f>
-        <v>238.46999999999997</v>
-      </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A7" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="19">
-        <v>2</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="D4" s="13">
         <f>(2.8+1.51)</f>
         <v>4.3099999999999996</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="52">
+        <f>E4*D4</f>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="125"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="9">
+        <v>44</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="52">
+        <f>E5*D5</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="20">
+        <v>934</v>
+      </c>
+      <c r="J5" s="73">
+        <v>4032</v>
+      </c>
+      <c r="K5" s="126" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="125"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="9">
+        <v>68</v>
+      </c>
+      <c r="D6" s="13">
+        <v>3</v>
+      </c>
+      <c r="E6" s="19">
+        <v>2</v>
+      </c>
+      <c r="F6" s="52">
+        <f>E6*D6</f>
+        <v>6</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="126" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="125"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="19">
+        <v>6</v>
+      </c>
+      <c r="D7" s="13">
+        <f>0.49</f>
+        <v>0.49</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="52">
+        <f>E7*D7</f>
+        <v>0.49</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="73">
+        <v>10511</v>
+      </c>
+      <c r="K7" s="126" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="125"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="53">
+        <v>31</v>
+      </c>
+      <c r="D8" s="54">
+        <v>0.74</v>
+      </c>
+      <c r="E8" s="53">
         <v>1</v>
       </c>
       <c r="F8" s="52">
         <f>E8*D8</f>
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="G8" s="69" t="s">
-        <v>257</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="74"/>
+        <v>0.74</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" s="75"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="125"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="9">
-        <v>44</v>
-      </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="A9" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="53">
+        <v>8</v>
+      </c>
+      <c r="D9" s="54">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E9" s="53">
         <v>1</v>
       </c>
       <c r="F9" s="52">
-        <f>E9*D9</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="15" t="s">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="20">
-        <v>934</v>
-      </c>
-      <c r="J9" s="73">
-        <v>4032</v>
-      </c>
+      <c r="I9" s="76">
+        <v>916</v>
+      </c>
+      <c r="J9" s="75"/>
+      <c r="K9" s="124" t="s">
+        <v>309</v>
+      </c>
+      <c r="L9" s="125"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="51" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" s="9">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D10" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="52">
         <f>E10*D10</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="74"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="73">
+        <v>7380</v>
+      </c>
+      <c r="K10" s="127" t="s">
+        <v>310</v>
+      </c>
+      <c r="L10" s="125"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="C11" s="19">
-        <v>6</v>
+      <c r="A11" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" s="9">
+        <v>11</v>
       </c>
       <c r="D11" s="13">
-        <f>0.49</f>
-        <v>0.49</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E11" s="19">
         <v>1</v>
       </c>
       <c r="F11" s="52">
-        <f>E11*D11</f>
-        <v>0.49</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11" s="15" t="s">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="20">
+        <v>7991</v>
+      </c>
       <c r="J11" s="73">
-        <v>10511</v>
-      </c>
+        <v>10642</v>
+      </c>
+      <c r="K11" s="127" t="s">
+        <v>311</v>
+      </c>
+      <c r="L11" s="125"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" s="53">
-        <v>31</v>
-      </c>
-      <c r="D12" s="54">
-        <v>0.74</v>
-      </c>
-      <c r="E12" s="53">
+      <c r="A12" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="9">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="19">
         <v>1</v>
       </c>
       <c r="F12" s="52">
         <f>E12*D12</f>
-        <v>0.74</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="H12" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="76" t="s">
-        <v>212</v>
-      </c>
-      <c r="J12" s="75"/>
+      <c r="I12" s="16">
+        <v>912</v>
+      </c>
+      <c r="J12" s="74"/>
+      <c r="K12" s="127" t="s">
+        <v>312</v>
+      </c>
+      <c r="L12" s="125"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" s="53">
-        <v>8</v>
-      </c>
-      <c r="D13" s="54">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E13" s="53">
+      <c r="A13" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="9">
+        <v>31</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
         <v>1</v>
       </c>
       <c r="F13" s="52">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G13" s="68" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" s="32" t="s">
+        <f>E13*D13</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="76">
-        <v>916</v>
-      </c>
-      <c r="J13" s="75"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="73">
+        <v>7380</v>
+      </c>
+      <c r="K13" s="126"/>
+      <c r="L13" s="125"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>73</v>
+      <c r="B14" s="33" t="s">
+        <v>258</v>
       </c>
       <c r="C14" s="9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D14" s="13">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="E14" s="19">
         <v>1</v>
       </c>
       <c r="F14" s="52">
-        <f>E14*D14</f>
-        <v>1</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="15" t="s">
+        <v>1.07</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="H14" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="20">
+        <v>912</v>
+      </c>
       <c r="J14" s="73">
-        <v>7380</v>
-      </c>
+        <v>4762</v>
+      </c>
+      <c r="K14" s="126"/>
+      <c r="L14" s="125"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>278</v>
+      <c r="B15" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="C15" s="9">
         <v>11</v>
       </c>
       <c r="D15" s="13">
-        <v>1.1200000000000001</v>
+        <v>2</v>
       </c>
       <c r="E15" s="19">
         <v>1</v>
       </c>
       <c r="F15" s="52">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G15" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="H15" s="60" t="s">
+        <f>E15*D15</f>
+        <v>2</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="20">
-        <v>7991</v>
-      </c>
-      <c r="J15" s="73">
-        <v>10642</v>
-      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="74">
+        <v>7380</v>
+      </c>
+      <c r="K15" s="131" t="s">
+        <v>321</v>
+      </c>
+      <c r="L15" s="132"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>75</v>
+      <c r="B16" s="23" t="s">
+        <v>277</v>
       </c>
       <c r="C16" s="9">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D16" s="13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E16" s="19">
         <v>1</v>
       </c>
       <c r="F16" s="52">
         <f>E16*D16</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>74</v>
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="68" t="s">
+        <v>269</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>50</v>
@@ -5710,1132 +6094,1077 @@
         <v>912</v>
       </c>
       <c r="J16" s="74"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="9">
-        <v>31</v>
+      <c r="K16" s="131"/>
+      <c r="L16" s="132"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="19">
+        <v>4</v>
       </c>
       <c r="D17" s="13">
-        <v>1</v>
+        <f>3.27</f>
+        <v>3.27</v>
       </c>
       <c r="E17" s="19">
         <v>1</v>
       </c>
       <c r="F17" s="52">
-        <f>E17*D17</f>
-        <v>1</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>77</v>
+        <f t="shared" ref="F17:F34" si="0">E17*D17</f>
+        <v>3.27</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>188</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="73">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" s="9">
-        <v>29</v>
+      <c r="I17" s="16"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="125"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="19">
+        <v>4</v>
       </c>
       <c r="D18" s="13">
-        <v>1.07</v>
+        <f>2.57</f>
+        <v>2.57</v>
       </c>
       <c r="E18" s="19">
         <v>1</v>
       </c>
       <c r="F18" s="52">
-        <v>1.07</v>
-      </c>
-      <c r="G18" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="H18" s="60" t="s">
+        <f t="shared" si="0"/>
+        <v>2.57</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="20">
-        <v>912</v>
-      </c>
-      <c r="J18" s="73">
-        <v>4762</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="I18" s="20"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="131" t="s">
+        <v>324</v>
+      </c>
+      <c r="L18" s="132"/>
+    </row>
+    <row r="19" spans="1:12" s="30" customFormat="1">
       <c r="A19" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>78</v>
+      <c r="B19" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="C19" s="9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D19" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="52">
-        <f>E19*D19</f>
-        <v>2</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>79</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="74">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>82</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="132"/>
+    </row>
+    <row r="20" spans="1:12" s="30" customFormat="1">
       <c r="A20" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>277</v>
+      <c r="B20" s="33" t="s">
+        <v>260</v>
       </c>
       <c r="C20" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="13">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="E20" s="19">
         <v>1</v>
       </c>
       <c r="F20" s="52">
-        <f>E20*D20</f>
-        <v>1.5</v>
-      </c>
-      <c r="G20" s="68" t="s">
-        <v>269</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G20" s="69" t="s">
+        <v>174</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="16">
-        <v>912</v>
-      </c>
-      <c r="J20" s="74"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" s="19">
-        <v>4</v>
+      <c r="I20" s="20"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="125"/>
+    </row>
+    <row r="21" spans="1:12" s="30" customFormat="1">
+      <c r="A21" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="9">
+        <v>5</v>
       </c>
       <c r="D21" s="13">
-        <f>3.27</f>
-        <v>3.27</v>
+        <v>1.5</v>
       </c>
       <c r="E21" s="19">
         <v>1</v>
       </c>
       <c r="F21" s="52">
-        <f t="shared" ref="F21:F38" si="0">E21*D21</f>
-        <v>3.27</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>188</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="74"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="19">
-        <v>4</v>
+      <c r="I21" s="16">
+        <v>934</v>
+      </c>
+      <c r="J21" s="74">
+        <v>4032</v>
+      </c>
+      <c r="K21" s="131" t="s">
+        <v>323</v>
+      </c>
+      <c r="L21" s="132"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="9">
+        <v>9</v>
       </c>
       <c r="D22" s="13">
-        <f>2.57</f>
-        <v>2.57</v>
+        <v>1.5</v>
       </c>
       <c r="E22" s="19">
         <v>1</v>
       </c>
       <c r="F22" s="52">
         <f t="shared" si="0"/>
-        <v>2.57</v>
+        <v>1.5</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="73"/>
-    </row>
-    <row r="23" spans="1:10" s="30" customFormat="1">
+      <c r="I22" s="20">
+        <v>985</v>
+      </c>
+      <c r="J22" s="73">
+        <v>10511</v>
+      </c>
+      <c r="K22" s="131"/>
+      <c r="L22" s="132"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="51" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C23" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D23" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E23" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" s="52">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>81</v>
+        <v>1</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="73"/>
-    </row>
-    <row r="24" spans="1:10" s="30" customFormat="1">
-      <c r="A24" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="16">
+        <v>125</v>
+      </c>
+      <c r="J23" s="74">
+        <v>7089</v>
+      </c>
+      <c r="K23" s="129"/>
+      <c r="L23" s="125"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>260</v>
+      <c r="B24" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="C24" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E24" s="19">
         <v>1</v>
       </c>
       <c r="F24" s="52">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G24" s="69" t="s">
-        <v>174</v>
+        <v>2</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="73"/>
-    </row>
-    <row r="25" spans="1:10" s="30" customFormat="1">
+      <c r="I24" s="20">
+        <v>7991</v>
+      </c>
+      <c r="J24" s="73">
+        <v>10642</v>
+      </c>
+      <c r="K24" s="129"/>
+      <c r="L24" s="125"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="51" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C25" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D25" s="13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E25" s="19">
         <v>1</v>
       </c>
       <c r="F25" s="52">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>84</v>
+        <v>2</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>50</v>
       </c>
       <c r="I25" s="16">
-        <v>934</v>
+        <v>7991</v>
       </c>
       <c r="J25" s="74">
-        <v>4032</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>10642</v>
+      </c>
+      <c r="K25" s="129"/>
+      <c r="L25" s="125"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>261</v>
+        <v>72</v>
+      </c>
+      <c r="B26" s="82" t="s">
+        <v>283</v>
       </c>
       <c r="C26" s="9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D26" s="13">
-        <v>1.5</v>
+        <v>3.28</v>
       </c>
       <c r="E26" s="19">
         <v>1</v>
       </c>
       <c r="F26" s="52">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>85</v>
+        <v>3.28</v>
+      </c>
+      <c r="G26" s="68" t="s">
+        <v>282</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="20">
-        <v>985</v>
-      </c>
-      <c r="J26" s="73">
-        <v>10511</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="I26" s="16">
+        <v>7991</v>
+      </c>
+      <c r="J26" s="74"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="125"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="51" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C27" s="9">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D27" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="19">
         <v>1</v>
       </c>
       <c r="F27" s="52">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>88</v>
+        <v>2</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="16">
-        <v>125</v>
-      </c>
-      <c r="J27" s="74">
-        <v>7089</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="I27" s="20">
+        <v>934</v>
+      </c>
+      <c r="J27" s="73">
+        <v>4032</v>
+      </c>
+      <c r="K27" s="129"/>
+      <c r="L27" s="125"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>89</v>
+        <v>68</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="C28" s="9">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="D28" s="13">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E28" s="19">
         <v>1</v>
       </c>
       <c r="F28" s="52">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="20">
-        <v>7991</v>
-      </c>
-      <c r="J28" s="73">
-        <v>10642</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="I28" s="16"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="125"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="51" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C29" s="9">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D29" s="13">
-        <v>2</v>
+        <v>2.81</v>
       </c>
       <c r="E29" s="19">
         <v>1</v>
       </c>
       <c r="F29" s="52">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>92</v>
+        <v>2.81</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="16">
-        <v>7991</v>
-      </c>
-      <c r="J29" s="74">
-        <v>10642</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="I29" s="20">
+        <v>985</v>
+      </c>
+      <c r="J29" s="73">
+        <v>10511</v>
+      </c>
+      <c r="K29" s="129"/>
+      <c r="L29" s="125"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="9">
         <v>72</v>
       </c>
-      <c r="B30" s="83" t="s">
-        <v>283</v>
-      </c>
-      <c r="C30" s="9">
-        <v>4</v>
-      </c>
       <c r="D30" s="13">
-        <v>3.28</v>
+        <v>13.5</v>
       </c>
       <c r="E30" s="19">
         <v>1</v>
       </c>
       <c r="F30" s="52">
         <f t="shared" si="0"/>
-        <v>3.28</v>
-      </c>
-      <c r="G30" s="68" t="s">
-        <v>282</v>
+        <v>13.5</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I30" s="16">
-        <v>7991</v>
-      </c>
+      <c r="I30" s="16"/>
       <c r="J30" s="74"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="9">
-        <v>22</v>
+      <c r="K30" s="129"/>
+      <c r="L30" s="125"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C31" s="19">
+        <v>1</v>
       </c>
       <c r="D31" s="13">
-        <v>2</v>
+        <f>2.03+1.59</f>
+        <v>3.62</v>
       </c>
       <c r="E31" s="19">
         <v>1</v>
       </c>
       <c r="F31" s="52">
         <f t="shared" si="0"/>
+        <v>3.62</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="I31" s="20"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="125"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="9">
+        <v>141</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1.28</v>
+      </c>
+      <c r="E32" s="19">
         <v>2</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="20">
-        <v>934</v>
-      </c>
-      <c r="J31" s="73">
-        <v>4032</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="9">
-        <v>64</v>
-      </c>
-      <c r="D32" s="13">
-        <v>11</v>
-      </c>
-      <c r="E32" s="19">
-        <v>1</v>
       </c>
       <c r="F32" s="52">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>2.56</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="74"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="I32" s="20">
+        <v>125</v>
+      </c>
+      <c r="J32" s="73">
+        <v>7089</v>
+      </c>
+      <c r="K32" s="129"/>
+      <c r="L32" s="125"/>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="51" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C33" s="9">
+        <v>141</v>
+      </c>
+      <c r="D33" s="13">
+        <v>2.69</v>
+      </c>
+      <c r="E33" s="19">
         <v>15</v>
-      </c>
-      <c r="D33" s="13">
-        <v>2.81</v>
-      </c>
-      <c r="E33" s="19">
-        <v>1</v>
       </c>
       <c r="F33" s="52">
         <f t="shared" si="0"/>
-        <v>2.81</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>98</v>
+        <v>40.35</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="20">
-        <v>985</v>
-      </c>
-      <c r="J33" s="73">
-        <v>10511</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="I33" s="16"/>
+      <c r="J33" s="74">
+        <v>7380</v>
+      </c>
+      <c r="K33" s="129"/>
+      <c r="L33" s="125"/>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="51" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="C34" s="9">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D34" s="13">
-        <v>13.5</v>
-      </c>
-      <c r="E34" s="19">
+        <v>8</v>
+      </c>
+      <c r="E34" s="21">
         <v>1</v>
       </c>
       <c r="F34" s="52">
         <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>99</v>
+        <v>8</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="74"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="C35" s="19">
-        <v>1</v>
+      <c r="I34" s="20"/>
+      <c r="J34" s="73">
+        <v>7380</v>
+      </c>
+      <c r="K34" s="129"/>
+      <c r="L34" s="125"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" s="9">
+        <v>4</v>
       </c>
       <c r="D35" s="13">
-        <f>2.03+1.59</f>
-        <v>3.62</v>
-      </c>
-      <c r="E35" s="19">
+        <v>1.64</v>
+      </c>
+      <c r="E35" s="21">
         <v>1</v>
       </c>
       <c r="F35" s="52">
-        <f t="shared" si="0"/>
-        <v>3.62</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>176</v>
+        <v>1.64</v>
+      </c>
+      <c r="G35" s="68" t="s">
+        <v>270</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="I35" s="20"/>
-      <c r="J35" s="73"/>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="J35" s="73">
+        <v>7380</v>
+      </c>
+      <c r="K35" s="129"/>
+      <c r="L35" s="125"/>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="51" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C36" s="9">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="D36" s="13">
-        <v>1.28</v>
-      </c>
-      <c r="E36" s="19">
-        <v>2</v>
+        <v>2.57</v>
+      </c>
+      <c r="E36" s="21">
+        <v>1</v>
       </c>
       <c r="F36" s="52">
-        <f t="shared" si="0"/>
-        <v>2.56</v>
+        <f>E36*D36</f>
+        <v>2.57</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H36" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I36" s="20">
-        <v>125</v>
-      </c>
-      <c r="J36" s="73">
-        <v>7089</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>102</v>
+      <c r="I36" s="16">
+        <v>933</v>
+      </c>
+      <c r="J36" s="74"/>
+      <c r="K36" s="129"/>
+      <c r="L36" s="125"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>281</v>
       </c>
       <c r="C37" s="9">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="D37" s="13">
-        <v>2.69</v>
-      </c>
-      <c r="E37" s="19">
-        <v>15</v>
+        <v>3.04</v>
+      </c>
+      <c r="E37" s="21">
+        <v>2</v>
       </c>
       <c r="F37" s="52">
-        <f t="shared" si="0"/>
-        <v>40.35</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>103</v>
+        <f t="shared" ref="F37" si="1">E37*D37</f>
+        <v>6.08</v>
+      </c>
+      <c r="G37" s="68" t="s">
+        <v>271</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="74">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="9">
-        <v>9</v>
+      <c r="I37" s="16">
+        <v>933</v>
+      </c>
+      <c r="J37" s="74"/>
+      <c r="K37" s="129"/>
+      <c r="L37" s="125"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="19">
+        <v>33</v>
       </c>
       <c r="D38" s="13">
-        <v>8</v>
-      </c>
-      <c r="E38" s="21">
+        <v>16</v>
+      </c>
+      <c r="E38" s="19">
         <v>1</v>
       </c>
       <c r="F38" s="52">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>105</v>
+        <f>E38*D38</f>
+        <v>16</v>
+      </c>
+      <c r="G38" s="68" t="s">
+        <v>197</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I38" s="20"/>
-      <c r="J38" s="73">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="80" t="s">
-        <v>262</v>
-      </c>
-      <c r="C39" s="9">
-        <v>4</v>
+      <c r="J38" s="73"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="125"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="83" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" s="19">
+        <v>1</v>
       </c>
       <c r="D39" s="13">
-        <v>1.64</v>
-      </c>
-      <c r="E39" s="21">
+        <v>9.5</v>
+      </c>
+      <c r="E39" s="19">
         <v>1</v>
       </c>
       <c r="F39" s="52">
-        <v>1.64</v>
+        <v>9.5</v>
       </c>
       <c r="G39" s="68" t="s">
-        <v>270</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>82</v>
+        <v>272</v>
+      </c>
+      <c r="H39" s="60" t="s">
+        <v>273</v>
       </c>
       <c r="I39" s="20"/>
-      <c r="J39" s="73">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="J39" s="73"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="125"/>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="51" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="C40" s="9">
+        <v>3</v>
+      </c>
+      <c r="D40" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="E40" s="21">
+        <v>2</v>
+      </c>
+      <c r="F40" s="52">
+        <f t="shared" ref="F40:F41" si="2">E40*D40</f>
         <v>5</v>
       </c>
-      <c r="D40" s="13">
-        <v>2.57</v>
-      </c>
-      <c r="E40" s="21">
-        <v>1</v>
-      </c>
-      <c r="F40" s="52">
-        <f>E40*D40</f>
-        <v>2.57</v>
-      </c>
       <c r="G40" s="17" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I40" s="16">
-        <v>933</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I40" s="16"/>
       <c r="J40" s="74"/>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" s="129"/>
+      <c r="L40" s="125"/>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="57" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="C41" s="9">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D41" s="13">
-        <v>3.04</v>
+        <v>4.5</v>
       </c>
       <c r="E41" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="52">
-        <f t="shared" ref="F41" si="1">E41*D41</f>
-        <v>6.08</v>
+        <f t="shared" si="2"/>
+        <v>4.5</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I41" s="16">
-        <v>933</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I41" s="16"/>
       <c r="J41" s="74"/>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" s="129"/>
+      <c r="L41" s="125"/>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="22" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="C42" s="19">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D42" s="13">
-        <v>16</v>
-      </c>
-      <c r="E42" s="19">
-        <v>1</v>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>275</v>
       </c>
       <c r="F42" s="52">
-        <f>E42*D42</f>
-        <v>16</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G42" s="68" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="73"/>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" s="129"/>
+      <c r="L42" s="125"/>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="84" t="s">
-        <v>307</v>
+        <v>63</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="C43" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D43" s="13">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="E43" s="19">
         <v>1</v>
       </c>
       <c r="F43" s="52">
-        <v>9.5</v>
-      </c>
-      <c r="G43" s="68" t="s">
-        <v>272</v>
+        <f t="shared" ref="F43" si="3">E43*D43</f>
+        <v>7.5</v>
+      </c>
+      <c r="G43" s="70" t="s">
+        <v>65</v>
       </c>
       <c r="H43" s="60" t="s">
-        <v>273</v>
+        <v>66</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="73"/>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" s="129"/>
+      <c r="L43" s="125"/>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="51" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="C44" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" s="13">
-        <v>2.5</v>
+        <v>24</v>
       </c>
       <c r="E44" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="52">
-        <f t="shared" ref="F44:F45" si="2">E44*D44</f>
-        <v>5</v>
+        <f t="shared" ref="F44" si="4">E44*D44</f>
+        <v>24</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="I44" s="16"/>
       <c r="J44" s="74"/>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" s="129"/>
+      <c r="L44" s="125"/>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="57" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>308</v>
+        <v>171</v>
       </c>
       <c r="C45" s="9">
         <v>3</v>
       </c>
       <c r="D45" s="13">
-        <v>4.5</v>
+        <f>5.01</f>
+        <v>5.01</v>
       </c>
       <c r="E45" s="21">
         <v>1</v>
       </c>
       <c r="F45" s="52">
-        <f t="shared" si="2"/>
-        <v>4.5</v>
+        <f>E45*D45</f>
+        <v>5.01</v>
       </c>
       <c r="G45" s="68" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="74"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="22" t="s">
-        <v>59</v>
+      <c r="K45" s="129"/>
+      <c r="L45" s="125"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>306</v>
+        <v>185</v>
       </c>
       <c r="C46" s="19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D46" s="13">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>275</v>
+        <f>1.72</f>
+        <v>1.72</v>
+      </c>
+      <c r="E46" s="19">
+        <v>1</v>
       </c>
       <c r="F46" s="52">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G46" s="68" t="s">
-        <v>274</v>
+        <f>E46*D46</f>
+        <v>1.72</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>217</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="73"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="19">
-        <v>6</v>
-      </c>
-      <c r="D47" s="13">
-        <v>7.5</v>
-      </c>
-      <c r="E47" s="19">
-        <v>1</v>
-      </c>
-      <c r="F47" s="52">
-        <f t="shared" ref="F47" si="3">E47*D47</f>
-        <v>7.5</v>
-      </c>
-      <c r="G47" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="H47" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="73"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C48" s="9">
-        <v>2</v>
-      </c>
-      <c r="D48" s="13">
-        <v>24</v>
-      </c>
-      <c r="E48" s="21">
-        <v>1</v>
-      </c>
-      <c r="F48" s="52">
-        <f t="shared" ref="F48" si="4">E48*D48</f>
-        <v>24</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="74"/>
-    </row>
-    <row r="49" spans="1:20">
-      <c r="A49" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="C49" s="9">
-        <v>3</v>
-      </c>
-      <c r="D49" s="13">
-        <f>5.01</f>
-        <v>5.01</v>
-      </c>
-      <c r="E49" s="21">
-        <v>1</v>
-      </c>
-      <c r="F49" s="52">
-        <f>E49*D49</f>
-        <v>5.01</v>
-      </c>
-      <c r="G49" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="I49" s="16"/>
-      <c r="J49" s="74"/>
-    </row>
-    <row r="50" spans="1:20">
-      <c r="A50" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C50" s="19">
-        <v>1</v>
-      </c>
-      <c r="D50" s="13">
-        <f>1.72</f>
-        <v>1.72</v>
-      </c>
-      <c r="E50" s="19">
-        <v>1</v>
-      </c>
-      <c r="F50" s="52">
-        <f>E50*D50</f>
-        <v>1.72</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="I50" s="20"/>
-      <c r="J50" s="73"/>
-    </row>
-    <row r="51" spans="1:20" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A51" s="41" t="s">
+      <c r="K46" s="129"/>
+      <c r="L46" s="125"/>
+    </row>
+    <row r="47" spans="1:20" s="7" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A47" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B47" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="47">
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="47">
         <f>SUBTOTAL(109,Table13[Line Price $])</f>
         <v>238.46999999999997</v>
       </c>
-      <c r="G51" s="42"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="130"/>
+      <c r="L47" s="128"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
+    <mergeCell ref="K21:L22"/>
     <mergeCell ref="A1:K1"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="K18:L19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="G10" r:id="rId2" display="1x Size: 20-m3 50pcs" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="G14" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="G16" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="G17" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="G19" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="G23" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="G25" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="G26" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="G27" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="G28" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="G29" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="G31" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="G32" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="G33" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="G34" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="G36" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="G37" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="G38" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="G40" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="G11" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="G35" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="G8" r:id="rId23" display="1x Bushings 5x8x2.5" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="G50" r:id="rId24" display="1x Length 15mm - Wire 0.7 - OD 7" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="G21" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="G22" r:id="rId26" display="1x Size: M3 - 30mm" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="G42" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="G12" r:id="rId28" display="M3 ss washer" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="G24" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="G44" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="G45" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="G13" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="G15" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="G18" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="G20" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="G39" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="G41" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="G43" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="G46" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="H46" r:id="rId40" display="https://www.aliexpress.com/store/912301249" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="G30" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="G47" r:id="rId42" xr:uid="{2D20C191-2C76-4E00-9BC9-A6157242D739}"/>
-    <hyperlink ref="G48" r:id="rId43" display="Color: Buffer 14inch 35cm" xr:uid="{F2847965-49D7-4D00-AD1F-BEC4457D3EC4}"/>
-    <hyperlink ref="G49" r:id="rId44" xr:uid="{D3CD710D-DAE0-4D54-96D8-FDD895E4D65D}"/>
-    <hyperlink ref="G3" r:id="rId45" xr:uid="{E2071BE1-7831-44C4-AF28-33512E7D6B0E}"/>
-    <hyperlink ref="G4" r:id="rId46" xr:uid="{F1690069-CBF9-4703-9E80-D72F696DD82B}"/>
-    <hyperlink ref="G5" r:id="rId47" xr:uid="{BF153028-CA88-4E76-9631-E16B7AAA1202}"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G6" r:id="rId2" display="1x Size: 20-m3 50pcs" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="G10" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="G12" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="G13" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="G15" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="G19" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="G21" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="G22" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="G23" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="G24" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="G25" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="G27" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="G28" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="G29" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="G30" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="G32" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="G33" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="G34" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="G36" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="G7" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="G31" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="G4" r:id="rId23" display="1x Bushings 5x8x2.5" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="G46" r:id="rId24" display="1x Length 15mm - Wire 0.7 - OD 7" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="G17" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="G18" r:id="rId26" display="1x Size: M3 - 30mm" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="G38" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="G8" r:id="rId28" display="M3 ss washer" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="G20" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="G40" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="G41" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="G9" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="G11" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="G14" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="G16" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="G35" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="G37" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="G39" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="G42" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="H42" r:id="rId40" display="https://www.aliexpress.com/store/912301249" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="G26" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="G43" r:id="rId42" xr:uid="{2D20C191-2C76-4E00-9BC9-A6157242D739}"/>
+    <hyperlink ref="G44" r:id="rId43" display="Color: Buffer 14inch 35cm" xr:uid="{F2847965-49D7-4D00-AD1F-BEC4457D3EC4}"/>
+    <hyperlink ref="G45" r:id="rId44" xr:uid="{D3CD710D-DAE0-4D54-96D8-FDD895E4D65D}"/>
+    <hyperlink ref="K10" r:id="rId45" xr:uid="{8FDAE175-15BF-4A40-9A56-A8BA3F0B1726}"/>
+    <hyperlink ref="K11" r:id="rId46" xr:uid="{28344F8D-D570-49B2-BBE9-72B7480294DA}"/>
+    <hyperlink ref="K12" r:id="rId47" xr:uid="{250F0C70-6CC6-4928-A342-928C374FF4D7}"/>
   </hyperlinks>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="portrait" r:id="rId48"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId48"/>
   <drawing r:id="rId49"/>
   <legacyDrawing r:id="rId50"/>
   <tableParts count="1">
@@ -6851,9 +7180,9 @@
   </sheetPr>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -6874,20 +7203,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27">
-      <c r="A1" s="115" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
+      <c r="A1" s="113" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -6896,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -6907,8 +7236,8 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="85" t="s">
-        <v>311</v>
+      <c r="E3" s="84" t="s">
+        <v>310</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -6918,8 +7247,8 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="85" t="s">
-        <v>312</v>
+      <c r="E4" s="84" t="s">
+        <v>311</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -6928,8 +7257,8 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="85" t="s">
-        <v>313</v>
+      <c r="E5" s="84" t="s">
+        <v>312</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -6939,7 +7268,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D6" s="63" t="s">
         <v>5</v>
@@ -7022,13 +7351,13 @@
       <c r="I8" s="50">
         <v>8</v>
       </c>
-      <c r="J8" s="82" t="s">
-        <v>304</v>
+      <c r="J8" s="81" t="s">
+        <v>303</v>
       </c>
       <c r="K8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="103"/>
+      <c r="L8" s="101"/>
     </row>
     <row r="9" spans="1:12" s="59" customFormat="1">
       <c r="A9" s="8" t="s">
@@ -7066,7 +7395,7 @@
       <c r="K9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="104"/>
+      <c r="L9" s="102"/>
     </row>
     <row r="10" spans="1:12" s="59" customFormat="1">
       <c r="A10" s="8" t="s">
@@ -7103,7 +7432,7 @@
       <c r="K10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="105"/>
+      <c r="L10" s="103"/>
     </row>
     <row r="11" spans="1:12" s="59" customFormat="1">
       <c r="A11" s="8" t="s">
@@ -7140,7 +7469,7 @@
       <c r="K11" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="104"/>
+      <c r="L11" s="102"/>
     </row>
     <row r="12" spans="1:12" s="59" customFormat="1">
       <c r="A12" s="8" t="s">
@@ -7177,7 +7506,7 @@
       <c r="K12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="105"/>
+      <c r="L12" s="103"/>
     </row>
     <row r="13" spans="1:12" s="59" customFormat="1">
       <c r="A13" s="8" t="s">
@@ -7212,7 +7541,7 @@
       <c r="K13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="104"/>
+      <c r="L13" s="102"/>
     </row>
     <row r="14" spans="1:12" s="59" customFormat="1">
       <c r="A14" s="8" t="s">
@@ -7247,7 +7576,7 @@
       <c r="K14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="106"/>
+      <c r="L14" s="104"/>
     </row>
     <row r="15" spans="1:12" s="59" customFormat="1">
       <c r="A15" s="8" t="s">
@@ -7284,7 +7613,7 @@
       <c r="K15" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="107"/>
+      <c r="L15" s="105"/>
     </row>
     <row r="16" spans="1:12" s="59" customFormat="1">
       <c r="A16" s="8" t="s">
@@ -7321,7 +7650,7 @@
       <c r="K16" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="107"/>
+      <c r="L16" s="105"/>
     </row>
     <row r="17" spans="1:12" s="59" customFormat="1">
       <c r="A17" s="8" t="s">
@@ -7358,7 +7687,7 @@
       <c r="K17" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="107"/>
+      <c r="L17" s="105"/>
     </row>
     <row r="18" spans="1:12" s="59" customFormat="1" ht="15.75" thickBot="1">
       <c r="A18" s="8" t="s">
@@ -7371,7 +7700,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="19"/>
@@ -7382,45 +7711,44 @@
         <v>325.74400000000003</v>
       </c>
       <c r="J18" s="79" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K18" s="37"/>
-      <c r="L18" s="107"/>
+      <c r="L18" s="105"/>
     </row>
     <row r="19" spans="1:12" s="59" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="D19" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="E19" s="95"/>
-      <c r="F19" s="98">
-        <v>1</v>
-      </c>
-      <c r="G19" s="99">
-        <v>500</v>
-      </c>
-      <c r="H19" s="98">
-        <v>1</v>
-      </c>
-      <c r="I19" s="100">
-        <f t="shared" ref="I19" si="1">H19*G19</f>
-        <v>500</v>
-      </c>
-      <c r="J19" s="101" t="s">
+      <c r="E19" s="94"/>
+      <c r="F19" s="97">
+        <v>1</v>
+      </c>
+      <c r="G19" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" s="97">
+        <v>1</v>
+      </c>
+      <c r="I19" s="114" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="K19" s="102" t="s">
+      <c r="K19" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="108"/>
+      <c r="L19" s="106"/>
     </row>
     <row r="20" spans="1:12" s="59" customFormat="1">
       <c r="A20" s="8" t="s">
@@ -7457,7 +7785,7 @@
       <c r="K20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="109"/>
+      <c r="L20" s="107"/>
     </row>
     <row r="21" spans="1:12" s="59" customFormat="1">
       <c r="A21" s="8" t="s">
@@ -7493,7 +7821,7 @@
       <c r="K21" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="109"/>
+      <c r="L21" s="107"/>
     </row>
     <row r="22" spans="1:12" s="59" customFormat="1">
       <c r="A22" s="8" t="s">
@@ -7530,7 +7858,7 @@
       <c r="K22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="107" t="s">
+      <c r="L22" s="105" t="s">
         <v>239</v>
       </c>
     </row>
@@ -7567,7 +7895,7 @@
       <c r="K23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L23" s="109"/>
+      <c r="L23" s="107"/>
     </row>
     <row r="24" spans="1:12" s="59" customFormat="1">
       <c r="A24" s="8" t="s">
@@ -7602,7 +7930,7 @@
       <c r="K24" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="109"/>
+      <c r="L24" s="107"/>
     </row>
     <row r="25" spans="1:12" s="59" customFormat="1">
       <c r="A25" s="8" t="s">
@@ -7637,7 +7965,7 @@
       <c r="K25" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="L25" s="107" t="s">
+      <c r="L25" s="105" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7674,7 +8002,7 @@
       <c r="K26" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="L26" s="109"/>
+      <c r="L26" s="107"/>
     </row>
     <row r="27" spans="1:12" s="59" customFormat="1">
       <c r="A27" s="8" t="s">
@@ -7709,7 +8037,7 @@
       <c r="K27" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="L27" s="109"/>
+      <c r="L27" s="107"/>
     </row>
     <row r="28" spans="1:12" s="59" customFormat="1">
       <c r="A28" s="8" t="s">
@@ -7746,7 +8074,7 @@
       <c r="K28" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="L28" s="107" t="s">
+      <c r="L28" s="105" t="s">
         <v>218</v>
       </c>
     </row>
@@ -7783,7 +8111,7 @@
       <c r="K29" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="L29" s="107" t="s">
+      <c r="L29" s="105" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7820,7 +8148,7 @@
       <c r="K30" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="L30" s="109"/>
+      <c r="L30" s="107"/>
     </row>
     <row r="31" spans="1:12" s="59" customFormat="1">
       <c r="A31" s="8" t="s">
@@ -7855,7 +8183,7 @@
       <c r="K31" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="L31" s="109"/>
+      <c r="L31" s="107"/>
     </row>
     <row r="32" spans="1:12" s="59" customFormat="1">
       <c r="A32" s="8" t="s">
@@ -7890,7 +8218,7 @@
       <c r="K32" s="60" t="s">
         <v>252</v>
       </c>
-      <c r="L32" s="107" t="s">
+      <c r="L32" s="105" t="s">
         <v>223</v>
       </c>
     </row>
@@ -7927,7 +8255,7 @@
       <c r="K33" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="L33" s="109"/>
+      <c r="L33" s="107"/>
     </row>
     <row r="34" spans="1:12" s="59" customFormat="1">
       <c r="A34" s="8" t="s">
@@ -7962,7 +8290,7 @@
       <c r="K34" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="L34" s="109"/>
+      <c r="L34" s="107"/>
     </row>
     <row r="35" spans="1:12" s="59" customFormat="1">
       <c r="A35" s="8" t="s">
@@ -7997,7 +8325,7 @@
       <c r="K35" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="L35" s="109"/>
+      <c r="L35" s="107"/>
     </row>
     <row r="36" spans="1:12" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A36" s="8" t="s">
@@ -8010,7 +8338,7 @@
         <v>36</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="19">
@@ -8027,12 +8355,12 @@
         <v>3.75</v>
       </c>
       <c r="J36" s="68" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K36" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="L36" s="110"/>
+      <c r="L36" s="108"/>
     </row>
     <row r="37" spans="1:12" s="59" customFormat="1">
       <c r="A37" s="8" t="s">
@@ -8067,7 +8395,7 @@
       <c r="K37" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L37" s="109"/>
+      <c r="L37" s="107"/>
     </row>
     <row r="38" spans="1:12" s="59" customFormat="1">
       <c r="A38" s="8" t="s">
@@ -8102,7 +8430,7 @@
       <c r="K38" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L38" s="109"/>
+      <c r="L38" s="107"/>
     </row>
     <row r="39" spans="1:12" s="59" customFormat="1">
       <c r="A39" s="8" t="s">
@@ -8137,7 +8465,7 @@
       <c r="K39" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="L39" s="109"/>
+      <c r="L39" s="107"/>
     </row>
     <row r="40" spans="1:12" s="59" customFormat="1">
       <c r="A40" s="8" t="s">
@@ -8172,7 +8500,7 @@
       <c r="K40" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="L40" s="109"/>
+      <c r="L40" s="107"/>
     </row>
     <row r="41" spans="1:12" s="59" customFormat="1">
       <c r="A41" s="8" t="s">
@@ -8207,7 +8535,7 @@
       <c r="K41" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="L41" s="109"/>
+      <c r="L41" s="107"/>
     </row>
     <row r="42" spans="1:12" s="59" customFormat="1">
       <c r="A42" s="8" t="s">
@@ -8242,7 +8570,7 @@
       <c r="K42" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="L42" s="109"/>
+      <c r="L42" s="107"/>
     </row>
     <row r="43" spans="1:12" s="59" customFormat="1">
       <c r="A43" s="8" t="s">
@@ -8279,7 +8607,7 @@
       <c r="K43" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="L43" s="109"/>
+      <c r="L43" s="107"/>
     </row>
     <row r="44" spans="1:12" s="59" customFormat="1">
       <c r="A44" s="8" t="s">
@@ -8314,32 +8642,32 @@
       <c r="K44" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="L44" s="110"/>
+      <c r="L44" s="108"/>
     </row>
     <row r="45" spans="1:12" s="59" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A45" s="114"/>
-      <c r="B45" s="86" t="s">
+      <c r="A45" s="112"/>
+      <c r="B45" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="87" t="s">
+      <c r="C45" s="86" t="s">
         <v>247</v>
       </c>
-      <c r="D45" s="86" t="s">
+      <c r="D45" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="E45" s="88"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="89">
-        <v>1</v>
-      </c>
-      <c r="I45" s="91">
-        <f>'Hardware List'!F51</f>
+      <c r="E45" s="87"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="88">
+        <v>1</v>
+      </c>
+      <c r="I45" s="90">
+        <f>'Hardware List'!F47</f>
         <v>238.46999999999997</v>
       </c>
-      <c r="J45" s="92"/>
-      <c r="K45" s="93"/>
-      <c r="L45" s="113"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="111"/>
     </row>
     <row r="46" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A46" s="61"/>
@@ -8347,7 +8675,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D46" s="63" t="s">
         <v>5</v>
@@ -8415,8 +8743,8 @@
     <hyperlink ref="J14" r:id="rId44" xr:uid="{8B46BDD2-E98B-4C9A-A160-CDE182501C27}"/>
     <hyperlink ref="J18" r:id="rId45" xr:uid="{5AD59190-378C-47A4-A5FE-A60CDAAFF6DF}"/>
   </hyperlinks>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId46"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId46"/>
   <drawing r:id="rId47"/>
   <legacyDrawing r:id="rId48"/>
   <tableParts count="1">

--- a/Document Library/Bill Of Materials/Valkyrie BOM v1.0.0.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM v1.0.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="402" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E65092B8-BD2D-4BCF-81AB-3C8352091E05}"/>
+  <xr:revisionPtr revIDLastSave="406" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9942E116-E181-4377-B95E-B4B8405B801E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="327">
   <si>
     <t>Develompment Team Members</t>
   </si>
@@ -1626,6 +1626,12 @@
   </si>
   <si>
     <t>fasteners</t>
+  </si>
+  <si>
+    <t>20x20x18 Carbon X-Axis Tube</t>
+  </si>
+  <si>
+    <t>4x Color: 10pcs 2028</t>
   </si>
 </sst>
 </file>
@@ -2246,9 +2252,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2276,6 +2279,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2288,220 +2294,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="46">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2897,6 +2689,220 @@
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3054,66 +3060,62 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:L56" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:L56" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="System" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part Type" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cut Length mm" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="BOM Quantity" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pack Price $" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pack Order Quantity" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Line Price $" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Order Parts Link" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Supplier" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Option" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="System" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part Type" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cut Length mm" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="BOM Quantity" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pack Price $" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pack Order Quantity" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Line Price $" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Order Parts Link" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Supplier" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Option" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A3:J46" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A3:J46" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J47">
     <sortCondition ref="B4:B47"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Part Type" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Description" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="BOM Quantity" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Pack Price $" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Pack Order Quantity" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Line Price $" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Order Parts Link" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Supplier" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="DIN" dataDxfId="33"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="ISO" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Part Type" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Description" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="BOM Quantity" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Pack Price $" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Pack Order Quantity" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Line Price $" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Order Parts Link" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Supplier" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="DIN" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="ISO" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BB8E62E6-79EF-4C10-B241-5331D8D58F9B}" name="Table14" displayName="Table14" ref="A7:L45" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BB8E62E6-79EF-4C10-B241-5331D8D58F9B}" name="Table14" displayName="Table14" ref="A7:L45" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{CA0C5979-6B6C-4045-AC28-5E6CB8072C41}" name="System" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{6938B938-1ABB-4F7F-B7D0-55543997EB8C}" name="Category" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{3B0F0BD0-6D5E-40FA-8AE4-2C3410C2E334}" name="Part Type" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{CB532F0F-0D38-499D-93B9-4CB47CA68B05}" name="Description" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{314FC685-5A32-40D7-81B8-6B2EA69DD093}" name="Cut Length mm" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{FF7A1159-E348-4513-A202-A717369901D0}" name="BOM Quantity" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{AB473781-150D-4CB1-9A3B-F2113A0793C0}" name="Pack Price $" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{48CAF5D9-9DFA-4251-8EF5-7F030B50CA99}" name="Pack Order Quantity" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{C0DBA74A-5D8D-4760-ABDE-B95829C1A60D}" name="Line Price $" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{AAEED0C7-15F7-4790-9E62-E27032C81CC3}" name="Order Parts Link" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{BFA01DDC-E15B-4C61-995E-53335C843259}" name="Supplier" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{73213268-4CE9-408B-89D8-1856AA2E7AB1}" name="Option" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{CA0C5979-6B6C-4045-AC28-5E6CB8072C41}" name="System" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{6938B938-1ABB-4F7F-B7D0-55543997EB8C}" name="Category" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{3B0F0BD0-6D5E-40FA-8AE4-2C3410C2E334}" name="Part Type" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{CB532F0F-0D38-499D-93B9-4CB47CA68B05}" name="Description" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{314FC685-5A32-40D7-81B8-6B2EA69DD093}" name="Cut Length mm" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{FF7A1159-E348-4513-A202-A717369901D0}" name="BOM Quantity" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{AB473781-150D-4CB1-9A3B-F2113A0793C0}" name="Pack Price $" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{48CAF5D9-9DFA-4251-8EF5-7F030B50CA99}" name="Pack Order Quantity" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{C0DBA74A-5D8D-4760-ABDE-B95829C1A60D}" name="Line Price $" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{AAEED0C7-15F7-4790-9E62-E27032C81CC3}" name="Order Parts Link" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{BFA01DDC-E15B-4C61-995E-53335C843259}" name="Supplier" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{73213268-4CE9-408B-89D8-1856AA2E7AB1}" name="Option" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3344,23 +3346,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" hidden="1" thickBot="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="130" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
     </row>
     <row r="2" spans="1:14" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="116" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="61" t="s">
@@ -3376,13 +3378,13 @@
       <c r="H2" s="64"/>
       <c r="I2" s="65">
         <f>I57</f>
-        <v>1849.3840000000005</v>
+        <v>1844.3840000000005</v>
       </c>
       <c r="J2" s="63"/>
       <c r="K2" s="71"/>
       <c r="L2" s="71"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="122"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="121"/>
     </row>
     <row r="3" spans="1:14" s="78" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
       <c r="A3" s="45" t="s">
@@ -3421,7 +3423,7 @@
       <c r="L3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="123"/>
+      <c r="N3" s="122"/>
     </row>
     <row r="4" spans="1:14" s="59" customFormat="1">
       <c r="A4" s="8" t="s">
@@ -3458,10 +3460,10 @@
         <v>24</v>
       </c>
       <c r="L4" s="101"/>
-      <c r="M4" s="124" t="s">
+      <c r="M4" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="125"/>
+      <c r="N4" s="124"/>
     </row>
     <row r="5" spans="1:14" s="59" customFormat="1">
       <c r="A5" s="8" t="s">
@@ -3500,10 +3502,10 @@
         <v>24</v>
       </c>
       <c r="L5" s="102"/>
-      <c r="M5" s="126" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="125"/>
+      <c r="M5" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="124"/>
     </row>
     <row r="6" spans="1:14" s="59" customFormat="1">
       <c r="A6" s="8" t="s">
@@ -3541,10 +3543,10 @@
         <v>24</v>
       </c>
       <c r="L6" s="103"/>
-      <c r="M6" s="126" t="s">
+      <c r="M6" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="125"/>
+      <c r="N6" s="124"/>
     </row>
     <row r="7" spans="1:14" s="59" customFormat="1">
       <c r="A7" s="8" t="s">
@@ -3582,10 +3584,10 @@
         <v>24</v>
       </c>
       <c r="L7" s="102"/>
-      <c r="M7" s="126" t="s">
+      <c r="M7" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="125"/>
+      <c r="N7" s="124"/>
     </row>
     <row r="8" spans="1:14" s="59" customFormat="1">
       <c r="A8" s="8" t="s">
@@ -3624,7 +3626,7 @@
       </c>
       <c r="L8" s="103"/>
       <c r="M8" s="18"/>
-      <c r="N8" s="125"/>
+      <c r="N8" s="124"/>
     </row>
     <row r="9" spans="1:14" s="59" customFormat="1">
       <c r="A9" s="8" t="s">
@@ -3641,29 +3643,29 @@
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="12">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="13">
         <v>5</v>
       </c>
       <c r="H9" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9" s="52">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>206</v>
+        <v>326</v>
       </c>
       <c r="K9" s="37" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="102"/>
-      <c r="M9" s="124" t="s">
+      <c r="M9" s="123" t="s">
         <v>309</v>
       </c>
-      <c r="N9" s="125"/>
+      <c r="N9" s="124"/>
     </row>
     <row r="10" spans="1:14" s="59" customFormat="1">
       <c r="A10" s="8" t="s">
@@ -3699,10 +3701,10 @@
         <v>24</v>
       </c>
       <c r="L10" s="104"/>
-      <c r="M10" s="127" t="s">
+      <c r="M10" s="126" t="s">
         <v>310</v>
       </c>
-      <c r="N10" s="125"/>
+      <c r="N10" s="124"/>
     </row>
     <row r="11" spans="1:14" s="59" customFormat="1">
       <c r="A11" s="8" t="s">
@@ -3740,10 +3742,10 @@
         <v>66</v>
       </c>
       <c r="L11" s="105"/>
-      <c r="M11" s="127" t="s">
+      <c r="M11" s="126" t="s">
         <v>311</v>
       </c>
-      <c r="N11" s="125"/>
+      <c r="N11" s="124"/>
     </row>
     <row r="12" spans="1:14" s="59" customFormat="1">
       <c r="A12" s="8" t="s">
@@ -3781,10 +3783,10 @@
         <v>66</v>
       </c>
       <c r="L12" s="105"/>
-      <c r="M12" s="127" t="s">
+      <c r="M12" s="126" t="s">
         <v>312</v>
       </c>
-      <c r="N12" s="125"/>
+      <c r="N12" s="124"/>
     </row>
     <row r="13" spans="1:14" s="59" customFormat="1">
       <c r="A13" s="8" t="s">
@@ -3822,8 +3824,8 @@
         <v>66</v>
       </c>
       <c r="L13" s="105"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="125"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="124"/>
     </row>
     <row r="14" spans="1:14" s="59" customFormat="1" ht="15.75" thickBot="1">
       <c r="A14" s="8" t="s">
@@ -3842,17 +3844,17 @@
       <c r="F14" s="19"/>
       <c r="G14" s="13"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="116">
+      <c r="I14" s="115">
         <f>SUBTOTAL(109,I4:I13)</f>
-        <v>325.74400000000003</v>
+        <v>320.74400000000003</v>
       </c>
       <c r="J14" s="79" t="s">
         <v>316</v>
       </c>
       <c r="K14" s="37"/>
       <c r="L14" s="105"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="124"/>
     </row>
     <row r="15" spans="1:14" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="93" t="s">
@@ -3864,7 +3866,7 @@
       <c r="C15" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="120" t="s">
+      <c r="D15" s="119" t="s">
         <v>320</v>
       </c>
       <c r="E15" s="94"/>
@@ -3877,7 +3879,7 @@
       <c r="H15" s="97">
         <v>1</v>
       </c>
-      <c r="I15" s="114">
+      <c r="I15" s="113">
         <f>Table1[[#This Row],[Pack Price $]]*Table1[[#This Row],[Pack Order Quantity]]</f>
         <v>564</v>
       </c>
@@ -3904,7 +3906,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>37</v>
+        <v>325</v>
       </c>
       <c r="E16" s="9">
         <v>410</v>
@@ -3968,8 +3970,8 @@
         <v>38</v>
       </c>
       <c r="L17" s="107"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="125"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="124"/>
     </row>
     <row r="18" spans="1:14" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="8" t="s">
@@ -4086,8 +4088,8 @@
         <v>50</v>
       </c>
       <c r="L20" s="107"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="125"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="124"/>
     </row>
     <row r="21" spans="1:14" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="8" t="s">
@@ -4201,8 +4203,8 @@
         <v>118</v>
       </c>
       <c r="L23" s="107"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="125"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="124"/>
     </row>
     <row r="24" spans="1:14" s="59" customFormat="1">
       <c r="A24" s="8" t="s">
@@ -4238,8 +4240,8 @@
         <v>122</v>
       </c>
       <c r="L24" s="107"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="125"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="124"/>
     </row>
     <row r="25" spans="1:14" s="59" customFormat="1">
       <c r="A25" s="8" t="s">
@@ -4279,8 +4281,8 @@
       <c r="L25" s="105" t="s">
         <v>218</v>
       </c>
-      <c r="M25" s="129"/>
-      <c r="N25" s="125"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="124"/>
     </row>
     <row r="26" spans="1:14" s="59" customFormat="1">
       <c r="A26" s="8" t="s">
@@ -4318,8 +4320,8 @@
       <c r="L26" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="M26" s="129"/>
-      <c r="N26" s="125"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="124"/>
     </row>
     <row r="27" spans="1:14" s="59" customFormat="1">
       <c r="A27" s="8" t="s">
@@ -4355,8 +4357,8 @@
         <v>131</v>
       </c>
       <c r="L27" s="107"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="125"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="124"/>
     </row>
     <row r="28" spans="1:14" s="59" customFormat="1">
       <c r="A28" s="8" t="s">
@@ -4368,7 +4370,7 @@
       <c r="C28" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="115" t="s">
+      <c r="D28" s="114" t="s">
         <v>317</v>
       </c>
       <c r="E28" s="9"/>
@@ -4392,8 +4394,8 @@
         <v>122</v>
       </c>
       <c r="L28" s="107"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="125"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="124"/>
     </row>
     <row r="29" spans="1:14" s="59" customFormat="1">
       <c r="A29" s="8" t="s">
@@ -4431,8 +4433,8 @@
       <c r="L29" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="M29" s="129"/>
-      <c r="N29" s="125"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="124"/>
     </row>
     <row r="30" spans="1:14" s="59" customFormat="1">
       <c r="A30" s="8" t="s">
@@ -4468,8 +4470,8 @@
         <v>143</v>
       </c>
       <c r="L30" s="107"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="125"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="124"/>
     </row>
     <row r="31" spans="1:14" s="59" customFormat="1">
       <c r="A31" s="8" t="s">
@@ -4505,8 +4507,8 @@
         <v>122</v>
       </c>
       <c r="L31" s="107"/>
-      <c r="M31" s="129"/>
-      <c r="N31" s="125"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="124"/>
     </row>
     <row r="32" spans="1:14" s="59" customFormat="1">
       <c r="A32" s="8" t="s">
@@ -4542,8 +4544,8 @@
         <v>135</v>
       </c>
       <c r="L32" s="107"/>
-      <c r="M32" s="129"/>
-      <c r="N32" s="125"/>
+      <c r="M32" s="128"/>
+      <c r="N32" s="124"/>
     </row>
     <row r="33" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A33" s="8" t="s">
@@ -4579,8 +4581,8 @@
         <v>143</v>
       </c>
       <c r="L33" s="108"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="125"/>
+      <c r="M33" s="128"/>
+      <c r="N33" s="124"/>
     </row>
     <row r="34" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A34" s="8" t="s">
@@ -4616,8 +4618,8 @@
         <v>143</v>
       </c>
       <c r="L34" s="108"/>
-      <c r="M34" s="129"/>
-      <c r="N34" s="125"/>
+      <c r="M34" s="128"/>
+      <c r="N34" s="124"/>
     </row>
     <row r="35" spans="1:14" s="59" customFormat="1">
       <c r="A35" s="8" t="s">
@@ -4653,8 +4655,8 @@
         <v>50</v>
       </c>
       <c r="L35" s="107"/>
-      <c r="M35" s="129"/>
-      <c r="N35" s="125"/>
+      <c r="M35" s="128"/>
+      <c r="N35" s="124"/>
     </row>
     <row r="36" spans="1:14" s="59" customFormat="1">
       <c r="A36" s="8" t="s">
@@ -4690,8 +4692,8 @@
         <v>50</v>
       </c>
       <c r="L36" s="107"/>
-      <c r="M36" s="129"/>
-      <c r="N36" s="125"/>
+      <c r="M36" s="128"/>
+      <c r="N36" s="124"/>
     </row>
     <row r="37" spans="1:14" s="59" customFormat="1">
       <c r="A37" s="8" t="s">
@@ -4727,8 +4729,8 @@
         <v>122</v>
       </c>
       <c r="L37" s="107"/>
-      <c r="M37" s="129"/>
-      <c r="N37" s="125"/>
+      <c r="M37" s="128"/>
+      <c r="N37" s="124"/>
     </row>
     <row r="38" spans="1:14" s="59" customFormat="1">
       <c r="A38" s="8" t="s">
@@ -4764,8 +4766,8 @@
         <v>143</v>
       </c>
       <c r="L38" s="107"/>
-      <c r="M38" s="129"/>
-      <c r="N38" s="125"/>
+      <c r="M38" s="128"/>
+      <c r="N38" s="124"/>
     </row>
     <row r="39" spans="1:14" s="59" customFormat="1">
       <c r="A39" s="8" t="s">
@@ -4801,8 +4803,8 @@
         <v>143</v>
       </c>
       <c r="L39" s="107"/>
-      <c r="M39" s="129"/>
-      <c r="N39" s="125"/>
+      <c r="M39" s="128"/>
+      <c r="N39" s="124"/>
     </row>
     <row r="40" spans="1:14" s="59" customFormat="1">
       <c r="A40" s="8" t="s">
@@ -4838,8 +4840,8 @@
         <v>143</v>
       </c>
       <c r="L40" s="107"/>
-      <c r="M40" s="129"/>
-      <c r="N40" s="125"/>
+      <c r="M40" s="128"/>
+      <c r="N40" s="124"/>
     </row>
     <row r="41" spans="1:14" s="59" customFormat="1">
       <c r="A41" s="8" t="s">
@@ -4877,8 +4879,8 @@
         <v>152</v>
       </c>
       <c r="L41" s="107"/>
-      <c r="M41" s="129"/>
-      <c r="N41" s="125"/>
+      <c r="M41" s="128"/>
+      <c r="N41" s="124"/>
     </row>
     <row r="42" spans="1:14" s="59" customFormat="1">
       <c r="A42" s="8" t="s">
@@ -4914,8 +4916,8 @@
         <v>156</v>
       </c>
       <c r="L42" s="108"/>
-      <c r="M42" s="129"/>
-      <c r="N42" s="125"/>
+      <c r="M42" s="128"/>
+      <c r="N42" s="124"/>
     </row>
     <row r="43" spans="1:14" s="59" customFormat="1">
       <c r="A43" s="8" t="s">
@@ -4947,12 +4949,12 @@
       <c r="J43" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="K43" s="119" t="s">
+      <c r="K43" s="118" t="s">
         <v>295</v>
       </c>
       <c r="L43" s="109"/>
-      <c r="M43" s="129"/>
-      <c r="N43" s="125"/>
+      <c r="M43" s="128"/>
+      <c r="N43" s="124"/>
     </row>
     <row r="44" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A44" s="8" t="s">
@@ -4984,12 +4986,12 @@
       <c r="J44" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="K44" s="119" t="s">
+      <c r="K44" s="118" t="s">
         <v>295</v>
       </c>
       <c r="L44" s="109"/>
-      <c r="M44" s="129"/>
-      <c r="N44" s="125"/>
+      <c r="M44" s="128"/>
+      <c r="N44" s="124"/>
     </row>
     <row r="45" spans="1:14" s="59" customFormat="1">
       <c r="A45" s="8" t="s">
@@ -5027,8 +5029,8 @@
         <v>296</v>
       </c>
       <c r="L45" s="108"/>
-      <c r="M45" s="129"/>
-      <c r="N45" s="125"/>
+      <c r="M45" s="128"/>
+      <c r="N45" s="124"/>
     </row>
     <row r="46" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A46" s="8" t="s">
@@ -5064,8 +5066,8 @@
         <v>304</v>
       </c>
       <c r="L46" s="108"/>
-      <c r="M46" s="129"/>
-      <c r="N46" s="125"/>
+      <c r="M46" s="128"/>
+      <c r="N46" s="124"/>
     </row>
     <row r="47" spans="1:14" s="59" customFormat="1">
       <c r="A47" s="8" t="s">
@@ -5101,8 +5103,8 @@
         <v>180</v>
       </c>
       <c r="L47" s="108"/>
-      <c r="M47" s="129"/>
-      <c r="N47" s="125"/>
+      <c r="M47" s="128"/>
+      <c r="N47" s="124"/>
     </row>
     <row r="48" spans="1:14" s="59" customFormat="1">
       <c r="A48" s="8" t="s">
@@ -5138,8 +5140,8 @@
         <v>192</v>
       </c>
       <c r="L48" s="108"/>
-      <c r="M48" s="129"/>
-      <c r="N48" s="125"/>
+      <c r="M48" s="128"/>
+      <c r="N48" s="124"/>
     </row>
     <row r="49" spans="1:14" s="59" customFormat="1">
       <c r="A49" s="8" t="s">
@@ -5175,8 +5177,8 @@
         <v>234</v>
       </c>
       <c r="L49" s="108"/>
-      <c r="M49" s="129"/>
-      <c r="N49" s="125"/>
+      <c r="M49" s="128"/>
+      <c r="N49" s="124"/>
     </row>
     <row r="50" spans="1:14" s="59" customFormat="1">
       <c r="A50" s="8" t="s">
@@ -5213,8 +5215,8 @@
         <v>233</v>
       </c>
       <c r="L50" s="108"/>
-      <c r="M50" s="129"/>
-      <c r="N50" s="125"/>
+      <c r="M50" s="128"/>
+      <c r="N50" s="124"/>
     </row>
     <row r="51" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A51" s="8" t="s">
@@ -5246,12 +5248,12 @@
       <c r="J51" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="K51" s="118" t="s">
+      <c r="K51" s="117" t="s">
         <v>319</v>
       </c>
       <c r="L51" s="108"/>
-      <c r="M51" s="129"/>
-      <c r="N51" s="125"/>
+      <c r="M51" s="128"/>
+      <c r="N51" s="124"/>
     </row>
     <row r="52" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A52" s="8" t="s">
@@ -5287,8 +5289,8 @@
         <v>319</v>
       </c>
       <c r="L52" s="108"/>
-      <c r="M52" s="129"/>
-      <c r="N52" s="125"/>
+      <c r="M52" s="128"/>
+      <c r="N52" s="124"/>
     </row>
     <row r="53" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A53" s="8" t="s">
@@ -5324,8 +5326,8 @@
         <v>319</v>
       </c>
       <c r="L53" s="108"/>
-      <c r="M53" s="129"/>
-      <c r="N53" s="125"/>
+      <c r="M53" s="128"/>
+      <c r="N53" s="124"/>
     </row>
     <row r="54" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A54" s="8" t="s">
@@ -5361,8 +5363,8 @@
         <v>319</v>
       </c>
       <c r="L54" s="108"/>
-      <c r="M54" s="129"/>
-      <c r="N54" s="125"/>
+      <c r="M54" s="128"/>
+      <c r="N54" s="124"/>
     </row>
     <row r="55" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A55" s="8" t="s">
@@ -5398,8 +5400,8 @@
         <v>235</v>
       </c>
       <c r="L55" s="110"/>
-      <c r="M55" s="129"/>
-      <c r="N55" s="125"/>
+      <c r="M55" s="128"/>
+      <c r="N55" s="124"/>
     </row>
     <row r="56" spans="1:14" s="59" customFormat="1" ht="15.75" thickBot="1">
       <c r="A56" s="112"/>
@@ -5425,8 +5427,8 @@
       <c r="J56" s="91"/>
       <c r="K56" s="92"/>
       <c r="L56" s="111"/>
-      <c r="M56" s="129"/>
-      <c r="N56" s="125"/>
+      <c r="M56" s="128"/>
+      <c r="N56" s="124"/>
     </row>
     <row r="57" spans="1:14" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A57" s="61"/>
@@ -5445,13 +5447,13 @@
       <c r="H57" s="64"/>
       <c r="I57" s="65">
         <f>SUM(I16:I56)+I14</f>
-        <v>1849.3840000000005</v>
+        <v>1844.3840000000005</v>
       </c>
       <c r="J57" s="63"/>
       <c r="K57" s="71"/>
       <c r="L57" s="56"/>
-      <c r="M57" s="130"/>
-      <c r="N57" s="128"/>
+      <c r="M57" s="129"/>
+      <c r="N57" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5564,19 +5566,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" thickBot="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="130" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
     </row>
     <row r="2" spans="1:20" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A2" s="61" t="s">
@@ -5596,8 +5598,8 @@
       <c r="H2" s="66"/>
       <c r="I2" s="67"/>
       <c r="J2" s="72"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="122"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="121"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -5639,7 +5641,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="78"/>
-      <c r="L3" s="123"/>
+      <c r="L3" s="122"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -5678,10 +5680,10 @@
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="74"/>
-      <c r="K4" s="124" t="s">
+      <c r="K4" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="125"/>
+      <c r="L4" s="124"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="51" t="s">
@@ -5715,10 +5717,10 @@
       <c r="J5" s="73">
         <v>4032</v>
       </c>
-      <c r="K5" s="126" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="125"/>
+      <c r="K5" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="124"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="51" t="s">
@@ -5748,10 +5750,10 @@
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="74"/>
-      <c r="K6" s="126" t="s">
+      <c r="K6" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="125"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="8" t="s">
@@ -5784,10 +5786,10 @@
       <c r="J7" s="73">
         <v>10511</v>
       </c>
-      <c r="K7" s="126" t="s">
+      <c r="K7" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="125"/>
+      <c r="L7" s="124"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="55" t="s">
@@ -5820,7 +5822,7 @@
       </c>
       <c r="J8" s="75"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="125"/>
+      <c r="L8" s="124"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="29" t="s">
@@ -5851,10 +5853,10 @@
         <v>916</v>
       </c>
       <c r="J9" s="75"/>
-      <c r="K9" s="124" t="s">
+      <c r="K9" s="123" t="s">
         <v>309</v>
       </c>
-      <c r="L9" s="125"/>
+      <c r="L9" s="124"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="51" t="s">
@@ -5886,10 +5888,10 @@
       <c r="J10" s="73">
         <v>7380</v>
       </c>
-      <c r="K10" s="127" t="s">
+      <c r="K10" s="126" t="s">
         <v>310</v>
       </c>
-      <c r="L10" s="125"/>
+      <c r="L10" s="124"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="57" t="s">
@@ -5922,10 +5924,10 @@
       <c r="J11" s="73">
         <v>10642</v>
       </c>
-      <c r="K11" s="127" t="s">
+      <c r="K11" s="126" t="s">
         <v>311</v>
       </c>
-      <c r="L11" s="125"/>
+      <c r="L11" s="124"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="51" t="s">
@@ -5957,10 +5959,10 @@
         <v>912</v>
       </c>
       <c r="J12" s="74"/>
-      <c r="K12" s="127" t="s">
+      <c r="K12" s="126" t="s">
         <v>312</v>
       </c>
-      <c r="L12" s="125"/>
+      <c r="L12" s="124"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="51" t="s">
@@ -5992,8 +5994,8 @@
       <c r="J13" s="73">
         <v>7380</v>
       </c>
-      <c r="K13" s="126"/>
-      <c r="L13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="124"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="57" t="s">
@@ -6026,8 +6028,8 @@
       <c r="J14" s="73">
         <v>4762</v>
       </c>
-      <c r="K14" s="126"/>
-      <c r="L14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="124"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="51" t="s">
@@ -6126,8 +6128,8 @@
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="74"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="125"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="124"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
@@ -6222,8 +6224,8 @@
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="73"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="125"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="124"/>
     </row>
     <row r="21" spans="1:12" s="30" customFormat="1">
       <c r="A21" s="51" t="s">
@@ -6329,8 +6331,8 @@
       <c r="J23" s="74">
         <v>7089</v>
       </c>
-      <c r="K23" s="129"/>
-      <c r="L23" s="125"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="124"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="51" t="s">
@@ -6364,8 +6366,8 @@
       <c r="J24" s="73">
         <v>10642</v>
       </c>
-      <c r="K24" s="129"/>
-      <c r="L24" s="125"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="124"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="51" t="s">
@@ -6399,8 +6401,8 @@
       <c r="J25" s="74">
         <v>10642</v>
       </c>
-      <c r="K25" s="129"/>
-      <c r="L25" s="125"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="124"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="51" t="s">
@@ -6432,8 +6434,8 @@
         <v>7991</v>
       </c>
       <c r="J26" s="74"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="125"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="124"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="51" t="s">
@@ -6467,8 +6469,8 @@
       <c r="J27" s="73">
         <v>4032</v>
       </c>
-      <c r="K27" s="129"/>
-      <c r="L27" s="125"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="124"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="51" t="s">
@@ -6498,8 +6500,8 @@
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="74"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="125"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="124"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="51" t="s">
@@ -6533,8 +6535,8 @@
       <c r="J29" s="73">
         <v>10511</v>
       </c>
-      <c r="K29" s="129"/>
-      <c r="L29" s="125"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="124"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="51" t="s">
@@ -6564,8 +6566,8 @@
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="74"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="125"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="124"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="8" t="s">
@@ -6596,8 +6598,8 @@
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="73"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="125"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="124"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="51" t="s">
@@ -6631,8 +6633,8 @@
       <c r="J32" s="73">
         <v>7089</v>
       </c>
-      <c r="K32" s="129"/>
-      <c r="L32" s="125"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="124"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="51" t="s">
@@ -6664,8 +6666,8 @@
       <c r="J33" s="74">
         <v>7380</v>
       </c>
-      <c r="K33" s="129"/>
-      <c r="L33" s="125"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="124"/>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="51" t="s">
@@ -6697,8 +6699,8 @@
       <c r="J34" s="73">
         <v>7380</v>
       </c>
-      <c r="K34" s="129"/>
-      <c r="L34" s="125"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="124"/>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="57" t="s">
@@ -6729,8 +6731,8 @@
       <c r="J35" s="73">
         <v>7380</v>
       </c>
-      <c r="K35" s="129"/>
-      <c r="L35" s="125"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="124"/>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="51" t="s">
@@ -6762,8 +6764,8 @@
         <v>933</v>
       </c>
       <c r="J36" s="74"/>
-      <c r="K36" s="129"/>
-      <c r="L36" s="125"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="124"/>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="57" t="s">
@@ -6795,8 +6797,8 @@
         <v>933</v>
       </c>
       <c r="J37" s="74"/>
-      <c r="K37" s="129"/>
-      <c r="L37" s="125"/>
+      <c r="K37" s="128"/>
+      <c r="L37" s="124"/>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="22" t="s">
@@ -6826,8 +6828,8 @@
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="73"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="125"/>
+      <c r="K38" s="128"/>
+      <c r="L38" s="124"/>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="22" t="s">
@@ -6856,8 +6858,8 @@
       </c>
       <c r="I39" s="20"/>
       <c r="J39" s="73"/>
-      <c r="K39" s="129"/>
-      <c r="L39" s="125"/>
+      <c r="K39" s="128"/>
+      <c r="L39" s="124"/>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="51" t="s">
@@ -6887,8 +6889,8 @@
       </c>
       <c r="I40" s="16"/>
       <c r="J40" s="74"/>
-      <c r="K40" s="129"/>
-      <c r="L40" s="125"/>
+      <c r="K40" s="128"/>
+      <c r="L40" s="124"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="57" t="s">
@@ -6918,8 +6920,8 @@
       </c>
       <c r="I41" s="16"/>
       <c r="J41" s="74"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="125"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="124"/>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="22" t="s">
@@ -6948,8 +6950,8 @@
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="73"/>
-      <c r="K42" s="129"/>
-      <c r="L42" s="125"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="124"/>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="22" t="s">
@@ -6979,8 +6981,8 @@
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="73"/>
-      <c r="K43" s="129"/>
-      <c r="L43" s="125"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="124"/>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="51" t="s">
@@ -7010,8 +7012,8 @@
       </c>
       <c r="I44" s="16"/>
       <c r="J44" s="74"/>
-      <c r="K44" s="129"/>
-      <c r="L44" s="125"/>
+      <c r="K44" s="128"/>
+      <c r="L44" s="124"/>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="57" t="s">
@@ -7042,8 +7044,8 @@
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="74"/>
-      <c r="K45" s="129"/>
-      <c r="L45" s="125"/>
+      <c r="K45" s="128"/>
+      <c r="L45" s="124"/>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="8" t="s">
@@ -7074,8 +7076,8 @@
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="73"/>
-      <c r="K46" s="129"/>
-      <c r="L46" s="125"/>
+      <c r="K46" s="128"/>
+      <c r="L46" s="124"/>
     </row>
     <row r="47" spans="1:20" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A47" s="41" t="s">
@@ -7095,8 +7097,8 @@
       <c r="H47" s="40"/>
       <c r="I47" s="44"/>
       <c r="J47" s="77"/>
-      <c r="K47" s="130"/>
-      <c r="L47" s="128"/>
+      <c r="K47" s="129"/>
+      <c r="L47" s="127"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
@@ -7203,20 +7205,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="130" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -7739,7 +7741,7 @@
       <c r="H19" s="97">
         <v>1</v>
       </c>
-      <c r="I19" s="114" t="s">
+      <c r="I19" s="113" t="s">
         <v>161</v>
       </c>
       <c r="J19" s="99" t="s">

--- a/Document Library/Bill Of Materials/Valkyrie BOM v1.0.0.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM v1.0.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="406" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9942E116-E181-4377-B95E-B4B8405B801E}"/>
+  <xr:revisionPtr revIDLastSave="538" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CA27800-CA43-4B3E-A74E-4DAB993E8FE8}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hardware List'!$A$3:$J$47</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Valkyrie Stage-0'!$A$7:$K$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$3:$K$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Valkyrie Stage-0'!$A$7:$K$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$3:$K$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -133,79 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{3D5D8C05-90A8-4D6E-BE03-1AD00E9C6A11}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Roy Berntsen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-TBD</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{424AF3D0-03E3-494F-8C85-BE7674C10716}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Roy Berntsen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-TBD</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Roy Berntsen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Misumi Frame and SAIR Linear Guides</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="L26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -277,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{5BAE28AF-EFF9-49BF-8B1C-90F36BBB41B3}">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{5BAE28AF-EFF9-49BF-8B1C-90F36BBB41B3}">
       <text>
         <r>
           <rPr>
@@ -301,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{C0C1BBC7-2BC8-49F9-9DF3-A86897191E49}">
+    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{C0C1BBC7-2BC8-49F9-9DF3-A86897191E49}">
       <text>
         <r>
           <rPr>
@@ -315,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J41" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J45" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -516,31 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{D2BF658A-AF6B-46CB-9873-337CFAA75B49}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Roy Berntsen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Misumi Frame and SAIR Linear Guides</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{88BDDEA2-6754-412E-B5C3-715137909F5D}">
+    <comment ref="J26" authorId="0" shapeId="0" xr:uid="{88BDDEA2-6754-412E-B5C3-715137909F5D}">
       <text>
         <r>
           <rPr>
@@ -564,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L25" authorId="0" shapeId="0" xr:uid="{80F1B203-43C9-40C4-BB71-4DD76C7498D0}">
+    <comment ref="L29" authorId="0" shapeId="0" xr:uid="{80F1B203-43C9-40C4-BB71-4DD76C7498D0}">
       <text>
         <r>
           <rPr>
@@ -588,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J30" authorId="0" shapeId="0" xr:uid="{B0B0D56F-E56D-4A7B-BA01-FCE3646F4AAA}">
+    <comment ref="J34" authorId="0" shapeId="0" xr:uid="{B0B0D56F-E56D-4A7B-BA01-FCE3646F4AAA}">
       <text>
         <r>
           <rPr>
@@ -612,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J43" authorId="1" shapeId="0" xr:uid="{DDC152E7-30B4-4916-B884-6E1BCD6E7DE6}">
+    <comment ref="J47" authorId="1" shapeId="0" xr:uid="{DDC152E7-30B4-4916-B884-6E1BCD6E7DE6}">
       <text>
         <r>
           <rPr>
@@ -634,7 +538,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="333">
   <si>
     <t>Develompment Team Members</t>
   </si>
@@ -1316,12 +1220,6 @@
     <t>Removal Spring Steel PEI Sheet</t>
   </si>
   <si>
-    <t>2040 Frame Kit - Misumi Premium</t>
-  </si>
-  <si>
-    <t>Premium Frame + Rail Bundle</t>
-  </si>
-  <si>
     <t>1x ADXL345 for Klipper</t>
   </si>
   <si>
@@ -1598,24 +1496,12 @@
     <t>Bundle Price</t>
   </si>
   <si>
-    <t>Frame parts - Wenstpow - No Hardware</t>
-  </si>
-  <si>
-    <t>Ask Venstpow for a bundle deal</t>
-  </si>
-  <si>
-    <t>To Be Decided - BL Touch for now</t>
-  </si>
-  <si>
     <t>Project Valkyrie - Stage-0-BOM</t>
   </si>
   <si>
     <t>EQV Store</t>
   </si>
   <si>
-    <t>Misumi Frame + Hardware Kit</t>
-  </si>
-  <si>
     <t>valkyrie</t>
   </si>
   <si>
@@ -1632,6 +1518,42 @@
   </si>
   <si>
     <t>4x Color: 10pcs 2028</t>
+  </si>
+  <si>
+    <t>Misumi Frame &amp; Rails &amp; Hardware</t>
+  </si>
+  <si>
+    <t>V-Slot Frame &amp; Rails &amp; Hardware</t>
+  </si>
+  <si>
+    <t>FABREEKO</t>
+  </si>
+  <si>
+    <t>HoneyBadger Stainless Steel Rails</t>
+  </si>
+  <si>
+    <t>HoneyBadger Frame &amp; Bracket Parts</t>
+  </si>
+  <si>
+    <t>Complete Premium Kit</t>
+  </si>
+  <si>
+    <t>Complete V-Slot Kit</t>
+  </si>
+  <si>
+    <t>Honeybadger Frame &amp; Brackets</t>
+  </si>
+  <si>
+    <t>Honeybadger Linear Guide Rails</t>
+  </si>
+  <si>
+    <t>Pick one of the kits below or order from above</t>
+  </si>
+  <si>
+    <t>Partners</t>
+  </si>
+  <si>
+    <t>Frame Parts price exclusive Hardware</t>
   </si>
 </sst>
 </file>
@@ -1646,7 +1568,7 @@
     <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
     <numFmt numFmtId="169" formatCode="[$$-409]#,##0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1795,17 +1717,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1828,7 +1745,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1991,21 +1908,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2054,7 +1956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2202,28 +2104,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2251,9 +2141,7 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2262,7 +2150,6 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2287,6 +2174,47 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2922,7 +2850,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>35718</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1883835" cy="1059656"/>
@@ -3061,7 +2989,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:L56" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:L60" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="System" dataDxfId="41"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="40"/>
@@ -3102,7 +3030,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BB8E62E6-79EF-4C10-B241-5331D8D58F9B}" name="Table14" displayName="Table14" ref="A7:L45" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BB8E62E6-79EF-4C10-B241-5331D8D58F9B}" name="Table14" displayName="Table14" ref="A7:L49" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{CA0C5979-6B6C-4045-AC28-5E6CB8072C41}" name="System" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{6938B938-1ABB-4F7F-B7D0-55543997EB8C}" name="Category" dataDxfId="10"/>
@@ -3322,11 +3250,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -3340,33 +3268,33 @@
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" hidden="1" thickBot="1">
-      <c r="A1" s="130" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
+      <c r="A1" s="119" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
     </row>
     <row r="2" spans="1:14" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="106" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C2" s="63" t="s">
         <v>5</v>
@@ -3377,14 +3305,14 @@
       <c r="G2" s="63"/>
       <c r="H2" s="64"/>
       <c r="I2" s="65">
-        <f>I57</f>
-        <v>1844.3840000000005</v>
+        <f>I61</f>
+        <v>1897.6400000000003</v>
       </c>
       <c r="J2" s="63"/>
       <c r="K2" s="71"/>
       <c r="L2" s="71"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="121"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="110"/>
     </row>
     <row r="3" spans="1:14" s="78" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
       <c r="A3" s="45" t="s">
@@ -3423,7 +3351,7 @@
       <c r="L3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="122"/>
+      <c r="N3" s="111"/>
     </row>
     <row r="4" spans="1:14" s="59" customFormat="1">
       <c r="A4" s="8" t="s">
@@ -3454,16 +3382,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="81" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="123" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="124"/>
+      <c r="N4" s="113"/>
     </row>
     <row r="5" spans="1:14" s="59" customFormat="1">
       <c r="A5" s="8" t="s">
@@ -3492,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="52">
-        <f t="shared" ref="I5:I21" si="0">H5*G5</f>
+        <f t="shared" ref="I5:I25" si="0">H5*G5</f>
         <v>9.5</v>
       </c>
       <c r="J5" s="35" t="s">
@@ -3501,11 +3429,11 @@
       <c r="K5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="102"/>
-      <c r="M5" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="124"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="113"/>
     </row>
     <row r="6" spans="1:14" s="59" customFormat="1">
       <c r="A6" s="8" t="s">
@@ -3542,11 +3470,11 @@
       <c r="K6" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="103"/>
-      <c r="M6" s="125" t="s">
+      <c r="L6" s="95"/>
+      <c r="M6" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="124"/>
+      <c r="N6" s="113"/>
     </row>
     <row r="7" spans="1:14" s="59" customFormat="1">
       <c r="A7" s="8" t="s">
@@ -3583,11 +3511,11 @@
       <c r="K7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="102"/>
-      <c r="M7" s="125" t="s">
+      <c r="L7" s="94"/>
+      <c r="M7" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="124"/>
+      <c r="N7" s="113"/>
     </row>
     <row r="8" spans="1:14" s="59" customFormat="1">
       <c r="A8" s="8" t="s">
@@ -3624,9 +3552,9 @@
       <c r="K8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="103"/>
+      <c r="L8" s="95"/>
       <c r="M8" s="18"/>
-      <c r="N8" s="124"/>
+      <c r="N8" s="113"/>
     </row>
     <row r="9" spans="1:14" s="59" customFormat="1">
       <c r="A9" s="8" t="s">
@@ -3656,16 +3584,16 @@
         <v>20</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="102"/>
-      <c r="M9" s="123" t="s">
-        <v>309</v>
-      </c>
-      <c r="N9" s="124"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="112" t="s">
+        <v>307</v>
+      </c>
+      <c r="N9" s="113"/>
     </row>
     <row r="10" spans="1:14" s="59" customFormat="1">
       <c r="A10" s="8" t="s">
@@ -3678,7 +3606,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="12">
@@ -3695,16 +3623,16 @@
         <v>40</v>
       </c>
       <c r="J10" s="79" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="104"/>
-      <c r="M10" s="126" t="s">
-        <v>310</v>
-      </c>
-      <c r="N10" s="124"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="115" t="s">
+        <v>308</v>
+      </c>
+      <c r="N10" s="113"/>
     </row>
     <row r="11" spans="1:14" s="59" customFormat="1">
       <c r="A11" s="8" t="s">
@@ -3736,16 +3664,16 @@
         <v>46.8</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K11" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="105"/>
-      <c r="M11" s="126" t="s">
-        <v>311</v>
-      </c>
-      <c r="N11" s="124"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="115" t="s">
+        <v>309</v>
+      </c>
+      <c r="N11" s="113"/>
     </row>
     <row r="12" spans="1:14" s="59" customFormat="1">
       <c r="A12" s="8" t="s">
@@ -3777,16 +3705,16 @@
         <v>35</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K12" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="105"/>
-      <c r="M12" s="126" t="s">
-        <v>312</v>
-      </c>
-      <c r="N12" s="124"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="115" t="s">
+        <v>310</v>
+      </c>
+      <c r="N12" s="113"/>
     </row>
     <row r="13" spans="1:14" s="59" customFormat="1">
       <c r="A13" s="8" t="s">
@@ -3818,14 +3746,14 @@
         <v>16</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K13" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="L13" s="105"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="124"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="113"/>
     </row>
     <row r="14" spans="1:14" s="59" customFormat="1" ht="15.75" thickBot="1">
       <c r="A14" s="8" t="s">
@@ -3837,452 +3765,425 @@
       <c r="C14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>315</v>
+      <c r="D14" s="83" t="s">
+        <v>332</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="19"/>
       <c r="G14" s="13"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="115">
-        <f>SUBTOTAL(109,I4:I13)</f>
-        <v>320.74400000000003</v>
-      </c>
-      <c r="J14" s="79" t="s">
-        <v>316</v>
-      </c>
+      <c r="I14" s="105">
+        <f>G18+G19</f>
+        <v>374</v>
+      </c>
+      <c r="J14" s="79"/>
       <c r="K14" s="37"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="124"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="113"/>
     </row>
     <row r="15" spans="1:14" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="119" t="s">
-        <v>320</v>
-      </c>
-      <c r="E15" s="94"/>
-      <c r="F15" s="97">
-        <v>1</v>
-      </c>
-      <c r="G15" s="98">
-        <v>564</v>
-      </c>
-      <c r="H15" s="97">
-        <v>1</v>
-      </c>
-      <c r="I15" s="113">
-        <f>Table1[[#This Row],[Pack Price $]]*Table1[[#This Row],[Pack Order Quantity]]</f>
-        <v>564</v>
-      </c>
-      <c r="J15" s="99" t="s">
-        <v>222</v>
-      </c>
-      <c r="K15" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="106"/>
-      <c r="M15" s="131" t="s">
+      <c r="D15" s="143" t="s">
+        <v>330</v>
+      </c>
+      <c r="E15" s="142"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="L15" s="98"/>
+      <c r="M15" s="120" t="s">
+        <v>315</v>
+      </c>
+      <c r="N15" s="121"/>
+    </row>
+    <row r="16" spans="1:14" s="59" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="123" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="124" t="s">
         <v>321</v>
       </c>
-      <c r="N15" s="132"/>
-    </row>
-    <row r="16" spans="1:14" s="59" customFormat="1">
-      <c r="A16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="E16" s="9">
-        <v>410</v>
-      </c>
-      <c r="F16" s="12">
-        <v>1</v>
-      </c>
-      <c r="G16" s="13">
-        <v>20</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
+      <c r="E16" s="123"/>
+      <c r="F16" s="125">
+        <v>1</v>
+      </c>
+      <c r="G16" s="126">
+        <v>720</v>
+      </c>
+      <c r="H16" s="125"/>
       <c r="I16" s="52">
         <f>H16*G16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="94" t="s">
+        <v>326</v>
+      </c>
+      <c r="K16" s="137" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="94"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="121"/>
+    </row>
+    <row r="17" spans="1:14" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="K16" s="15" t="s">
+      <c r="B17" s="123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="123" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="124" t="s">
+        <v>322</v>
+      </c>
+      <c r="E17" s="123"/>
+      <c r="F17" s="125">
+        <v>1</v>
+      </c>
+      <c r="G17" s="126">
+        <v>577</v>
+      </c>
+      <c r="H17" s="125"/>
+      <c r="I17" s="52">
+        <f t="shared" ref="I17:I19" si="1">H17*G17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="94" t="s">
+        <v>327</v>
+      </c>
+      <c r="K17" s="137" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="94"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="121"/>
+    </row>
+    <row r="18" spans="1:14" s="59" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="128" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="129" t="s">
+        <v>325</v>
+      </c>
+      <c r="E18" s="128"/>
+      <c r="F18" s="130">
+        <v>1</v>
+      </c>
+      <c r="G18" s="131">
+        <v>175</v>
+      </c>
+      <c r="H18" s="130"/>
+      <c r="I18" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="93" t="s">
+        <v>328</v>
+      </c>
+      <c r="K18" s="140" t="s">
+        <v>323</v>
+      </c>
+      <c r="L18" s="94"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="121"/>
+    </row>
+    <row r="19" spans="1:14" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="132" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="133" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="134" t="s">
+        <v>324</v>
+      </c>
+      <c r="E19" s="133"/>
+      <c r="F19" s="135">
+        <v>1</v>
+      </c>
+      <c r="G19" s="136">
+        <v>199</v>
+      </c>
+      <c r="H19" s="135"/>
+      <c r="I19" s="139">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="150" t="s">
+        <v>329</v>
+      </c>
+      <c r="K19" s="138" t="s">
+        <v>323</v>
+      </c>
+      <c r="L19" s="94"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="121"/>
+    </row>
+    <row r="20" spans="1:14" s="59" customFormat="1">
+      <c r="A20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E20" s="9">
+        <v>410</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13">
+        <v>20</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
+      <c r="I20" s="52">
+        <f>H20*G20</f>
+        <v>20</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="K20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="107"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="132"/>
-    </row>
-    <row r="17" spans="1:14" s="59" customFormat="1">
-      <c r="A17" s="22" t="s">
+      <c r="L20" s="99"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="121"/>
+    </row>
+    <row r="21" spans="1:14" s="59" customFormat="1">
+      <c r="A21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B21" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C21" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="D21" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" s="9">
         <v>230</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F21" s="12">
         <v>4</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G21" s="13">
         <v>17.5</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H21" s="12">
         <v>2</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I21" s="52">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="J17" s="68" t="s">
-        <v>245</v>
-      </c>
-      <c r="K17" s="60" t="s">
+      <c r="J21" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="K21" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="107"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="124"/>
-    </row>
-    <row r="18" spans="1:14" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="8" t="s">
+      <c r="L21" s="99"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="113"/>
+    </row>
+    <row r="22" spans="1:14" s="59" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C22" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E22" s="9">
         <v>350</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F22" s="12">
         <v>1225</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G22" s="13">
         <v>0.08</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H22" s="12">
         <v>1225</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I22" s="52">
         <v>104</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J22" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K22" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="107"/>
-      <c r="M18" s="131" t="s">
-        <v>322</v>
-      </c>
-      <c r="N18" s="132"/>
-    </row>
-    <row r="19" spans="1:14" s="59" customFormat="1">
-      <c r="A19" s="8" t="s">
+      <c r="L22" s="99"/>
+      <c r="M22" s="120" t="s">
+        <v>316</v>
+      </c>
+      <c r="N22" s="121"/>
+    </row>
+    <row r="23" spans="1:14" s="59" customFormat="1">
+      <c r="A23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C23" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D23" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E23" s="9">
         <v>330</v>
       </c>
-      <c r="F19" s="12">
-        <v>1</v>
-      </c>
-      <c r="G19" s="13">
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13">
         <v>46</v>
       </c>
-      <c r="H19" s="12">
-        <v>1</v>
-      </c>
-      <c r="I19" s="52">
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
+      <c r="I23" s="52">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="J19" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="K19" s="15" t="s">
+      <c r="J23" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="K23" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="105" t="s">
-        <v>239</v>
-      </c>
-      <c r="M19" s="131"/>
-      <c r="N19" s="132"/>
-    </row>
-    <row r="20" spans="1:14" s="59" customFormat="1">
-      <c r="A20" s="8" t="s">
+      <c r="L23" s="97" t="s">
+        <v>237</v>
+      </c>
+      <c r="M23" s="120"/>
+      <c r="N23" s="121"/>
+    </row>
+    <row r="24" spans="1:14" s="59" customFormat="1">
+      <c r="A24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C24" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="12">
+      <c r="E24" s="9"/>
+      <c r="F24" s="12">
         <v>6</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G24" s="13">
         <v>3</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H24" s="12">
         <v>2</v>
       </c>
-      <c r="I20" s="52">
+      <c r="I24" s="52">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J24" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K24" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L20" s="107"/>
-      <c r="M20" s="128"/>
-      <c r="N20" s="124"/>
-    </row>
-    <row r="21" spans="1:14" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="8" t="s">
+      <c r="L24" s="99"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="113"/>
+    </row>
+    <row r="25" spans="1:14" s="59" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C25" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="12">
+      <c r="E25" s="9"/>
+      <c r="F25" s="12">
         <v>3</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G25" s="13">
         <v>3</v>
       </c>
-      <c r="H21" s="12">
-        <v>1</v>
-      </c>
-      <c r="I21" s="52">
+      <c r="H25" s="12">
+        <v>1</v>
+      </c>
+      <c r="I25" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J25" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="L21" s="107"/>
-      <c r="M21" s="131" t="s">
-        <v>323</v>
-      </c>
-      <c r="N21" s="132"/>
-    </row>
-    <row r="22" spans="1:14" s="59" customFormat="1">
-      <c r="A22" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="19">
-        <v>1</v>
-      </c>
-      <c r="G22" s="13">
-        <v>145</v>
-      </c>
-      <c r="H22" s="19">
-        <v>1</v>
-      </c>
-      <c r="I22" s="52">
-        <f t="shared" ref="I22:I49" si="1">H22*G22</f>
-        <v>145</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L22" s="105" t="s">
-        <v>224</v>
-      </c>
-      <c r="M22" s="131"/>
-      <c r="N22" s="132"/>
-    </row>
-    <row r="23" spans="1:14" s="59" customFormat="1">
-      <c r="A23" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="19">
-        <v>1</v>
-      </c>
-      <c r="G23" s="13">
-        <v>23</v>
-      </c>
-      <c r="H23" s="19">
-        <v>1</v>
-      </c>
-      <c r="I23" s="52">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="L23" s="107"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="124"/>
-    </row>
-    <row r="24" spans="1:14" s="59" customFormat="1">
-      <c r="A24" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="19">
-        <v>1</v>
-      </c>
-      <c r="G24" s="13">
-        <v>7.5</v>
-      </c>
-      <c r="H24" s="19">
-        <v>1</v>
-      </c>
-      <c r="I24" s="52">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L24" s="107"/>
-      <c r="M24" s="128"/>
-      <c r="N24" s="124"/>
-    </row>
-    <row r="25" spans="1:14" s="59" customFormat="1">
-      <c r="A25" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E25" s="9">
-        <v>300</v>
-      </c>
-      <c r="F25" s="19">
-        <v>1</v>
-      </c>
-      <c r="G25" s="13">
-        <v>78.39</v>
-      </c>
-      <c r="H25" s="19">
-        <v>1</v>
-      </c>
-      <c r="I25" s="52">
-        <f t="shared" si="1"/>
-        <v>78.39</v>
-      </c>
-      <c r="J25" s="69" t="s">
-        <v>250</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="L25" s="105" t="s">
-        <v>218</v>
-      </c>
-      <c r="M25" s="128"/>
-      <c r="N25" s="124"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="120" t="s">
+        <v>317</v>
+      </c>
+      <c r="N25" s="121"/>
     </row>
     <row r="26" spans="1:14" s="59" customFormat="1">
       <c r="A26" s="8" t="s">
@@ -4292,36 +4193,36 @@
         <v>112</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>124</v>
+        <v>113</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>247</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="13">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="H26" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="52">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="J26" s="70" t="s">
-        <v>251</v>
+        <f t="shared" ref="I26:I53" si="2">H26*G26</f>
+        <v>145</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>246</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L26" s="105" t="s">
-        <v>125</v>
-      </c>
-      <c r="M26" s="128"/>
-      <c r="N26" s="124"/>
+        <v>114</v>
+      </c>
+      <c r="L26" s="97" t="s">
+        <v>222</v>
+      </c>
+      <c r="M26" s="120"/>
+      <c r="N26" s="121"/>
     </row>
     <row r="27" spans="1:14" s="59" customFormat="1">
       <c r="A27" s="8" t="s">
@@ -4331,260 +4232,266 @@
         <v>112</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>244</v>
+        <v>115</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="19">
         <v>1</v>
       </c>
       <c r="G27" s="13">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H27" s="19">
         <v>1</v>
       </c>
       <c r="I27" s="52">
-        <f>H27*G27</f>
-        <v>3</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>241</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="L27" s="107"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="124"/>
+        <v>118</v>
+      </c>
+      <c r="L27" s="99"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="113"/>
     </row>
     <row r="28" spans="1:14" s="59" customFormat="1">
       <c r="A28" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="114" t="s">
-        <v>317</v>
+        <v>119</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="19">
         <v>1</v>
       </c>
       <c r="G28" s="13">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="H28" s="19">
         <v>1</v>
       </c>
       <c r="I28" s="52">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>7.5</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="L28" s="107"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="124"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="113"/>
     </row>
     <row r="29" spans="1:14" s="59" customFormat="1">
       <c r="A29" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="E29" s="9"/>
+        <v>123</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E29" s="9">
+        <v>300</v>
+      </c>
       <c r="F29" s="19">
         <v>1</v>
       </c>
       <c r="G29" s="13">
-        <v>2</v>
+        <v>78.39</v>
       </c>
       <c r="H29" s="19">
         <v>1</v>
       </c>
       <c r="I29" s="52">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="K29" s="60" t="s">
-        <v>252</v>
-      </c>
-      <c r="L29" s="105" t="s">
-        <v>223</v>
-      </c>
-      <c r="M29" s="128"/>
-      <c r="N29" s="124"/>
+        <f t="shared" si="2"/>
+        <v>78.39</v>
+      </c>
+      <c r="J29" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="L29" s="97" t="s">
+        <v>218</v>
+      </c>
+      <c r="M29" s="117"/>
+      <c r="N29" s="113"/>
     </row>
     <row r="30" spans="1:14" s="59" customFormat="1">
       <c r="A30" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>253</v>
+        <v>119</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="13">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H30" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="52">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>52</v>
       </c>
       <c r="J30" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="K30" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="K30" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="L30" s="107"/>
-      <c r="M30" s="128"/>
-      <c r="N30" s="124"/>
+      <c r="L30" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="117"/>
+      <c r="N30" s="113"/>
     </row>
     <row r="31" spans="1:14" s="59" customFormat="1">
       <c r="A31" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>237</v>
+        <v>130</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>242</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="19">
         <v>1</v>
       </c>
       <c r="G31" s="13">
-        <v>13.5</v>
+        <v>3</v>
       </c>
       <c r="H31" s="19">
         <v>1</v>
       </c>
       <c r="I31" s="52">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K31" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="L31" s="107"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="124"/>
+        <f>H31*G31</f>
+        <v>3</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L31" s="99"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="113"/>
     </row>
     <row r="32" spans="1:14" s="59" customFormat="1">
       <c r="A32" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>255</v>
+        <v>127</v>
+      </c>
+      <c r="D32" s="149" t="s">
+        <v>161</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="19">
         <v>1</v>
       </c>
       <c r="G32" s="13">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H32" s="19">
         <v>1</v>
       </c>
       <c r="I32" s="52">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="J32" s="68" t="s">
-        <v>134</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>161</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="L32" s="107"/>
-      <c r="M32" s="128"/>
-      <c r="N32" s="124"/>
-    </row>
-    <row r="33" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
+        <v>122</v>
+      </c>
+      <c r="L32" s="99"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="113"/>
+    </row>
+    <row r="33" spans="1:14" s="59" customFormat="1">
       <c r="A33" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>300</v>
+        <v>203</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="19">
         <v>1</v>
       </c>
       <c r="G33" s="13">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="H33" s="19">
         <v>1</v>
       </c>
       <c r="I33" s="52">
-        <f>H33*G33</f>
-        <v>3.75</v>
-      </c>
-      <c r="J33" s="68" t="s">
-        <v>301</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L33" s="108"/>
-      <c r="M33" s="128"/>
-      <c r="N33" s="124"/>
-    </row>
-    <row r="34" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="K33" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="L33" s="97" t="s">
+        <v>221</v>
+      </c>
+      <c r="M33" s="117"/>
+      <c r="N33" s="113"/>
+    </row>
+    <row r="34" spans="1:14" s="59" customFormat="1">
       <c r="A34" s="8" t="s">
         <v>126</v>
       </c>
@@ -4592,256 +4499,256 @@
         <v>132</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>300</v>
+        <v>133</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>251</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="13">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H34" s="19">
         <v>1</v>
       </c>
       <c r="I34" s="52">
-        <f>H34*G34</f>
-        <v>10</v>
-      </c>
-      <c r="J34" s="68" t="s">
-        <v>302</v>
-      </c>
-      <c r="K34" s="15" t="s">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="J34" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="K34" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="L34" s="108"/>
-      <c r="M34" s="128"/>
-      <c r="N34" s="124"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="113"/>
     </row>
     <row r="35" spans="1:14" s="59" customFormat="1">
       <c r="A35" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>47</v>
+        <v>126</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="E35" s="9"/>
-      <c r="F35" s="12">
-        <v>5</v>
+      <c r="F35" s="19">
+        <v>1</v>
       </c>
       <c r="G35" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="H35" s="12">
+        <v>13.5</v>
+      </c>
+      <c r="H35" s="19">
         <v>1</v>
       </c>
       <c r="I35" s="52">
-        <f>H35*G35</f>
-        <v>1.2</v>
+        <f t="shared" si="2"/>
+        <v>13.5</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L35" s="107"/>
-      <c r="M35" s="128"/>
-      <c r="N35" s="124"/>
+        <v>236</v>
+      </c>
+      <c r="K35" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="L35" s="99"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="113"/>
     </row>
     <row r="36" spans="1:14" s="59" customFormat="1">
       <c r="A36" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>51</v>
+        <v>126</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>253</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="12">
-        <v>12</v>
+      <c r="F36" s="19">
+        <v>1</v>
       </c>
       <c r="G36" s="13">
-        <v>3</v>
-      </c>
-      <c r="H36" s="12">
-        <v>3</v>
+        <v>80</v>
+      </c>
+      <c r="H36" s="19">
+        <v>1</v>
       </c>
       <c r="I36" s="52">
-        <f>H36*G36</f>
-        <v>9</v>
-      </c>
-      <c r="J36" s="14" t="s">
-        <v>52</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="J36" s="68" t="s">
+        <v>134</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L36" s="107"/>
-      <c r="M36" s="128"/>
-      <c r="N36" s="124"/>
-    </row>
-    <row r="37" spans="1:14" s="59" customFormat="1">
+        <v>135</v>
+      </c>
+      <c r="L36" s="99"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="113"/>
+    </row>
+    <row r="37" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>138</v>
+        <v>298</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G37" s="13">
-        <v>59</v>
+        <v>3.75</v>
       </c>
       <c r="H37" s="19">
         <v>1</v>
       </c>
       <c r="I37" s="52">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>139</v>
+        <f>H37*G37</f>
+        <v>3.75</v>
+      </c>
+      <c r="J37" s="68" t="s">
+        <v>299</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L37" s="107"/>
-      <c r="M37" s="128"/>
-      <c r="N37" s="124"/>
-    </row>
-    <row r="38" spans="1:14" s="59" customFormat="1">
+        <v>143</v>
+      </c>
+      <c r="L37" s="100"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="113"/>
+    </row>
+    <row r="38" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>141</v>
+        <v>298</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="19">
+        <v>2</v>
+      </c>
+      <c r="G38" s="13">
         <v>10</v>
       </c>
-      <c r="G38" s="13">
-        <v>4.0999999999999996</v>
-      </c>
       <c r="H38" s="19">
+        <v>1</v>
+      </c>
+      <c r="I38" s="52">
+        <f>H38*G38</f>
         <v>10</v>
       </c>
-      <c r="I38" s="52">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>142</v>
+      <c r="J38" s="68" t="s">
+        <v>300</v>
       </c>
       <c r="K38" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="L38" s="107"/>
-      <c r="M38" s="128"/>
-      <c r="N38" s="124"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="113"/>
     </row>
     <row r="39" spans="1:14" s="59" customFormat="1">
       <c r="A39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>140</v>
+      <c r="B39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>47</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E39" s="9"/>
-      <c r="F39" s="19">
+      <c r="F39" s="12">
         <v>5</v>
       </c>
       <c r="G39" s="13">
-        <v>6</v>
-      </c>
-      <c r="H39" s="19">
-        <v>5</v>
+        <v>1.2</v>
+      </c>
+      <c r="H39" s="12">
+        <v>1</v>
       </c>
       <c r="I39" s="52">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>H39*G39</f>
+        <v>1.2</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L39" s="107"/>
-      <c r="M39" s="128"/>
-      <c r="N39" s="124"/>
+        <v>50</v>
+      </c>
+      <c r="L39" s="99"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="113"/>
     </row>
     <row r="40" spans="1:14" s="59" customFormat="1">
       <c r="A40" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>147</v>
+      <c r="B40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E40" s="9"/>
-      <c r="F40" s="19">
-        <v>5</v>
+      <c r="F40" s="12">
+        <v>12</v>
       </c>
       <c r="G40" s="13">
-        <v>4</v>
-      </c>
-      <c r="H40" s="19">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="H40" s="12">
+        <v>3</v>
       </c>
       <c r="I40" s="52">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="J40" s="17" t="s">
-        <v>148</v>
+        <f>H40*G40</f>
+        <v>9</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L40" s="107"/>
-      <c r="M40" s="128"/>
-      <c r="N40" s="124"/>
+        <v>50</v>
+      </c>
+      <c r="L40" s="99"/>
+      <c r="M40" s="117"/>
+      <c r="N40" s="113"/>
     </row>
     <row r="41" spans="1:14" s="59" customFormat="1">
       <c r="A41" s="8" t="s">
@@ -4851,36 +4758,34 @@
         <v>136</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" s="9">
-        <v>200</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E41" s="9"/>
       <c r="F41" s="19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G41" s="13">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="H41" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41" s="52">
-        <f t="shared" si="1"/>
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>59</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="L41" s="107"/>
-      <c r="M41" s="128"/>
-      <c r="N41" s="124"/>
+        <v>122</v>
+      </c>
+      <c r="L41" s="99"/>
+      <c r="M41" s="117"/>
+      <c r="N41" s="113"/>
     </row>
     <row r="42" spans="1:14" s="59" customFormat="1">
       <c r="A42" s="8" t="s">
@@ -4890,648 +4795,800 @@
         <v>136</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G42" s="13">
-        <v>14.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H42" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I42" s="52">
-        <f t="shared" si="1"/>
-        <v>72.5</v>
+        <f t="shared" si="2"/>
+        <v>41</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="L42" s="108"/>
-      <c r="M42" s="128"/>
-      <c r="N42" s="124"/>
+        <v>143</v>
+      </c>
+      <c r="L42" s="99"/>
+      <c r="M42" s="117"/>
+      <c r="N42" s="113"/>
     </row>
     <row r="43" spans="1:14" s="59" customFormat="1">
       <c r="A43" s="8" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="19">
         <v>5</v>
       </c>
       <c r="G43" s="13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H43" s="19">
         <v>5</v>
       </c>
       <c r="I43" s="52">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="K43" s="118" t="s">
-        <v>295</v>
-      </c>
-      <c r="L43" s="109"/>
-      <c r="M43" s="128"/>
-      <c r="N43" s="124"/>
-    </row>
-    <row r="44" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
+        <v>145</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L43" s="99"/>
+      <c r="M43" s="117"/>
+      <c r="N43" s="113"/>
+    </row>
+    <row r="44" spans="1:14" s="59" customFormat="1">
       <c r="A44" s="8" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>198</v>
+        <v>146</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="19">
         <v>5</v>
       </c>
       <c r="G44" s="13">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H44" s="19">
         <v>5</v>
       </c>
       <c r="I44" s="52">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="K44" s="118" t="s">
-        <v>295</v>
-      </c>
-      <c r="L44" s="109"/>
-      <c r="M44" s="128"/>
-      <c r="N44" s="124"/>
+        <v>148</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L44" s="99"/>
+      <c r="M44" s="117"/>
+      <c r="N44" s="113"/>
     </row>
     <row r="45" spans="1:14" s="59" customFormat="1">
       <c r="A45" s="8" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>226</v>
+        <v>136</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="E45" s="9">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F45" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" s="13">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H45" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45" s="52">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="J45" s="17" t="s">
-        <v>227</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="L45" s="108"/>
-      <c r="M45" s="128"/>
-      <c r="N45" s="124"/>
-    </row>
-    <row r="46" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
+        <v>152</v>
+      </c>
+      <c r="L45" s="99"/>
+      <c r="M45" s="117"/>
+      <c r="N45" s="113"/>
+    </row>
+    <row r="46" spans="1:14" s="59" customFormat="1">
       <c r="A46" s="8" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>297</v>
+        <v>153</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>298</v>
+        <v>154</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="19">
         <v>5</v>
       </c>
       <c r="G46" s="13">
-        <v>3.23</v>
+        <v>14.5</v>
       </c>
       <c r="H46" s="19">
         <v>5</v>
       </c>
       <c r="I46" s="52">
-        <f>H46*G46</f>
-        <v>16.149999999999999</v>
-      </c>
-      <c r="J46" s="68" t="s">
-        <v>299</v>
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="L46" s="108"/>
-      <c r="M46" s="128"/>
-      <c r="N46" s="124"/>
+        <v>156</v>
+      </c>
+      <c r="L46" s="100"/>
+      <c r="M46" s="117"/>
+      <c r="N46" s="113"/>
     </row>
     <row r="47" spans="1:14" s="59" customFormat="1">
       <c r="A47" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G47" s="13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H47" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I47" s="52">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="L47" s="108"/>
-      <c r="M47" s="128"/>
-      <c r="N47" s="124"/>
-    </row>
-    <row r="48" spans="1:14" s="59" customFormat="1">
+        <v>161</v>
+      </c>
+      <c r="K47" s="108" t="s">
+        <v>293</v>
+      </c>
+      <c r="L47" s="101"/>
+      <c r="M47" s="117"/>
+      <c r="N47" s="113"/>
+    </row>
+    <row r="48" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>190</v>
+        <v>166</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>198</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G48" s="13">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H48" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I48" s="52">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>125</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="L48" s="108"/>
-      <c r="M48" s="128"/>
-      <c r="N48" s="124"/>
+        <v>161</v>
+      </c>
+      <c r="K48" s="108" t="s">
+        <v>293</v>
+      </c>
+      <c r="L48" s="101"/>
+      <c r="M48" s="117"/>
+      <c r="N48" s="113"/>
     </row>
     <row r="49" spans="1:14" s="59" customFormat="1">
       <c r="A49" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="E49" s="9"/>
+        <v>165</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" s="9">
+        <v>300</v>
+      </c>
       <c r="F49" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" s="13">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H49" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" s="52">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="L49" s="108"/>
-      <c r="M49" s="128"/>
-      <c r="N49" s="124"/>
-    </row>
-    <row r="50" spans="1:14" s="59" customFormat="1">
+        <v>294</v>
+      </c>
+      <c r="L49" s="100"/>
+      <c r="M49" s="117"/>
+      <c r="N49" s="113"/>
+    </row>
+    <row r="50" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>130</v>
+        <v>295</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>195</v>
+        <v>296</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G50" s="13">
+        <v>3.23</v>
+      </c>
+      <c r="H50" s="19">
+        <v>5</v>
+      </c>
+      <c r="I50" s="52">
+        <f>H50*G50</f>
+        <v>16.149999999999999</v>
+      </c>
+      <c r="J50" s="68" t="s">
+        <v>297</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="L50" s="100"/>
+      <c r="M50" s="117"/>
+      <c r="N50" s="113"/>
+    </row>
+    <row r="51" spans="1:14" s="59" customFormat="1">
+      <c r="A51" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="19">
+        <v>1</v>
+      </c>
+      <c r="G51" s="13">
+        <v>3</v>
+      </c>
+      <c r="H51" s="19">
+        <v>1</v>
+      </c>
+      <c r="I51" s="52">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="L51" s="100"/>
+      <c r="M51" s="117"/>
+      <c r="N51" s="113"/>
+    </row>
+    <row r="52" spans="1:14" s="59" customFormat="1">
+      <c r="A52" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="19">
+        <v>1</v>
+      </c>
+      <c r="G52" s="13">
+        <v>12</v>
+      </c>
+      <c r="H52" s="19">
+        <v>1</v>
+      </c>
+      <c r="I52" s="52">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="L52" s="100"/>
+      <c r="M52" s="117"/>
+      <c r="N52" s="113"/>
+    </row>
+    <row r="53" spans="1:14" s="59" customFormat="1">
+      <c r="A53" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="19">
+        <v>1</v>
+      </c>
+      <c r="G53" s="13">
+        <v>12</v>
+      </c>
+      <c r="H53" s="19">
+        <v>1</v>
+      </c>
+      <c r="I53" s="52">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="L53" s="100"/>
+      <c r="M53" s="117"/>
+      <c r="N53" s="113"/>
+    </row>
+    <row r="54" spans="1:14" s="59" customFormat="1">
+      <c r="A54" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="19">
+        <v>1</v>
+      </c>
+      <c r="G54" s="13">
         <f>(3+0.96)</f>
         <v>3.96</v>
       </c>
-      <c r="H50" s="19">
-        <v>1</v>
-      </c>
-      <c r="I50" s="52">
-        <f t="shared" ref="I50" si="2">H50*G50</f>
+      <c r="H54" s="19">
+        <v>1</v>
+      </c>
+      <c r="I54" s="52">
+        <f t="shared" ref="I54" si="3">H54*G54</f>
         <v>3.96</v>
       </c>
-      <c r="J50" s="14" t="s">
+      <c r="J54" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="K50" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="L50" s="108"/>
-      <c r="M50" s="128"/>
-      <c r="N50" s="124"/>
-    </row>
-    <row r="51" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="19">
-        <v>1</v>
-      </c>
-      <c r="G51" s="13">
-        <v>3.72</v>
-      </c>
-      <c r="H51" s="19">
-        <v>1</v>
-      </c>
-      <c r="I51" s="52">
-        <f t="shared" ref="I51:I54" si="3">H51*G51</f>
-        <v>3.72</v>
-      </c>
-      <c r="J51" s="68" t="s">
-        <v>286</v>
-      </c>
-      <c r="K51" s="117" t="s">
-        <v>319</v>
-      </c>
-      <c r="L51" s="108"/>
-      <c r="M51" s="128"/>
-      <c r="N51" s="124"/>
-    </row>
-    <row r="52" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A52" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="19">
-        <v>1</v>
-      </c>
-      <c r="G52" s="13">
-        <v>4</v>
-      </c>
-      <c r="H52" s="19">
-        <v>1</v>
-      </c>
-      <c r="I52" s="52">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J52" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="K52" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="L52" s="108"/>
-      <c r="M52" s="128"/>
-      <c r="N52" s="124"/>
-    </row>
-    <row r="53" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A53" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="19">
-        <v>1</v>
-      </c>
-      <c r="G53" s="13">
-        <v>3</v>
-      </c>
-      <c r="H53" s="19">
-        <v>1</v>
-      </c>
-      <c r="I53" s="52">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="J53" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="K53" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="L53" s="108"/>
-      <c r="M53" s="128"/>
-      <c r="N53" s="124"/>
-    </row>
-    <row r="54" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A54" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="19">
-        <v>1</v>
-      </c>
-      <c r="G54" s="13">
-        <v>3</v>
-      </c>
-      <c r="H54" s="19">
-        <v>1</v>
-      </c>
-      <c r="I54" s="52">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="J54" s="68" t="s">
-        <v>290</v>
-      </c>
       <c r="K54" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="L54" s="108"/>
-      <c r="M54" s="128"/>
-      <c r="N54" s="124"/>
+        <v>231</v>
+      </c>
+      <c r="L54" s="100"/>
+      <c r="M54" s="117"/>
+      <c r="N54" s="113"/>
     </row>
     <row r="55" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>208</v>
+        <v>283</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="19">
         <v>1</v>
       </c>
       <c r="G55" s="13">
+        <v>3.72</v>
+      </c>
+      <c r="H55" s="19">
+        <v>1</v>
+      </c>
+      <c r="I55" s="52">
+        <f t="shared" ref="I55:I58" si="4">H55*G55</f>
+        <v>3.72</v>
+      </c>
+      <c r="J55" s="68" t="s">
+        <v>284</v>
+      </c>
+      <c r="K55" s="107" t="s">
+        <v>314</v>
+      </c>
+      <c r="L55" s="100"/>
+      <c r="M55" s="117"/>
+      <c r="N55" s="113"/>
+    </row>
+    <row r="56" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A56" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="19">
+        <v>1</v>
+      </c>
+      <c r="G56" s="13">
+        <v>4</v>
+      </c>
+      <c r="H56" s="19">
+        <v>1</v>
+      </c>
+      <c r="I56" s="52">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="L56" s="100"/>
+      <c r="M56" s="117"/>
+      <c r="N56" s="113"/>
+    </row>
+    <row r="57" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A57" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="19">
+        <v>1</v>
+      </c>
+      <c r="G57" s="13">
+        <v>3</v>
+      </c>
+      <c r="H57" s="19">
+        <v>1</v>
+      </c>
+      <c r="I57" s="52">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="L57" s="100"/>
+      <c r="M57" s="117"/>
+      <c r="N57" s="113"/>
+    </row>
+    <row r="58" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A58" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="19">
+        <v>1</v>
+      </c>
+      <c r="G58" s="13">
+        <v>3</v>
+      </c>
+      <c r="H58" s="19">
+        <v>1</v>
+      </c>
+      <c r="I58" s="52">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J58" s="68" t="s">
+        <v>288</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="L58" s="100"/>
+      <c r="M58" s="117"/>
+      <c r="N58" s="113"/>
+    </row>
+    <row r="59" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A59" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="19">
+        <v>1</v>
+      </c>
+      <c r="G59" s="13">
         <v>21.5</v>
       </c>
-      <c r="H55" s="19">
-        <v>1</v>
-      </c>
-      <c r="I55" s="52">
-        <f>G55*H55</f>
+      <c r="H59" s="19">
+        <v>1</v>
+      </c>
+      <c r="I59" s="52">
+        <f>G59*H59</f>
         <v>21.5</v>
       </c>
-      <c r="J55" s="68" t="s">
+      <c r="J59" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="K55" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="L55" s="110"/>
-      <c r="M55" s="128"/>
-      <c r="N55" s="124"/>
-    </row>
-    <row r="56" spans="1:14" s="59" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A56" s="112"/>
-      <c r="B56" s="85" t="s">
+      <c r="K59" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="L59" s="102"/>
+      <c r="M59" s="117"/>
+      <c r="N59" s="113"/>
+    </row>
+    <row r="60" spans="1:14" s="59" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A60" s="104"/>
+      <c r="B60" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="86" t="s">
-        <v>247</v>
-      </c>
-      <c r="D56" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="E56" s="87"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="88">
-        <v>1</v>
-      </c>
-      <c r="I56" s="90">
+      <c r="C60" s="86" t="s">
+        <v>245</v>
+      </c>
+      <c r="D60" s="85" t="s">
+        <v>278</v>
+      </c>
+      <c r="E60" s="87"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="89"/>
+      <c r="H60" s="88">
+        <v>1</v>
+      </c>
+      <c r="I60" s="90">
         <f>'Hardware List'!F47</f>
         <v>238.46999999999997</v>
       </c>
-      <c r="J56" s="91"/>
-      <c r="K56" s="92"/>
-      <c r="L56" s="111"/>
-      <c r="M56" s="128"/>
-      <c r="N56" s="124"/>
-    </row>
-    <row r="57" spans="1:14" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A57" s="61"/>
-      <c r="B57" s="62" t="s">
+      <c r="J60" s="91"/>
+      <c r="K60" s="92"/>
+      <c r="L60" s="103"/>
+      <c r="M60" s="117"/>
+      <c r="N60" s="113"/>
+    </row>
+    <row r="61" spans="1:14" s="7" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A61" s="61"/>
+      <c r="B61" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="D57" s="63" t="s">
+      <c r="C61" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="D61" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="65">
-        <f>SUM(I16:I56)+I14</f>
-        <v>1844.3840000000005</v>
-      </c>
-      <c r="J57" s="63"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="56"/>
-      <c r="M57" s="129"/>
-      <c r="N57" s="127"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="65">
+        <f>SUM(I20:I60)+I14</f>
+        <v>1897.6400000000003</v>
+      </c>
+      <c r="J61" s="63"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="118"/>
+      <c r="N61" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="M15:N20"/>
+    <mergeCell ref="M22:N23"/>
+    <mergeCell ref="M25:N26"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J16" r:id="rId1" display="20X20X18MM 500MM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J19" r:id="rId3" display="Size: 310x310mm" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J35" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J36" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J21" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J22" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J23" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J25" r:id="rId11" display="1x Select Color: 220V/110V" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L26" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J27" r:id="rId14" display="1x 10Pcs Temperature: 160 degree" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J30" r:id="rId15" display="Color: Dragon-Standard flow" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J32" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J37" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J38" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J39" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J40" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J41" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J42" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J47" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J48" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J50" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J26" r:id="rId28" display="Genuine Omron Solid State Relay" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L25" r:id="rId29" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L22" r:id="rId30" display="1x TMC2209 x8" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="L29" r:id="rId31" display="1x ADXL345 Accelerometer" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J43" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J44" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J45" r:id="rId34" display="TBD" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J31" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="L19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J15" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J55" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J52" r:id="rId39" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J53" r:id="rId40" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J54" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J51" r:id="rId42" xr:uid="{AA63318B-CE23-4460-98F0-9BED57088735}"/>
-    <hyperlink ref="J46" r:id="rId43" xr:uid="{C73F053A-AB99-4F9A-AB96-34675FD56AAD}"/>
-    <hyperlink ref="J33" r:id="rId44" xr:uid="{6B0C3554-C92C-477C-968B-C3A56DEE5BB2}"/>
-    <hyperlink ref="J34" r:id="rId45" xr:uid="{230B31B2-E3E9-4D33-8792-EA389633978B}"/>
-    <hyperlink ref="J17" r:id="rId46" xr:uid="{AE44EAD7-69DD-4806-9E2F-C1401214B95A}"/>
-    <hyperlink ref="J4" r:id="rId47" xr:uid="{DEB61E4F-1486-491A-838D-61337A0DB5B3}"/>
-    <hyperlink ref="J5" r:id="rId48" xr:uid="{B0B2353F-D76B-49D2-92E2-924AA7C3940B}"/>
-    <hyperlink ref="J6" r:id="rId49" xr:uid="{A49E22B6-E552-4BE6-8729-184F520A838F}"/>
-    <hyperlink ref="J7" r:id="rId50" xr:uid="{47004657-0518-4245-B471-B34B5125E399}"/>
-    <hyperlink ref="J8" r:id="rId51" xr:uid="{6BAD6695-28C3-4B6D-8A72-B08E82F940DF}"/>
-    <hyperlink ref="J9" r:id="rId52" display="Color: 10pcs 2028" xr:uid="{C4B95C3B-16B9-4394-9F39-5B9FF78AC176}"/>
-    <hyperlink ref="J11" r:id="rId53" display="3x GL: 350 - Color: MGN12 H" xr:uid="{9DCC9853-4D9E-4093-9D52-2A218587FDA4}"/>
-    <hyperlink ref="J12" r:id="rId54" display="2x GL: 400 - Color: MGN12 H" xr:uid="{A43DD5EF-D822-48AA-A6D3-DB6211D18B07}"/>
-    <hyperlink ref="J13" r:id="rId55" display="1x GL: 400 - Color: MGN9 H" xr:uid="{792C8BB0-E4E5-4DDC-8020-C3F9BE9E4B2E}"/>
-    <hyperlink ref="J10" r:id="rId56" xr:uid="{3FB75D13-E1B1-4B85-B99D-0379606A4DAC}"/>
-    <hyperlink ref="J14" r:id="rId57" xr:uid="{BBCEEBDE-1F15-4765-BD26-7DC0C65AB61B}"/>
-    <hyperlink ref="M10" r:id="rId58" xr:uid="{03D23144-4452-41B9-B4B9-F51023FDC698}"/>
-    <hyperlink ref="M11" r:id="rId59" xr:uid="{410E10AD-6201-406C-BD2E-0E2A08BBF18C}"/>
-    <hyperlink ref="M12" r:id="rId60" xr:uid="{D0E8BE37-F76A-4921-AA1C-3F7A7D64A7BC}"/>
+    <hyperlink ref="J20" r:id="rId1" display="20X20X18MM 500MM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J23" r:id="rId3" display="Size: 310x310mm" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J39" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J40" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J25" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J26" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J28" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J29" r:id="rId11" display="1x Select Color: 220V/110V" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L30" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J32" r:id="rId13" display="3D Touch" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J31" r:id="rId14" display="1x 10Pcs Temperature: 160 degree" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J34" r:id="rId15" display="Color: Dragon-Standard flow" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J36" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J42" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J43" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J44" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J45" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J46" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J51" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J52" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J53" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J54" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J33" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J30" r:id="rId28" display="Genuine Omron Solid State Relay" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L29" r:id="rId29" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L26" r:id="rId30" display="1x TMC2209 x8" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L33" r:id="rId31" display="1x ADXL345 Accelerometer" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J47" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J48" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J49" r:id="rId34" display="TBD" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J35" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L23" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J59" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J56" r:id="rId38" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J57" r:id="rId39" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J58" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J55" r:id="rId41" xr:uid="{AA63318B-CE23-4460-98F0-9BED57088735}"/>
+    <hyperlink ref="J50" r:id="rId42" xr:uid="{C73F053A-AB99-4F9A-AB96-34675FD56AAD}"/>
+    <hyperlink ref="J37" r:id="rId43" xr:uid="{6B0C3554-C92C-477C-968B-C3A56DEE5BB2}"/>
+    <hyperlink ref="J38" r:id="rId44" xr:uid="{230B31B2-E3E9-4D33-8792-EA389633978B}"/>
+    <hyperlink ref="J21" r:id="rId45" xr:uid="{AE44EAD7-69DD-4806-9E2F-C1401214B95A}"/>
+    <hyperlink ref="J4" r:id="rId46" xr:uid="{DEB61E4F-1486-491A-838D-61337A0DB5B3}"/>
+    <hyperlink ref="J5" r:id="rId47" xr:uid="{B0B2353F-D76B-49D2-92E2-924AA7C3940B}"/>
+    <hyperlink ref="J6" r:id="rId48" xr:uid="{A49E22B6-E552-4BE6-8729-184F520A838F}"/>
+    <hyperlink ref="J7" r:id="rId49" xr:uid="{47004657-0518-4245-B471-B34B5125E399}"/>
+    <hyperlink ref="J8" r:id="rId50" xr:uid="{6BAD6695-28C3-4B6D-8A72-B08E82F940DF}"/>
+    <hyperlink ref="J9" r:id="rId51" display="Color: 10pcs 2028" xr:uid="{C4B95C3B-16B9-4394-9F39-5B9FF78AC176}"/>
+    <hyperlink ref="J11" r:id="rId52" display="3x GL: 350 - Color: MGN12 H" xr:uid="{9DCC9853-4D9E-4093-9D52-2A218587FDA4}"/>
+    <hyperlink ref="J12" r:id="rId53" display="2x GL: 400 - Color: MGN12 H" xr:uid="{A43DD5EF-D822-48AA-A6D3-DB6211D18B07}"/>
+    <hyperlink ref="J13" r:id="rId54" display="1x GL: 400 - Color: MGN9 H" xr:uid="{792C8BB0-E4E5-4DDC-8020-C3F9BE9E4B2E}"/>
+    <hyperlink ref="J10" r:id="rId55" xr:uid="{3FB75D13-E1B1-4B85-B99D-0379606A4DAC}"/>
+    <hyperlink ref="M10" r:id="rId56" xr:uid="{03D23144-4452-41B9-B4B9-F51023FDC698}"/>
+    <hyperlink ref="M11" r:id="rId57" xr:uid="{410E10AD-6201-406C-BD2E-0E2A08BBF18C}"/>
+    <hyperlink ref="M12" r:id="rId58" xr:uid="{D0E8BE37-F76A-4921-AA1C-3F7A7D64A7BC}"/>
+    <hyperlink ref="J16" r:id="rId59" display="Makersupplies Complete Kit" xr:uid="{036B3E6D-568B-4079-9529-92EC099AA1B7}"/>
+    <hyperlink ref="J17" r:id="rId60" xr:uid="{3707A5E6-020E-4B23-B131-7499054C07E0}"/>
+    <hyperlink ref="J19" r:id="rId61" xr:uid="{A9A16167-FCF8-4CCB-AF52-C298BD6D8154}"/>
+    <hyperlink ref="J18" r:id="rId62" xr:uid="{2EF5411B-8136-4A92-8C0B-6EDC3731093C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="68" fitToWidth="0" orientation="landscape" r:id="rId61"/>
-  <drawing r:id="rId62"/>
-  <legacyDrawing r:id="rId63"/>
+  <pageSetup paperSize="9" scale="68" fitToWidth="0" orientation="landscape" r:id="rId63"/>
+  <drawing r:id="rId64"/>
+  <legacyDrawing r:id="rId65"/>
   <tableParts count="1">
-    <tablePart r:id="rId64"/>
+    <tablePart r:id="rId66"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5566,19 +5623,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" thickBot="1">
-      <c r="A1" s="130" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
+      <c r="A1" s="119" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
     </row>
     <row r="2" spans="1:20" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A2" s="61" t="s">
@@ -5598,8 +5655,8 @@
       <c r="H2" s="66"/>
       <c r="I2" s="67"/>
       <c r="J2" s="72"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="121"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="110"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -5641,7 +5698,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="78"/>
-      <c r="L3" s="122"/>
+      <c r="L3" s="111"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -5673,17 +5730,17 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="G4" s="69" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>183</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="74"/>
-      <c r="K4" s="123" t="s">
+      <c r="K4" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="124"/>
+      <c r="L4" s="113"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="51" t="s">
@@ -5717,10 +5774,10 @@
       <c r="J5" s="73">
         <v>4032</v>
       </c>
-      <c r="K5" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="124"/>
+      <c r="K5" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="113"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="51" t="s">
@@ -5750,17 +5807,17 @@
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="74"/>
-      <c r="K6" s="125" t="s">
+      <c r="K6" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="124"/>
+      <c r="L6" s="113"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C7" s="19">
         <v>6</v>
@@ -5786,10 +5843,10 @@
       <c r="J7" s="73">
         <v>10511</v>
       </c>
-      <c r="K7" s="125" t="s">
+      <c r="K7" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="124"/>
+      <c r="L7" s="113"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="55" t="s">
@@ -5822,14 +5879,14 @@
       </c>
       <c r="J8" s="75"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="124"/>
+      <c r="L8" s="113"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="29" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C9" s="53">
         <v>8</v>
@@ -5844,7 +5901,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H9" s="32" t="s">
         <v>50</v>
@@ -5853,10 +5910,10 @@
         <v>916</v>
       </c>
       <c r="J9" s="75"/>
-      <c r="K9" s="123" t="s">
-        <v>309</v>
-      </c>
-      <c r="L9" s="124"/>
+      <c r="K9" s="112" t="s">
+        <v>307</v>
+      </c>
+      <c r="L9" s="113"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="51" t="s">
@@ -5888,17 +5945,17 @@
       <c r="J10" s="73">
         <v>7380</v>
       </c>
-      <c r="K10" s="126" t="s">
-        <v>310</v>
-      </c>
-      <c r="L10" s="124"/>
+      <c r="K10" s="115" t="s">
+        <v>308</v>
+      </c>
+      <c r="L10" s="113"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="57" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C11" s="9">
         <v>11</v>
@@ -5913,7 +5970,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G11" s="68" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H11" s="60" t="s">
         <v>50</v>
@@ -5924,10 +5981,10 @@
       <c r="J11" s="73">
         <v>10642</v>
       </c>
-      <c r="K11" s="126" t="s">
-        <v>311</v>
-      </c>
-      <c r="L11" s="124"/>
+      <c r="K11" s="115" t="s">
+        <v>309</v>
+      </c>
+      <c r="L11" s="113"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="51" t="s">
@@ -5959,10 +6016,10 @@
         <v>912</v>
       </c>
       <c r="J12" s="74"/>
-      <c r="K12" s="126" t="s">
-        <v>312</v>
-      </c>
-      <c r="L12" s="124"/>
+      <c r="K12" s="115" t="s">
+        <v>310</v>
+      </c>
+      <c r="L12" s="113"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="51" t="s">
@@ -5994,15 +6051,15 @@
       <c r="J13" s="73">
         <v>7380</v>
       </c>
-      <c r="K13" s="125"/>
-      <c r="L13" s="124"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="113"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="57" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C14" s="9">
         <v>29</v>
@@ -6017,7 +6074,7 @@
         <v>1.07</v>
       </c>
       <c r="G14" s="68" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H14" s="60" t="s">
         <v>50</v>
@@ -6028,8 +6085,8 @@
       <c r="J14" s="73">
         <v>4762</v>
       </c>
-      <c r="K14" s="125"/>
-      <c r="L14" s="124"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="113"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="51" t="s">
@@ -6061,17 +6118,17 @@
       <c r="J15" s="74">
         <v>7380</v>
       </c>
-      <c r="K15" s="131" t="s">
-        <v>321</v>
-      </c>
-      <c r="L15" s="132"/>
+      <c r="K15" s="120" t="s">
+        <v>315</v>
+      </c>
+      <c r="L15" s="121"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="57" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C16" s="9">
         <v>4</v>
@@ -6087,7 +6144,7 @@
         <v>1.5</v>
       </c>
       <c r="G16" s="68" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>50</v>
@@ -6096,8 +6153,8 @@
         <v>912</v>
       </c>
       <c r="J16" s="74"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="132"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="121"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
@@ -6128,8 +6185,8 @@
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="74"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="124"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="113"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
@@ -6160,10 +6217,10 @@
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="73"/>
-      <c r="K18" s="131" t="s">
-        <v>324</v>
-      </c>
-      <c r="L18" s="132"/>
+      <c r="K18" s="120" t="s">
+        <v>318</v>
+      </c>
+      <c r="L18" s="121"/>
     </row>
     <row r="19" spans="1:12" s="30" customFormat="1">
       <c r="A19" s="51" t="s">
@@ -6193,15 +6250,15 @@
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="73"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="132"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="121"/>
     </row>
     <row r="20" spans="1:12" s="30" customFormat="1">
       <c r="A20" s="57" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C20" s="9">
         <v>1</v>
@@ -6224,8 +6281,8 @@
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="73"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="124"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="113"/>
     </row>
     <row r="21" spans="1:12" s="30" customFormat="1">
       <c r="A21" s="51" t="s">
@@ -6259,17 +6316,17 @@
       <c r="J21" s="74">
         <v>4032</v>
       </c>
-      <c r="K21" s="131" t="s">
-        <v>323</v>
-      </c>
-      <c r="L21" s="132"/>
+      <c r="K21" s="120" t="s">
+        <v>317</v>
+      </c>
+      <c r="L21" s="121"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="51" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C22" s="9">
         <v>9</v>
@@ -6296,8 +6353,8 @@
       <c r="J22" s="73">
         <v>10511</v>
       </c>
-      <c r="K22" s="131"/>
-      <c r="L22" s="132"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="121"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="51" t="s">
@@ -6331,8 +6388,8 @@
       <c r="J23" s="74">
         <v>7089</v>
       </c>
-      <c r="K23" s="128"/>
-      <c r="L23" s="124"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="113"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="51" t="s">
@@ -6366,8 +6423,8 @@
       <c r="J24" s="73">
         <v>10642</v>
       </c>
-      <c r="K24" s="128"/>
-      <c r="L24" s="124"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="113"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="51" t="s">
@@ -6401,15 +6458,15 @@
       <c r="J25" s="74">
         <v>10642</v>
       </c>
-      <c r="K25" s="128"/>
-      <c r="L25" s="124"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="113"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="51" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="82" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C26" s="9">
         <v>4</v>
@@ -6425,7 +6482,7 @@
         <v>3.28</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>50</v>
@@ -6434,8 +6491,8 @@
         <v>7991</v>
       </c>
       <c r="J26" s="74"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="124"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="113"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="51" t="s">
@@ -6469,8 +6526,8 @@
       <c r="J27" s="73">
         <v>4032</v>
       </c>
-      <c r="K27" s="128"/>
-      <c r="L27" s="124"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="113"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="51" t="s">
@@ -6500,8 +6557,8 @@
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="74"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="124"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="113"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="51" t="s">
@@ -6535,8 +6592,8 @@
       <c r="J29" s="73">
         <v>10511</v>
       </c>
-      <c r="K29" s="128"/>
-      <c r="L29" s="124"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="113"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="51" t="s">
@@ -6566,15 +6623,15 @@
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="74"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="124"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="113"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="8" t="s">
         <v>175</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C31" s="19">
         <v>1</v>
@@ -6594,12 +6651,12 @@
         <v>176</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="73"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="124"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="113"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="51" t="s">
@@ -6633,8 +6690,8 @@
       <c r="J32" s="73">
         <v>7089</v>
       </c>
-      <c r="K32" s="128"/>
-      <c r="L32" s="124"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="113"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="51" t="s">
@@ -6666,8 +6723,8 @@
       <c r="J33" s="74">
         <v>7380</v>
       </c>
-      <c r="K33" s="128"/>
-      <c r="L33" s="124"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="113"/>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="51" t="s">
@@ -6699,15 +6756,15 @@
       <c r="J34" s="73">
         <v>7380</v>
       </c>
-      <c r="K34" s="128"/>
-      <c r="L34" s="124"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="113"/>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="57" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="80" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C35" s="9">
         <v>4</v>
@@ -6722,7 +6779,7 @@
         <v>1.64</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>82</v>
@@ -6731,8 +6788,8 @@
       <c r="J35" s="73">
         <v>7380</v>
       </c>
-      <c r="K35" s="128"/>
-      <c r="L35" s="124"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="113"/>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="51" t="s">
@@ -6764,15 +6821,15 @@
         <v>933</v>
       </c>
       <c r="J36" s="74"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="124"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="113"/>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="57" t="s">
         <v>106</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C37" s="9">
         <v>15</v>
@@ -6788,7 +6845,7 @@
         <v>6.08</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>50</v>
@@ -6797,8 +6854,8 @@
         <v>933</v>
       </c>
       <c r="J37" s="74"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="124"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="113"/>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="22" t="s">
@@ -6828,15 +6885,15 @@
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="73"/>
-      <c r="K38" s="128"/>
-      <c r="L38" s="124"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="113"/>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="83" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C39" s="19">
         <v>1</v>
@@ -6851,15 +6908,15 @@
         <v>9.5</v>
       </c>
       <c r="G39" s="68" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H39" s="60" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I39" s="20"/>
       <c r="J39" s="73"/>
-      <c r="K39" s="128"/>
-      <c r="L39" s="124"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="113"/>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="51" t="s">
@@ -6889,15 +6946,15 @@
       </c>
       <c r="I40" s="16"/>
       <c r="J40" s="74"/>
-      <c r="K40" s="128"/>
-      <c r="L40" s="124"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="113"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="57" t="s">
         <v>59</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C41" s="9">
         <v>3</v>
@@ -6920,15 +6977,15 @@
       </c>
       <c r="I41" s="16"/>
       <c r="J41" s="74"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="124"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="113"/>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C42" s="19">
         <v>6</v>
@@ -6937,21 +6994,21 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F42" s="52">
         <v>9.1999999999999993</v>
       </c>
       <c r="G42" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H42" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>276</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="73"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="124"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="113"/>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="22" t="s">
@@ -6981,8 +7038,8 @@
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="73"/>
-      <c r="K43" s="128"/>
-      <c r="L43" s="124"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="113"/>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="51" t="s">
@@ -7012,8 +7069,8 @@
       </c>
       <c r="I44" s="16"/>
       <c r="J44" s="74"/>
-      <c r="K44" s="128"/>
-      <c r="L44" s="124"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="113"/>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="57" t="s">
@@ -7044,8 +7101,8 @@
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="74"/>
-      <c r="K45" s="128"/>
-      <c r="L45" s="124"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="113"/>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="8" t="s">
@@ -7072,12 +7129,12 @@
         <v>217</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="73"/>
-      <c r="K46" s="128"/>
-      <c r="L46" s="124"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="113"/>
     </row>
     <row r="47" spans="1:20" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A47" s="41" t="s">
@@ -7097,8 +7154,8 @@
       <c r="H47" s="40"/>
       <c r="I47" s="44"/>
       <c r="J47" s="77"/>
-      <c r="K47" s="129"/>
-      <c r="L47" s="127"/>
+      <c r="K47" s="118"/>
+      <c r="L47" s="116"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
@@ -7180,11 +7237,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7205,20 +7262,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27">
-      <c r="A1" s="130" t="s">
-        <v>318</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
+      <c r="A1" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -7227,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -7239,7 +7296,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="84" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -7250,7 +7307,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -7260,7 +7317,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="84" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -7270,7 +7327,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D6" s="63" t="s">
         <v>5</v>
@@ -7280,8 +7337,8 @@
       <c r="G6" s="63"/>
       <c r="H6" s="64"/>
       <c r="I6" s="65">
-        <f>I46</f>
-        <v>1461.0540000000001</v>
+        <f>I50</f>
+        <v>1509.31</v>
       </c>
       <c r="J6" s="63"/>
       <c r="K6" s="71"/>
@@ -7354,12 +7411,12 @@
         <v>8</v>
       </c>
       <c r="J8" s="81" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="101"/>
+      <c r="L8" s="93"/>
     </row>
     <row r="9" spans="1:12" s="59" customFormat="1">
       <c r="A9" s="8" t="s">
@@ -7388,7 +7445,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="52">
-        <f t="shared" ref="I9:I44" si="0">H9*G9</f>
+        <f t="shared" ref="I9:I48" si="0">H9*G9</f>
         <v>9.5</v>
       </c>
       <c r="J9" s="35" t="s">
@@ -7397,7 +7454,7 @@
       <c r="K9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="102"/>
+      <c r="L9" s="94"/>
     </row>
     <row r="10" spans="1:12" s="59" customFormat="1">
       <c r="A10" s="8" t="s">
@@ -7434,7 +7491,7 @@
       <c r="K10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="103"/>
+      <c r="L10" s="95"/>
     </row>
     <row r="11" spans="1:12" s="59" customFormat="1">
       <c r="A11" s="8" t="s">
@@ -7471,7 +7528,7 @@
       <c r="K11" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="102"/>
+      <c r="L11" s="94"/>
     </row>
     <row r="12" spans="1:12" s="59" customFormat="1">
       <c r="A12" s="8" t="s">
@@ -7508,7 +7565,7 @@
       <c r="K12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="103"/>
+      <c r="L12" s="95"/>
     </row>
     <row r="13" spans="1:12" s="59" customFormat="1">
       <c r="A13" s="8" t="s">
@@ -7543,7 +7600,7 @@
       <c r="K13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="102"/>
+      <c r="L13" s="94"/>
     </row>
     <row r="14" spans="1:12" s="59" customFormat="1">
       <c r="A14" s="8" t="s">
@@ -7556,7 +7613,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="12">
@@ -7573,12 +7630,12 @@
         <v>40</v>
       </c>
       <c r="J14" s="79" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="104"/>
+      <c r="L14" s="96"/>
     </row>
     <row r="15" spans="1:12" s="59" customFormat="1">
       <c r="A15" s="8" t="s">
@@ -7610,12 +7667,12 @@
         <v>46.8</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K15" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="105"/>
+      <c r="L15" s="97"/>
     </row>
     <row r="16" spans="1:12" s="59" customFormat="1">
       <c r="A16" s="8" t="s">
@@ -7647,12 +7704,12 @@
         <v>35</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K16" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="105"/>
+      <c r="L16" s="97"/>
     </row>
     <row r="17" spans="1:12" s="59" customFormat="1">
       <c r="A17" s="8" t="s">
@@ -7684,12 +7741,12 @@
         <v>16</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K17" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="105"/>
+      <c r="L17" s="97"/>
     </row>
     <row r="18" spans="1:12" s="59" customFormat="1" ht="15.75" thickBot="1">
       <c r="A18" s="8" t="s">
@@ -7701,384 +7758,358 @@
       <c r="C18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>315</v>
+      <c r="D18" s="83" t="s">
+        <v>332</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="19"/>
       <c r="G18" s="13"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="52">
-        <f>SUBTOTAL(109,I8:I17)</f>
-        <v>325.74400000000003</v>
-      </c>
-      <c r="J18" s="79" t="s">
-        <v>316</v>
-      </c>
+      <c r="I18" s="105">
+        <f>G22+G23</f>
+        <v>374</v>
+      </c>
+      <c r="J18" s="79"/>
       <c r="K18" s="37"/>
-      <c r="L18" s="105"/>
+      <c r="L18" s="97"/>
     </row>
     <row r="19" spans="1:12" s="59" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="96" t="s">
-        <v>221</v>
-      </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="97">
-        <v>1</v>
-      </c>
-      <c r="G19" s="98" t="s">
-        <v>161</v>
-      </c>
-      <c r="H19" s="97">
-        <v>1</v>
-      </c>
-      <c r="I19" s="113" t="s">
-        <v>161</v>
-      </c>
-      <c r="J19" s="99" t="s">
-        <v>222</v>
-      </c>
-      <c r="K19" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="106"/>
+      <c r="D19" s="143" t="s">
+        <v>330</v>
+      </c>
+      <c r="E19" s="142"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="L19" s="98"/>
     </row>
     <row r="20" spans="1:12" s="59" customFormat="1">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="9">
-        <v>410</v>
-      </c>
-      <c r="F20" s="12">
-        <v>1</v>
-      </c>
-      <c r="G20" s="13">
-        <v>20</v>
-      </c>
-      <c r="H20" s="12">
-        <v>1</v>
-      </c>
+      <c r="C20" s="123" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="124" t="s">
+        <v>321</v>
+      </c>
+      <c r="E20" s="123"/>
+      <c r="F20" s="125">
+        <v>1</v>
+      </c>
+      <c r="G20" s="126">
+        <v>720</v>
+      </c>
+      <c r="H20" s="125"/>
       <c r="I20" s="52">
         <f>H20*G20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="94" t="s">
+        <v>326</v>
+      </c>
+      <c r="K20" s="137" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="94"/>
+    </row>
+    <row r="21" spans="1:12" s="59" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A21" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="K20" s="15" t="s">
+      <c r="B21" s="123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="123" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="124" t="s">
+        <v>322</v>
+      </c>
+      <c r="E21" s="123"/>
+      <c r="F21" s="125">
+        <v>1</v>
+      </c>
+      <c r="G21" s="126">
+        <v>577</v>
+      </c>
+      <c r="H21" s="125"/>
+      <c r="I21" s="52">
+        <f t="shared" ref="I21:I23" si="1">H21*G21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="94" t="s">
+        <v>327</v>
+      </c>
+      <c r="K21" s="137" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="94"/>
+    </row>
+    <row r="22" spans="1:12" s="59" customFormat="1">
+      <c r="A22" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="128" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="129" t="s">
+        <v>325</v>
+      </c>
+      <c r="E22" s="128"/>
+      <c r="F22" s="130">
+        <v>1</v>
+      </c>
+      <c r="G22" s="131">
+        <v>175</v>
+      </c>
+      <c r="H22" s="130"/>
+      <c r="I22" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="93" t="s">
+        <v>328</v>
+      </c>
+      <c r="K22" s="140" t="s">
+        <v>323</v>
+      </c>
+      <c r="L22" s="94"/>
+    </row>
+    <row r="23" spans="1:12" s="59" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A23" s="132" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="133" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="133" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="134" t="s">
+        <v>324</v>
+      </c>
+      <c r="E23" s="133"/>
+      <c r="F23" s="135">
+        <v>1</v>
+      </c>
+      <c r="G23" s="136">
+        <v>199</v>
+      </c>
+      <c r="H23" s="135"/>
+      <c r="I23" s="139">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="150" t="s">
+        <v>329</v>
+      </c>
+      <c r="K23" s="138" t="s">
+        <v>323</v>
+      </c>
+      <c r="L23" s="94"/>
+    </row>
+    <row r="24" spans="1:12" s="59" customFormat="1">
+      <c r="A24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="9">
+        <v>410</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13">
+        <v>20</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
+      <c r="I24" s="52">
+        <f>H24*G24</f>
+        <v>20</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="K24" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="107"/>
-    </row>
-    <row r="21" spans="1:12" s="59" customFormat="1">
-      <c r="A21" s="8" t="s">
+      <c r="L24" s="99"/>
+    </row>
+    <row r="25" spans="1:12" s="59" customFormat="1">
+      <c r="A25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C25" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E25" s="9">
         <v>350</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F25" s="12">
         <v>1225</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G25" s="13">
         <v>0.08</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H25" s="12">
         <v>1225</v>
       </c>
-      <c r="I21" s="52">
+      <c r="I25" s="52">
         <v>104</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="107"/>
-    </row>
-    <row r="22" spans="1:12" s="59" customFormat="1">
-      <c r="A22" s="8" t="s">
+      <c r="L25" s="99"/>
+    </row>
+    <row r="26" spans="1:12" s="59" customFormat="1">
+      <c r="A26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C26" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D26" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E26" s="9">
         <v>330</v>
       </c>
-      <c r="F22" s="12">
-        <v>1</v>
-      </c>
-      <c r="G22" s="13">
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13">
         <v>46</v>
       </c>
-      <c r="H22" s="12">
-        <v>1</v>
-      </c>
-      <c r="I22" s="52">
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
+      <c r="I26" s="52">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="J22" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="K22" s="15" t="s">
+      <c r="J26" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="105" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="59" customFormat="1">
-      <c r="A23" s="8" t="s">
+      <c r="L26" s="97" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="59" customFormat="1">
+      <c r="A27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C27" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="12">
+      <c r="E27" s="9"/>
+      <c r="F27" s="12">
         <v>6</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G27" s="13">
         <v>3</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H27" s="12">
         <v>2</v>
       </c>
-      <c r="I23" s="52">
+      <c r="I27" s="52">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J27" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L23" s="107"/>
-    </row>
-    <row r="24" spans="1:12" s="59" customFormat="1">
-      <c r="A24" s="8" t="s">
+      <c r="L27" s="99"/>
+    </row>
+    <row r="28" spans="1:12" s="59" customFormat="1">
+      <c r="A28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C28" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="12">
+      <c r="E28" s="9"/>
+      <c r="F28" s="12">
         <v>3</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G28" s="13">
         <v>3</v>
       </c>
-      <c r="H24" s="12">
-        <v>1</v>
-      </c>
-      <c r="I24" s="52">
+      <c r="H28" s="12">
+        <v>1</v>
+      </c>
+      <c r="I28" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J28" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K28" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="107"/>
-    </row>
-    <row r="25" spans="1:12" s="59" customFormat="1">
-      <c r="A25" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="19">
-        <v>1</v>
-      </c>
-      <c r="G25" s="13">
-        <v>145</v>
-      </c>
-      <c r="H25" s="19">
-        <v>1</v>
-      </c>
-      <c r="I25" s="52">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L25" s="105" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="59" customFormat="1">
-      <c r="A26" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="19">
-        <v>1</v>
-      </c>
-      <c r="G26" s="13">
-        <v>23</v>
-      </c>
-      <c r="H26" s="19">
-        <v>1</v>
-      </c>
-      <c r="I26" s="52">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="L26" s="107"/>
-    </row>
-    <row r="27" spans="1:12" s="59" customFormat="1">
-      <c r="A27" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="19">
-        <v>1</v>
-      </c>
-      <c r="G27" s="13">
-        <v>7.5</v>
-      </c>
-      <c r="H27" s="19">
-        <v>1</v>
-      </c>
-      <c r="I27" s="52">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L27" s="107"/>
-    </row>
-    <row r="28" spans="1:12" s="59" customFormat="1">
-      <c r="A28" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E28" s="9">
-        <v>300</v>
-      </c>
-      <c r="F28" s="19">
-        <v>1</v>
-      </c>
-      <c r="G28" s="13">
-        <v>78.39</v>
-      </c>
-      <c r="H28" s="19">
-        <v>1</v>
-      </c>
-      <c r="I28" s="52">
-        <f t="shared" si="0"/>
-        <v>78.39</v>
-      </c>
-      <c r="J28" s="69" t="s">
-        <v>250</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="L28" s="105" t="s">
-        <v>218</v>
-      </c>
+      <c r="L28" s="99"/>
     </row>
     <row r="29" spans="1:12" s="59" customFormat="1">
       <c r="A29" s="8" t="s">
@@ -8088,33 +8119,33 @@
         <v>112</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>124</v>
+        <v>113</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>247</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="19">
         <v>1</v>
       </c>
       <c r="G29" s="13">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="H29" s="19">
         <v>1</v>
       </c>
       <c r="I29" s="52">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="J29" s="70" t="s">
-        <v>251</v>
+        <v>145</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>246</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L29" s="105" t="s">
-        <v>125</v>
+        <v>114</v>
+      </c>
+      <c r="L29" s="97" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="59" customFormat="1">
@@ -8125,454 +8156,460 @@
         <v>112</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>244</v>
+        <v>115</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="19">
         <v>1</v>
       </c>
       <c r="G30" s="13">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H30" s="19">
         <v>1</v>
       </c>
       <c r="I30" s="52">
-        <f>H30*G30</f>
-        <v>3</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>241</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="L30" s="107"/>
+        <v>118</v>
+      </c>
+      <c r="L30" s="99"/>
     </row>
     <row r="31" spans="1:12" s="59" customFormat="1">
       <c r="A31" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="19">
         <v>1</v>
       </c>
       <c r="G31" s="13">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="H31" s="19">
         <v>1</v>
       </c>
       <c r="I31" s="52">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="L31" s="107"/>
+      <c r="L31" s="99"/>
     </row>
     <row r="32" spans="1:12" s="59" customFormat="1">
       <c r="A32" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="E32" s="9"/>
+        <v>123</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="9">
+        <v>300</v>
+      </c>
       <c r="F32" s="19">
         <v>1</v>
       </c>
       <c r="G32" s="13">
-        <v>2</v>
+        <v>78.39</v>
       </c>
       <c r="H32" s="19">
         <v>1</v>
       </c>
       <c r="I32" s="52">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="K32" s="60" t="s">
-        <v>252</v>
-      </c>
-      <c r="L32" s="105" t="s">
-        <v>223</v>
+        <v>78.39</v>
+      </c>
+      <c r="J32" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="L32" s="97" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="59" customFormat="1">
       <c r="A33" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>253</v>
+        <v>119</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="19">
         <v>1</v>
       </c>
       <c r="G33" s="13">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H33" s="19">
         <v>1</v>
       </c>
       <c r="I33" s="52">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J33" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="K33" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="K33" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="L33" s="107"/>
+      <c r="L33" s="97" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="34" spans="1:12" s="59" customFormat="1">
       <c r="A34" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>237</v>
+        <v>130</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>242</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="19">
         <v>1</v>
       </c>
       <c r="G34" s="13">
-        <v>13.5</v>
+        <v>3</v>
       </c>
       <c r="H34" s="19">
         <v>1</v>
       </c>
       <c r="I34" s="52">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K34" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="L34" s="107"/>
+        <f>H34*G34</f>
+        <v>3</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L34" s="99"/>
     </row>
     <row r="35" spans="1:12" s="59" customFormat="1">
       <c r="A35" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>255</v>
+        <v>127</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>128</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="19">
         <v>1</v>
       </c>
       <c r="G35" s="13">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H35" s="19">
         <v>1</v>
       </c>
       <c r="I35" s="52">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="J35" s="68" t="s">
-        <v>134</v>
+        <v>15</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="L35" s="107"/>
-    </row>
-    <row r="36" spans="1:12" s="59" customFormat="1" ht="14.45" customHeight="1">
+        <v>122</v>
+      </c>
+      <c r="L35" s="99"/>
+    </row>
+    <row r="36" spans="1:12" s="59" customFormat="1">
       <c r="A36" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>300</v>
+        <v>203</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="19">
         <v>1</v>
       </c>
       <c r="G36" s="13">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="H36" s="19">
         <v>1</v>
       </c>
       <c r="I36" s="52">
-        <f>H36*G36</f>
-        <v>3.75</v>
-      </c>
-      <c r="J36" s="68" t="s">
-        <v>301</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L36" s="108"/>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="K36" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="L36" s="97" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="37" spans="1:12" s="59" customFormat="1">
       <c r="A37" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>48</v>
+        <v>126</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>251</v>
       </c>
       <c r="E37" s="9"/>
-      <c r="F37" s="12">
-        <v>5</v>
+      <c r="F37" s="19">
+        <v>1</v>
       </c>
       <c r="G37" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="H37" s="12">
+        <v>40</v>
+      </c>
+      <c r="H37" s="19">
         <v>1</v>
       </c>
       <c r="I37" s="52">
-        <f>H37*G37</f>
-        <v>1.2</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L37" s="107"/>
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J37" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="K37" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="L37" s="99"/>
     </row>
     <row r="38" spans="1:12" s="59" customFormat="1">
       <c r="A38" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>51</v>
+        <v>126</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>235</v>
       </c>
       <c r="E38" s="9"/>
-      <c r="F38" s="12">
-        <v>12</v>
+      <c r="F38" s="19">
+        <v>1</v>
       </c>
       <c r="G38" s="13">
-        <v>3</v>
-      </c>
-      <c r="H38" s="12">
-        <v>3</v>
+        <v>13.5</v>
+      </c>
+      <c r="H38" s="19">
+        <v>1</v>
       </c>
       <c r="I38" s="52">
-        <f>H38*G38</f>
-        <v>9</v>
-      </c>
-      <c r="J38" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="107"/>
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="K38" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="L38" s="99"/>
     </row>
     <row r="39" spans="1:12" s="59" customFormat="1">
       <c r="A39" s="8" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>138</v>
+        <v>132</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>253</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G39" s="13">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="H39" s="19">
         <v>1</v>
       </c>
       <c r="I39" s="52">
         <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>139</v>
+        <v>80</v>
+      </c>
+      <c r="J39" s="68" t="s">
+        <v>134</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L39" s="107"/>
-    </row>
-    <row r="40" spans="1:12" s="59" customFormat="1">
+        <v>135</v>
+      </c>
+      <c r="L39" s="99"/>
+    </row>
+    <row r="40" spans="1:12" s="59" customFormat="1" ht="14.45" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>141</v>
+        <v>298</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G40" s="13">
-        <v>4.0999999999999996</v>
+        <v>3.75</v>
       </c>
       <c r="H40" s="19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I40" s="52">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="J40" s="17" t="s">
-        <v>142</v>
+        <f>H40*G40</f>
+        <v>3.75</v>
+      </c>
+      <c r="J40" s="68" t="s">
+        <v>299</v>
       </c>
       <c r="K40" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="L40" s="107"/>
+      <c r="L40" s="100"/>
     </row>
     <row r="41" spans="1:12" s="59" customFormat="1">
       <c r="A41" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>140</v>
+      <c r="B41" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>47</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="19">
+      <c r="F41" s="12">
         <v>5</v>
       </c>
       <c r="G41" s="13">
-        <v>6</v>
-      </c>
-      <c r="H41" s="19">
-        <v>5</v>
+        <v>1.2</v>
+      </c>
+      <c r="H41" s="12">
+        <v>1</v>
       </c>
       <c r="I41" s="52">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>H41*G41</f>
+        <v>1.2</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L41" s="107"/>
+        <v>50</v>
+      </c>
+      <c r="L41" s="99"/>
     </row>
     <row r="42" spans="1:12" s="59" customFormat="1">
       <c r="A42" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>147</v>
+      <c r="B42" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E42" s="9"/>
-      <c r="F42" s="19">
-        <v>5</v>
+      <c r="F42" s="12">
+        <v>12</v>
       </c>
       <c r="G42" s="13">
-        <v>4</v>
-      </c>
-      <c r="H42" s="19">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="H42" s="12">
+        <v>3</v>
       </c>
       <c r="I42" s="52">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="J42" s="17" t="s">
-        <v>148</v>
+        <f>H42*G42</f>
+        <v>9</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L42" s="107"/>
+        <v>50</v>
+      </c>
+      <c r="L42" s="99"/>
     </row>
     <row r="43" spans="1:12" s="59" customFormat="1">
       <c r="A43" s="8" t="s">
@@ -8582,34 +8619,32 @@
         <v>136</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="9">
-        <v>200</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E43" s="9"/>
       <c r="F43" s="19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G43" s="13">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="H43" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43" s="52">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="L43" s="107"/>
+        <v>122</v>
+      </c>
+      <c r="L43" s="99"/>
     </row>
     <row r="44" spans="1:12" s="59" customFormat="1">
       <c r="A44" s="8" t="s">
@@ -8619,138 +8654,282 @@
         <v>136</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G44" s="13">
-        <v>14.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H44" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I44" s="52">
         <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L44" s="99"/>
+    </row>
+    <row r="45" spans="1:12" s="59" customFormat="1">
+      <c r="A45" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="19">
+        <v>5</v>
+      </c>
+      <c r="G45" s="13">
+        <v>6</v>
+      </c>
+      <c r="H45" s="19">
+        <v>5</v>
+      </c>
+      <c r="I45" s="52">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L45" s="99"/>
+    </row>
+    <row r="46" spans="1:12" s="59" customFormat="1">
+      <c r="A46" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="19">
+        <v>5</v>
+      </c>
+      <c r="G46" s="13">
+        <v>4</v>
+      </c>
+      <c r="H46" s="19">
+        <v>5</v>
+      </c>
+      <c r="I46" s="52">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L46" s="99"/>
+    </row>
+    <row r="47" spans="1:12" s="59" customFormat="1">
+      <c r="A47" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="9">
+        <v>200</v>
+      </c>
+      <c r="F47" s="19">
+        <v>3</v>
+      </c>
+      <c r="G47" s="13">
+        <v>16</v>
+      </c>
+      <c r="H47" s="19">
+        <v>3</v>
+      </c>
+      <c r="I47" s="52">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L47" s="99"/>
+    </row>
+    <row r="48" spans="1:12" s="59" customFormat="1">
+      <c r="A48" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="19">
+        <v>5</v>
+      </c>
+      <c r="G48" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="H48" s="19">
+        <v>5</v>
+      </c>
+      <c r="I48" s="52">
+        <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
-      <c r="J44" s="17" t="s">
+      <c r="J48" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="K44" s="15" t="s">
+      <c r="K48" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="L44" s="108"/>
-    </row>
-    <row r="45" spans="1:12" s="59" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A45" s="112"/>
-      <c r="B45" s="85" t="s">
+      <c r="L48" s="100"/>
+    </row>
+    <row r="49" spans="1:12" s="59" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A49" s="104"/>
+      <c r="B49" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="86" t="s">
-        <v>247</v>
-      </c>
-      <c r="D45" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="E45" s="87"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="88">
-        <v>1</v>
-      </c>
-      <c r="I45" s="90">
+      <c r="C49" s="86" t="s">
+        <v>245</v>
+      </c>
+      <c r="D49" s="85" t="s">
+        <v>278</v>
+      </c>
+      <c r="E49" s="87"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="88">
+        <v>1</v>
+      </c>
+      <c r="I49" s="90">
         <f>'Hardware List'!F47</f>
         <v>238.46999999999997</v>
       </c>
-      <c r="J45" s="91"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="111"/>
-    </row>
-    <row r="46" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A46" s="61"/>
-      <c r="B46" s="62" t="s">
+      <c r="J49" s="91"/>
+      <c r="K49" s="92"/>
+      <c r="L49" s="103"/>
+    </row>
+    <row r="50" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A50" s="61"/>
+      <c r="B50" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="D46" s="63" t="s">
+      <c r="C50" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="D50" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="65">
-        <f>SUM(I20:I45)+I18</f>
-        <v>1461.0540000000001</v>
-      </c>
-      <c r="J46" s="63"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="56"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="65">
+        <f>SUM(I24:I49)+I18</f>
+        <v>1509.31</v>
+      </c>
+      <c r="J50" s="63"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J20" r:id="rId1" display="20X20X18MM 500MM" xr:uid="{59EDCAA0-A518-420A-83A5-77685C875FBD}"/>
-    <hyperlink ref="J21" r:id="rId2" xr:uid="{FCD34B63-DF2E-4872-BFD5-5CEE289B6217}"/>
-    <hyperlink ref="J22" r:id="rId3" display="Size: 310x310mm" xr:uid="{15829967-E459-43E7-BDF6-191C533F37E4}"/>
-    <hyperlink ref="J37" r:id="rId4" xr:uid="{56473608-B496-4EF3-9E81-DBAF975636DE}"/>
-    <hyperlink ref="J38" r:id="rId5" xr:uid="{73E21739-6AB4-4657-8CD6-92EB8D2DE8E3}"/>
-    <hyperlink ref="J23" r:id="rId6" xr:uid="{6582320E-6867-41C5-B332-883C6F5E54E8}"/>
-    <hyperlink ref="J24" r:id="rId7" xr:uid="{12F9D47A-4B05-40F9-AE7A-B9FF03AB15C1}"/>
-    <hyperlink ref="J25" r:id="rId8" xr:uid="{7B583AAB-2680-42EB-9366-ABF40064EC0A}"/>
-    <hyperlink ref="J26" r:id="rId9" xr:uid="{1BF69C45-27DC-4EBD-8948-D8C8ADAF353B}"/>
-    <hyperlink ref="J27" r:id="rId10" xr:uid="{9EFD0543-3ECC-406C-95F8-C50FD24EAE9F}"/>
-    <hyperlink ref="J28" r:id="rId11" display="1x Select Color: 220V/110V" xr:uid="{9FDFF617-EA44-4AEF-94B3-7A6DFD7ABC2B}"/>
-    <hyperlink ref="L29" r:id="rId12" xr:uid="{71DEEDB0-7B61-48B4-BC76-A61F8C23F5B9}"/>
-    <hyperlink ref="J31" r:id="rId13" xr:uid="{1CDB7081-B136-4106-84A1-D7A3D641ABBF}"/>
-    <hyperlink ref="J30" r:id="rId14" display="1x 10Pcs Temperature: 160 degree" xr:uid="{461B8D06-59FB-41C4-928C-E9227731CF33}"/>
-    <hyperlink ref="J33" r:id="rId15" display="Color: Dragon-Standard flow" xr:uid="{539783F9-23A6-4CCC-B7BB-C7ADEFC949C0}"/>
-    <hyperlink ref="J35" r:id="rId16" xr:uid="{9D4F0A50-09F7-4455-B0E0-8C98A43A6D62}"/>
-    <hyperlink ref="J39" r:id="rId17" xr:uid="{A7214C33-6F25-4CDB-9911-EEF1726351C4}"/>
-    <hyperlink ref="J40" r:id="rId18" xr:uid="{E08B44CE-7743-429C-9F00-B49F9DD380B4}"/>
-    <hyperlink ref="J41" r:id="rId19" xr:uid="{EB4CB8F1-4307-4941-9AA9-E58D1445C7BA}"/>
-    <hyperlink ref="J42" r:id="rId20" xr:uid="{33176838-55A5-442D-8597-7714779D23E5}"/>
-    <hyperlink ref="J43" r:id="rId21" xr:uid="{D16F093E-C063-4095-B981-70EB7556273F}"/>
-    <hyperlink ref="J44" r:id="rId22" xr:uid="{DFD3B466-58C0-4BB0-A240-40DE084EB6EB}"/>
-    <hyperlink ref="J32" r:id="rId23" xr:uid="{B23C80B2-ADFE-48FF-8206-624B1C458D35}"/>
-    <hyperlink ref="J29" r:id="rId24" display="Genuine Omron Solid State Relay" xr:uid="{E09F19DF-B73C-4B79-A825-B8B9B38DA427}"/>
-    <hyperlink ref="L28" r:id="rId25" display="1x 310mm 220V 750W" xr:uid="{E00DD198-4D39-468C-A7C5-6517124B60C1}"/>
-    <hyperlink ref="L25" r:id="rId26" display="1x TMC2209 x8" xr:uid="{07910DC6-ADF8-4CD3-B110-882C7B40E38D}"/>
-    <hyperlink ref="L32" r:id="rId27" display="1x ADXL345 Accelerometer" xr:uid="{EE8C9D4C-8156-46D9-8266-752CAEDB4527}"/>
-    <hyperlink ref="J34" r:id="rId28" xr:uid="{574B19B8-679E-4BB1-95E3-481B7E6B7CC3}"/>
-    <hyperlink ref="L22" r:id="rId29" xr:uid="{7CCAA504-70EE-480A-B0F9-05946499668E}"/>
-    <hyperlink ref="J19" r:id="rId30" xr:uid="{3C3AEF3B-AED5-4F5B-B9C7-2CF08AF82984}"/>
-    <hyperlink ref="J36" r:id="rId31" xr:uid="{435830FE-9D28-4F8A-A580-BF2BE5EA2233}"/>
-    <hyperlink ref="E3" r:id="rId32" xr:uid="{8D7BE965-D64F-4EF6-AB85-6D60325E0F14}"/>
-    <hyperlink ref="E4" r:id="rId33" xr:uid="{1AB1BA1F-E652-4A59-AFD9-CF100F7A0675}"/>
-    <hyperlink ref="E5" r:id="rId34" xr:uid="{E1E6DD43-4F3E-40D4-869F-6509B89AF289}"/>
-    <hyperlink ref="J8" r:id="rId35" xr:uid="{EC02321E-B7C3-4FC1-B874-04DFA25238EB}"/>
-    <hyperlink ref="J9" r:id="rId36" xr:uid="{75B54B15-A33C-4E87-8110-F508CB5C1277}"/>
-    <hyperlink ref="J10" r:id="rId37" xr:uid="{83361321-C27C-4029-97C6-080CDFE55588}"/>
-    <hyperlink ref="J11" r:id="rId38" xr:uid="{3ED6FC78-17EA-44FD-B607-926496CA6227}"/>
-    <hyperlink ref="J12" r:id="rId39" xr:uid="{34AFF23F-EEEB-46E8-9558-765383CF7C14}"/>
-    <hyperlink ref="J13" r:id="rId40" display="Color: 10pcs 2028" xr:uid="{BED46395-E185-4988-9D32-2CBED9A54CB5}"/>
-    <hyperlink ref="J15" r:id="rId41" display="3x GL: 350 - Color: MGN12 H" xr:uid="{C356FB3E-7AA9-44A7-AD42-F901E08A1E8E}"/>
-    <hyperlink ref="J16" r:id="rId42" display="2x GL: 400 - Color: MGN12 H" xr:uid="{B96D0DAE-EBA7-4655-9D2F-33B86426C95B}"/>
-    <hyperlink ref="J17" r:id="rId43" display="1x GL: 400 - Color: MGN9 H" xr:uid="{6D2004C4-00CA-42CD-AE17-9686593D737A}"/>
-    <hyperlink ref="J14" r:id="rId44" xr:uid="{8B46BDD2-E98B-4C9A-A160-CDE182501C27}"/>
-    <hyperlink ref="J18" r:id="rId45" xr:uid="{5AD59190-378C-47A4-A5FE-A60CDAAFF6DF}"/>
+    <hyperlink ref="J24" r:id="rId1" display="20X20X18MM 500MM" xr:uid="{59EDCAA0-A518-420A-83A5-77685C875FBD}"/>
+    <hyperlink ref="J25" r:id="rId2" xr:uid="{FCD34B63-DF2E-4872-BFD5-5CEE289B6217}"/>
+    <hyperlink ref="J26" r:id="rId3" display="Size: 310x310mm" xr:uid="{15829967-E459-43E7-BDF6-191C533F37E4}"/>
+    <hyperlink ref="J41" r:id="rId4" xr:uid="{56473608-B496-4EF3-9E81-DBAF975636DE}"/>
+    <hyperlink ref="J42" r:id="rId5" xr:uid="{73E21739-6AB4-4657-8CD6-92EB8D2DE8E3}"/>
+    <hyperlink ref="J27" r:id="rId6" xr:uid="{6582320E-6867-41C5-B332-883C6F5E54E8}"/>
+    <hyperlink ref="J28" r:id="rId7" xr:uid="{12F9D47A-4B05-40F9-AE7A-B9FF03AB15C1}"/>
+    <hyperlink ref="J29" r:id="rId8" xr:uid="{7B583AAB-2680-42EB-9366-ABF40064EC0A}"/>
+    <hyperlink ref="J30" r:id="rId9" xr:uid="{1BF69C45-27DC-4EBD-8948-D8C8ADAF353B}"/>
+    <hyperlink ref="J31" r:id="rId10" xr:uid="{9EFD0543-3ECC-406C-95F8-C50FD24EAE9F}"/>
+    <hyperlink ref="J32" r:id="rId11" display="1x Select Color: 220V/110V" xr:uid="{9FDFF617-EA44-4AEF-94B3-7A6DFD7ABC2B}"/>
+    <hyperlink ref="L33" r:id="rId12" xr:uid="{71DEEDB0-7B61-48B4-BC76-A61F8C23F5B9}"/>
+    <hyperlink ref="J35" r:id="rId13" xr:uid="{1CDB7081-B136-4106-84A1-D7A3D641ABBF}"/>
+    <hyperlink ref="J34" r:id="rId14" display="1x 10Pcs Temperature: 160 degree" xr:uid="{461B8D06-59FB-41C4-928C-E9227731CF33}"/>
+    <hyperlink ref="J37" r:id="rId15" display="Color: Dragon-Standard flow" xr:uid="{539783F9-23A6-4CCC-B7BB-C7ADEFC949C0}"/>
+    <hyperlink ref="J39" r:id="rId16" xr:uid="{9D4F0A50-09F7-4455-B0E0-8C98A43A6D62}"/>
+    <hyperlink ref="J43" r:id="rId17" xr:uid="{A7214C33-6F25-4CDB-9911-EEF1726351C4}"/>
+    <hyperlink ref="J44" r:id="rId18" xr:uid="{E08B44CE-7743-429C-9F00-B49F9DD380B4}"/>
+    <hyperlink ref="J45" r:id="rId19" xr:uid="{EB4CB8F1-4307-4941-9AA9-E58D1445C7BA}"/>
+    <hyperlink ref="J46" r:id="rId20" xr:uid="{33176838-55A5-442D-8597-7714779D23E5}"/>
+    <hyperlink ref="J47" r:id="rId21" xr:uid="{D16F093E-C063-4095-B981-70EB7556273F}"/>
+    <hyperlink ref="J48" r:id="rId22" xr:uid="{DFD3B466-58C0-4BB0-A240-40DE084EB6EB}"/>
+    <hyperlink ref="J36" r:id="rId23" xr:uid="{B23C80B2-ADFE-48FF-8206-624B1C458D35}"/>
+    <hyperlink ref="J33" r:id="rId24" display="Genuine Omron Solid State Relay" xr:uid="{E09F19DF-B73C-4B79-A825-B8B9B38DA427}"/>
+    <hyperlink ref="L32" r:id="rId25" display="1x 310mm 220V 750W" xr:uid="{E00DD198-4D39-468C-A7C5-6517124B60C1}"/>
+    <hyperlink ref="L29" r:id="rId26" display="1x TMC2209 x8" xr:uid="{07910DC6-ADF8-4CD3-B110-882C7B40E38D}"/>
+    <hyperlink ref="L36" r:id="rId27" display="1x ADXL345 Accelerometer" xr:uid="{EE8C9D4C-8156-46D9-8266-752CAEDB4527}"/>
+    <hyperlink ref="J38" r:id="rId28" xr:uid="{574B19B8-679E-4BB1-95E3-481B7E6B7CC3}"/>
+    <hyperlink ref="L26" r:id="rId29" xr:uid="{7CCAA504-70EE-480A-B0F9-05946499668E}"/>
+    <hyperlink ref="J40" r:id="rId30" xr:uid="{435830FE-9D28-4F8A-A580-BF2BE5EA2233}"/>
+    <hyperlink ref="E3" r:id="rId31" xr:uid="{8D7BE965-D64F-4EF6-AB85-6D60325E0F14}"/>
+    <hyperlink ref="E4" r:id="rId32" xr:uid="{1AB1BA1F-E652-4A59-AFD9-CF100F7A0675}"/>
+    <hyperlink ref="E5" r:id="rId33" xr:uid="{E1E6DD43-4F3E-40D4-869F-6509B89AF289}"/>
+    <hyperlink ref="J8" r:id="rId34" xr:uid="{EC02321E-B7C3-4FC1-B874-04DFA25238EB}"/>
+    <hyperlink ref="J9" r:id="rId35" xr:uid="{75B54B15-A33C-4E87-8110-F508CB5C1277}"/>
+    <hyperlink ref="J10" r:id="rId36" xr:uid="{83361321-C27C-4029-97C6-080CDFE55588}"/>
+    <hyperlink ref="J11" r:id="rId37" xr:uid="{3ED6FC78-17EA-44FD-B607-926496CA6227}"/>
+    <hyperlink ref="J12" r:id="rId38" xr:uid="{34AFF23F-EEEB-46E8-9558-765383CF7C14}"/>
+    <hyperlink ref="J13" r:id="rId39" display="Color: 10pcs 2028" xr:uid="{BED46395-E185-4988-9D32-2CBED9A54CB5}"/>
+    <hyperlink ref="J15" r:id="rId40" display="3x GL: 350 - Color: MGN12 H" xr:uid="{C356FB3E-7AA9-44A7-AD42-F901E08A1E8E}"/>
+    <hyperlink ref="J16" r:id="rId41" display="2x GL: 400 - Color: MGN12 H" xr:uid="{B96D0DAE-EBA7-4655-9D2F-33B86426C95B}"/>
+    <hyperlink ref="J17" r:id="rId42" display="1x GL: 400 - Color: MGN9 H" xr:uid="{6D2004C4-00CA-42CD-AE17-9686593D737A}"/>
+    <hyperlink ref="J14" r:id="rId43" xr:uid="{8B46BDD2-E98B-4C9A-A160-CDE182501C27}"/>
+    <hyperlink ref="J20" r:id="rId44" display="Makersupplies Complete Kit" xr:uid="{99CD1EB2-A71D-4BEA-A810-8742818402F2}"/>
+    <hyperlink ref="J21" r:id="rId45" xr:uid="{3B3B38BE-12A4-4908-A7D0-77B2122C84CB}"/>
+    <hyperlink ref="J23" r:id="rId46" xr:uid="{71BEE32E-F3AD-4223-B448-5A57A36C1B0A}"/>
+    <hyperlink ref="J22" r:id="rId47" xr:uid="{450A89A3-621C-40C6-9BB5-9E2B5DED92E2}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId46"/>
-  <drawing r:id="rId47"/>
-  <legacyDrawing r:id="rId48"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId48"/>
+  <drawing r:id="rId49"/>
+  <legacyDrawing r:id="rId50"/>
   <tableParts count="1">
-    <tablePart r:id="rId49"/>
+    <tablePart r:id="rId51"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM v1.0.0.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="538" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CA27800-CA43-4B3E-A74E-4DAB993E8FE8}"/>
+  <xr:revisionPtr revIDLastSave="540" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BDAD6AD-2F47-4583-979C-6CC4AA0F8082}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hardware List'!$A$3:$J$47</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Valkyrie Stage-0'!$A$7:$K$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$3:$K$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Valkyrie Stage-0'!$A$7:$K$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$3:$K$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -205,31 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{5BAE28AF-EFF9-49BF-8B1C-90F36BBB41B3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Roy Berntsen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Lookng for a High temp option</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{C0C1BBC7-2BC8-49F9-9DF3-A86897191E49}">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{C0C1BBC7-2BC8-49F9-9DF3-A86897191E49}">
       <text>
         <r>
           <rPr>
@@ -243,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J45" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J44" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -516,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J47" authorId="1" shapeId="0" xr:uid="{DDC152E7-30B4-4916-B884-6E1BCD6E7DE6}">
+    <comment ref="J46" authorId="1" shapeId="0" xr:uid="{DDC152E7-30B4-4916-B884-6E1BCD6E7DE6}">
       <text>
         <r>
           <rPr>
@@ -538,7 +514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="330">
   <si>
     <t>Develompment Team Members</t>
   </si>
@@ -919,15 +895,6 @@
   </si>
   <si>
     <t>ToolHead</t>
-  </si>
-  <si>
-    <t>Probe</t>
-  </si>
-  <si>
-    <t>Z Probe - Bl Touch Type</t>
-  </si>
-  <si>
-    <t>3D Touch</t>
   </si>
   <si>
     <t>Fuse</t>
@@ -1956,75 +1923,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="118">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2033,7 +1988,6 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2044,127 +1998,144 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2174,47 +2145,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2989,7 +2919,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:L60" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:L59" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="System" dataDxfId="41"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="40"/>
@@ -3030,7 +2960,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BB8E62E6-79EF-4C10-B241-5331D8D58F9B}" name="Table14" displayName="Table14" ref="A7:L49" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BB8E62E6-79EF-4C10-B241-5331D8D58F9B}" name="Table14" displayName="Table14" ref="A7:L48" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{CA0C5979-6B6C-4045-AC28-5E6CB8072C41}" name="System" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{6938B938-1ABB-4F7F-B7D0-55543997EB8C}" name="Category" dataDxfId="10"/>
@@ -3250,11 +3180,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:K14"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -3274,2241 +3204,2168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" hidden="1" thickBot="1">
-      <c r="A1" s="119" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-    </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="106" t="s">
+      <c r="A1" s="115" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+    </row>
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="63" t="s">
+      <c r="B2" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65">
-        <f>I61</f>
-        <v>1897.6400000000003</v>
-      </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="110"/>
-    </row>
-    <row r="3" spans="1:14" s="78" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A3" s="45" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46">
+        <f>I60</f>
+        <v>1882.6400000000003</v>
+      </c>
+      <c r="J2" s="44"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85"/>
+    </row>
+    <row r="3" spans="1:14" s="55" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="111"/>
-    </row>
-    <row r="4" spans="1:14" s="59" customFormat="1">
-      <c r="A4" s="8" t="s">
+      <c r="N3" s="86"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="21">
         <v>369</v>
       </c>
-      <c r="F4" s="27">
-        <v>1</v>
-      </c>
-      <c r="G4" s="28">
+      <c r="F4" s="22">
+        <v>1</v>
+      </c>
+      <c r="G4" s="23">
         <v>8.6199999999999992</v>
       </c>
-      <c r="H4" s="27">
-        <v>1</v>
-      </c>
-      <c r="I4" s="50">
+      <c r="H4" s="22">
+        <v>1</v>
+      </c>
+      <c r="I4" s="39">
         <v>8</v>
       </c>
-      <c r="J4" s="81" t="s">
-        <v>301</v>
-      </c>
-      <c r="K4" s="38" t="s">
+      <c r="J4" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="K4" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="112" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="113"/>
-    </row>
-    <row r="5" spans="1:14" s="59" customFormat="1">
-      <c r="A5" s="8" t="s">
+      <c r="N4" s="87"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="4">
         <f>E6</f>
         <v>420</v>
       </c>
-      <c r="F5" s="12">
-        <v>1</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
         <v>9.5</v>
       </c>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="52">
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="40">
         <f t="shared" ref="I5:I25" si="0">H5*G5</f>
         <v>9.5</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="94"/>
-      <c r="M5" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="113"/>
-    </row>
-    <row r="6" spans="1:14" s="59" customFormat="1">
-      <c r="A6" s="8" t="s">
+      <c r="L5" s="70"/>
+      <c r="M5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="87"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="4">
         <v>420</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <v>4</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="10">
         <v>10.54</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="9">
         <v>4</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="40">
         <f t="shared" si="0"/>
         <v>42.16</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="95"/>
-      <c r="M6" s="114" t="s">
+      <c r="L6" s="71"/>
+      <c r="M6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="113"/>
-    </row>
-    <row r="7" spans="1:14" s="59" customFormat="1">
-      <c r="A7" s="8" t="s">
+      <c r="N6" s="87"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="4">
         <v>480</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="9">
         <v>4</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="10">
         <v>11.121</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="9">
         <v>4</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="40">
         <f t="shared" si="0"/>
         <v>44.484000000000002</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="94"/>
-      <c r="M7" s="114" t="s">
+      <c r="L7" s="70"/>
+      <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="113"/>
-    </row>
-    <row r="8" spans="1:14" s="59" customFormat="1">
-      <c r="A8" s="8" t="s">
+      <c r="N7" s="87"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="4">
         <v>750</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <v>4</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="10">
         <v>14.7</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="9">
         <v>4</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="40">
         <f t="shared" si="0"/>
         <v>58.8</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="95"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="113"/>
-    </row>
-    <row r="9" spans="1:14" s="59" customFormat="1">
-      <c r="A9" s="8" t="s">
+      <c r="L8" s="71"/>
+      <c r="N8" s="87"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="12">
+      <c r="F9" s="9">
         <v>40</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="10">
         <v>5</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="9">
         <v>4</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="40">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J9" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="K9" s="37" t="s">
+      <c r="J9" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="K9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="94"/>
-      <c r="M9" s="112" t="s">
-        <v>307</v>
-      </c>
-      <c r="N9" s="113"/>
-    </row>
-    <row r="10" spans="1:14" s="59" customFormat="1">
-      <c r="A10" s="8" t="s">
+      <c r="L9" s="70"/>
+      <c r="M9" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="N9" s="87"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="12">
+      <c r="D10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F10" s="9">
         <v>4</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="10">
         <v>10</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="9">
         <v>4</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="40">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J10" s="79" t="s">
-        <v>262</v>
-      </c>
-      <c r="K10" s="37" t="s">
+      <c r="J10" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="K10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="96"/>
-      <c r="M10" s="115" t="s">
-        <v>308</v>
-      </c>
-      <c r="N10" s="113"/>
-    </row>
-    <row r="11" spans="1:14" s="59" customFormat="1">
-      <c r="A11" s="8" t="s">
+      <c r="L10" s="72"/>
+      <c r="M10" s="88" t="s">
+        <v>305</v>
+      </c>
+      <c r="N10" s="87"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11">
         <v>350</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="10">
         <v>15.6</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="9">
         <v>3</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="40">
         <f>H11*G11</f>
         <v>46.8</v>
       </c>
-      <c r="J11" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="K11" s="37" t="s">
+      <c r="J11" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="K11" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="97"/>
-      <c r="M11" s="115" t="s">
-        <v>309</v>
-      </c>
-      <c r="N11" s="113"/>
-    </row>
-    <row r="12" spans="1:14" s="59" customFormat="1">
-      <c r="A12" s="8" t="s">
+      <c r="L11" s="73"/>
+      <c r="M11" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="N11" s="87"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12">
         <v>400</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="9">
         <v>2</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="10">
         <v>17.5</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="9">
         <v>2</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="40">
         <f>H12*G12</f>
         <v>35</v>
       </c>
-      <c r="J12" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="K12" s="37" t="s">
+      <c r="J12" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K12" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="97"/>
-      <c r="M12" s="115" t="s">
-        <v>310</v>
-      </c>
-      <c r="N12" s="113"/>
-    </row>
-    <row r="13" spans="1:14" s="59" customFormat="1">
-      <c r="A13" s="8" t="s">
+      <c r="L12" s="73"/>
+      <c r="M12" s="88" t="s">
+        <v>307</v>
+      </c>
+      <c r="N12" s="87"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="E13">
         <v>400</v>
       </c>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
         <v>16</v>
       </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="52">
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="40">
         <f>H13*G13</f>
         <v>16</v>
       </c>
-      <c r="J13" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="K13" s="37" t="s">
+      <c r="J13" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="K13" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="L13" s="97"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="113"/>
-    </row>
-    <row r="14" spans="1:14" s="59" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A14" s="8" t="s">
+      <c r="L13" s="73"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="87"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="83" t="s">
-        <v>332</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="105">
+      <c r="D14" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="81">
         <f>G18+G19</f>
         <v>374</v>
       </c>
-      <c r="J14" s="79"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="113"/>
-    </row>
-    <row r="15" spans="1:14" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="141" t="s">
+      <c r="J14" s="56"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="87"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="142" t="s">
+      <c r="C15" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="143" t="s">
-        <v>330</v>
-      </c>
-      <c r="E15" s="142"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="148" t="s">
-        <v>331</v>
-      </c>
-      <c r="L15" s="98"/>
-      <c r="M15" s="120" t="s">
-        <v>315</v>
-      </c>
-      <c r="N15" s="121"/>
-    </row>
-    <row r="16" spans="1:14" s="59" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="D15" s="108" t="s">
+        <v>327</v>
+      </c>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="113" t="s">
+        <v>328</v>
+      </c>
+      <c r="L15" s="74"/>
+      <c r="M15" s="116" t="s">
+        <v>312</v>
+      </c>
+      <c r="N15" s="117"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A16" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="124" t="s">
-        <v>321</v>
-      </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="125">
-        <v>1</v>
-      </c>
-      <c r="G16" s="126">
+      <c r="D16" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="93">
+        <v>1</v>
+      </c>
+      <c r="G16" s="94">
         <v>720</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="52">
+      <c r="H16" s="93"/>
+      <c r="I16" s="40">
         <f>H16*G16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="94" t="s">
-        <v>326</v>
-      </c>
-      <c r="K16" s="137" t="s">
+      <c r="J16" s="70" t="s">
+        <v>323</v>
+      </c>
+      <c r="K16" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="94"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="121"/>
-    </row>
-    <row r="17" spans="1:14" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="122" t="s">
+      <c r="L16" s="70"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="117"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="124" t="s">
-        <v>322</v>
-      </c>
-      <c r="E17" s="123"/>
-      <c r="F17" s="125">
-        <v>1</v>
-      </c>
-      <c r="G17" s="126">
+      <c r="D17" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="93">
+        <v>1</v>
+      </c>
+      <c r="G17" s="94">
         <v>577</v>
       </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="52">
+      <c r="H17" s="93"/>
+      <c r="I17" s="40">
         <f t="shared" ref="I17:I19" si="1">H17*G17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="94" t="s">
-        <v>327</v>
-      </c>
-      <c r="K17" s="137" t="s">
+      <c r="J17" s="70" t="s">
+        <v>324</v>
+      </c>
+      <c r="K17" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="94"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="121"/>
-    </row>
-    <row r="18" spans="1:14" s="59" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="127" t="s">
+      <c r="L17" s="70"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="117"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A18" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="129" t="s">
-        <v>325</v>
-      </c>
-      <c r="E18" s="128"/>
-      <c r="F18" s="130">
-        <v>1</v>
-      </c>
-      <c r="G18" s="131">
+      <c r="D18" s="96" t="s">
+        <v>322</v>
+      </c>
+      <c r="E18" s="96"/>
+      <c r="F18" s="97">
+        <v>1</v>
+      </c>
+      <c r="G18" s="98">
         <v>175</v>
       </c>
-      <c r="H18" s="130"/>
-      <c r="I18" s="50">
+      <c r="H18" s="97"/>
+      <c r="I18" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="93" t="s">
-        <v>328</v>
-      </c>
-      <c r="K18" s="140" t="s">
-        <v>323</v>
-      </c>
-      <c r="L18" s="94"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="121"/>
-    </row>
-    <row r="19" spans="1:14" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="132" t="s">
+      <c r="J18" s="69" t="s">
+        <v>325</v>
+      </c>
+      <c r="K18" s="106" t="s">
+        <v>320</v>
+      </c>
+      <c r="L18" s="70"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="117"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="133" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="133" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="E19" s="133"/>
-      <c r="F19" s="135">
-        <v>1</v>
-      </c>
-      <c r="G19" s="136">
+      <c r="B19" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="100" t="s">
+        <v>321</v>
+      </c>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101">
+        <v>1</v>
+      </c>
+      <c r="G19" s="102">
         <v>199</v>
       </c>
-      <c r="H19" s="135"/>
-      <c r="I19" s="139">
+      <c r="H19" s="101"/>
+      <c r="I19" s="105">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="150" t="s">
-        <v>329</v>
-      </c>
-      <c r="K19" s="138" t="s">
-        <v>323</v>
-      </c>
-      <c r="L19" s="94"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="121"/>
-    </row>
-    <row r="20" spans="1:14" s="59" customFormat="1">
-      <c r="A20" s="8" t="s">
+      <c r="J19" s="114" t="s">
+        <v>326</v>
+      </c>
+      <c r="K19" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="L19" s="70"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="117"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="D20" t="s">
+        <v>316</v>
+      </c>
+      <c r="E20">
         <v>410</v>
       </c>
-      <c r="F20" s="12">
-        <v>1</v>
-      </c>
-      <c r="G20" s="13">
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10">
         <v>20</v>
       </c>
-      <c r="H20" s="12">
-        <v>1</v>
-      </c>
-      <c r="I20" s="52">
+      <c r="H20" s="9">
+        <v>1</v>
+      </c>
+      <c r="I20" s="40">
         <f>H20*G20</f>
         <v>20</v>
       </c>
-      <c r="J20" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="K20" s="15" t="s">
+      <c r="J20" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="99"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="121"/>
-    </row>
-    <row r="21" spans="1:14" s="59" customFormat="1">
-      <c r="A21" s="22" t="s">
+      <c r="L20" s="75"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="117"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="D21" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21">
         <v>230</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="9">
         <v>4</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="10">
         <v>17.5</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="9">
         <v>2</v>
       </c>
-      <c r="I21" s="52">
+      <c r="I21" s="40">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="J21" s="68" t="s">
-        <v>243</v>
-      </c>
-      <c r="K21" s="60" t="s">
+      <c r="J21" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="K21" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="99"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="113"/>
-    </row>
-    <row r="22" spans="1:14" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="8" t="s">
+      <c r="L21" s="75"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="87"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1">
+      <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22">
         <v>350</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="9">
         <v>1225</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="10">
         <v>0.08</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="9">
         <v>1225</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="40">
         <v>104</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="99"/>
-      <c r="M22" s="120" t="s">
-        <v>316</v>
-      </c>
-      <c r="N22" s="121"/>
-    </row>
-    <row r="23" spans="1:14" s="59" customFormat="1">
-      <c r="A23" s="8" t="s">
+      <c r="L22" s="75"/>
+      <c r="M22" s="116" t="s">
+        <v>313</v>
+      </c>
+      <c r="N22" s="117"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="D23" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E23">
         <v>330</v>
       </c>
-      <c r="F23" s="12">
-        <v>1</v>
-      </c>
-      <c r="G23" s="13">
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10">
         <v>46</v>
       </c>
-      <c r="H23" s="12">
-        <v>1</v>
-      </c>
-      <c r="I23" s="52">
+      <c r="H23" s="9">
+        <v>1</v>
+      </c>
+      <c r="I23" s="40">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="J23" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K23" s="15" t="s">
+      <c r="J23" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="M23" s="120"/>
-      <c r="N23" s="121"/>
-    </row>
-    <row r="24" spans="1:14" s="59" customFormat="1">
-      <c r="A24" s="8" t="s">
+      <c r="L23" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="M23" s="116"/>
+      <c r="N23" s="117"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="12">
+      <c r="F24" s="9">
         <v>6</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="10">
         <v>3</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="9">
         <v>2</v>
       </c>
-      <c r="I24" s="52">
+      <c r="I24" s="40">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="99"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="113"/>
-    </row>
-    <row r="25" spans="1:14" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="8" t="s">
+      <c r="L24" s="75"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="87"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
+      <c r="A25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="12">
+      <c r="F25" s="9">
         <v>3</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="10">
         <v>3</v>
       </c>
-      <c r="H25" s="12">
-        <v>1</v>
-      </c>
-      <c r="I25" s="52">
+      <c r="H25" s="9">
+        <v>1</v>
+      </c>
+      <c r="I25" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="99"/>
-      <c r="M25" s="120" t="s">
-        <v>317</v>
-      </c>
-      <c r="N25" s="121"/>
-    </row>
-    <row r="26" spans="1:14" s="59" customFormat="1">
-      <c r="A26" s="8" t="s">
+      <c r="L25" s="75"/>
+      <c r="M25" s="116" t="s">
+        <v>314</v>
+      </c>
+      <c r="N25" s="117"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="19">
-        <v>1</v>
-      </c>
-      <c r="G26" s="13">
+      <c r="D26" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="10">
         <v>145</v>
       </c>
-      <c r="H26" s="19">
-        <v>1</v>
-      </c>
-      <c r="I26" s="52">
-        <f t="shared" ref="I26:I53" si="2">H26*G26</f>
+      <c r="H26" s="9">
+        <v>1</v>
+      </c>
+      <c r="I26" s="40">
+        <f t="shared" ref="I26:I52" si="2">H26*G26</f>
         <v>145</v>
       </c>
-      <c r="J26" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="K26" s="15" t="s">
+      <c r="J26" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="L26" s="97" t="s">
-        <v>222</v>
-      </c>
-      <c r="M26" s="120"/>
-      <c r="N26" s="121"/>
-    </row>
-    <row r="27" spans="1:14" s="59" customFormat="1">
-      <c r="A27" s="8" t="s">
+      <c r="L26" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="M26" s="116"/>
+      <c r="N26" s="117"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="19">
-        <v>1</v>
-      </c>
-      <c r="G27" s="13">
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10">
         <v>23</v>
       </c>
-      <c r="H27" s="19">
-        <v>1</v>
-      </c>
-      <c r="I27" s="52">
+      <c r="H27" s="9">
+        <v>1</v>
+      </c>
+      <c r="I27" s="40">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="L27" s="99"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="113"/>
-    </row>
-    <row r="28" spans="1:14" s="59" customFormat="1">
-      <c r="A28" s="8" t="s">
+      <c r="L27" s="75"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="87"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="19">
-        <v>1</v>
-      </c>
-      <c r="G28" s="13">
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10">
         <v>7.5</v>
       </c>
-      <c r="H28" s="19">
-        <v>1</v>
-      </c>
-      <c r="I28" s="52">
+      <c r="H28" s="9">
+        <v>1</v>
+      </c>
+      <c r="I28" s="40">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="L28" s="99"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="113"/>
-    </row>
-    <row r="29" spans="1:14" s="59" customFormat="1">
-      <c r="A29" s="8" t="s">
+      <c r="L28" s="75"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="87"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="E29" s="9">
+      <c r="D29" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E29">
         <v>300</v>
       </c>
-      <c r="F29" s="19">
-        <v>1</v>
-      </c>
-      <c r="G29" s="13">
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10">
         <v>78.39</v>
       </c>
-      <c r="H29" s="19">
-        <v>1</v>
-      </c>
-      <c r="I29" s="52">
+      <c r="H29" s="9">
+        <v>1</v>
+      </c>
+      <c r="I29" s="40">
         <f t="shared" si="2"/>
         <v>78.39</v>
       </c>
-      <c r="J29" s="69" t="s">
-        <v>248</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="L29" s="97" t="s">
-        <v>218</v>
-      </c>
-      <c r="M29" s="117"/>
-      <c r="N29" s="113"/>
-    </row>
-    <row r="30" spans="1:14" s="59" customFormat="1">
-      <c r="A30" s="8" t="s">
+      <c r="J29" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="L29" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="M29" s="90"/>
+      <c r="N29" s="87"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="19">
+      <c r="F30" s="9">
         <v>2</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="10">
         <v>26</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="9">
         <v>2</v>
       </c>
-      <c r="I30" s="52">
+      <c r="I30" s="40">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="J30" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L30" s="97" t="s">
+      <c r="J30" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L30" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="M30" s="117"/>
-      <c r="N30" s="113"/>
-    </row>
-    <row r="31" spans="1:14" s="59" customFormat="1">
-      <c r="A31" s="8" t="s">
+      <c r="M30" s="90"/>
+      <c r="N30" s="87"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="19">
-        <v>1</v>
-      </c>
-      <c r="G31" s="13">
+      <c r="C31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10">
         <v>3</v>
       </c>
-      <c r="H31" s="19">
-        <v>1</v>
-      </c>
-      <c r="I31" s="52">
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="40">
         <f>H31*G31</f>
         <v>3</v>
       </c>
-      <c r="J31" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="L31" s="99"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="113"/>
-    </row>
-    <row r="32" spans="1:14" s="59" customFormat="1">
-      <c r="A32" s="8" t="s">
+      <c r="J31" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L31" s="75"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="87"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="149" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="19">
-        <v>1</v>
-      </c>
-      <c r="G32" s="13">
-        <v>15</v>
-      </c>
-      <c r="H32" s="19">
-        <v>1</v>
-      </c>
-      <c r="I32" s="52">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L32" s="99"/>
-      <c r="M32" s="117"/>
-      <c r="N32" s="113"/>
-    </row>
-    <row r="33" spans="1:14" s="59" customFormat="1">
-      <c r="A33" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="19">
-        <v>1</v>
-      </c>
-      <c r="G33" s="13">
+      <c r="C32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="9">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10">
         <v>2</v>
       </c>
-      <c r="H33" s="19">
-        <v>1</v>
-      </c>
-      <c r="I33" s="52">
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
+      <c r="I32" s="40">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J33" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="K33" s="60" t="s">
-        <v>250</v>
-      </c>
-      <c r="L33" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="M33" s="117"/>
-      <c r="N33" s="113"/>
-    </row>
-    <row r="34" spans="1:14" s="59" customFormat="1">
-      <c r="A34" s="8" t="s">
+      <c r="J32" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="K32" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="L32" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="M32" s="90"/>
+      <c r="N32" s="87"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="19">
-        <v>1</v>
-      </c>
-      <c r="G34" s="13">
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10">
         <v>40</v>
       </c>
-      <c r="H34" s="19">
-        <v>1</v>
-      </c>
-      <c r="I34" s="52">
+      <c r="H33" s="9">
+        <v>1</v>
+      </c>
+      <c r="I33" s="40">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J34" s="70" t="s">
-        <v>252</v>
-      </c>
-      <c r="K34" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="L34" s="99"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="113"/>
-    </row>
-    <row r="35" spans="1:14" s="59" customFormat="1">
-      <c r="A35" s="8" t="s">
+      <c r="J33" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="K33" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="L33" s="75"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="87"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="19">
-        <v>1</v>
-      </c>
-      <c r="G35" s="13">
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10">
         <v>13.5</v>
       </c>
-      <c r="H35" s="19">
-        <v>1</v>
-      </c>
-      <c r="I35" s="52">
+      <c r="H34" s="9">
+        <v>1</v>
+      </c>
+      <c r="I34" s="40">
         <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
-      <c r="J35" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="K35" s="60" t="s">
+      <c r="J34" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="K34" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="L35" s="99"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="113"/>
-    </row>
-    <row r="36" spans="1:14" s="59" customFormat="1">
-      <c r="A36" s="8" t="s">
+      <c r="L34" s="75"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="87"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="19">
-        <v>1</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10">
         <v>80</v>
       </c>
-      <c r="H36" s="19">
-        <v>1</v>
-      </c>
-      <c r="I36" s="52">
+      <c r="H35" s="9">
+        <v>1</v>
+      </c>
+      <c r="I35" s="40">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J36" s="68" t="s">
+      <c r="J35" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L35" s="75"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="87"/>
+    </row>
+    <row r="36" spans="1:14" ht="14.45" customHeight="1">
+      <c r="A36" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>295</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10">
+        <v>3.75</v>
+      </c>
+      <c r="H36" s="9">
+        <v>1</v>
+      </c>
+      <c r="I36" s="40">
+        <f>H36*G36</f>
+        <v>3.75</v>
+      </c>
+      <c r="J36" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L36" s="76"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="87"/>
+    </row>
+    <row r="37" spans="1:14" ht="14.45" customHeight="1">
+      <c r="A37" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>295</v>
+      </c>
+      <c r="F37" s="9">
+        <v>2</v>
+      </c>
+      <c r="G37" s="10">
+        <v>10</v>
+      </c>
+      <c r="H37" s="9">
+        <v>1</v>
+      </c>
+      <c r="I37" s="40">
+        <f>H37*G37</f>
+        <v>10</v>
+      </c>
+      <c r="J37" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L37" s="76"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="87"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="9">
+        <v>5</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="H38" s="9">
+        <v>1</v>
+      </c>
+      <c r="I38" s="40">
+        <f>H38*G38</f>
+        <v>1.2</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="75"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="87"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="9">
+        <v>12</v>
+      </c>
+      <c r="G39" s="10">
+        <v>3</v>
+      </c>
+      <c r="H39" s="9">
+        <v>3</v>
+      </c>
+      <c r="I39" s="40">
+        <f>H39*G39</f>
+        <v>9</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L39" s="75"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="87"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K36" s="15" t="s">
+      <c r="D40" t="s">
         <v>135</v>
       </c>
-      <c r="L36" s="99"/>
-      <c r="M36" s="117"/>
-      <c r="N36" s="113"/>
-    </row>
-    <row r="37" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="19">
-        <v>1</v>
-      </c>
-      <c r="G37" s="13">
-        <v>3.75</v>
-      </c>
-      <c r="H37" s="19">
-        <v>1</v>
-      </c>
-      <c r="I37" s="52">
-        <f>H37*G37</f>
-        <v>3.75</v>
-      </c>
-      <c r="J37" s="68" t="s">
-        <v>299</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L37" s="100"/>
-      <c r="M37" s="117"/>
-      <c r="N37" s="113"/>
-    </row>
-    <row r="38" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="19">
-        <v>2</v>
-      </c>
-      <c r="G38" s="13">
-        <v>10</v>
-      </c>
-      <c r="H38" s="19">
-        <v>1</v>
-      </c>
-      <c r="I38" s="52">
-        <f>H38*G38</f>
-        <v>10</v>
-      </c>
-      <c r="J38" s="68" t="s">
-        <v>300</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L38" s="100"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="113"/>
-    </row>
-    <row r="39" spans="1:14" s="59" customFormat="1">
-      <c r="A39" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="12">
-        <v>5</v>
-      </c>
-      <c r="G39" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="H39" s="12">
-        <v>1</v>
-      </c>
-      <c r="I39" s="52">
-        <f>H39*G39</f>
-        <v>1.2</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L39" s="99"/>
-      <c r="M39" s="117"/>
-      <c r="N39" s="113"/>
-    </row>
-    <row r="40" spans="1:14" s="59" customFormat="1">
-      <c r="A40" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="12">
-        <v>12</v>
-      </c>
-      <c r="G40" s="13">
-        <v>3</v>
-      </c>
-      <c r="H40" s="12">
-        <v>3</v>
-      </c>
-      <c r="I40" s="52">
-        <f>H40*G40</f>
-        <v>9</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L40" s="99"/>
-      <c r="M40" s="117"/>
-      <c r="N40" s="113"/>
-    </row>
-    <row r="41" spans="1:14" s="59" customFormat="1">
-      <c r="A41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="19">
+      <c r="F40" s="9">
         <v>8</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G40" s="10">
         <v>59</v>
       </c>
-      <c r="H41" s="19">
-        <v>1</v>
-      </c>
-      <c r="I41" s="52">
+      <c r="H40" s="9">
+        <v>1</v>
+      </c>
+      <c r="I40" s="40">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
+      <c r="J40" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L40" s="75"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="87"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="9">
+        <v>10</v>
+      </c>
+      <c r="G41" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H41" s="9">
+        <v>10</v>
+      </c>
+      <c r="I41" s="40">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
       <c r="J41" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="K41" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L41" s="99"/>
-      <c r="M41" s="117"/>
-      <c r="N41" s="113"/>
-    </row>
-    <row r="42" spans="1:14" s="59" customFormat="1">
-      <c r="A42" s="8" t="s">
+      <c r="K41" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L41" s="75"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="87"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="18" t="s">
+      <c r="B42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="19">
-        <v>10</v>
-      </c>
-      <c r="G42" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H42" s="19">
-        <v>10</v>
-      </c>
-      <c r="I42" s="52">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="J42" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L42" s="99"/>
-      <c r="M42" s="117"/>
-      <c r="N42" s="113"/>
-    </row>
-    <row r="43" spans="1:14" s="59" customFormat="1">
-      <c r="A43" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="19">
+      <c r="F42" s="9">
         <v>5</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G42" s="10">
         <v>6</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H42" s="9">
         <v>5</v>
       </c>
-      <c r="I43" s="52">
+      <c r="I42" s="40">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="J43" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="K43" s="15" t="s">
+      <c r="J42" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L42" s="75"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="87"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="L43" s="99"/>
-      <c r="M43" s="117"/>
-      <c r="N43" s="113"/>
-    </row>
-    <row r="44" spans="1:14" s="59" customFormat="1">
-      <c r="A44" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="19">
+      <c r="D43" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="9">
         <v>5</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G43" s="10">
         <v>4</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H43" s="9">
         <v>5</v>
       </c>
-      <c r="I44" s="52">
+      <c r="I43" s="40">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="J44" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="K44" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L44" s="99"/>
-      <c r="M44" s="117"/>
-      <c r="N44" s="113"/>
-    </row>
-    <row r="45" spans="1:14" s="59" customFormat="1">
-      <c r="A45" s="8" t="s">
+      <c r="J43" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L43" s="75"/>
+      <c r="M43" s="90"/>
+      <c r="N43" s="87"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E45" s="9">
+      <c r="B44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44">
         <v>200</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F44" s="9">
         <v>3</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G44" s="10">
         <v>16</v>
       </c>
-      <c r="H45" s="19">
+      <c r="H44" s="9">
         <v>3</v>
       </c>
-      <c r="I45" s="52">
+      <c r="I44" s="40">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="J45" s="14" t="s">
+      <c r="J44" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="L44" s="75"/>
+      <c r="M44" s="90"/>
+      <c r="N44" s="87"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" t="s">
         <v>151</v>
       </c>
-      <c r="K45" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="L45" s="99"/>
-      <c r="M45" s="117"/>
-      <c r="N45" s="113"/>
-    </row>
-    <row r="46" spans="1:14" s="59" customFormat="1">
-      <c r="A46" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="19">
+      <c r="F45" s="9">
         <v>5</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G45" s="10">
         <v>14.5</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H45" s="9">
         <v>5</v>
       </c>
-      <c r="I46" s="52">
+      <c r="I45" s="40">
         <f t="shared" si="2"/>
         <v>72.5</v>
       </c>
-      <c r="J46" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="L46" s="100"/>
-      <c r="M46" s="117"/>
-      <c r="N46" s="113"/>
-    </row>
-    <row r="47" spans="1:14" s="59" customFormat="1">
-      <c r="A47" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="19">
+      <c r="J45" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="L45" s="76"/>
+      <c r="M45" s="90"/>
+      <c r="N45" s="87"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" s="9">
         <v>5</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G46" s="10">
         <v>12</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H46" s="9">
         <v>5</v>
       </c>
-      <c r="I47" s="52">
+      <c r="I46" s="40">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="J47" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="K47" s="108" t="s">
-        <v>293</v>
-      </c>
-      <c r="L47" s="101"/>
-      <c r="M47" s="117"/>
-      <c r="N47" s="113"/>
-    </row>
-    <row r="48" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A48" s="8" t="s">
+      <c r="J46" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K46" s="83" t="s">
+        <v>290</v>
+      </c>
+      <c r="L46" s="77"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="87"/>
+    </row>
+    <row r="47" spans="1:14" ht="14.45" customHeight="1">
+      <c r="A47" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B48" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="19">
+      <c r="D47" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F47" s="9">
         <v>5</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G47" s="10">
         <v>25</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H47" s="9">
         <v>5</v>
       </c>
-      <c r="I48" s="52">
+      <c r="I47" s="40">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="J48" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="K48" s="108" t="s">
-        <v>293</v>
-      </c>
-      <c r="L48" s="101"/>
-      <c r="M48" s="117"/>
-      <c r="N48" s="113"/>
-    </row>
-    <row r="49" spans="1:14" s="59" customFormat="1">
-      <c r="A49" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="E49" s="9">
+      <c r="J47" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K47" s="83" t="s">
+        <v>290</v>
+      </c>
+      <c r="L47" s="77"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="87"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48">
         <v>300</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F48" s="9">
         <v>2</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G48" s="10">
         <v>25</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H48" s="9">
         <v>2</v>
       </c>
-      <c r="I49" s="52">
+      <c r="I48" s="40">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="J49" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="K49" s="15" t="s">
+      <c r="J48" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="L48" s="76"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="87"/>
+    </row>
+    <row r="49" spans="1:14" ht="14.45" customHeight="1">
+      <c r="A49" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D49" t="s">
+        <v>293</v>
+      </c>
+      <c r="F49" s="9">
+        <v>5</v>
+      </c>
+      <c r="G49" s="10">
+        <v>3.23</v>
+      </c>
+      <c r="H49" s="9">
+        <v>5</v>
+      </c>
+      <c r="I49" s="40">
+        <f>H49*G49</f>
+        <v>16.149999999999999</v>
+      </c>
+      <c r="J49" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="L49" s="100"/>
-      <c r="M49" s="117"/>
-      <c r="N49" s="113"/>
-    </row>
-    <row r="50" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B50" s="18" t="s">
+      <c r="K49" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="L49" s="76"/>
+      <c r="M49" s="90"/>
+      <c r="N49" s="87"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="19">
-        <v>5</v>
-      </c>
-      <c r="G50" s="13">
-        <v>3.23</v>
-      </c>
-      <c r="H50" s="19">
-        <v>5</v>
-      </c>
-      <c r="I50" s="52">
-        <f>H50*G50</f>
-        <v>16.149999999999999</v>
-      </c>
-      <c r="J50" s="68" t="s">
-        <v>297</v>
-      </c>
-      <c r="K50" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="L50" s="100"/>
-      <c r="M50" s="117"/>
-      <c r="N50" s="113"/>
-    </row>
-    <row r="51" spans="1:14" s="59" customFormat="1">
-      <c r="A51" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="19">
-        <v>1</v>
-      </c>
-      <c r="G51" s="13">
+      <c r="C50" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" t="s">
+        <v>175</v>
+      </c>
+      <c r="F50" s="9">
+        <v>1</v>
+      </c>
+      <c r="G50" s="10">
         <v>3</v>
       </c>
-      <c r="H51" s="19">
-        <v>1</v>
-      </c>
-      <c r="I51" s="52">
+      <c r="H50" s="9">
+        <v>1</v>
+      </c>
+      <c r="I50" s="40">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J51" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="K51" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="L51" s="100"/>
-      <c r="M51" s="117"/>
-      <c r="N51" s="113"/>
-    </row>
-    <row r="52" spans="1:14" s="59" customFormat="1">
-      <c r="A52" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B52" s="18" t="s">
+      <c r="J50" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="L50" s="76"/>
+      <c r="M50" s="90"/>
+      <c r="N50" s="87"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="19">
-        <v>1</v>
-      </c>
-      <c r="G52" s="13">
+      <c r="C51" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" s="9">
+        <v>1</v>
+      </c>
+      <c r="G51" s="10">
         <v>12</v>
       </c>
-      <c r="H52" s="19">
-        <v>1</v>
-      </c>
-      <c r="I52" s="52">
+      <c r="H51" s="9">
+        <v>1</v>
+      </c>
+      <c r="I51" s="40">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J52" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="K52" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="L52" s="100"/>
-      <c r="M52" s="117"/>
-      <c r="N52" s="113"/>
-    </row>
-    <row r="53" spans="1:14" s="59" customFormat="1">
-      <c r="A53" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B53" s="18" t="s">
+      <c r="J51" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="L51" s="76"/>
+      <c r="M51" s="90"/>
+      <c r="N51" s="87"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="19">
-        <v>1</v>
-      </c>
-      <c r="G53" s="13">
+      <c r="D52" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10">
         <v>12</v>
       </c>
-      <c r="H53" s="19">
-        <v>1</v>
-      </c>
-      <c r="I53" s="52">
+      <c r="H52" s="9">
+        <v>1</v>
+      </c>
+      <c r="I52" s="40">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J53" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="K53" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="L53" s="100"/>
-      <c r="M53" s="117"/>
-      <c r="N53" s="113"/>
-    </row>
-    <row r="54" spans="1:14" s="59" customFormat="1">
-      <c r="A54" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" s="18" t="s">
+      <c r="J52" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="L52" s="76"/>
+      <c r="M52" s="90"/>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="19">
-        <v>1</v>
-      </c>
-      <c r="G54" s="13">
+      <c r="C53" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" t="s">
+        <v>192</v>
+      </c>
+      <c r="F53" s="9">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10">
         <f>(3+0.96)</f>
         <v>3.96</v>
       </c>
-      <c r="H54" s="19">
-        <v>1</v>
-      </c>
-      <c r="I54" s="52">
-        <f t="shared" ref="I54" si="3">H54*G54</f>
+      <c r="H53" s="9">
+        <v>1</v>
+      </c>
+      <c r="I53" s="40">
+        <f t="shared" ref="I53" si="3">H53*G53</f>
         <v>3.96</v>
       </c>
-      <c r="J54" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="K54" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="L54" s="100"/>
-      <c r="M54" s="117"/>
-      <c r="N54" s="113"/>
-    </row>
-    <row r="55" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="19">
-        <v>1</v>
-      </c>
-      <c r="G55" s="13">
+      <c r="J53" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="L53" s="76"/>
+      <c r="M53" s="90"/>
+      <c r="N53" s="87"/>
+    </row>
+    <row r="54" spans="1:14" ht="14.45" customHeight="1">
+      <c r="A54" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D54" t="s">
+        <v>286</v>
+      </c>
+      <c r="F54" s="9">
+        <v>1</v>
+      </c>
+      <c r="G54" s="10">
         <v>3.72</v>
       </c>
-      <c r="H55" s="19">
-        <v>1</v>
-      </c>
-      <c r="I55" s="52">
-        <f t="shared" ref="I55:I58" si="4">H55*G55</f>
+      <c r="H54" s="9">
+        <v>1</v>
+      </c>
+      <c r="I54" s="40">
+        <f t="shared" ref="I54:I57" si="4">H54*G54</f>
         <v>3.72</v>
       </c>
-      <c r="J55" s="68" t="s">
-        <v>284</v>
-      </c>
-      <c r="K55" s="107" t="s">
-        <v>314</v>
-      </c>
-      <c r="L55" s="100"/>
-      <c r="M55" s="117"/>
-      <c r="N55" s="113"/>
-    </row>
-    <row r="56" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A56" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="J54" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="K54" s="82" t="s">
+        <v>311</v>
+      </c>
+      <c r="L54" s="76"/>
+      <c r="M54" s="90"/>
+      <c r="N54" s="87"/>
+    </row>
+    <row r="55" spans="1:14" ht="14.45" customHeight="1">
+      <c r="A55" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" t="s">
+        <v>279</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="19">
-        <v>1</v>
-      </c>
-      <c r="G56" s="13">
+      <c r="D55" t="s">
+        <v>288</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1</v>
+      </c>
+      <c r="G55" s="10">
         <v>4</v>
       </c>
-      <c r="H56" s="19">
-        <v>1</v>
-      </c>
-      <c r="I56" s="52">
+      <c r="H55" s="9">
+        <v>1</v>
+      </c>
+      <c r="I55" s="40">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J56" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="K56" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="L56" s="100"/>
-      <c r="M56" s="117"/>
-      <c r="N56" s="113"/>
-    </row>
-    <row r="57" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A57" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B57" s="18" t="s">
+      <c r="J55" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="K55" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L55" s="76"/>
+      <c r="M55" s="90"/>
+      <c r="N55" s="87"/>
+    </row>
+    <row r="56" spans="1:14" ht="14.45" customHeight="1">
+      <c r="A56" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" t="s">
+        <v>279</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="19">
-        <v>1</v>
-      </c>
-      <c r="G57" s="13">
+      <c r="D56" t="s">
+        <v>283</v>
+      </c>
+      <c r="F56" s="9">
+        <v>1</v>
+      </c>
+      <c r="G56" s="10">
         <v>3</v>
       </c>
-      <c r="H57" s="19">
-        <v>1</v>
-      </c>
-      <c r="I57" s="52">
+      <c r="H56" s="9">
+        <v>1</v>
+      </c>
+      <c r="I56" s="40">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J57" s="17" t="s">
+      <c r="J56" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L56" s="76"/>
+      <c r="M56" s="90"/>
+      <c r="N56" s="87"/>
+    </row>
+    <row r="57" spans="1:14" ht="14.45" customHeight="1">
+      <c r="A57" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" t="s">
         <v>287</v>
       </c>
-      <c r="K57" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="L57" s="100"/>
-      <c r="M57" s="117"/>
-      <c r="N57" s="113"/>
-    </row>
-    <row r="58" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A58" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="19">
-        <v>1</v>
-      </c>
-      <c r="G58" s="13">
+      <c r="F57" s="9">
+        <v>1</v>
+      </c>
+      <c r="G57" s="10">
         <v>3</v>
       </c>
-      <c r="H58" s="19">
-        <v>1</v>
-      </c>
-      <c r="I58" s="52">
+      <c r="H57" s="9">
+        <v>1</v>
+      </c>
+      <c r="I57" s="40">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J58" s="68" t="s">
-        <v>288</v>
-      </c>
-      <c r="K58" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="L58" s="100"/>
-      <c r="M58" s="117"/>
-      <c r="N58" s="113"/>
-    </row>
-    <row r="59" spans="1:14" s="59" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B59" s="18" t="s">
+      <c r="J57" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L57" s="76"/>
+      <c r="M57" s="90"/>
+      <c r="N57" s="87"/>
+    </row>
+    <row r="58" spans="1:14" ht="14.45" customHeight="1">
+      <c r="A58" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58" s="9">
+        <v>1</v>
+      </c>
+      <c r="G58" s="10">
+        <v>21.5</v>
+      </c>
+      <c r="H58" s="9">
+        <v>1</v>
+      </c>
+      <c r="I58" s="40">
+        <f>G58*H58</f>
+        <v>21.5</v>
+      </c>
+      <c r="J58" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="19">
-        <v>1</v>
-      </c>
-      <c r="G59" s="13">
-        <v>21.5</v>
-      </c>
-      <c r="H59" s="19">
-        <v>1</v>
-      </c>
-      <c r="I59" s="52">
-        <f>G59*H59</f>
-        <v>21.5</v>
-      </c>
-      <c r="J59" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="K59" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="L59" s="102"/>
-      <c r="M59" s="117"/>
-      <c r="N59" s="113"/>
-    </row>
-    <row r="60" spans="1:14" s="59" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A60" s="104"/>
-      <c r="B60" s="85" t="s">
+      <c r="K58" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="L58" s="78"/>
+      <c r="M58" s="90"/>
+      <c r="N58" s="87"/>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A59" s="80"/>
+      <c r="B59" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="86" t="s">
-        <v>245</v>
-      </c>
-      <c r="D60" s="85" t="s">
-        <v>278</v>
-      </c>
-      <c r="E60" s="87"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="89"/>
-      <c r="H60" s="88">
-        <v>1</v>
-      </c>
-      <c r="I60" s="90">
+      <c r="C59" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="D59" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="E59" s="63"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="64">
+        <v>1</v>
+      </c>
+      <c r="I59" s="66">
         <f>'Hardware List'!F47</f>
         <v>238.46999999999997</v>
       </c>
-      <c r="J60" s="91"/>
-      <c r="K60" s="92"/>
-      <c r="L60" s="103"/>
-      <c r="M60" s="117"/>
-      <c r="N60" s="113"/>
-    </row>
-    <row r="61" spans="1:14" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A61" s="61"/>
-      <c r="B61" s="62" t="s">
+      <c r="J59" s="67"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="79"/>
+      <c r="M59" s="90"/>
+      <c r="N59" s="87"/>
+    </row>
+    <row r="60" spans="1:14" s="6" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A60" s="43"/>
+      <c r="B60" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="61" t="s">
-        <v>312</v>
-      </c>
-      <c r="D61" s="63" t="s">
+      <c r="C60" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="D60" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="65">
-        <f>SUM(I20:I60)+I14</f>
-        <v>1897.6400000000003</v>
-      </c>
-      <c r="J61" s="63"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="118"/>
-      <c r="N61" s="116"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="46">
+        <f>SUM(I20:I59)+I14</f>
+        <v>1882.6400000000003</v>
+      </c>
+      <c r="J60" s="44"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="91"/>
+      <c r="N60" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5522,8 +5379,8 @@
     <hyperlink ref="J20" r:id="rId1" display="20X20X18MM 500MM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="J22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="J23" r:id="rId3" display="Size: 310x310mm" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J39" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J40" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J38" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J39" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="J24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="J25" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="J26" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
@@ -5531,64 +5388,63 @@
     <hyperlink ref="J28" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="J29" r:id="rId11" display="1x Select Color: 220V/110V" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="L30" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J32" r:id="rId13" display="3D Touch" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J31" r:id="rId14" display="1x 10Pcs Temperature: 160 degree" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J34" r:id="rId15" display="Color: Dragon-Standard flow" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J36" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J42" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J43" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J44" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J45" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J46" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J51" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J52" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J53" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J54" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J33" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J30" r:id="rId28" display="Genuine Omron Solid State Relay" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L29" r:id="rId29" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L26" r:id="rId30" display="1x TMC2209 x8" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="L33" r:id="rId31" display="1x ADXL345 Accelerometer" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J47" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J48" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J49" r:id="rId34" display="TBD" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J35" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="L23" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J59" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J56" r:id="rId38" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J57" r:id="rId39" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J58" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J55" r:id="rId41" xr:uid="{AA63318B-CE23-4460-98F0-9BED57088735}"/>
-    <hyperlink ref="J50" r:id="rId42" xr:uid="{C73F053A-AB99-4F9A-AB96-34675FD56AAD}"/>
-    <hyperlink ref="J37" r:id="rId43" xr:uid="{6B0C3554-C92C-477C-968B-C3A56DEE5BB2}"/>
-    <hyperlink ref="J38" r:id="rId44" xr:uid="{230B31B2-E3E9-4D33-8792-EA389633978B}"/>
-    <hyperlink ref="J21" r:id="rId45" xr:uid="{AE44EAD7-69DD-4806-9E2F-C1401214B95A}"/>
-    <hyperlink ref="J4" r:id="rId46" xr:uid="{DEB61E4F-1486-491A-838D-61337A0DB5B3}"/>
-    <hyperlink ref="J5" r:id="rId47" xr:uid="{B0B2353F-D76B-49D2-92E2-924AA7C3940B}"/>
-    <hyperlink ref="J6" r:id="rId48" xr:uid="{A49E22B6-E552-4BE6-8729-184F520A838F}"/>
-    <hyperlink ref="J7" r:id="rId49" xr:uid="{47004657-0518-4245-B471-B34B5125E399}"/>
-    <hyperlink ref="J8" r:id="rId50" xr:uid="{6BAD6695-28C3-4B6D-8A72-B08E82F940DF}"/>
-    <hyperlink ref="J9" r:id="rId51" display="Color: 10pcs 2028" xr:uid="{C4B95C3B-16B9-4394-9F39-5B9FF78AC176}"/>
-    <hyperlink ref="J11" r:id="rId52" display="3x GL: 350 - Color: MGN12 H" xr:uid="{9DCC9853-4D9E-4093-9D52-2A218587FDA4}"/>
-    <hyperlink ref="J12" r:id="rId53" display="2x GL: 400 - Color: MGN12 H" xr:uid="{A43DD5EF-D822-48AA-A6D3-DB6211D18B07}"/>
-    <hyperlink ref="J13" r:id="rId54" display="1x GL: 400 - Color: MGN9 H" xr:uid="{792C8BB0-E4E5-4DDC-8020-C3F9BE9E4B2E}"/>
-    <hyperlink ref="J10" r:id="rId55" xr:uid="{3FB75D13-E1B1-4B85-B99D-0379606A4DAC}"/>
-    <hyperlink ref="M10" r:id="rId56" xr:uid="{03D23144-4452-41B9-B4B9-F51023FDC698}"/>
-    <hyperlink ref="M11" r:id="rId57" xr:uid="{410E10AD-6201-406C-BD2E-0E2A08BBF18C}"/>
-    <hyperlink ref="M12" r:id="rId58" xr:uid="{D0E8BE37-F76A-4921-AA1C-3F7A7D64A7BC}"/>
-    <hyperlink ref="J16" r:id="rId59" display="Makersupplies Complete Kit" xr:uid="{036B3E6D-568B-4079-9529-92EC099AA1B7}"/>
-    <hyperlink ref="J17" r:id="rId60" xr:uid="{3707A5E6-020E-4B23-B131-7499054C07E0}"/>
-    <hyperlink ref="J19" r:id="rId61" xr:uid="{A9A16167-FCF8-4CCB-AF52-C298BD6D8154}"/>
-    <hyperlink ref="J18" r:id="rId62" xr:uid="{2EF5411B-8136-4A92-8C0B-6EDC3731093C}"/>
+    <hyperlink ref="J31" r:id="rId13" display="1x 10Pcs Temperature: 160 degree" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J33" r:id="rId14" display="Color: Dragon-Standard flow" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J35" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J40" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J42" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J43" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J44" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J45" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J50" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J51" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J52" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J53" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J32" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J30" r:id="rId27" display="Genuine Omron Solid State Relay" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L29" r:id="rId28" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L26" r:id="rId29" display="1x TMC2209 x8" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L32" r:id="rId30" display="1x ADXL345 Accelerometer" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J46" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J47" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J48" r:id="rId33" display="TBD" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J34" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L23" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J58" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J55" r:id="rId37" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J56" r:id="rId38" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J57" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J54" r:id="rId40" xr:uid="{AA63318B-CE23-4460-98F0-9BED57088735}"/>
+    <hyperlink ref="J49" r:id="rId41" xr:uid="{C73F053A-AB99-4F9A-AB96-34675FD56AAD}"/>
+    <hyperlink ref="J36" r:id="rId42" xr:uid="{6B0C3554-C92C-477C-968B-C3A56DEE5BB2}"/>
+    <hyperlink ref="J37" r:id="rId43" xr:uid="{230B31B2-E3E9-4D33-8792-EA389633978B}"/>
+    <hyperlink ref="J21" r:id="rId44" xr:uid="{AE44EAD7-69DD-4806-9E2F-C1401214B95A}"/>
+    <hyperlink ref="J4" r:id="rId45" xr:uid="{DEB61E4F-1486-491A-838D-61337A0DB5B3}"/>
+    <hyperlink ref="J5" r:id="rId46" xr:uid="{B0B2353F-D76B-49D2-92E2-924AA7C3940B}"/>
+    <hyperlink ref="J6" r:id="rId47" xr:uid="{A49E22B6-E552-4BE6-8729-184F520A838F}"/>
+    <hyperlink ref="J7" r:id="rId48" xr:uid="{47004657-0518-4245-B471-B34B5125E399}"/>
+    <hyperlink ref="J8" r:id="rId49" xr:uid="{6BAD6695-28C3-4B6D-8A72-B08E82F940DF}"/>
+    <hyperlink ref="J9" r:id="rId50" display="Color: 10pcs 2028" xr:uid="{C4B95C3B-16B9-4394-9F39-5B9FF78AC176}"/>
+    <hyperlink ref="J11" r:id="rId51" display="3x GL: 350 - Color: MGN12 H" xr:uid="{9DCC9853-4D9E-4093-9D52-2A218587FDA4}"/>
+    <hyperlink ref="J12" r:id="rId52" display="2x GL: 400 - Color: MGN12 H" xr:uid="{A43DD5EF-D822-48AA-A6D3-DB6211D18B07}"/>
+    <hyperlink ref="J13" r:id="rId53" display="1x GL: 400 - Color: MGN9 H" xr:uid="{792C8BB0-E4E5-4DDC-8020-C3F9BE9E4B2E}"/>
+    <hyperlink ref="J10" r:id="rId54" xr:uid="{3FB75D13-E1B1-4B85-B99D-0379606A4DAC}"/>
+    <hyperlink ref="M10" r:id="rId55" xr:uid="{03D23144-4452-41B9-B4B9-F51023FDC698}"/>
+    <hyperlink ref="M11" r:id="rId56" xr:uid="{410E10AD-6201-406C-BD2E-0E2A08BBF18C}"/>
+    <hyperlink ref="M12" r:id="rId57" xr:uid="{D0E8BE37-F76A-4921-AA1C-3F7A7D64A7BC}"/>
+    <hyperlink ref="J16" r:id="rId58" display="Makersupplies Complete Kit" xr:uid="{036B3E6D-568B-4079-9529-92EC099AA1B7}"/>
+    <hyperlink ref="J17" r:id="rId59" xr:uid="{3707A5E6-020E-4B23-B131-7499054C07E0}"/>
+    <hyperlink ref="J19" r:id="rId60" xr:uid="{A9A16167-FCF8-4CCB-AF52-C298BD6D8154}"/>
+    <hyperlink ref="J18" r:id="rId61" xr:uid="{2EF5411B-8136-4A92-8C0B-6EDC3731093C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="68" fitToWidth="0" orientation="landscape" r:id="rId63"/>
-  <drawing r:id="rId64"/>
-  <legacyDrawing r:id="rId65"/>
+  <pageSetup paperSize="9" scale="68" fitToWidth="0" orientation="landscape" r:id="rId62"/>
+  <drawing r:id="rId63"/>
+  <legacyDrawing r:id="rId64"/>
   <tableParts count="1">
-    <tablePart r:id="rId66"/>
+    <tablePart r:id="rId65"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5607,98 +5463,97 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="7.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="4" customWidth="1"/>
-    <col min="13" max="20" width="8.7109375" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="14.42578125" style="4"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="20" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" thickBot="1">
-      <c r="A1" s="119" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-    </row>
-    <row r="2" spans="1:20" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A2" s="61" t="s">
+      <c r="A1" s="115" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+    </row>
+    <row r="2" spans="1:20" s="6" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46">
         <f>F47</f>
         <v>238.46999999999997</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="111"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -5709,1461 +5564,1460 @@
       <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="A4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <f>(2.8+1.51)</f>
         <v>4.3099999999999996</v>
       </c>
-      <c r="E4" s="19">
-        <v>1</v>
-      </c>
-      <c r="F4" s="52">
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="40">
         <f>E4*D4</f>
         <v>4.3099999999999996</v>
       </c>
-      <c r="G4" s="69" t="s">
-        <v>255</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="112" t="s">
+      <c r="G4" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="113"/>
+      <c r="L4" s="87"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>44</v>
       </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="52">
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="40">
         <f>E5*D5</f>
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="15">
         <v>934</v>
       </c>
-      <c r="J5" s="73">
+      <c r="J5" s="52">
         <v>4032</v>
       </c>
-      <c r="K5" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="113"/>
+      <c r="K5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="87"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>68</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>3</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="9">
         <v>2</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="40">
         <f>E6*D6</f>
         <v>6</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="114" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="113"/>
+      <c r="L6" s="87"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="19">
+      <c r="B7" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="9">
         <v>6</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <f>0.49</f>
         <v>0.49</v>
       </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="F7" s="52">
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="40">
         <f>E7*D7</f>
         <v>0.49</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="73">
+      <c r="I7" s="15"/>
+      <c r="J7" s="52">
         <v>10511</v>
       </c>
-      <c r="K7" s="114" t="s">
+      <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="113"/>
+      <c r="L7" s="87"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="53">
+      <c r="B8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="9">
         <v>31</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="10">
         <v>0.74</v>
       </c>
-      <c r="E8" s="53">
-        <v>1</v>
-      </c>
-      <c r="F8" s="52">
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="40">
         <f>E8*D8</f>
         <v>0.74</v>
       </c>
-      <c r="G8" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="32" t="s">
+      <c r="G8" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="76" t="s">
-        <v>212</v>
-      </c>
-      <c r="J8" s="75"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="113"/>
+      <c r="I8" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="52"/>
+      <c r="L8" s="87"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="40">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="54">
+        <v>916</v>
+      </c>
+      <c r="J9" s="52"/>
+      <c r="K9" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="L9" s="87"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10">
+        <v>36</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="40">
+        <f>E10*D10</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="52">
+        <v>7380</v>
+      </c>
+      <c r="K10" s="88" t="s">
+        <v>305</v>
+      </c>
+      <c r="L10" s="87"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="40">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="15">
+        <v>7991</v>
+      </c>
+      <c r="J11" s="52">
+        <v>10642</v>
+      </c>
+      <c r="K11" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="L11" s="87"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>38</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="40">
+        <f>E12*D12</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="13">
+        <v>912</v>
+      </c>
+      <c r="J12" s="53"/>
+      <c r="K12" s="88" t="s">
+        <v>307</v>
+      </c>
+      <c r="L12" s="87"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="40">
+        <f>E13*D13</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="52">
+        <v>7380</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="87"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14">
+        <v>29</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1.07</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="40">
+        <v>1.07</v>
+      </c>
+      <c r="G14" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="53">
-        <v>8</v>
-      </c>
-      <c r="D9" s="54">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E9" s="53">
-        <v>1</v>
-      </c>
-      <c r="F9" s="52">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G9" s="68" t="s">
-        <v>264</v>
-      </c>
-      <c r="H9" s="32" t="s">
+      <c r="H14" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="76">
-        <v>916</v>
-      </c>
-      <c r="J9" s="75"/>
-      <c r="K9" s="112" t="s">
-        <v>307</v>
-      </c>
-      <c r="L9" s="113"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="51" t="s">
+      <c r="I14" s="15">
+        <v>912</v>
+      </c>
+      <c r="J14" s="52">
+        <v>4762</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="87"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="9">
-        <v>36</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="19">
-        <v>1</v>
-      </c>
-      <c r="F10" s="52">
-        <f>E10*D10</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="73">
-        <v>7380</v>
-      </c>
-      <c r="K10" s="115" t="s">
-        <v>308</v>
-      </c>
-      <c r="L10" s="113"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15">
         <v>11</v>
       </c>
-      <c r="D11" s="13">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="52">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G11" s="68" t="s">
-        <v>265</v>
-      </c>
-      <c r="H11" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="20">
-        <v>7991</v>
-      </c>
-      <c r="J11" s="73">
-        <v>10642</v>
-      </c>
-      <c r="K11" s="115" t="s">
-        <v>309</v>
-      </c>
-      <c r="L11" s="113"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="9">
-        <v>38</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-      <c r="E12" s="19">
-        <v>1</v>
-      </c>
-      <c r="F12" s="52">
-        <f>E12*D12</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="16">
-        <v>912</v>
-      </c>
-      <c r="J12" s="74"/>
-      <c r="K12" s="115" t="s">
-        <v>310</v>
-      </c>
-      <c r="L12" s="113"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="9">
-        <v>31</v>
-      </c>
-      <c r="D13" s="13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="52">
-        <f>E13*D13</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="73">
-        <v>7380</v>
-      </c>
-      <c r="K13" s="114"/>
-      <c r="L13" s="113"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="C14" s="9">
-        <v>29</v>
-      </c>
-      <c r="D14" s="13">
-        <v>1.07</v>
-      </c>
-      <c r="E14" s="19">
-        <v>1</v>
-      </c>
-      <c r="F14" s="52">
-        <v>1.07</v>
-      </c>
-      <c r="G14" s="68" t="s">
-        <v>266</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="20">
-        <v>912</v>
-      </c>
-      <c r="J14" s="73">
-        <v>4762</v>
-      </c>
-      <c r="K14" s="114"/>
-      <c r="L14" s="113"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="9">
-        <v>11</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <v>2</v>
       </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-      <c r="F15" s="52">
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="40">
         <f>E15*D15</f>
         <v>2</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="74">
+      <c r="I15" s="13"/>
+      <c r="J15" s="53">
         <v>7380</v>
       </c>
-      <c r="K15" s="120" t="s">
-        <v>315</v>
-      </c>
-      <c r="L15" s="121"/>
+      <c r="K15" s="116" t="s">
+        <v>312</v>
+      </c>
+      <c r="L15" s="117"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="B16" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>1.5</v>
       </c>
-      <c r="E16" s="19">
-        <v>1</v>
-      </c>
-      <c r="F16" s="52">
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="40">
         <f>E16*D16</f>
         <v>1.5</v>
       </c>
-      <c r="G16" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="H16" s="15" t="s">
+      <c r="G16" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="13">
         <v>912</v>
       </c>
-      <c r="J16" s="74"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="121"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="117"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" s="19">
+      <c r="A17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="9">
         <v>4</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="10">
         <f>3.27</f>
         <v>3.27</v>
       </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="52">
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="40">
         <f t="shared" ref="F17:F34" si="0">E17*D17</f>
         <v>3.27</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="H17" s="15" t="s">
+      <c r="G17" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="113"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="87"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" t="s">
         <v>186</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C18" s="19">
+      <c r="C18" s="9">
         <v>4</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="10">
         <f>2.57</f>
         <v>2.57</v>
       </c>
-      <c r="E18" s="19">
-        <v>1</v>
-      </c>
-      <c r="F18" s="52">
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="40">
         <f t="shared" si="0"/>
         <v>2.57</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="H18" s="15" t="s">
+      <c r="G18" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="120" t="s">
-        <v>318</v>
-      </c>
-      <c r="L18" s="121"/>
-    </row>
-    <row r="19" spans="1:12" s="30" customFormat="1">
-      <c r="A19" s="51" t="s">
+      <c r="I18" s="15"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="116" t="s">
+        <v>315</v>
+      </c>
+      <c r="L18" s="117"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="10">
         <v>4</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="9">
         <v>3</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="40">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="121"/>
-    </row>
-    <row r="20" spans="1:12" s="30" customFormat="1">
-      <c r="A20" s="57" t="s">
+      <c r="I19" s="15"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="117"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="C20" s="9">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="B20" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10">
         <v>11</v>
       </c>
-      <c r="E20" s="19">
-        <v>1</v>
-      </c>
-      <c r="F20" s="52">
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="40">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G20" s="69" t="s">
-        <v>174</v>
-      </c>
-      <c r="H20" s="15" t="s">
+      <c r="G20" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="113"/>
-    </row>
-    <row r="21" spans="1:12" s="30" customFormat="1">
-      <c r="A21" s="51" t="s">
+      <c r="I20" s="15"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="87"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21">
         <v>5</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="10">
         <v>1.5</v>
       </c>
-      <c r="E21" s="19">
-        <v>1</v>
-      </c>
-      <c r="F21" s="52">
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="40">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="13">
         <v>934</v>
       </c>
-      <c r="J21" s="74">
+      <c r="J21" s="53">
         <v>4032</v>
       </c>
-      <c r="K21" s="120" t="s">
-        <v>317</v>
-      </c>
-      <c r="L21" s="121"/>
+      <c r="K21" s="116" t="s">
+        <v>314</v>
+      </c>
+      <c r="L21" s="117"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="B22" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22">
         <v>9</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="10">
         <v>1.5</v>
       </c>
-      <c r="E22" s="19">
-        <v>1</v>
-      </c>
-      <c r="F22" s="52">
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="40">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="15">
         <v>985</v>
       </c>
-      <c r="J22" s="73">
+      <c r="J22" s="52">
         <v>10511</v>
       </c>
-      <c r="K22" s="120"/>
-      <c r="L22" s="121"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="117"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23">
         <v>7</v>
       </c>
-      <c r="D23" s="13">
-        <v>1</v>
-      </c>
-      <c r="E23" s="19">
-        <v>1</v>
-      </c>
-      <c r="F23" s="52">
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="13">
         <v>125</v>
       </c>
-      <c r="J23" s="74">
+      <c r="J23" s="53">
         <v>7089</v>
       </c>
-      <c r="K23" s="117"/>
-      <c r="L23" s="113"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="87"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="10">
         <v>2</v>
       </c>
-      <c r="E24" s="19">
-        <v>1</v>
-      </c>
-      <c r="F24" s="52">
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="40">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="15">
         <v>7991</v>
       </c>
-      <c r="J24" s="73">
+      <c r="J24" s="52">
         <v>10642</v>
       </c>
-      <c r="K24" s="117"/>
-      <c r="L24" s="113"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="87"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25">
         <v>7</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="10">
         <v>2</v>
       </c>
-      <c r="E25" s="19">
-        <v>1</v>
-      </c>
-      <c r="F25" s="52">
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="40">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="13">
         <v>7991</v>
       </c>
-      <c r="J25" s="74">
+      <c r="J25" s="53">
         <v>10642</v>
       </c>
-      <c r="K25" s="117"/>
-      <c r="L25" s="113"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="87"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="82" t="s">
-        <v>281</v>
-      </c>
-      <c r="C26" s="9">
+      <c r="B26" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26">
         <v>4</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="10">
         <v>3.28</v>
       </c>
-      <c r="E26" s="19">
-        <v>1</v>
-      </c>
-      <c r="F26" s="52">
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="40">
         <f t="shared" si="0"/>
         <v>3.28</v>
       </c>
-      <c r="G26" s="68" t="s">
-        <v>280</v>
-      </c>
-      <c r="H26" s="15" t="s">
+      <c r="G26" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="13">
         <v>7991</v>
       </c>
-      <c r="J26" s="74"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="113"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="87"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27">
         <v>22</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="10">
         <v>2</v>
       </c>
-      <c r="E27" s="19">
-        <v>1</v>
-      </c>
-      <c r="F27" s="52">
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="40">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="15">
         <v>934</v>
       </c>
-      <c r="J27" s="73">
+      <c r="J27" s="52">
         <v>4032</v>
       </c>
-      <c r="K27" s="117"/>
-      <c r="L27" s="113"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="87"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28">
         <v>64</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="10">
         <v>11</v>
       </c>
-      <c r="E28" s="19">
-        <v>1</v>
-      </c>
-      <c r="F28" s="52">
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="40">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="113"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="87"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29">
         <v>15</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="10">
         <v>2.81</v>
       </c>
-      <c r="E29" s="19">
-        <v>1</v>
-      </c>
-      <c r="F29" s="52">
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="40">
         <f t="shared" si="0"/>
         <v>2.81</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="15">
         <v>985</v>
       </c>
-      <c r="J29" s="73">
+      <c r="J29" s="52">
         <v>10511</v>
       </c>
-      <c r="K29" s="117"/>
-      <c r="L29" s="113"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="87"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C30" s="9">
+      <c r="B30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30">
         <v>72</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="10">
         <v>13.5</v>
       </c>
-      <c r="E30" s="19">
-        <v>1</v>
-      </c>
-      <c r="F30" s="52">
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="40">
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="113"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="87"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C31" s="19">
-        <v>1</v>
-      </c>
-      <c r="D31" s="13">
+      <c r="A31" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="10">
         <f>2.03+1.59</f>
         <v>3.62</v>
       </c>
-      <c r="E31" s="19">
-        <v>1</v>
-      </c>
-      <c r="F31" s="52">
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="40">
         <f t="shared" si="0"/>
         <v>3.62</v>
       </c>
-      <c r="G31" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="113"/>
+      <c r="G31" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="87"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32">
         <v>141</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="10">
         <v>1.28</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="9">
         <v>2</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="40">
         <f t="shared" si="0"/>
         <v>2.56</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="15">
         <v>125</v>
       </c>
-      <c r="J32" s="73">
+      <c r="J32" s="52">
         <v>7089</v>
       </c>
-      <c r="K32" s="117"/>
-      <c r="L32" s="113"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="87"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33">
         <v>141</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="10">
         <v>2.69</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="9">
         <v>15</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="40">
         <f t="shared" si="0"/>
         <v>40.35</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="16"/>
-      <c r="J33" s="74">
+      <c r="I33" s="13"/>
+      <c r="J33" s="53">
         <v>7380</v>
       </c>
-      <c r="K33" s="117"/>
-      <c r="L33" s="113"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="87"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34">
         <v>9</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="10">
         <v>8</v>
       </c>
-      <c r="E34" s="21">
-        <v>1</v>
-      </c>
-      <c r="F34" s="52">
+      <c r="E34" s="16">
+        <v>1</v>
+      </c>
+      <c r="F34" s="40">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="73">
+      <c r="I34" s="15"/>
+      <c r="J34" s="52">
         <v>7380</v>
       </c>
-      <c r="K34" s="117"/>
-      <c r="L34" s="113"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="87"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="80" t="s">
-        <v>260</v>
-      </c>
-      <c r="C35" s="9">
+      <c r="B35" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="10">
         <v>1.64</v>
       </c>
-      <c r="E35" s="21">
-        <v>1</v>
-      </c>
-      <c r="F35" s="52">
+      <c r="E35" s="16">
+        <v>1</v>
+      </c>
+      <c r="F35" s="40">
         <v>1.64</v>
       </c>
-      <c r="G35" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="H35" s="15" t="s">
+      <c r="G35" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="73">
+      <c r="I35" s="15"/>
+      <c r="J35" s="52">
         <v>7380</v>
       </c>
-      <c r="K35" s="117"/>
-      <c r="L35" s="113"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="87"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36">
         <v>5</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="10">
         <v>2.57</v>
       </c>
-      <c r="E36" s="21">
-        <v>1</v>
-      </c>
-      <c r="F36" s="52">
+      <c r="E36" s="16">
+        <v>1</v>
+      </c>
+      <c r="F36" s="40">
         <f>E36*D36</f>
         <v>2.57</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="13">
         <v>933</v>
       </c>
-      <c r="J36" s="74"/>
-      <c r="K36" s="117"/>
-      <c r="L36" s="113"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="87"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="C37" s="9">
+      <c r="B37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C37">
         <v>15</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="10">
         <v>3.04</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="16">
         <v>2</v>
       </c>
-      <c r="F37" s="52">
+      <c r="F37" s="40">
         <f t="shared" ref="F37" si="1">E37*D37</f>
         <v>6.08</v>
       </c>
-      <c r="G37" s="68" t="s">
-        <v>269</v>
-      </c>
-      <c r="H37" s="15" t="s">
+      <c r="G37" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="13">
         <v>933</v>
       </c>
-      <c r="J37" s="74"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="113"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="87"/>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="9">
         <v>33</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="10">
         <v>16</v>
       </c>
-      <c r="E38" s="19">
-        <v>1</v>
-      </c>
-      <c r="F38" s="52">
+      <c r="E38" s="9">
+        <v>1</v>
+      </c>
+      <c r="F38" s="40">
         <f>E38*D38</f>
         <v>16</v>
       </c>
-      <c r="G38" s="68" t="s">
+      <c r="G38" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="H38" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="113"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="87"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="83" t="s">
-        <v>304</v>
-      </c>
-      <c r="C39" s="19">
-        <v>1</v>
-      </c>
-      <c r="D39" s="13">
+      <c r="B39" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C39" s="9">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10">
         <v>9.5</v>
       </c>
-      <c r="E39" s="19">
-        <v>1</v>
-      </c>
-      <c r="F39" s="52">
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
+      <c r="F39" s="40">
         <v>9.5</v>
       </c>
-      <c r="G39" s="68" t="s">
-        <v>270</v>
-      </c>
-      <c r="H39" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="117"/>
-      <c r="L39" s="113"/>
+      <c r="G39" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="H39" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="87"/>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40">
         <v>3</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="10">
         <v>2.5</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="16">
         <v>2</v>
       </c>
-      <c r="F40" s="52">
+      <c r="F40" s="40">
         <f t="shared" ref="F40:F41" si="2">E40*D40</f>
         <v>5</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="117"/>
-      <c r="L40" s="113"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="87"/>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="C41" s="9">
+      <c r="B41" t="s">
+        <v>302</v>
+      </c>
+      <c r="C41">
         <v>3</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="10">
         <v>4.5</v>
       </c>
-      <c r="E41" s="21">
-        <v>1</v>
-      </c>
-      <c r="F41" s="52">
+      <c r="E41" s="16">
+        <v>1</v>
+      </c>
+      <c r="F41" s="40">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="G41" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="H41" s="15" t="s">
+      <c r="G41" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I41" s="16"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="117"/>
-      <c r="L41" s="113"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="87"/>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="C42" s="19">
+      <c r="B42" t="s">
+        <v>300</v>
+      </c>
+      <c r="C42" s="9">
         <v>6</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="10">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E42" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="F42" s="52">
+      <c r="E42" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F42" s="40">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G42" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="117"/>
-      <c r="L42" s="113"/>
+      <c r="G42" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="87"/>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="9">
         <v>6</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="10">
         <v>7.5</v>
       </c>
-      <c r="E43" s="19">
-        <v>1</v>
-      </c>
-      <c r="F43" s="52">
+      <c r="E43" s="9">
+        <v>1</v>
+      </c>
+      <c r="F43" s="40">
         <f t="shared" ref="F43" si="3">E43*D43</f>
         <v>7.5</v>
       </c>
-      <c r="G43" s="70" t="s">
+      <c r="G43" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H43" s="60" t="s">
+      <c r="H43" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="117"/>
-      <c r="L43" s="113"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="87"/>
     </row>
     <row r="44" spans="1:20">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="9">
+      <c r="B44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="10">
         <v>24</v>
       </c>
-      <c r="E44" s="21">
-        <v>1</v>
-      </c>
-      <c r="F44" s="52">
+      <c r="E44" s="16">
+        <v>1</v>
+      </c>
+      <c r="F44" s="40">
         <f t="shared" ref="F44" si="4">E44*D44</f>
         <v>24</v>
       </c>
-      <c r="G44" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="117"/>
-      <c r="L44" s="113"/>
+      <c r="G44" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="87"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="C45" s="9">
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45">
         <v>3</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="10">
         <f>5.01</f>
         <v>5.01</v>
       </c>
-      <c r="E45" s="21">
-        <v>1</v>
-      </c>
-      <c r="F45" s="52">
+      <c r="E45" s="16">
+        <v>1</v>
+      </c>
+      <c r="F45" s="40">
         <f>E45*D45</f>
         <v>5.01</v>
       </c>
-      <c r="G45" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="I45" s="16"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="117"/>
-      <c r="L45" s="113"/>
+      <c r="G45" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="87"/>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C46" s="19">
-        <v>1</v>
-      </c>
-      <c r="D46" s="13">
+      <c r="A46" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="9">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10">
         <f>1.72</f>
         <v>1.72</v>
       </c>
-      <c r="E46" s="19">
-        <v>1</v>
-      </c>
-      <c r="F46" s="52">
+      <c r="E46" s="9">
+        <v>1</v>
+      </c>
+      <c r="F46" s="40">
         <f>E46*D46</f>
         <v>1.72</v>
       </c>
-      <c r="G46" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="117"/>
-      <c r="L46" s="113"/>
-    </row>
-    <row r="47" spans="1:20" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A47" s="41" t="s">
+      <c r="G46" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="87"/>
+    </row>
+    <row r="47" spans="1:20" s="6" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A47" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="47">
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="36">
         <f>SUBTOTAL(109,Table13[Line Price $])</f>
         <v>238.46999999999997</v>
       </c>
-      <c r="G47" s="42"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="118"/>
-      <c r="L47" s="116"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="91"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7237,7 +7091,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
@@ -7246,48 +7100,47 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.42578125" style="4"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27">
-      <c r="A1" s="119" t="s">
-        <v>313</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
+      <c r="A1" s="115" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
-      <c r="C2" s="5"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+        <v>304</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:12">
@@ -7295,8 +7148,8 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="84" t="s">
-        <v>308</v>
+      <c r="E3" s="60" t="s">
+        <v>305</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -7306,8 +7159,8 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="84" t="s">
-        <v>309</v>
+      <c r="E4" s="60" t="s">
+        <v>306</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -7316,1560 +7169,1503 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="84" t="s">
-        <v>310</v>
+      <c r="E5" s="60" t="s">
+        <v>307</v>
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62" t="s">
+    <row r="6" spans="1:12" s="6" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="61" t="s">
-        <v>311</v>
-      </c>
-      <c r="D6" s="63" t="s">
+      <c r="C6" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="65">
-        <f>I50</f>
-        <v>1509.31</v>
-      </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-    </row>
-    <row r="7" spans="1:12" s="78" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A7" s="45" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46">
+        <f>I49</f>
+        <v>1494.31</v>
+      </c>
+      <c r="J6" s="44"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+    </row>
+    <row r="7" spans="1:12" s="55" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="59" customFormat="1">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="21">
         <v>369</v>
       </c>
-      <c r="F8" s="27">
-        <v>1</v>
-      </c>
-      <c r="G8" s="28">
+      <c r="F8" s="22">
+        <v>1</v>
+      </c>
+      <c r="G8" s="23">
         <v>8.6199999999999992</v>
       </c>
-      <c r="H8" s="27">
-        <v>1</v>
-      </c>
-      <c r="I8" s="50">
+      <c r="H8" s="22">
+        <v>1</v>
+      </c>
+      <c r="I8" s="39">
         <v>8</v>
       </c>
-      <c r="J8" s="81" t="s">
-        <v>301</v>
-      </c>
-      <c r="K8" s="38" t="s">
+      <c r="J8" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="K8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="93"/>
-    </row>
-    <row r="9" spans="1:12" s="59" customFormat="1">
-      <c r="A9" s="8" t="s">
+      <c r="L8" s="69"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="4">
         <f>E10</f>
         <v>420</v>
       </c>
-      <c r="F9" s="12">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
         <v>9.5</v>
       </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="52">
-        <f t="shared" ref="I9:I48" si="0">H9*G9</f>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="40">
+        <f t="shared" ref="I9:I47" si="0">H9*G9</f>
         <v>9.5</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="94"/>
-    </row>
-    <row r="10" spans="1:12" s="59" customFormat="1">
-      <c r="A10" s="8" t="s">
+      <c r="L9" s="70"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="4">
         <v>420</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="9">
         <v>4</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="10">
         <v>10.54</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="9">
         <v>4</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="40">
         <f t="shared" si="0"/>
         <v>42.16</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="95"/>
-    </row>
-    <row r="11" spans="1:12" s="59" customFormat="1">
-      <c r="A11" s="8" t="s">
+      <c r="L10" s="71"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="4">
         <v>480</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="9">
         <v>4</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="10">
         <v>11.121</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="9">
         <v>4</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="40">
         <f t="shared" si="0"/>
         <v>44.484000000000002</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="94"/>
-    </row>
-    <row r="12" spans="1:12" s="59" customFormat="1">
-      <c r="A12" s="8" t="s">
+      <c r="L11" s="70"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="4">
         <v>750</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="10">
         <v>14.7</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="9">
         <v>4</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="40">
         <f t="shared" si="0"/>
         <v>58.8</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="K12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="95"/>
-    </row>
-    <row r="13" spans="1:12" s="59" customFormat="1">
-      <c r="A13" s="8" t="s">
+      <c r="L12" s="71"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="12">
+      <c r="F13" s="9">
         <v>42</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="10">
         <v>5</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="9">
         <v>5</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="40">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="J13" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="K13" s="37" t="s">
+      <c r="J13" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="94"/>
-    </row>
-    <row r="14" spans="1:12" s="59" customFormat="1">
-      <c r="A14" s="8" t="s">
+      <c r="L13" s="70"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="12">
+      <c r="D14" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="9">
         <v>4</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="10">
         <v>10</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="9">
         <v>4</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="40">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J14" s="79" t="s">
-        <v>262</v>
-      </c>
-      <c r="K14" s="37" t="s">
+      <c r="J14" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="K14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="96"/>
-    </row>
-    <row r="15" spans="1:12" s="59" customFormat="1">
-      <c r="A15" s="8" t="s">
+      <c r="L14" s="72"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15">
         <v>350</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="9">
         <v>3</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="10">
         <v>15.6</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="9">
         <v>3</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="40">
         <f>H15*G15</f>
         <v>46.8</v>
       </c>
-      <c r="J15" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="K15" s="37" t="s">
+      <c r="J15" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="K15" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="97"/>
-    </row>
-    <row r="16" spans="1:12" s="59" customFormat="1">
-      <c r="A16" s="8" t="s">
+      <c r="L15" s="73"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="B16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16">
         <v>400</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="9">
         <v>2</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="10">
         <v>17.5</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="9">
         <v>2</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="40">
         <f>H16*G16</f>
         <v>35</v>
       </c>
-      <c r="J16" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="K16" s="37" t="s">
+      <c r="J16" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K16" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="97"/>
-    </row>
-    <row r="17" spans="1:12" s="59" customFormat="1">
-      <c r="A17" s="8" t="s">
+      <c r="L16" s="73"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="E17">
         <v>400</v>
       </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13">
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
         <v>16</v>
       </c>
-      <c r="H17" s="19">
-        <v>1</v>
-      </c>
-      <c r="I17" s="52">
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
+      <c r="I17" s="40">
         <f>H17*G17</f>
         <v>16</v>
       </c>
-      <c r="J17" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="K17" s="37" t="s">
+      <c r="J17" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="K17" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="97"/>
-    </row>
-    <row r="18" spans="1:12" s="59" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A18" s="8" t="s">
+      <c r="L17" s="73"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="83" t="s">
-        <v>332</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="105">
+      <c r="D18" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="81">
         <f>G22+G23</f>
         <v>374</v>
       </c>
-      <c r="J18" s="79"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="97"/>
-    </row>
-    <row r="19" spans="1:12" s="59" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A19" s="141" t="s">
+      <c r="J18" s="56"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="73"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A19" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="142" t="s">
+      <c r="B19" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="143" t="s">
-        <v>330</v>
-      </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="148" t="s">
-        <v>331</v>
-      </c>
-      <c r="L19" s="98"/>
-    </row>
-    <row r="20" spans="1:12" s="59" customFormat="1">
-      <c r="A20" s="122" t="s">
+      <c r="D19" s="108" t="s">
+        <v>327</v>
+      </c>
+      <c r="E19" s="108"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="113" t="s">
+        <v>328</v>
+      </c>
+      <c r="L19" s="74"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="124" t="s">
-        <v>321</v>
-      </c>
-      <c r="E20" s="123"/>
-      <c r="F20" s="125">
-        <v>1</v>
-      </c>
-      <c r="G20" s="126">
+      <c r="D20" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="93">
+        <v>1</v>
+      </c>
+      <c r="G20" s="94">
         <v>720</v>
       </c>
-      <c r="H20" s="125"/>
-      <c r="I20" s="52">
+      <c r="H20" s="93"/>
+      <c r="I20" s="40">
         <f>H20*G20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="94" t="s">
-        <v>326</v>
-      </c>
-      <c r="K20" s="137" t="s">
+      <c r="J20" s="70" t="s">
+        <v>323</v>
+      </c>
+      <c r="K20" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="94"/>
-    </row>
-    <row r="21" spans="1:12" s="59" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A21" s="122" t="s">
+      <c r="L20" s="70"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A21" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="124" t="s">
-        <v>322</v>
-      </c>
-      <c r="E21" s="123"/>
-      <c r="F21" s="125">
-        <v>1</v>
-      </c>
-      <c r="G21" s="126">
+      <c r="D21" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="93">
+        <v>1</v>
+      </c>
+      <c r="G21" s="94">
         <v>577</v>
       </c>
-      <c r="H21" s="125"/>
-      <c r="I21" s="52">
+      <c r="H21" s="93"/>
+      <c r="I21" s="40">
         <f t="shared" ref="I21:I23" si="1">H21*G21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="94" t="s">
-        <v>327</v>
-      </c>
-      <c r="K21" s="137" t="s">
+      <c r="J21" s="70" t="s">
+        <v>324</v>
+      </c>
+      <c r="K21" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="94"/>
-    </row>
-    <row r="22" spans="1:12" s="59" customFormat="1">
-      <c r="A22" s="127" t="s">
+      <c r="L21" s="70"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="128" t="s">
+      <c r="B22" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="129" t="s">
-        <v>325</v>
-      </c>
-      <c r="E22" s="128"/>
-      <c r="F22" s="130">
-        <v>1</v>
-      </c>
-      <c r="G22" s="131">
+      <c r="D22" s="96" t="s">
+        <v>322</v>
+      </c>
+      <c r="E22" s="96"/>
+      <c r="F22" s="97">
+        <v>1</v>
+      </c>
+      <c r="G22" s="98">
         <v>175</v>
       </c>
-      <c r="H22" s="130"/>
-      <c r="I22" s="50">
+      <c r="H22" s="97"/>
+      <c r="I22" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J22" s="93" t="s">
-        <v>328</v>
-      </c>
-      <c r="K22" s="140" t="s">
-        <v>323</v>
-      </c>
-      <c r="L22" s="94"/>
-    </row>
-    <row r="23" spans="1:12" s="59" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A23" s="132" t="s">
+      <c r="J22" s="69" t="s">
+        <v>325</v>
+      </c>
+      <c r="K22" s="106" t="s">
+        <v>320</v>
+      </c>
+      <c r="L22" s="70"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A23" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="133" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="133" t="s">
-        <v>157</v>
-      </c>
-      <c r="D23" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="E23" s="133"/>
-      <c r="F23" s="135">
-        <v>1</v>
-      </c>
-      <c r="G23" s="136">
+      <c r="B23" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="100" t="s">
+        <v>321</v>
+      </c>
+      <c r="E23" s="100"/>
+      <c r="F23" s="101">
+        <v>1</v>
+      </c>
+      <c r="G23" s="102">
         <v>199</v>
       </c>
-      <c r="H23" s="135"/>
-      <c r="I23" s="139">
+      <c r="H23" s="101"/>
+      <c r="I23" s="105">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J23" s="150" t="s">
-        <v>329</v>
-      </c>
-      <c r="K23" s="138" t="s">
-        <v>323</v>
-      </c>
-      <c r="L23" s="94"/>
-    </row>
-    <row r="24" spans="1:12" s="59" customFormat="1">
-      <c r="A24" s="8" t="s">
+      <c r="J23" s="114" t="s">
+        <v>326</v>
+      </c>
+      <c r="K23" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="L23" s="70"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24">
         <v>410</v>
       </c>
-      <c r="F24" s="12">
-        <v>1</v>
-      </c>
-      <c r="G24" s="13">
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10">
         <v>20</v>
       </c>
-      <c r="H24" s="12">
-        <v>1</v>
-      </c>
-      <c r="I24" s="52">
+      <c r="H24" s="9">
+        <v>1</v>
+      </c>
+      <c r="I24" s="40">
         <f>H24*G24</f>
         <v>20</v>
       </c>
-      <c r="J24" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="K24" s="15" t="s">
+      <c r="J24" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="99"/>
-    </row>
-    <row r="25" spans="1:12" s="59" customFormat="1">
-      <c r="A25" s="8" t="s">
+      <c r="L24" s="75"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25">
         <v>350</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="9">
         <v>1225</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="10">
         <v>0.08</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="9">
         <v>1225</v>
       </c>
-      <c r="I25" s="52">
+      <c r="I25" s="40">
         <v>104</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="99"/>
-    </row>
-    <row r="26" spans="1:12" s="59" customFormat="1">
-      <c r="A26" s="8" t="s">
+      <c r="L25" s="75"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="D26" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26">
         <v>330</v>
       </c>
-      <c r="F26" s="12">
-        <v>1</v>
-      </c>
-      <c r="G26" s="13">
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="10">
         <v>46</v>
       </c>
-      <c r="H26" s="12">
-        <v>1</v>
-      </c>
-      <c r="I26" s="52">
+      <c r="H26" s="9">
+        <v>1</v>
+      </c>
+      <c r="I26" s="40">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="J26" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K26" s="15" t="s">
+      <c r="J26" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="97" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="59" customFormat="1">
-      <c r="A27" s="8" t="s">
+      <c r="L26" s="73" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="12">
+      <c r="F27" s="9">
         <v>6</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="10">
         <v>3</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="9">
         <v>2</v>
       </c>
-      <c r="I27" s="52">
+      <c r="I27" s="40">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L27" s="99"/>
-    </row>
-    <row r="28" spans="1:12" s="59" customFormat="1">
-      <c r="A28" s="8" t="s">
+      <c r="L27" s="75"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="12">
+      <c r="F28" s="9">
         <v>3</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="10">
         <v>3</v>
       </c>
-      <c r="H28" s="12">
-        <v>1</v>
-      </c>
-      <c r="I28" s="52">
+      <c r="H28" s="9">
+        <v>1</v>
+      </c>
+      <c r="I28" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L28" s="99"/>
-    </row>
-    <row r="29" spans="1:12" s="59" customFormat="1">
-      <c r="A29" s="8" t="s">
+      <c r="L28" s="75"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="19">
-        <v>1</v>
-      </c>
-      <c r="G29" s="13">
+      <c r="D29" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10">
         <v>145</v>
       </c>
-      <c r="H29" s="19">
-        <v>1</v>
-      </c>
-      <c r="I29" s="52">
+      <c r="H29" s="9">
+        <v>1</v>
+      </c>
+      <c r="I29" s="40">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="J29" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="K29" s="15" t="s">
+      <c r="J29" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="L29" s="97" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="59" customFormat="1">
-      <c r="A30" s="8" t="s">
+      <c r="L29" s="73" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="19">
-        <v>1</v>
-      </c>
-      <c r="G30" s="13">
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10">
         <v>23</v>
       </c>
-      <c r="H30" s="19">
-        <v>1</v>
-      </c>
-      <c r="I30" s="52">
+      <c r="H30" s="9">
+        <v>1</v>
+      </c>
+      <c r="I30" s="40">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="L30" s="99"/>
-    </row>
-    <row r="31" spans="1:12" s="59" customFormat="1">
-      <c r="A31" s="8" t="s">
+      <c r="L30" s="75"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="19">
-        <v>1</v>
-      </c>
-      <c r="G31" s="13">
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10">
         <v>7.5</v>
       </c>
-      <c r="H31" s="19">
-        <v>1</v>
-      </c>
-      <c r="I31" s="52">
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="40">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="L31" s="99"/>
-    </row>
-    <row r="32" spans="1:12" s="59" customFormat="1">
-      <c r="A32" s="8" t="s">
+      <c r="L31" s="75"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="D32" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32">
         <v>300</v>
       </c>
-      <c r="F32" s="19">
-        <v>1</v>
-      </c>
-      <c r="G32" s="13">
+      <c r="F32" s="9">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10">
         <v>78.39</v>
       </c>
-      <c r="H32" s="19">
-        <v>1</v>
-      </c>
-      <c r="I32" s="52">
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
+      <c r="I32" s="40">
         <f t="shared" si="0"/>
         <v>78.39</v>
       </c>
-      <c r="J32" s="69" t="s">
-        <v>248</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="L32" s="97" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="59" customFormat="1">
-      <c r="A33" s="8" t="s">
+      <c r="J32" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="L32" s="73" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" t="s">
         <v>124</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="19">
-        <v>1</v>
-      </c>
-      <c r="G33" s="13">
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10">
         <v>26</v>
       </c>
-      <c r="H33" s="19">
-        <v>1</v>
-      </c>
-      <c r="I33" s="52">
+      <c r="H33" s="9">
+        <v>1</v>
+      </c>
+      <c r="I33" s="40">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="J33" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L33" s="97" t="s">
+      <c r="J33" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L33" s="73" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="59" customFormat="1">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:12">
+      <c r="A34" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="19">
-        <v>1</v>
-      </c>
-      <c r="G34" s="13">
+      <c r="C34" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10">
         <v>3</v>
       </c>
-      <c r="H34" s="19">
-        <v>1</v>
-      </c>
-      <c r="I34" s="52">
+      <c r="H34" s="9">
+        <v>1</v>
+      </c>
+      <c r="I34" s="40">
         <f>H34*G34</f>
         <v>3</v>
       </c>
-      <c r="J34" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="L34" s="99"/>
-    </row>
-    <row r="35" spans="1:12" s="59" customFormat="1">
-      <c r="A35" s="8" t="s">
+      <c r="J34" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L34" s="75"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="19">
-        <v>1</v>
-      </c>
-      <c r="G35" s="13">
-        <v>15</v>
-      </c>
-      <c r="H35" s="19">
-        <v>1</v>
-      </c>
-      <c r="I35" s="52">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L35" s="99"/>
-    </row>
-    <row r="36" spans="1:12" s="59" customFormat="1">
-      <c r="A36" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="19">
-        <v>1</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="C35" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10">
         <v>2</v>
       </c>
-      <c r="H36" s="19">
-        <v>1</v>
-      </c>
-      <c r="I36" s="52">
+      <c r="H35" s="9">
+        <v>1</v>
+      </c>
+      <c r="I35" s="40">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J36" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="K36" s="60" t="s">
-        <v>250</v>
-      </c>
-      <c r="L36" s="97" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="59" customFormat="1">
-      <c r="A37" s="8" t="s">
+      <c r="J35" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="K35" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="L35" s="73" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="19">
-        <v>1</v>
-      </c>
-      <c r="G37" s="13">
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10">
         <v>40</v>
       </c>
-      <c r="H37" s="19">
-        <v>1</v>
-      </c>
-      <c r="I37" s="52">
+      <c r="H36" s="9">
+        <v>1</v>
+      </c>
+      <c r="I36" s="40">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J37" s="70" t="s">
-        <v>252</v>
-      </c>
-      <c r="K37" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="L37" s="99"/>
-    </row>
-    <row r="38" spans="1:12" s="59" customFormat="1">
-      <c r="A38" s="8" t="s">
+      <c r="J36" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="K36" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="L36" s="75"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="19">
-        <v>1</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D37" t="s">
+        <v>232</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10">
         <v>13.5</v>
       </c>
-      <c r="H38" s="19">
-        <v>1</v>
-      </c>
-      <c r="I38" s="52">
+      <c r="H37" s="9">
+        <v>1</v>
+      </c>
+      <c r="I37" s="40">
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-      <c r="J38" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="K38" s="60" t="s">
+      <c r="J37" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="K37" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="L38" s="99"/>
-    </row>
-    <row r="39" spans="1:12" s="59" customFormat="1">
-      <c r="A39" s="8" t="s">
+      <c r="L37" s="75"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="19">
-        <v>1</v>
-      </c>
-      <c r="G39" s="13">
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10">
         <v>80</v>
       </c>
-      <c r="H39" s="19">
-        <v>1</v>
-      </c>
-      <c r="I39" s="52">
+      <c r="H38" s="9">
+        <v>1</v>
+      </c>
+      <c r="I38" s="40">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="J39" s="68" t="s">
+      <c r="J38" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L38" s="75"/>
+    </row>
+    <row r="39" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A39" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>295</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10">
+        <v>3.75</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1</v>
+      </c>
+      <c r="I39" s="40">
+        <f>H39*G39</f>
+        <v>3.75</v>
+      </c>
+      <c r="J39" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L39" s="76"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="9">
+        <v>5</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="H40" s="9">
+        <v>1</v>
+      </c>
+      <c r="I40" s="40">
+        <f>H40*G40</f>
+        <v>1.2</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L40" s="75"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="9">
+        <v>12</v>
+      </c>
+      <c r="G41" s="10">
+        <v>3</v>
+      </c>
+      <c r="H41" s="9">
+        <v>3</v>
+      </c>
+      <c r="I41" s="40">
+        <f>H41*G41</f>
+        <v>9</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L41" s="75"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K39" s="15" t="s">
+      <c r="D42" t="s">
         <v>135</v>
       </c>
-      <c r="L39" s="99"/>
-    </row>
-    <row r="40" spans="1:12" s="59" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A40" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="19">
-        <v>1</v>
-      </c>
-      <c r="G40" s="13">
-        <v>3.75</v>
-      </c>
-      <c r="H40" s="19">
-        <v>1</v>
-      </c>
-      <c r="I40" s="52">
-        <f>H40*G40</f>
-        <v>3.75</v>
-      </c>
-      <c r="J40" s="68" t="s">
-        <v>299</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L40" s="100"/>
-    </row>
-    <row r="41" spans="1:12" s="59" customFormat="1">
-      <c r="A41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="12">
-        <v>5</v>
-      </c>
-      <c r="G41" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="H41" s="12">
-        <v>1</v>
-      </c>
-      <c r="I41" s="52">
-        <f>H41*G41</f>
-        <v>1.2</v>
-      </c>
-      <c r="J41" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L41" s="99"/>
-    </row>
-    <row r="42" spans="1:12" s="59" customFormat="1">
-      <c r="A42" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="12">
-        <v>12</v>
-      </c>
-      <c r="G42" s="13">
-        <v>3</v>
-      </c>
-      <c r="H42" s="12">
-        <v>3</v>
-      </c>
-      <c r="I42" s="52">
-        <f>H42*G42</f>
-        <v>9</v>
-      </c>
-      <c r="J42" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L42" s="99"/>
-    </row>
-    <row r="43" spans="1:12" s="59" customFormat="1">
-      <c r="A43" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="19">
+      <c r="F42" s="9">
         <v>8</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G42" s="10">
         <v>59</v>
       </c>
-      <c r="H43" s="19">
-        <v>1</v>
-      </c>
-      <c r="I43" s="52">
+      <c r="H42" s="9">
+        <v>1</v>
+      </c>
+      <c r="I42" s="40">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
+      <c r="J42" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L42" s="75"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="9">
+        <v>10</v>
+      </c>
+      <c r="G43" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H43" s="9">
+        <v>10</v>
+      </c>
+      <c r="I43" s="40">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
       <c r="J43" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="K43" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L43" s="99"/>
-    </row>
-    <row r="44" spans="1:12" s="59" customFormat="1">
-      <c r="A44" s="8" t="s">
+      <c r="K43" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L43" s="75"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="18" t="s">
+      <c r="B44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" t="s">
         <v>141</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="19">
-        <v>10</v>
-      </c>
-      <c r="G44" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H44" s="19">
-        <v>10</v>
-      </c>
-      <c r="I44" s="52">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="J44" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="K44" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L44" s="99"/>
-    </row>
-    <row r="45" spans="1:12" s="59" customFormat="1">
-      <c r="A45" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="19">
+      <c r="F44" s="9">
         <v>5</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G44" s="10">
         <v>6</v>
       </c>
-      <c r="H45" s="19">
+      <c r="H44" s="9">
         <v>5</v>
       </c>
-      <c r="I45" s="52">
+      <c r="I44" s="40">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J45" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="K45" s="15" t="s">
+      <c r="J44" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L44" s="75"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="L45" s="99"/>
-    </row>
-    <row r="46" spans="1:12" s="59" customFormat="1">
-      <c r="A46" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="19">
+      <c r="D45" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="9">
         <v>5</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G45" s="10">
         <v>4</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H45" s="9">
         <v>5</v>
       </c>
-      <c r="I46" s="52">
+      <c r="I45" s="40">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J46" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L46" s="99"/>
-    </row>
-    <row r="47" spans="1:12" s="59" customFormat="1">
-      <c r="A47" s="8" t="s">
+      <c r="J45" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L45" s="75"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E47" s="9">
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46">
         <v>200</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F46" s="9">
         <v>3</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G46" s="10">
         <v>16</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H46" s="9">
         <v>3</v>
       </c>
-      <c r="I47" s="52">
+      <c r="I46" s="40">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J47" s="14" t="s">
+      <c r="J46" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="L46" s="75"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" t="s">
         <v>151</v>
       </c>
-      <c r="K47" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="L47" s="99"/>
-    </row>
-    <row r="48" spans="1:12" s="59" customFormat="1">
-      <c r="A48" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="19">
+      <c r="F47" s="9">
         <v>5</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G47" s="10">
         <v>14.5</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H47" s="9">
         <v>5</v>
       </c>
-      <c r="I48" s="52">
+      <c r="I47" s="40">
         <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
-      <c r="J48" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="L48" s="100"/>
-    </row>
-    <row r="49" spans="1:12" s="59" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A49" s="104"/>
-      <c r="B49" s="85" t="s">
+      <c r="J47" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="L47" s="76"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A48" s="80"/>
+      <c r="B48" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="86" t="s">
-        <v>245</v>
-      </c>
-      <c r="D49" s="85" t="s">
-        <v>278</v>
-      </c>
-      <c r="E49" s="87"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="88">
-        <v>1</v>
-      </c>
-      <c r="I49" s="90">
+      <c r="C48" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="E48" s="63"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="64">
+        <v>1</v>
+      </c>
+      <c r="I48" s="66">
         <f>'Hardware List'!F47</f>
         <v>238.46999999999997</v>
       </c>
-      <c r="J49" s="91"/>
-      <c r="K49" s="92"/>
-      <c r="L49" s="103"/>
-    </row>
-    <row r="50" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A50" s="61"/>
-      <c r="B50" s="62" t="s">
+      <c r="J48" s="67"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="79"/>
+    </row>
+    <row r="49" spans="1:12" s="6" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A49" s="43"/>
+      <c r="B49" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="61" t="s">
-        <v>312</v>
-      </c>
-      <c r="D50" s="63" t="s">
+      <c r="C49" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="D49" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="65">
-        <f>SUM(I24:I49)+I18</f>
-        <v>1509.31</v>
-      </c>
-      <c r="J50" s="63"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="56"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="46">
+        <f>SUM(I24:I48)+I18</f>
+        <v>1494.31</v>
+      </c>
+      <c r="J49" s="44"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8879,8 +8675,8 @@
     <hyperlink ref="J24" r:id="rId1" display="20X20X18MM 500MM" xr:uid="{59EDCAA0-A518-420A-83A5-77685C875FBD}"/>
     <hyperlink ref="J25" r:id="rId2" xr:uid="{FCD34B63-DF2E-4872-BFD5-5CEE289B6217}"/>
     <hyperlink ref="J26" r:id="rId3" display="Size: 310x310mm" xr:uid="{15829967-E459-43E7-BDF6-191C533F37E4}"/>
-    <hyperlink ref="J41" r:id="rId4" xr:uid="{56473608-B496-4EF3-9E81-DBAF975636DE}"/>
-    <hyperlink ref="J42" r:id="rId5" xr:uid="{73E21739-6AB4-4657-8CD6-92EB8D2DE8E3}"/>
+    <hyperlink ref="J40" r:id="rId4" xr:uid="{56473608-B496-4EF3-9E81-DBAF975636DE}"/>
+    <hyperlink ref="J41" r:id="rId5" xr:uid="{73E21739-6AB4-4657-8CD6-92EB8D2DE8E3}"/>
     <hyperlink ref="J27" r:id="rId6" xr:uid="{6582320E-6867-41C5-B332-883C6F5E54E8}"/>
     <hyperlink ref="J28" r:id="rId7" xr:uid="{12F9D47A-4B05-40F9-AE7A-B9FF03AB15C1}"/>
     <hyperlink ref="J29" r:id="rId8" xr:uid="{7B583AAB-2680-42EB-9366-ABF40064EC0A}"/>
@@ -8888,48 +8684,47 @@
     <hyperlink ref="J31" r:id="rId10" xr:uid="{9EFD0543-3ECC-406C-95F8-C50FD24EAE9F}"/>
     <hyperlink ref="J32" r:id="rId11" display="1x Select Color: 220V/110V" xr:uid="{9FDFF617-EA44-4AEF-94B3-7A6DFD7ABC2B}"/>
     <hyperlink ref="L33" r:id="rId12" xr:uid="{71DEEDB0-7B61-48B4-BC76-A61F8C23F5B9}"/>
-    <hyperlink ref="J35" r:id="rId13" xr:uid="{1CDB7081-B136-4106-84A1-D7A3D641ABBF}"/>
-    <hyperlink ref="J34" r:id="rId14" display="1x 10Pcs Temperature: 160 degree" xr:uid="{461B8D06-59FB-41C4-928C-E9227731CF33}"/>
-    <hyperlink ref="J37" r:id="rId15" display="Color: Dragon-Standard flow" xr:uid="{539783F9-23A6-4CCC-B7BB-C7ADEFC949C0}"/>
-    <hyperlink ref="J39" r:id="rId16" xr:uid="{9D4F0A50-09F7-4455-B0E0-8C98A43A6D62}"/>
-    <hyperlink ref="J43" r:id="rId17" xr:uid="{A7214C33-6F25-4CDB-9911-EEF1726351C4}"/>
-    <hyperlink ref="J44" r:id="rId18" xr:uid="{E08B44CE-7743-429C-9F00-B49F9DD380B4}"/>
-    <hyperlink ref="J45" r:id="rId19" xr:uid="{EB4CB8F1-4307-4941-9AA9-E58D1445C7BA}"/>
-    <hyperlink ref="J46" r:id="rId20" xr:uid="{33176838-55A5-442D-8597-7714779D23E5}"/>
-    <hyperlink ref="J47" r:id="rId21" xr:uid="{D16F093E-C063-4095-B981-70EB7556273F}"/>
-    <hyperlink ref="J48" r:id="rId22" xr:uid="{DFD3B466-58C0-4BB0-A240-40DE084EB6EB}"/>
-    <hyperlink ref="J36" r:id="rId23" xr:uid="{B23C80B2-ADFE-48FF-8206-624B1C458D35}"/>
-    <hyperlink ref="J33" r:id="rId24" display="Genuine Omron Solid State Relay" xr:uid="{E09F19DF-B73C-4B79-A825-B8B9B38DA427}"/>
-    <hyperlink ref="L32" r:id="rId25" display="1x 310mm 220V 750W" xr:uid="{E00DD198-4D39-468C-A7C5-6517124B60C1}"/>
-    <hyperlink ref="L29" r:id="rId26" display="1x TMC2209 x8" xr:uid="{07910DC6-ADF8-4CD3-B110-882C7B40E38D}"/>
-    <hyperlink ref="L36" r:id="rId27" display="1x ADXL345 Accelerometer" xr:uid="{EE8C9D4C-8156-46D9-8266-752CAEDB4527}"/>
-    <hyperlink ref="J38" r:id="rId28" xr:uid="{574B19B8-679E-4BB1-95E3-481B7E6B7CC3}"/>
-    <hyperlink ref="L26" r:id="rId29" xr:uid="{7CCAA504-70EE-480A-B0F9-05946499668E}"/>
-    <hyperlink ref="J40" r:id="rId30" xr:uid="{435830FE-9D28-4F8A-A580-BF2BE5EA2233}"/>
-    <hyperlink ref="E3" r:id="rId31" xr:uid="{8D7BE965-D64F-4EF6-AB85-6D60325E0F14}"/>
-    <hyperlink ref="E4" r:id="rId32" xr:uid="{1AB1BA1F-E652-4A59-AFD9-CF100F7A0675}"/>
-    <hyperlink ref="E5" r:id="rId33" xr:uid="{E1E6DD43-4F3E-40D4-869F-6509B89AF289}"/>
-    <hyperlink ref="J8" r:id="rId34" xr:uid="{EC02321E-B7C3-4FC1-B874-04DFA25238EB}"/>
-    <hyperlink ref="J9" r:id="rId35" xr:uid="{75B54B15-A33C-4E87-8110-F508CB5C1277}"/>
-    <hyperlink ref="J10" r:id="rId36" xr:uid="{83361321-C27C-4029-97C6-080CDFE55588}"/>
-    <hyperlink ref="J11" r:id="rId37" xr:uid="{3ED6FC78-17EA-44FD-B607-926496CA6227}"/>
-    <hyperlink ref="J12" r:id="rId38" xr:uid="{34AFF23F-EEEB-46E8-9558-765383CF7C14}"/>
-    <hyperlink ref="J13" r:id="rId39" display="Color: 10pcs 2028" xr:uid="{BED46395-E185-4988-9D32-2CBED9A54CB5}"/>
-    <hyperlink ref="J15" r:id="rId40" display="3x GL: 350 - Color: MGN12 H" xr:uid="{C356FB3E-7AA9-44A7-AD42-F901E08A1E8E}"/>
-    <hyperlink ref="J16" r:id="rId41" display="2x GL: 400 - Color: MGN12 H" xr:uid="{B96D0DAE-EBA7-4655-9D2F-33B86426C95B}"/>
-    <hyperlink ref="J17" r:id="rId42" display="1x GL: 400 - Color: MGN9 H" xr:uid="{6D2004C4-00CA-42CD-AE17-9686593D737A}"/>
-    <hyperlink ref="J14" r:id="rId43" xr:uid="{8B46BDD2-E98B-4C9A-A160-CDE182501C27}"/>
-    <hyperlink ref="J20" r:id="rId44" display="Makersupplies Complete Kit" xr:uid="{99CD1EB2-A71D-4BEA-A810-8742818402F2}"/>
-    <hyperlink ref="J21" r:id="rId45" xr:uid="{3B3B38BE-12A4-4908-A7D0-77B2122C84CB}"/>
-    <hyperlink ref="J23" r:id="rId46" xr:uid="{71BEE32E-F3AD-4223-B448-5A57A36C1B0A}"/>
-    <hyperlink ref="J22" r:id="rId47" xr:uid="{450A89A3-621C-40C6-9BB5-9E2B5DED92E2}"/>
+    <hyperlink ref="J34" r:id="rId13" display="1x 10Pcs Temperature: 160 degree" xr:uid="{461B8D06-59FB-41C4-928C-E9227731CF33}"/>
+    <hyperlink ref="J36" r:id="rId14" display="Color: Dragon-Standard flow" xr:uid="{539783F9-23A6-4CCC-B7BB-C7ADEFC949C0}"/>
+    <hyperlink ref="J38" r:id="rId15" xr:uid="{9D4F0A50-09F7-4455-B0E0-8C98A43A6D62}"/>
+    <hyperlink ref="J42" r:id="rId16" xr:uid="{A7214C33-6F25-4CDB-9911-EEF1726351C4}"/>
+    <hyperlink ref="J43" r:id="rId17" xr:uid="{E08B44CE-7743-429C-9F00-B49F9DD380B4}"/>
+    <hyperlink ref="J44" r:id="rId18" xr:uid="{EB4CB8F1-4307-4941-9AA9-E58D1445C7BA}"/>
+    <hyperlink ref="J45" r:id="rId19" xr:uid="{33176838-55A5-442D-8597-7714779D23E5}"/>
+    <hyperlink ref="J46" r:id="rId20" xr:uid="{D16F093E-C063-4095-B981-70EB7556273F}"/>
+    <hyperlink ref="J47" r:id="rId21" xr:uid="{DFD3B466-58C0-4BB0-A240-40DE084EB6EB}"/>
+    <hyperlink ref="J35" r:id="rId22" xr:uid="{B23C80B2-ADFE-48FF-8206-624B1C458D35}"/>
+    <hyperlink ref="J33" r:id="rId23" display="Genuine Omron Solid State Relay" xr:uid="{E09F19DF-B73C-4B79-A825-B8B9B38DA427}"/>
+    <hyperlink ref="L32" r:id="rId24" display="1x 310mm 220V 750W" xr:uid="{E00DD198-4D39-468C-A7C5-6517124B60C1}"/>
+    <hyperlink ref="L29" r:id="rId25" display="1x TMC2209 x8" xr:uid="{07910DC6-ADF8-4CD3-B110-882C7B40E38D}"/>
+    <hyperlink ref="L35" r:id="rId26" display="1x ADXL345 Accelerometer" xr:uid="{EE8C9D4C-8156-46D9-8266-752CAEDB4527}"/>
+    <hyperlink ref="J37" r:id="rId27" xr:uid="{574B19B8-679E-4BB1-95E3-481B7E6B7CC3}"/>
+    <hyperlink ref="L26" r:id="rId28" xr:uid="{7CCAA504-70EE-480A-B0F9-05946499668E}"/>
+    <hyperlink ref="J39" r:id="rId29" xr:uid="{435830FE-9D28-4F8A-A580-BF2BE5EA2233}"/>
+    <hyperlink ref="E3" r:id="rId30" xr:uid="{8D7BE965-D64F-4EF6-AB85-6D60325E0F14}"/>
+    <hyperlink ref="E4" r:id="rId31" xr:uid="{1AB1BA1F-E652-4A59-AFD9-CF100F7A0675}"/>
+    <hyperlink ref="E5" r:id="rId32" xr:uid="{E1E6DD43-4F3E-40D4-869F-6509B89AF289}"/>
+    <hyperlink ref="J8" r:id="rId33" xr:uid="{EC02321E-B7C3-4FC1-B874-04DFA25238EB}"/>
+    <hyperlink ref="J9" r:id="rId34" xr:uid="{75B54B15-A33C-4E87-8110-F508CB5C1277}"/>
+    <hyperlink ref="J10" r:id="rId35" xr:uid="{83361321-C27C-4029-97C6-080CDFE55588}"/>
+    <hyperlink ref="J11" r:id="rId36" xr:uid="{3ED6FC78-17EA-44FD-B607-926496CA6227}"/>
+    <hyperlink ref="J12" r:id="rId37" xr:uid="{34AFF23F-EEEB-46E8-9558-765383CF7C14}"/>
+    <hyperlink ref="J13" r:id="rId38" display="Color: 10pcs 2028" xr:uid="{BED46395-E185-4988-9D32-2CBED9A54CB5}"/>
+    <hyperlink ref="J15" r:id="rId39" display="3x GL: 350 - Color: MGN12 H" xr:uid="{C356FB3E-7AA9-44A7-AD42-F901E08A1E8E}"/>
+    <hyperlink ref="J16" r:id="rId40" display="2x GL: 400 - Color: MGN12 H" xr:uid="{B96D0DAE-EBA7-4655-9D2F-33B86426C95B}"/>
+    <hyperlink ref="J17" r:id="rId41" display="1x GL: 400 - Color: MGN9 H" xr:uid="{6D2004C4-00CA-42CD-AE17-9686593D737A}"/>
+    <hyperlink ref="J14" r:id="rId42" xr:uid="{8B46BDD2-E98B-4C9A-A160-CDE182501C27}"/>
+    <hyperlink ref="J20" r:id="rId43" display="Makersupplies Complete Kit" xr:uid="{99CD1EB2-A71D-4BEA-A810-8742818402F2}"/>
+    <hyperlink ref="J21" r:id="rId44" xr:uid="{3B3B38BE-12A4-4908-A7D0-77B2122C84CB}"/>
+    <hyperlink ref="J23" r:id="rId45" xr:uid="{71BEE32E-F3AD-4223-B448-5A57A36C1B0A}"/>
+    <hyperlink ref="J22" r:id="rId46" xr:uid="{450A89A3-621C-40C6-9BB5-9E2B5DED92E2}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId48"/>
-  <drawing r:id="rId49"/>
-  <legacyDrawing r:id="rId50"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId47"/>
+  <drawing r:id="rId48"/>
+  <legacyDrawing r:id="rId49"/>
   <tableParts count="1">
-    <tablePart r:id="rId51"/>
+    <tablePart r:id="rId50"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM v1.0.0.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM v1.0.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="540" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BDAD6AD-2F47-4583-979C-6CC4AA0F8082}"/>
+  <xr:revisionPtr revIDLastSave="556" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C150AE75-778B-45F2-85A0-119AF1491BF5}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
@@ -759,9 +759,6 @@
     <t>M4 D5 L55 Shoulder Screw</t>
   </si>
   <si>
-    <t>3x Size: M4-D5mm</t>
-  </si>
-  <si>
     <t>YFS</t>
   </si>
   <si>
@@ -1027,9 +1024,6 @@
   </si>
   <si>
     <t>Kande</t>
-  </si>
-  <si>
-    <t>1x 5xM4x40 pack 10</t>
   </si>
   <si>
     <t>Collar</t>
@@ -1364,9 +1358,6 @@
     <t>M5x50 HEX DIN 933</t>
   </si>
   <si>
-    <t>1 x 20 PCs  M4 x 50 SS</t>
-  </si>
-  <si>
     <t xml:space="preserve">M4x50 CS </t>
   </si>
   <si>
@@ -1521,6 +1512,15 @@
   </si>
   <si>
     <t>Frame Parts price exclusive Hardware</t>
+  </si>
+  <si>
+    <t>3x Size: M4-D5mm x 55mm</t>
+  </si>
+  <si>
+    <t>1x Size: M4-D5mm x 40mm</t>
+  </si>
+  <si>
+    <t>1 x 20 PCs M4 x 50 SS</t>
   </si>
 </sst>
 </file>
@@ -3183,7 +3183,7 @@
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3205,7 +3205,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" hidden="1" thickBot="1">
       <c r="A1" s="115" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -3224,7 +3224,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>5</v>
@@ -3236,7 +3236,7 @@
       <c r="H2" s="45"/>
       <c r="I2" s="46">
         <f>I60</f>
-        <v>1882.6400000000003</v>
+        <v>1875.6400000000003</v>
       </c>
       <c r="J2" s="44"/>
       <c r="K2" s="51"/>
@@ -3312,7 +3312,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>24</v>
@@ -3512,14 +3512,14 @@
         <v>20</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K9" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="70"/>
       <c r="M9" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N9" s="87"/>
     </row>
@@ -3534,7 +3534,7 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F10" s="9">
         <v>4</v>
@@ -3550,14 +3550,14 @@
         <v>40</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K10" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="72"/>
       <c r="M10" s="88" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N10" s="87"/>
     </row>
@@ -3566,13 +3566,13 @@
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" t="s">
         <v>154</v>
-      </c>
-      <c r="D11" t="s">
-        <v>155</v>
       </c>
       <c r="E11">
         <v>350</v>
@@ -3591,14 +3591,14 @@
         <v>46.8</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>66</v>
       </c>
       <c r="L11" s="73"/>
       <c r="M11" s="88" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N11" s="87"/>
     </row>
@@ -3607,13 +3607,13 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12">
         <v>400</v>
@@ -3632,14 +3632,14 @@
         <v>35</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K12" s="27" t="s">
         <v>66</v>
       </c>
       <c r="L12" s="73"/>
       <c r="M12" s="88" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N12" s="87"/>
     </row>
@@ -3648,13 +3648,13 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13">
         <v>400</v>
@@ -3673,7 +3673,7 @@
         <v>16</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>66</v>
@@ -3693,7 +3693,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="108" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E15" s="108"/>
       <c r="F15" s="109"/>
@@ -3728,11 +3728,11 @@
       <c r="I15" s="111"/>
       <c r="J15" s="112"/>
       <c r="K15" s="113" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L15" s="74"/>
       <c r="M15" s="116" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N15" s="117"/>
     </row>
@@ -3747,7 +3747,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="93">
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="70" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K16" s="103" t="s">
         <v>43</v>
@@ -3782,7 +3782,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="93">
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="70" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K17" s="103" t="s">
         <v>43</v>
@@ -3817,7 +3817,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E18" s="96"/>
       <c r="F18" s="97">
@@ -3832,10 +3832,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="69" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K18" s="106" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L18" s="70"/>
       <c r="M18" s="116"/>
@@ -3846,13 +3846,13 @@
         <v>46</v>
       </c>
       <c r="B19" s="100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D19" s="100" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E19" s="100"/>
       <c r="F19" s="101">
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="114" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K19" s="104" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L19" s="70"/>
       <c r="M19" s="116"/>
@@ -3887,7 +3887,7 @@
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E20">
         <v>410</v>
@@ -3906,7 +3906,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>38</v>
@@ -3926,7 +3926,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E21">
         <v>230</v>
@@ -3945,7 +3945,7 @@
         <v>35</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K21" s="42" t="s">
         <v>38</v>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="L22" s="75"/>
       <c r="M22" s="116" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="N22" s="117"/>
     </row>
@@ -4005,7 +4005,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E23">
         <v>330</v>
@@ -4024,13 +4024,13 @@
         <v>46</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>45</v>
       </c>
       <c r="L23" s="73" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M23" s="116"/>
       <c r="N23" s="117"/>
@@ -4105,22 +4105,22 @@
       </c>
       <c r="L25" s="75"/>
       <c r="M25" s="116" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N25" s="117"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
         <v>111</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="D26" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F26" s="9">
         <v>1</v>
@@ -4136,29 +4136,29 @@
         <v>145</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L26" s="73" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M26" s="116"/>
       <c r="N26" s="117"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
         <v>111</v>
       </c>
-      <c r="B27" t="s">
-        <v>112</v>
-      </c>
       <c r="C27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" t="s">
         <v>115</v>
-      </c>
-      <c r="D27" t="s">
-        <v>116</v>
       </c>
       <c r="F27" s="9">
         <v>1</v>
@@ -4174,10 +4174,10 @@
         <v>23</v>
       </c>
       <c r="J27" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="L27" s="75"/>
       <c r="M27" s="90"/>
@@ -4185,16 +4185,16 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
         <v>111</v>
       </c>
-      <c r="B28" t="s">
-        <v>112</v>
-      </c>
       <c r="C28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
         <v>119</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
       <c r="F28" s="9">
         <v>1</v>
@@ -4210,10 +4210,10 @@
         <v>7.5</v>
       </c>
       <c r="J28" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="L28" s="75"/>
       <c r="M28" s="90"/>
@@ -4221,16 +4221,16 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" t="s">
         <v>111</v>
       </c>
-      <c r="B29" t="s">
-        <v>112</v>
-      </c>
       <c r="C29" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E29">
         <v>300</v>
@@ -4249,29 +4249,29 @@
         <v>78.39</v>
       </c>
       <c r="J29" s="49" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L29" s="73" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M29" s="90"/>
       <c r="N29" s="87"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" t="s">
         <v>111</v>
       </c>
-      <c r="B30" t="s">
-        <v>112</v>
-      </c>
       <c r="C30" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F30" s="9">
         <v>2</v>
@@ -4287,29 +4287,29 @@
         <v>52</v>
       </c>
       <c r="J30" s="50" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L30" s="73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M30" s="90"/>
       <c r="N30" s="87"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" t="s">
         <v>111</v>
       </c>
-      <c r="B31" t="s">
-        <v>112</v>
-      </c>
       <c r="C31" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
@@ -4325,10 +4325,10 @@
         <v>3</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L31" s="75"/>
       <c r="M31" s="90"/>
@@ -4336,16 +4336,16 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F32" s="9">
         <v>1</v>
@@ -4361,29 +4361,29 @@
         <v>2</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K32" s="42" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L32" s="73" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M32" s="90"/>
       <c r="N32" s="87"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="D33" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F33" s="9">
         <v>1</v>
@@ -4399,10 +4399,10 @@
         <v>40</v>
       </c>
       <c r="J33" s="50" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K33" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L33" s="75"/>
       <c r="M33" s="90"/>
@@ -4410,16 +4410,16 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D34" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -4435,10 +4435,10 @@
         <v>13.5</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K34" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L34" s="75"/>
       <c r="M34" s="90"/>
@@ -4446,16 +4446,16 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
@@ -4471,10 +4471,10 @@
         <v>80</v>
       </c>
       <c r="J35" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="K35" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="L35" s="75"/>
       <c r="M35" s="90"/>
@@ -4482,16 +4482,16 @@
     </row>
     <row r="36" spans="1:14" ht="14.45" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
@@ -4507,10 +4507,10 @@
         <v>3.75</v>
       </c>
       <c r="J36" s="48" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L36" s="76"/>
       <c r="M36" s="90"/>
@@ -4518,16 +4518,16 @@
     </row>
     <row r="37" spans="1:14" ht="14.45" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F37" s="9">
         <v>2</v>
@@ -4543,10 +4543,10 @@
         <v>10</v>
       </c>
       <c r="J37" s="48" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L37" s="76"/>
       <c r="M37" s="90"/>
@@ -4629,13 +4629,13 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" t="s">
         <v>134</v>
-      </c>
-      <c r="D40" t="s">
-        <v>135</v>
       </c>
       <c r="F40" s="9">
         <v>8</v>
@@ -4651,10 +4651,10 @@
         <v>59</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L40" s="75"/>
       <c r="M40" s="90"/>
@@ -4665,13 +4665,13 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" t="s">
         <v>137</v>
-      </c>
-      <c r="D41" t="s">
-        <v>138</v>
       </c>
       <c r="F41" s="9">
         <v>10</v>
@@ -4687,10 +4687,10 @@
         <v>41</v>
       </c>
       <c r="J41" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="L41" s="75"/>
       <c r="M41" s="90"/>
@@ -4701,13 +4701,13 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" s="9">
         <v>5</v>
@@ -4723,10 +4723,10 @@
         <v>30</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L42" s="75"/>
       <c r="M42" s="90"/>
@@ -4737,13 +4737,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" t="s">
         <v>143</v>
-      </c>
-      <c r="D43" t="s">
-        <v>144</v>
       </c>
       <c r="F43" s="9">
         <v>5</v>
@@ -4759,10 +4759,10 @@
         <v>20</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L43" s="75"/>
       <c r="M43" s="90"/>
@@ -4773,13 +4773,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" t="s">
         <v>146</v>
-      </c>
-      <c r="D44" t="s">
-        <v>147</v>
       </c>
       <c r="E44">
         <v>200</v>
@@ -4798,10 +4798,10 @@
         <v>48</v>
       </c>
       <c r="J44" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K44" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="L44" s="75"/>
       <c r="M44" s="90"/>
@@ -4812,13 +4812,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" t="s">
         <v>150</v>
-      </c>
-      <c r="D45" t="s">
-        <v>151</v>
       </c>
       <c r="F45" s="9">
         <v>5</v>
@@ -4834,10 +4834,10 @@
         <v>72.5</v>
       </c>
       <c r="J45" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>153</v>
       </c>
       <c r="L45" s="76"/>
       <c r="M45" s="90"/>
@@ -4845,16 +4845,16 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" t="s">
         <v>160</v>
       </c>
-      <c r="B46" t="s">
-        <v>161</v>
-      </c>
       <c r="C46" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F46" s="9">
         <v>5</v>
@@ -4870,10 +4870,10 @@
         <v>60</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K46" s="83" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L46" s="77"/>
       <c r="M46" s="90"/>
@@ -4881,16 +4881,16 @@
     </row>
     <row r="47" spans="1:14" ht="14.45" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="D47" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F47" s="9">
         <v>5</v>
@@ -4906,10 +4906,10 @@
         <v>125</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K47" s="83" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L47" s="77"/>
       <c r="M47" s="90"/>
@@ -4917,16 +4917,16 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E48">
         <v>300</v>
@@ -4945,10 +4945,10 @@
         <v>50</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L48" s="76"/>
       <c r="M48" s="90"/>
@@ -4956,16 +4956,16 @@
     </row>
     <row r="49" spans="1:14" ht="14.45" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D49" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F49" s="9">
         <v>5</v>
@@ -4981,10 +4981,10 @@
         <v>16.149999999999999</v>
       </c>
       <c r="J49" s="48" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L49" s="76"/>
       <c r="M49" s="90"/>
@@ -4992,16 +4992,16 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F50" s="9">
         <v>1</v>
@@ -5017,10 +5017,10 @@
         <v>3</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L50" s="76"/>
       <c r="M50" s="90"/>
@@ -5028,16 +5028,16 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F51" s="9">
         <v>1</v>
@@ -5053,10 +5053,10 @@
         <v>12</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L51" s="76"/>
       <c r="M51" s="90"/>
@@ -5064,16 +5064,16 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F52" s="9">
         <v>1</v>
@@ -5089,10 +5089,10 @@
         <v>12</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L52" s="76"/>
       <c r="M52" s="90"/>
@@ -5100,16 +5100,16 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F53" s="9">
         <v>1</v>
@@ -5126,10 +5126,10 @@
         <v>3.96</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L53" s="76"/>
       <c r="M53" s="90"/>
@@ -5137,16 +5137,16 @@
     </row>
     <row r="54" spans="1:14" ht="14.45" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B54" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D54" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F54" s="9">
         <v>1</v>
@@ -5162,10 +5162,10 @@
         <v>3.72</v>
       </c>
       <c r="J54" s="48" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K54" s="82" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L54" s="76"/>
       <c r="M54" s="90"/>
@@ -5173,16 +5173,16 @@
     </row>
     <row r="55" spans="1:14" ht="14.45" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B55" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F55" s="9">
         <v>1</v>
@@ -5198,10 +5198,10 @@
         <v>4</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L55" s="76"/>
       <c r="M55" s="90"/>
@@ -5209,16 +5209,16 @@
     </row>
     <row r="56" spans="1:14" ht="14.45" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B56" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F56" s="9">
         <v>1</v>
@@ -5234,10 +5234,10 @@
         <v>3</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L56" s="76"/>
       <c r="M56" s="90"/>
@@ -5245,16 +5245,16 @@
     </row>
     <row r="57" spans="1:14" ht="14.45" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F57" s="9">
         <v>1</v>
@@ -5270,10 +5270,10 @@
         <v>3</v>
       </c>
       <c r="J57" s="48" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L57" s="76"/>
       <c r="M57" s="90"/>
@@ -5281,16 +5281,16 @@
     </row>
     <row r="58" spans="1:14" ht="14.45" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D58" t="s">
         <v>204</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D58" t="s">
-        <v>206</v>
       </c>
       <c r="F58" s="9">
         <v>1</v>
@@ -5306,10 +5306,10 @@
         <v>21.5</v>
       </c>
       <c r="J58" s="48" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L58" s="78"/>
       <c r="M58" s="90"/>
@@ -5321,10 +5321,10 @@
         <v>67</v>
       </c>
       <c r="C59" s="62" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D59" s="61" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E59" s="63"/>
       <c r="F59" s="64"/>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="I59" s="66">
         <f>'Hardware List'!F47</f>
-        <v>238.46999999999997</v>
+        <v>231.46999999999997</v>
       </c>
       <c r="J59" s="67"/>
       <c r="K59" s="68"/>
@@ -5348,7 +5348,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D60" s="44" t="s">
         <v>5</v>
@@ -5359,7 +5359,7 @@
       <c r="H60" s="45"/>
       <c r="I60" s="46">
         <f>SUM(I20:I59)+I14</f>
-        <v>1882.6400000000003</v>
+        <v>1875.6400000000003</v>
       </c>
       <c r="J60" s="44"/>
       <c r="K60" s="51"/>
@@ -5456,7 +5456,7 @@
   </sheetPr>
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -5479,7 +5479,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" thickBot="1">
       <c r="A1" s="115" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -5504,7 +5504,7 @@
       <c r="E2" s="45"/>
       <c r="F2" s="46">
         <f>F47</f>
-        <v>238.46999999999997</v>
+        <v>231.46999999999997</v>
       </c>
       <c r="G2" s="44"/>
       <c r="H2" s="47"/>
@@ -5565,10 +5565,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
@@ -5585,10 +5585,10 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="53"/>
@@ -5655,7 +5655,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>50</v>
@@ -5672,7 +5672,7 @@
         <v>68</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
@@ -5689,7 +5689,7 @@
         <v>0.49</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>50</v>
@@ -5705,10 +5705,10 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" s="9">
         <v>31</v>
@@ -5724,23 +5724,23 @@
         <v>0.74</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>50</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J8" s="52"/>
       <c r="L8" s="87"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C9" s="9">
         <v>8</v>
@@ -5755,7 +5755,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>50</v>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="J9" s="52"/>
       <c r="K9" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L9" s="87"/>
     </row>
@@ -5800,7 +5800,7 @@
         <v>7380</v>
       </c>
       <c r="K10" s="88" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L10" s="87"/>
     </row>
@@ -5809,7 +5809,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -5824,7 +5824,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H11" s="42" t="s">
         <v>50</v>
@@ -5836,7 +5836,7 @@
         <v>10642</v>
       </c>
       <c r="K11" s="88" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L11" s="87"/>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="J12" s="53"/>
       <c r="K12" s="88" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L12" s="87"/>
     </row>
@@ -5913,7 +5913,7 @@
         <v>72</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C14">
         <v>29</v>
@@ -5928,7 +5928,7 @@
         <v>1.07</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H14" s="42" t="s">
         <v>50</v>
@@ -5973,7 +5973,7 @@
         <v>7380</v>
       </c>
       <c r="K15" s="116" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L15" s="117"/>
     </row>
@@ -5982,7 +5982,7 @@
         <v>72</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -5998,7 +5998,7 @@
         <v>1.5</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>50</v>
@@ -6012,10 +6012,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C17" s="9">
         <v>4</v>
@@ -6032,7 +6032,7 @@
         <v>3.27</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>50</v>
@@ -6044,10 +6044,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C18" s="9">
         <v>4</v>
@@ -6064,7 +6064,7 @@
         <v>2.57</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>50</v>
@@ -6072,7 +6072,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="52"/>
       <c r="K18" s="116" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L18" s="117"/>
     </row>
@@ -6097,10 +6097,10 @@
         <v>12</v>
       </c>
       <c r="G19" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="52"/>
@@ -6112,26 +6112,26 @@
         <v>72</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
       </c>
       <c r="F20" s="40">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>171</v>
+        <v>4</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>328</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="52"/>
@@ -6143,7 +6143,7 @@
         <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -6159,7 +6159,7 @@
         <v>1.5</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>50</v>
@@ -6171,7 +6171,7 @@
         <v>4032</v>
       </c>
       <c r="K21" s="116" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L21" s="117"/>
     </row>
@@ -6180,7 +6180,7 @@
         <v>68</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -6196,7 +6196,7 @@
         <v>1.5</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>50</v>
@@ -6212,10 +6212,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
         <v>86</v>
-      </c>
-      <c r="B23" t="s">
-        <v>87</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -6231,7 +6231,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>50</v>
@@ -6250,7 +6250,7 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -6266,7 +6266,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>50</v>
@@ -6285,7 +6285,7 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -6301,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>50</v>
@@ -6320,7 +6320,7 @@
         <v>72</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -6336,7 +6336,7 @@
         <v>3.28</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>50</v>
@@ -6353,7 +6353,7 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27">
         <v>22</v>
@@ -6369,7 +6369,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>50</v>
@@ -6388,7 +6388,7 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28">
         <v>64</v>
@@ -6404,7 +6404,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>50</v>
@@ -6419,7 +6419,7 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29">
         <v>15</v>
@@ -6435,7 +6435,7 @@
         <v>2.81</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>50</v>
@@ -6454,7 +6454,7 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C30">
         <v>72</v>
@@ -6470,7 +6470,7 @@
         <v>13.5</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>50</v>
@@ -6482,10 +6482,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -6502,10 +6502,10 @@
         <v>3.62</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="52"/>
@@ -6514,10 +6514,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32">
         <v>141</v>
@@ -6533,7 +6533,7 @@
         <v>2.56</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>50</v>
@@ -6552,7 +6552,7 @@
         <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33">
         <v>141</v>
@@ -6568,7 +6568,7 @@
         <v>40.35</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>50</v>
@@ -6585,7 +6585,7 @@
         <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34">
         <v>9</v>
@@ -6601,7 +6601,7 @@
         <v>8</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>50</v>
@@ -6618,7 +6618,7 @@
         <v>72</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -6633,10 +6633,10 @@
         <v>1.64</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="52">
@@ -6647,10 +6647,10 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
         <v>106</v>
-      </c>
-      <c r="B36" t="s">
-        <v>107</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -6666,7 +6666,7 @@
         <v>2.57</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>50</v>
@@ -6680,10 +6680,10 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C37">
         <v>15</v>
@@ -6699,7 +6699,7 @@
         <v>6.08</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>50</v>
@@ -6713,10 +6713,10 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
         <v>109</v>
-      </c>
-      <c r="B38" t="s">
-        <v>110</v>
       </c>
       <c r="C38" s="9">
         <v>33</v>
@@ -6732,10 +6732,10 @@
         <v>16</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="52"/>
@@ -6747,7 +6747,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C39" s="9">
         <v>1</v>
@@ -6762,10 +6762,10 @@
         <v>9.5</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H39" s="42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="52"/>
@@ -6808,7 +6808,7 @@
         <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -6824,7 +6824,7 @@
         <v>4.5</v>
       </c>
       <c r="G41" s="48" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>62</v>
@@ -6839,7 +6839,7 @@
         <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C42" s="9">
         <v>6</v>
@@ -6848,16 +6848,16 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F42" s="40">
         <v>9.1999999999999993</v>
       </c>
       <c r="G42" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="H42" s="12" t="s">
         <v>269</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>271</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="52"/>
@@ -6900,7 +6900,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -6916,10 +6916,10 @@
         <v>24</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="53"/>
@@ -6931,7 +6931,7 @@
         <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -6948,10 +6948,10 @@
         <v>5.01</v>
       </c>
       <c r="G45" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="H45" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="53"/>
@@ -6960,10 +6960,10 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C46" s="9">
         <v>1</v>
@@ -6980,10 +6980,10 @@
         <v>1.72</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="52"/>
@@ -7002,7 +7002,7 @@
       <c r="E47" s="33"/>
       <c r="F47" s="36">
         <f>SUBTOTAL(109,Table13[Line Price $])</f>
-        <v>238.46999999999997</v>
+        <v>231.46999999999997</v>
       </c>
       <c r="G47" s="32"/>
       <c r="H47" s="30"/>
@@ -7033,7 +7033,7 @@
     <hyperlink ref="G12" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="G13" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
     <hyperlink ref="G15" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="G19" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="G19" r:id="rId7" display="3x Size: M4-D5mm" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
     <hyperlink ref="G21" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
     <hyperlink ref="G22" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
     <hyperlink ref="G23" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
@@ -7055,25 +7055,25 @@
     <hyperlink ref="G18" r:id="rId26" display="1x Size: M3 - 30mm" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
     <hyperlink ref="G38" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
     <hyperlink ref="G8" r:id="rId28" display="M3 ss washer" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="G20" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="G40" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="G41" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="G9" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="G11" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="G14" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="G16" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="G35" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="G37" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="G39" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="G42" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="H42" r:id="rId40" display="https://www.aliexpress.com/store/912301249" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="G26" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="G43" r:id="rId42" xr:uid="{2D20C191-2C76-4E00-9BC9-A6157242D739}"/>
-    <hyperlink ref="G44" r:id="rId43" display="Color: Buffer 14inch 35cm" xr:uid="{F2847965-49D7-4D00-AD1F-BEC4457D3EC4}"/>
-    <hyperlink ref="G45" r:id="rId44" xr:uid="{D3CD710D-DAE0-4D54-96D8-FDD895E4D65D}"/>
-    <hyperlink ref="K10" r:id="rId45" xr:uid="{8FDAE175-15BF-4A40-9A56-A8BA3F0B1726}"/>
-    <hyperlink ref="K11" r:id="rId46" xr:uid="{28344F8D-D570-49B2-BBE9-72B7480294DA}"/>
-    <hyperlink ref="K12" r:id="rId47" xr:uid="{250F0C70-6CC6-4928-A342-928C374FF4D7}"/>
+    <hyperlink ref="G40" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="G41" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="G9" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="G11" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="G14" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="G16" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="G35" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="G37" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="G39" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="G42" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="H42" r:id="rId39" display="https://www.aliexpress.com/store/912301249" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="G26" r:id="rId40" display="1x(D5) M4 x 50mm (2pcs)" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="G43" r:id="rId41" xr:uid="{2D20C191-2C76-4E00-9BC9-A6157242D739}"/>
+    <hyperlink ref="G44" r:id="rId42" display="Color: Buffer 14inch 35cm" xr:uid="{F2847965-49D7-4D00-AD1F-BEC4457D3EC4}"/>
+    <hyperlink ref="G45" r:id="rId43" xr:uid="{D3CD710D-DAE0-4D54-96D8-FDD895E4D65D}"/>
+    <hyperlink ref="K10" r:id="rId44" xr:uid="{8FDAE175-15BF-4A40-9A56-A8BA3F0B1726}"/>
+    <hyperlink ref="K11" r:id="rId45" xr:uid="{28344F8D-D570-49B2-BBE9-72B7480294DA}"/>
+    <hyperlink ref="K12" r:id="rId46" xr:uid="{250F0C70-6CC6-4928-A342-928C374FF4D7}"/>
+    <hyperlink ref="G20" r:id="rId47" display="3x Size: M4-D5mm" xr:uid="{1C8E1B71-D7D2-47AE-83D0-9B50904057BB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -7093,9 +7093,9 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7116,7 +7116,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27">
       <c r="A1" s="115" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -7149,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -7160,7 +7160,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -7170,7 +7170,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -7180,7 +7180,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>5</v>
@@ -7191,7 +7191,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="46">
         <f>I49</f>
-        <v>1494.31</v>
+        <v>1487.31</v>
       </c>
       <c r="J6" s="44"/>
       <c r="K6" s="51"/>
@@ -7264,7 +7264,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>24</v>
@@ -7447,7 +7447,7 @@
         <v>25</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>24</v>
@@ -7465,7 +7465,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F14" s="9">
         <v>4</v>
@@ -7481,7 +7481,7 @@
         <v>40</v>
       </c>
       <c r="J14" s="56" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K14" s="27" t="s">
         <v>24</v>
@@ -7493,13 +7493,13 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" t="s">
         <v>154</v>
-      </c>
-      <c r="D15" t="s">
-        <v>155</v>
       </c>
       <c r="E15">
         <v>350</v>
@@ -7518,7 +7518,7 @@
         <v>46.8</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K15" s="27" t="s">
         <v>66</v>
@@ -7530,13 +7530,13 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E16">
         <v>400</v>
@@ -7555,7 +7555,7 @@
         <v>35</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K16" s="27" t="s">
         <v>66</v>
@@ -7567,13 +7567,13 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E17">
         <v>400</v>
@@ -7592,7 +7592,7 @@
         <v>16</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K17" s="27" t="s">
         <v>66</v>
@@ -7610,7 +7610,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
@@ -7634,7 +7634,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="108" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E19" s="108"/>
       <c r="F19" s="109"/>
@@ -7643,7 +7643,7 @@
       <c r="I19" s="111"/>
       <c r="J19" s="112"/>
       <c r="K19" s="113" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L19" s="74"/>
     </row>
@@ -7658,7 +7658,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="93">
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="70" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K20" s="103" t="s">
         <v>43</v>
@@ -7691,7 +7691,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="93">
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="70" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K21" s="103" t="s">
         <v>43</v>
@@ -7724,7 +7724,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="96" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E22" s="96"/>
       <c r="F22" s="97">
@@ -7739,10 +7739,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K22" s="106" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L22" s="70"/>
     </row>
@@ -7751,13 +7751,13 @@
         <v>46</v>
       </c>
       <c r="B23" s="100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" s="100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D23" s="100" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E23" s="100"/>
       <c r="F23" s="101">
@@ -7772,10 +7772,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="114" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K23" s="104" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L23" s="70"/>
     </row>
@@ -7809,7 +7809,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>38</v>
@@ -7863,7 +7863,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E26">
         <v>330</v>
@@ -7882,13 +7882,13 @@
         <v>46</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="73" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -7961,16 +7961,16 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" t="s">
         <v>111</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="D29" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F29" s="9">
         <v>1</v>
@@ -7986,27 +7986,27 @@
         <v>145</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L29" s="73" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" t="s">
         <v>111</v>
       </c>
-      <c r="B30" t="s">
-        <v>112</v>
-      </c>
       <c r="C30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
         <v>115</v>
-      </c>
-      <c r="D30" t="s">
-        <v>116</v>
       </c>
       <c r="F30" s="9">
         <v>1</v>
@@ -8022,25 +8022,25 @@
         <v>23</v>
       </c>
       <c r="J30" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="L30" s="75"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" t="s">
         <v>111</v>
       </c>
-      <c r="B31" t="s">
-        <v>112</v>
-      </c>
       <c r="C31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" t="s">
         <v>119</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
@@ -8056,25 +8056,25 @@
         <v>7.5</v>
       </c>
       <c r="J31" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="L31" s="75"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s">
         <v>111</v>
       </c>
-      <c r="B32" t="s">
-        <v>112</v>
-      </c>
       <c r="C32" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E32">
         <v>300</v>
@@ -8093,27 +8093,27 @@
         <v>78.39</v>
       </c>
       <c r="J32" s="49" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L32" s="73" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s">
         <v>111</v>
       </c>
-      <c r="B33" t="s">
-        <v>112</v>
-      </c>
       <c r="C33" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F33" s="9">
         <v>1</v>
@@ -8129,27 +8129,27 @@
         <v>26</v>
       </c>
       <c r="J33" s="50" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L33" s="73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
         <v>111</v>
       </c>
-      <c r="B34" t="s">
-        <v>112</v>
-      </c>
       <c r="C34" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -8165,25 +8165,25 @@
         <v>3</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L34" s="75"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
@@ -8199,27 +8199,27 @@
         <v>2</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K35" s="42" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L35" s="73" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="D36" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
@@ -8235,25 +8235,25 @@
         <v>40</v>
       </c>
       <c r="J36" s="50" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K36" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L36" s="75"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F37" s="9">
         <v>1</v>
@@ -8269,25 +8269,25 @@
         <v>13.5</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K37" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L37" s="75"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F38" s="9">
         <v>1</v>
@@ -8303,25 +8303,25 @@
         <v>80</v>
       </c>
       <c r="J38" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="L38" s="75"/>
     </row>
     <row r="39" spans="1:12" ht="14.45" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F39" s="9">
         <v>1</v>
@@ -8337,10 +8337,10 @@
         <v>3.75</v>
       </c>
       <c r="J39" s="48" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L39" s="76"/>
     </row>
@@ -8417,13 +8417,13 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" t="s">
         <v>134</v>
-      </c>
-      <c r="D42" t="s">
-        <v>135</v>
       </c>
       <c r="F42" s="9">
         <v>8</v>
@@ -8439,10 +8439,10 @@
         <v>59</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L42" s="75"/>
     </row>
@@ -8451,13 +8451,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" t="s">
         <v>137</v>
-      </c>
-      <c r="D43" t="s">
-        <v>138</v>
       </c>
       <c r="F43" s="9">
         <v>10</v>
@@ -8473,10 +8473,10 @@
         <v>41</v>
       </c>
       <c r="J43" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K43" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="L43" s="75"/>
     </row>
@@ -8485,13 +8485,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F44" s="9">
         <v>5</v>
@@ -8507,10 +8507,10 @@
         <v>30</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L44" s="75"/>
     </row>
@@ -8519,13 +8519,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" t="s">
         <v>143</v>
-      </c>
-      <c r="D45" t="s">
-        <v>144</v>
       </c>
       <c r="F45" s="9">
         <v>5</v>
@@ -8541,10 +8541,10 @@
         <v>20</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L45" s="75"/>
     </row>
@@ -8553,13 +8553,13 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" t="s">
         <v>146</v>
-      </c>
-      <c r="D46" t="s">
-        <v>147</v>
       </c>
       <c r="E46">
         <v>200</v>
@@ -8578,10 +8578,10 @@
         <v>48</v>
       </c>
       <c r="J46" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K46" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="L46" s="75"/>
     </row>
@@ -8590,13 +8590,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" t="s">
         <v>150</v>
-      </c>
-      <c r="D47" t="s">
-        <v>151</v>
       </c>
       <c r="F47" s="9">
         <v>5</v>
@@ -8612,10 +8612,10 @@
         <v>72.5</v>
       </c>
       <c r="J47" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>153</v>
       </c>
       <c r="L47" s="76"/>
     </row>
@@ -8625,10 +8625,10 @@
         <v>67</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D48" s="61" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E48" s="63"/>
       <c r="F48" s="64"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="I48" s="66">
         <f>'Hardware List'!F47</f>
-        <v>238.46999999999997</v>
+        <v>231.46999999999997</v>
       </c>
       <c r="J48" s="67"/>
       <c r="K48" s="68"/>
@@ -8650,7 +8650,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D49" s="44" t="s">
         <v>5</v>
@@ -8661,7 +8661,7 @@
       <c r="H49" s="45"/>
       <c r="I49" s="46">
         <f>SUM(I24:I48)+I18</f>
-        <v>1494.31</v>
+        <v>1487.31</v>
       </c>
       <c r="J49" s="44"/>
       <c r="K49" s="51"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM v1.0.0.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM v1.0.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="556" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C150AE75-778B-45F2-85A0-119AF1491BF5}"/>
+  <xr:revisionPtr revIDLastSave="559" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{841150B9-1AA5-4731-A0F0-8C5A240ECA83}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
@@ -1074,9 +1074,6 @@
     <t xml:space="preserve">6038 Fan 2B06038B12G </t>
   </si>
   <si>
-    <t>1x Size: NEW</t>
-  </si>
-  <si>
     <t>SENSDA</t>
   </si>
   <si>
@@ -1521,6 +1518,9 @@
   </si>
   <si>
     <t>1 x 20 PCs M4 x 50 SS</t>
+  </si>
+  <si>
+    <t>1x Sunon MB60252VX</t>
   </si>
 </sst>
 </file>
@@ -1923,7 +1923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2145,6 +2145,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3182,8 +3185,8 @@
   </sheetPr>
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3205,7 +3208,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" hidden="1" thickBot="1">
       <c r="A1" s="115" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -3224,7 +3227,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>5</v>
@@ -3236,7 +3239,7 @@
       <c r="H2" s="45"/>
       <c r="I2" s="46">
         <f>I60</f>
-        <v>1875.6400000000003</v>
+        <v>1872.1400000000003</v>
       </c>
       <c r="J2" s="44"/>
       <c r="K2" s="51"/>
@@ -3312,7 +3315,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>24</v>
@@ -3512,14 +3515,14 @@
         <v>20</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K9" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="70"/>
       <c r="M9" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N9" s="87"/>
     </row>
@@ -3534,7 +3537,7 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F10" s="9">
         <v>4</v>
@@ -3550,14 +3553,14 @@
         <v>40</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K10" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="72"/>
       <c r="M10" s="88" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N10" s="87"/>
     </row>
@@ -3591,14 +3594,14 @@
         <v>46.8</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>66</v>
       </c>
       <c r="L11" s="73"/>
       <c r="M11" s="88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N11" s="87"/>
     </row>
@@ -3632,14 +3635,14 @@
         <v>35</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K12" s="27" t="s">
         <v>66</v>
       </c>
       <c r="L12" s="73"/>
       <c r="M12" s="88" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N12" s="87"/>
     </row>
@@ -3673,7 +3676,7 @@
         <v>16</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>66</v>
@@ -3693,7 +3696,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
@@ -3719,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="108" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E15" s="108"/>
       <c r="F15" s="109"/>
@@ -3728,11 +3731,11 @@
       <c r="I15" s="111"/>
       <c r="J15" s="112"/>
       <c r="K15" s="113" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L15" s="74"/>
       <c r="M15" s="116" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N15" s="117"/>
     </row>
@@ -3747,7 +3750,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="93">
@@ -3762,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="70" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K16" s="103" t="s">
         <v>43</v>
@@ -3782,7 +3785,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="93">
@@ -3797,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="70" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K17" s="103" t="s">
         <v>43</v>
@@ -3817,7 +3820,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E18" s="96"/>
       <c r="F18" s="97">
@@ -3832,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="69" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K18" s="106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L18" s="70"/>
       <c r="M18" s="116"/>
@@ -3852,7 +3855,7 @@
         <v>153</v>
       </c>
       <c r="D19" s="100" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E19" s="100"/>
       <c r="F19" s="101">
@@ -3867,10 +3870,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="114" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K19" s="104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L19" s="70"/>
       <c r="M19" s="116"/>
@@ -3887,7 +3890,7 @@
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E20">
         <v>410</v>
@@ -3906,7 +3909,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>38</v>
@@ -3926,7 +3929,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E21">
         <v>230</v>
@@ -3945,7 +3948,7 @@
         <v>35</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K21" s="42" t="s">
         <v>38</v>
@@ -3990,7 +3993,7 @@
       </c>
       <c r="L22" s="75"/>
       <c r="M22" s="116" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N22" s="117"/>
     </row>
@@ -4005,7 +4008,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E23">
         <v>330</v>
@@ -4024,13 +4027,13 @@
         <v>46</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>45</v>
       </c>
       <c r="L23" s="73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M23" s="116"/>
       <c r="N23" s="117"/>
@@ -4105,7 +4108,7 @@
       </c>
       <c r="L25" s="75"/>
       <c r="M25" s="116" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N25" s="117"/>
     </row>
@@ -4120,7 +4123,7 @@
         <v>112</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F26" s="9">
         <v>1</v>
@@ -4136,13 +4139,13 @@
         <v>145</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>113</v>
       </c>
       <c r="L26" s="73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M26" s="116"/>
       <c r="N26" s="117"/>
@@ -4230,7 +4233,7 @@
         <v>122</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E29">
         <v>300</v>
@@ -4249,13 +4252,13 @@
         <v>78.39</v>
       </c>
       <c r="J29" s="49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L29" s="73" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M29" s="90"/>
       <c r="N29" s="87"/>
@@ -4287,7 +4290,7 @@
         <v>52</v>
       </c>
       <c r="J30" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>139</v>
@@ -4309,7 +4312,7 @@
         <v>126</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
@@ -4325,7 +4328,7 @@
         <v>3</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>127</v>
@@ -4342,10 +4345,10 @@
         <v>111</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" t="s">
         <v>197</v>
-      </c>
-      <c r="D32" t="s">
-        <v>198</v>
       </c>
       <c r="F32" s="9">
         <v>1</v>
@@ -4361,13 +4364,13 @@
         <v>2</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K32" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L32" s="73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M32" s="90"/>
       <c r="N32" s="87"/>
@@ -4383,7 +4386,7 @@
         <v>129</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F33" s="9">
         <v>1</v>
@@ -4399,7 +4402,7 @@
         <v>40</v>
       </c>
       <c r="J33" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K33" s="42" t="s">
         <v>139</v>
@@ -4416,10 +4419,10 @@
         <v>128</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D34" t="s">
         <v>229</v>
-      </c>
-      <c r="D34" t="s">
-        <v>230</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -4435,7 +4438,7 @@
         <v>13.5</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K34" s="42" t="s">
         <v>121</v>
@@ -4455,7 +4458,7 @@
         <v>128</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
@@ -4491,7 +4494,7 @@
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
@@ -4507,7 +4510,7 @@
         <v>3.75</v>
       </c>
       <c r="J36" s="48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>139</v>
@@ -4527,7 +4530,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F37" s="9">
         <v>2</v>
@@ -4543,7 +4546,7 @@
         <v>10</v>
       </c>
       <c r="J37" s="48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>139</v>
@@ -4854,7 +4857,7 @@
         <v>160</v>
       </c>
       <c r="D46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F46" s="9">
         <v>5</v>
@@ -4873,7 +4876,7 @@
         <v>157</v>
       </c>
       <c r="K46" s="83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L46" s="77"/>
       <c r="M46" s="90"/>
@@ -4890,7 +4893,7 @@
         <v>162</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F47" s="9">
         <v>5</v>
@@ -4909,7 +4912,7 @@
         <v>157</v>
       </c>
       <c r="K47" s="83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L47" s="77"/>
       <c r="M47" s="90"/>
@@ -4923,10 +4926,10 @@
         <v>161</v>
       </c>
       <c r="C48" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>218</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>219</v>
       </c>
       <c r="E48">
         <v>300</v>
@@ -4945,10 +4948,10 @@
         <v>50</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L48" s="76"/>
       <c r="M48" s="90"/>
@@ -4962,10 +4965,10 @@
         <v>111</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D49" t="s">
         <v>289</v>
-      </c>
-      <c r="D49" t="s">
-        <v>290</v>
       </c>
       <c r="F49" s="9">
         <v>5</v>
@@ -4981,10 +4984,10 @@
         <v>16.149999999999999</v>
       </c>
       <c r="J49" s="48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L49" s="76"/>
       <c r="M49" s="90"/>
@@ -5043,20 +5046,20 @@
         <v>1</v>
       </c>
       <c r="G51" s="10">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="H51" s="9">
         <v>1</v>
       </c>
       <c r="I51" s="40">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="J51" s="14" t="s">
+        <v>8.5</v>
+      </c>
+      <c r="J51" s="118" t="s">
+        <v>329</v>
+      </c>
+      <c r="K51" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="L51" s="76"/>
       <c r="M51" s="90"/>
@@ -5073,7 +5076,7 @@
         <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F52" s="9">
         <v>1</v>
@@ -5089,10 +5092,10 @@
         <v>12</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L52" s="76"/>
       <c r="M52" s="90"/>
@@ -5109,7 +5112,7 @@
         <v>126</v>
       </c>
       <c r="D53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F53" s="9">
         <v>1</v>
@@ -5126,10 +5129,10 @@
         <v>3.96</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L53" s="76"/>
       <c r="M53" s="90"/>
@@ -5140,13 +5143,13 @@
         <v>163</v>
       </c>
       <c r="B54" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>277</v>
-      </c>
       <c r="D54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F54" s="9">
         <v>1</v>
@@ -5162,10 +5165,10 @@
         <v>3.72</v>
       </c>
       <c r="J54" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K54" s="82" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L54" s="76"/>
       <c r="M54" s="90"/>
@@ -5176,13 +5179,13 @@
         <v>163</v>
       </c>
       <c r="B55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F55" s="9">
         <v>1</v>
@@ -5198,10 +5201,10 @@
         <v>4</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L55" s="76"/>
       <c r="M55" s="90"/>
@@ -5212,13 +5215,13 @@
         <v>163</v>
       </c>
       <c r="B56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F56" s="9">
         <v>1</v>
@@ -5234,10 +5237,10 @@
         <v>3</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L56" s="76"/>
       <c r="M56" s="90"/>
@@ -5248,13 +5251,13 @@
         <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>172</v>
       </c>
       <c r="D57" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F57" s="9">
         <v>1</v>
@@ -5270,10 +5273,10 @@
         <v>3</v>
       </c>
       <c r="J57" s="48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L57" s="76"/>
       <c r="M57" s="90"/>
@@ -5284,13 +5287,13 @@
         <v>163</v>
       </c>
       <c r="B58" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="D58" t="s">
         <v>203</v>
-      </c>
-      <c r="D58" t="s">
-        <v>204</v>
       </c>
       <c r="F58" s="9">
         <v>1</v>
@@ -5306,10 +5309,10 @@
         <v>21.5</v>
       </c>
       <c r="J58" s="48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L58" s="78"/>
       <c r="M58" s="90"/>
@@ -5321,10 +5324,10 @@
         <v>67</v>
       </c>
       <c r="C59" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D59" s="61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E59" s="63"/>
       <c r="F59" s="64"/>
@@ -5348,7 +5351,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D60" s="44" t="s">
         <v>5</v>
@@ -5359,7 +5362,7 @@
       <c r="H60" s="45"/>
       <c r="I60" s="46">
         <f>SUM(I20:I59)+I14</f>
-        <v>1875.6400000000003</v>
+        <v>1872.1400000000003</v>
       </c>
       <c r="J60" s="44"/>
       <c r="K60" s="51"/>
@@ -5398,7 +5401,7 @@
     <hyperlink ref="J44" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="J45" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="J50" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J51" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J51" r:id="rId23" display="1x Size: NEW" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="J52" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="J53" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="J32" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
@@ -5456,9 +5459,9 @@
   </sheetPr>
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -5479,7 +5482,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" thickBot="1">
       <c r="A1" s="115" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -5585,7 +5588,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>178</v>
@@ -5655,7 +5658,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>50</v>
@@ -5672,7 +5675,7 @@
         <v>68</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
@@ -5708,7 +5711,7 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="9">
         <v>31</v>
@@ -5724,23 +5727,23 @@
         <v>0.74</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>50</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J8" s="52"/>
       <c r="L8" s="87"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C9" s="9">
         <v>8</v>
@@ -5755,7 +5758,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>50</v>
@@ -5765,7 +5768,7 @@
       </c>
       <c r="J9" s="52"/>
       <c r="K9" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L9" s="87"/>
     </row>
@@ -5800,7 +5803,7 @@
         <v>7380</v>
       </c>
       <c r="K10" s="88" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L10" s="87"/>
     </row>
@@ -5809,7 +5812,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -5824,7 +5827,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H11" s="42" t="s">
         <v>50</v>
@@ -5836,7 +5839,7 @@
         <v>10642</v>
       </c>
       <c r="K11" s="88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L11" s="87"/>
     </row>
@@ -5871,7 +5874,7 @@
       </c>
       <c r="J12" s="53"/>
       <c r="K12" s="88" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L12" s="87"/>
     </row>
@@ -5913,7 +5916,7 @@
         <v>72</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C14">
         <v>29</v>
@@ -5928,7 +5931,7 @@
         <v>1.07</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H14" s="42" t="s">
         <v>50</v>
@@ -5973,7 +5976,7 @@
         <v>7380</v>
       </c>
       <c r="K15" s="116" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L15" s="117"/>
     </row>
@@ -5982,7 +5985,7 @@
         <v>72</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -5998,7 +6001,7 @@
         <v>1.5</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>50</v>
@@ -6064,7 +6067,7 @@
         <v>2.57</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>50</v>
@@ -6072,7 +6075,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="52"/>
       <c r="K18" s="116" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L18" s="117"/>
     </row>
@@ -6097,7 +6100,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>81</v>
@@ -6112,7 +6115,7 @@
         <v>72</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -6128,7 +6131,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>81</v>
@@ -6171,7 +6174,7 @@
         <v>4032</v>
       </c>
       <c r="K21" s="116" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L21" s="117"/>
     </row>
@@ -6180,7 +6183,7 @@
         <v>68</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -6320,7 +6323,7 @@
         <v>72</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -6336,7 +6339,7 @@
         <v>3.28</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>50</v>
@@ -6454,7 +6457,7 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C30">
         <v>72</v>
@@ -6485,7 +6488,7 @@
         <v>170</v>
       </c>
       <c r="B31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -6505,7 +6508,7 @@
         <v>171</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="52"/>
@@ -6618,7 +6621,7 @@
         <v>72</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -6633,7 +6636,7 @@
         <v>1.64</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>81</v>
@@ -6683,7 +6686,7 @@
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C37">
         <v>15</v>
@@ -6699,7 +6702,7 @@
         <v>6.08</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>50</v>
@@ -6732,10 +6735,10 @@
         <v>16</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="52"/>
@@ -6747,7 +6750,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C39" s="9">
         <v>1</v>
@@ -6762,10 +6765,10 @@
         <v>9.5</v>
       </c>
       <c r="G39" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="H39" s="42" t="s">
         <v>265</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>266</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="52"/>
@@ -6808,7 +6811,7 @@
         <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -6824,7 +6827,7 @@
         <v>4.5</v>
       </c>
       <c r="G41" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>62</v>
@@ -6839,7 +6842,7 @@
         <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C42" s="9">
         <v>6</v>
@@ -6848,16 +6851,16 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F42" s="40">
         <v>9.1999999999999993</v>
       </c>
       <c r="G42" s="48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="52"/>
@@ -6916,7 +6919,7 @@
         <v>24</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>165</v>
@@ -6980,10 +6983,10 @@
         <v>1.72</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="52"/>
@@ -7094,8 +7097,8 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7116,7 +7119,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27">
       <c r="A1" s="115" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -7137,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -7149,7 +7152,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -7160,7 +7163,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -7170,7 +7173,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -7180,7 +7183,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>5</v>
@@ -7264,7 +7267,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>24</v>
@@ -7447,7 +7450,7 @@
         <v>25</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>24</v>
@@ -7465,7 +7468,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F14" s="9">
         <v>4</v>
@@ -7481,7 +7484,7 @@
         <v>40</v>
       </c>
       <c r="J14" s="56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K14" s="27" t="s">
         <v>24</v>
@@ -7518,7 +7521,7 @@
         <v>46.8</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K15" s="27" t="s">
         <v>66</v>
@@ -7555,7 +7558,7 @@
         <v>35</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K16" s="27" t="s">
         <v>66</v>
@@ -7592,7 +7595,7 @@
         <v>16</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K17" s="27" t="s">
         <v>66</v>
@@ -7610,7 +7613,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
@@ -7634,7 +7637,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="108" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E19" s="108"/>
       <c r="F19" s="109"/>
@@ -7643,7 +7646,7 @@
       <c r="I19" s="111"/>
       <c r="J19" s="112"/>
       <c r="K19" s="113" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L19" s="74"/>
     </row>
@@ -7658,7 +7661,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="93">
@@ -7673,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="70" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K20" s="103" t="s">
         <v>43</v>
@@ -7691,7 +7694,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="93">
@@ -7706,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="70" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K21" s="103" t="s">
         <v>43</v>
@@ -7724,7 +7727,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="96" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E22" s="96"/>
       <c r="F22" s="97">
@@ -7739,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K22" s="106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L22" s="70"/>
     </row>
@@ -7757,7 +7760,7 @@
         <v>153</v>
       </c>
       <c r="D23" s="100" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E23" s="100"/>
       <c r="F23" s="101">
@@ -7772,10 +7775,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="114" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K23" s="104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L23" s="70"/>
     </row>
@@ -7809,7 +7812,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>38</v>
@@ -7863,7 +7866,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E26">
         <v>330</v>
@@ -7882,13 +7885,13 @@
         <v>46</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -7970,7 +7973,7 @@
         <v>112</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F29" s="9">
         <v>1</v>
@@ -7986,13 +7989,13 @@
         <v>145</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>113</v>
       </c>
       <c r="L29" s="73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -8074,7 +8077,7 @@
         <v>122</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E32">
         <v>300</v>
@@ -8093,13 +8096,13 @@
         <v>78.39</v>
       </c>
       <c r="J32" s="49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L32" s="73" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -8129,7 +8132,7 @@
         <v>26</v>
       </c>
       <c r="J33" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>139</v>
@@ -8149,7 +8152,7 @@
         <v>126</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -8165,7 +8168,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>127</v>
@@ -8180,10 +8183,10 @@
         <v>111</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" t="s">
         <v>197</v>
-      </c>
-      <c r="D35" t="s">
-        <v>198</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
@@ -8199,13 +8202,13 @@
         <v>2</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K35" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L35" s="73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -8219,7 +8222,7 @@
         <v>129</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
@@ -8235,7 +8238,7 @@
         <v>40</v>
       </c>
       <c r="J36" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K36" s="42" t="s">
         <v>139</v>
@@ -8250,10 +8253,10 @@
         <v>128</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" t="s">
         <v>229</v>
-      </c>
-      <c r="D37" t="s">
-        <v>230</v>
       </c>
       <c r="F37" s="9">
         <v>1</v>
@@ -8269,7 +8272,7 @@
         <v>13.5</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K37" s="42" t="s">
         <v>121</v>
@@ -8287,7 +8290,7 @@
         <v>128</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F38" s="9">
         <v>1</v>
@@ -8321,7 +8324,7 @@
         <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F39" s="9">
         <v>1</v>
@@ -8337,7 +8340,7 @@
         <v>3.75</v>
       </c>
       <c r="J39" s="48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>139</v>
@@ -8625,10 +8628,10 @@
         <v>67</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D48" s="61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E48" s="63"/>
       <c r="F48" s="64"/>
@@ -8650,7 +8653,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D49" s="44" t="s">
         <v>5</v>

--- a/Document Library/Bill Of Materials/Valkyrie BOM v1.0.0.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="559" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{841150B9-1AA5-4731-A0F0-8C5A240ECA83}"/>
+  <xr:revisionPtr revIDLastSave="560" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EB1C4C1-7E99-4374-965D-0B524BC889FF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1071,9 +1071,6 @@
     <t>M3x30 FM Standoff</t>
   </si>
   <si>
-    <t xml:space="preserve">6038 Fan 2B06038B12G </t>
-  </si>
-  <si>
     <t>SENSDA</t>
   </si>
   <si>
@@ -1521,6 +1518,9 @@
   </si>
   <si>
     <t>1x Sunon MB60252VX</t>
+  </si>
+  <si>
+    <t>60mm Sunon MB60252VX</t>
   </si>
 </sst>
 </file>
@@ -2137,6 +2137,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2145,9 +2148,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3207,27 +3207,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" hidden="1" thickBot="1">
-      <c r="A1" s="115" t="s">
-        <v>285</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
+      <c r="A1" s="116" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="43" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>5</v>
@@ -3315,7 +3315,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>24</v>
@@ -3515,14 +3515,14 @@
         <v>20</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K9" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="70"/>
       <c r="M9" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N9" s="87"/>
     </row>
@@ -3537,7 +3537,7 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F10" s="9">
         <v>4</v>
@@ -3553,14 +3553,14 @@
         <v>40</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K10" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="72"/>
       <c r="M10" s="88" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N10" s="87"/>
     </row>
@@ -3594,14 +3594,14 @@
         <v>46.8</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>66</v>
       </c>
       <c r="L11" s="73"/>
       <c r="M11" s="88" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N11" s="87"/>
     </row>
@@ -3635,14 +3635,14 @@
         <v>35</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K12" s="27" t="s">
         <v>66</v>
       </c>
       <c r="L12" s="73"/>
       <c r="M12" s="88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N12" s="87"/>
     </row>
@@ -3676,7 +3676,7 @@
         <v>16</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>66</v>
@@ -3696,7 +3696,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="108" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E15" s="108"/>
       <c r="F15" s="109"/>
@@ -3731,13 +3731,13 @@
       <c r="I15" s="111"/>
       <c r="J15" s="112"/>
       <c r="K15" s="113" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L15" s="74"/>
-      <c r="M15" s="116" t="s">
-        <v>308</v>
-      </c>
-      <c r="N15" s="117"/>
+      <c r="M15" s="117" t="s">
+        <v>307</v>
+      </c>
+      <c r="N15" s="118"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="92" t="s">
@@ -3750,7 +3750,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="93">
@@ -3765,14 +3765,14 @@
         <v>0</v>
       </c>
       <c r="J16" s="70" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K16" s="103" t="s">
         <v>43</v>
       </c>
       <c r="L16" s="70"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="118"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="92" t="s">
@@ -3785,7 +3785,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="93">
@@ -3800,14 +3800,14 @@
         <v>0</v>
       </c>
       <c r="J17" s="70" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K17" s="103" t="s">
         <v>43</v>
       </c>
       <c r="L17" s="70"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="118"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="A18" s="95" t="s">
@@ -3820,7 +3820,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E18" s="96"/>
       <c r="F18" s="97">
@@ -3835,14 +3835,14 @@
         <v>0</v>
       </c>
       <c r="J18" s="69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K18" s="106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L18" s="70"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="118"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="99" t="s">
@@ -3855,7 +3855,7 @@
         <v>153</v>
       </c>
       <c r="D19" s="100" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E19" s="100"/>
       <c r="F19" s="101">
@@ -3870,14 +3870,14 @@
         <v>0</v>
       </c>
       <c r="J19" s="114" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K19" s="104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L19" s="70"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="118"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
@@ -3890,7 +3890,7 @@
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E20">
         <v>410</v>
@@ -3909,14 +3909,14 @@
         <v>20</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>38</v>
       </c>
       <c r="L20" s="75"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="118"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="17" t="s">
@@ -3929,7 +3929,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E21">
         <v>230</v>
@@ -3948,7 +3948,7 @@
         <v>35</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K21" s="42" t="s">
         <v>38</v>
@@ -3992,10 +3992,10 @@
         <v>43</v>
       </c>
       <c r="L22" s="75"/>
-      <c r="M22" s="116" t="s">
-        <v>309</v>
-      </c>
-      <c r="N22" s="117"/>
+      <c r="M22" s="117" t="s">
+        <v>308</v>
+      </c>
+      <c r="N22" s="118"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="7" t="s">
@@ -4008,7 +4008,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E23">
         <v>330</v>
@@ -4027,16 +4027,16 @@
         <v>46</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>45</v>
       </c>
       <c r="L23" s="73" t="s">
-        <v>231</v>
-      </c>
-      <c r="M23" s="116"/>
-      <c r="N23" s="117"/>
+        <v>230</v>
+      </c>
+      <c r="M23" s="117"/>
+      <c r="N23" s="118"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
@@ -4107,10 +4107,10 @@
         <v>58</v>
       </c>
       <c r="L25" s="75"/>
-      <c r="M25" s="116" t="s">
-        <v>310</v>
-      </c>
-      <c r="N25" s="117"/>
+      <c r="M25" s="117" t="s">
+        <v>309</v>
+      </c>
+      <c r="N25" s="118"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
@@ -4123,7 +4123,7 @@
         <v>112</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F26" s="9">
         <v>1</v>
@@ -4139,16 +4139,16 @@
         <v>145</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>113</v>
       </c>
       <c r="L26" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="M26" s="116"/>
-      <c r="N26" s="117"/>
+        <v>215</v>
+      </c>
+      <c r="M26" s="117"/>
+      <c r="N26" s="118"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
@@ -4233,7 +4233,7 @@
         <v>122</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E29">
         <v>300</v>
@@ -4252,13 +4252,13 @@
         <v>78.39</v>
       </c>
       <c r="J29" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L29" s="73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M29" s="90"/>
       <c r="N29" s="87"/>
@@ -4290,7 +4290,7 @@
         <v>52</v>
       </c>
       <c r="J30" s="50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>139</v>
@@ -4312,7 +4312,7 @@
         <v>126</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
@@ -4328,7 +4328,7 @@
         <v>3</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>127</v>
@@ -4345,10 +4345,10 @@
         <v>111</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" t="s">
         <v>196</v>
-      </c>
-      <c r="D32" t="s">
-        <v>197</v>
       </c>
       <c r="F32" s="9">
         <v>1</v>
@@ -4364,13 +4364,13 @@
         <v>2</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K32" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L32" s="73" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M32" s="90"/>
       <c r="N32" s="87"/>
@@ -4386,7 +4386,7 @@
         <v>129</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F33" s="9">
         <v>1</v>
@@ -4402,7 +4402,7 @@
         <v>40</v>
       </c>
       <c r="J33" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K33" s="42" t="s">
         <v>139</v>
@@ -4419,10 +4419,10 @@
         <v>128</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" t="s">
         <v>228</v>
-      </c>
-      <c r="D34" t="s">
-        <v>229</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -4438,7 +4438,7 @@
         <v>13.5</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K34" s="42" t="s">
         <v>121</v>
@@ -4458,7 +4458,7 @@
         <v>128</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
@@ -4494,7 +4494,7 @@
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
@@ -4510,7 +4510,7 @@
         <v>3.75</v>
       </c>
       <c r="J36" s="48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>139</v>
@@ -4530,7 +4530,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F37" s="9">
         <v>2</v>
@@ -4546,7 +4546,7 @@
         <v>10</v>
       </c>
       <c r="J37" s="48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>139</v>
@@ -4857,7 +4857,7 @@
         <v>160</v>
       </c>
       <c r="D46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F46" s="9">
         <v>5</v>
@@ -4876,7 +4876,7 @@
         <v>157</v>
       </c>
       <c r="K46" s="83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L46" s="77"/>
       <c r="M46" s="90"/>
@@ -4893,7 +4893,7 @@
         <v>162</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F47" s="9">
         <v>5</v>
@@ -4912,7 +4912,7 @@
         <v>157</v>
       </c>
       <c r="K47" s="83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L47" s="77"/>
       <c r="M47" s="90"/>
@@ -4926,10 +4926,10 @@
         <v>161</v>
       </c>
       <c r="C48" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>217</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>218</v>
       </c>
       <c r="E48">
         <v>300</v>
@@ -4948,10 +4948,10 @@
         <v>50</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L48" s="76"/>
       <c r="M48" s="90"/>
@@ -4965,10 +4965,10 @@
         <v>111</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D49" t="s">
         <v>288</v>
-      </c>
-      <c r="D49" t="s">
-        <v>289</v>
       </c>
       <c r="F49" s="9">
         <v>5</v>
@@ -4984,10 +4984,10 @@
         <v>16.149999999999999</v>
       </c>
       <c r="J49" s="48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L49" s="76"/>
       <c r="M49" s="90"/>
@@ -5040,7 +5040,7 @@
         <v>158</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>329</v>
       </c>
       <c r="F51" s="9">
         <v>1</v>
@@ -5055,11 +5055,11 @@
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-      <c r="J51" s="118" t="s">
-        <v>329</v>
+      <c r="J51" s="115" t="s">
+        <v>328</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L51" s="76"/>
       <c r="M51" s="90"/>
@@ -5076,7 +5076,7 @@
         <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F52" s="9">
         <v>1</v>
@@ -5092,10 +5092,10 @@
         <v>12</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L52" s="76"/>
       <c r="M52" s="90"/>
@@ -5112,7 +5112,7 @@
         <v>126</v>
       </c>
       <c r="D53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F53" s="9">
         <v>1</v>
@@ -5129,10 +5129,10 @@
         <v>3.96</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L53" s="76"/>
       <c r="M53" s="90"/>
@@ -5143,13 +5143,13 @@
         <v>163</v>
       </c>
       <c r="B54" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>276</v>
-      </c>
       <c r="D54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F54" s="9">
         <v>1</v>
@@ -5165,10 +5165,10 @@
         <v>3.72</v>
       </c>
       <c r="J54" s="48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K54" s="82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L54" s="76"/>
       <c r="M54" s="90"/>
@@ -5179,13 +5179,13 @@
         <v>163</v>
       </c>
       <c r="B55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F55" s="9">
         <v>1</v>
@@ -5201,10 +5201,10 @@
         <v>4</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L55" s="76"/>
       <c r="M55" s="90"/>
@@ -5215,13 +5215,13 @@
         <v>163</v>
       </c>
       <c r="B56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F56" s="9">
         <v>1</v>
@@ -5237,10 +5237,10 @@
         <v>3</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L56" s="76"/>
       <c r="M56" s="90"/>
@@ -5251,13 +5251,13 @@
         <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>172</v>
       </c>
       <c r="D57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F57" s="9">
         <v>1</v>
@@ -5273,10 +5273,10 @@
         <v>3</v>
       </c>
       <c r="J57" s="48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L57" s="76"/>
       <c r="M57" s="90"/>
@@ -5287,13 +5287,13 @@
         <v>163</v>
       </c>
       <c r="B58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="D58" t="s">
         <v>202</v>
-      </c>
-      <c r="D58" t="s">
-        <v>203</v>
       </c>
       <c r="F58" s="9">
         <v>1</v>
@@ -5309,10 +5309,10 @@
         <v>21.5</v>
       </c>
       <c r="J58" s="48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L58" s="78"/>
       <c r="M58" s="90"/>
@@ -5324,10 +5324,10 @@
         <v>67</v>
       </c>
       <c r="C59" s="62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D59" s="61" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E59" s="63"/>
       <c r="F59" s="64"/>
@@ -5351,7 +5351,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D60" s="44" t="s">
         <v>5</v>
@@ -5481,19 +5481,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" thickBot="1">
-      <c r="A1" s="115" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
+      <c r="A1" s="116" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="16.5" thickBot="1">
       <c r="A2" s="43" t="s">
@@ -5588,7 +5588,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>178</v>
@@ -5658,7 +5658,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>50</v>
@@ -5675,7 +5675,7 @@
         <v>68</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
@@ -5711,7 +5711,7 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" s="9">
         <v>31</v>
@@ -5727,23 +5727,23 @@
         <v>0.74</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>50</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J8" s="52"/>
       <c r="L8" s="87"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C9" s="9">
         <v>8</v>
@@ -5758,7 +5758,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>50</v>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="J9" s="52"/>
       <c r="K9" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L9" s="87"/>
     </row>
@@ -5803,7 +5803,7 @@
         <v>7380</v>
       </c>
       <c r="K10" s="88" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L10" s="87"/>
     </row>
@@ -5812,7 +5812,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -5827,7 +5827,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H11" s="42" t="s">
         <v>50</v>
@@ -5839,7 +5839,7 @@
         <v>10642</v>
       </c>
       <c r="K11" s="88" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L11" s="87"/>
     </row>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="J12" s="53"/>
       <c r="K12" s="88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L12" s="87"/>
     </row>
@@ -5916,7 +5916,7 @@
         <v>72</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C14">
         <v>29</v>
@@ -5931,7 +5931,7 @@
         <v>1.07</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H14" s="42" t="s">
         <v>50</v>
@@ -5975,17 +5975,17 @@
       <c r="J15" s="53">
         <v>7380</v>
       </c>
-      <c r="K15" s="116" t="s">
-        <v>308</v>
-      </c>
-      <c r="L15" s="117"/>
+      <c r="K15" s="117" t="s">
+        <v>307</v>
+      </c>
+      <c r="L15" s="118"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -6001,7 +6001,7 @@
         <v>1.5</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>50</v>
@@ -6010,8 +6010,8 @@
         <v>912</v>
       </c>
       <c r="J16" s="53"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="118"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="7" t="s">
@@ -6067,17 +6067,17 @@
         <v>2.57</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>50</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="52"/>
-      <c r="K18" s="116" t="s">
-        <v>311</v>
-      </c>
-      <c r="L18" s="117"/>
+      <c r="K18" s="117" t="s">
+        <v>310</v>
+      </c>
+      <c r="L18" s="118"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="7" t="s">
@@ -6100,22 +6100,22 @@
         <v>12</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>81</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="52"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="118"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -6131,7 +6131,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>81</v>
@@ -6173,17 +6173,17 @@
       <c r="J21" s="53">
         <v>4032</v>
       </c>
-      <c r="K21" s="116" t="s">
-        <v>310</v>
-      </c>
-      <c r="L21" s="117"/>
+      <c r="K21" s="117" t="s">
+        <v>309</v>
+      </c>
+      <c r="L21" s="118"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -6210,8 +6210,8 @@
       <c r="J22" s="52">
         <v>10511</v>
       </c>
-      <c r="K22" s="116"/>
-      <c r="L22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="118"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="7" t="s">
@@ -6323,7 +6323,7 @@
         <v>72</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -6339,7 +6339,7 @@
         <v>3.28</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>50</v>
@@ -6457,7 +6457,7 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C30">
         <v>72</v>
@@ -6488,7 +6488,7 @@
         <v>170</v>
       </c>
       <c r="B31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -6508,7 +6508,7 @@
         <v>171</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="52"/>
@@ -6621,7 +6621,7 @@
         <v>72</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -6636,7 +6636,7 @@
         <v>1.64</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>81</v>
@@ -6686,7 +6686,7 @@
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C37">
         <v>15</v>
@@ -6702,7 +6702,7 @@
         <v>6.08</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>50</v>
@@ -6735,10 +6735,10 @@
         <v>16</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="52"/>
@@ -6750,7 +6750,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C39" s="9">
         <v>1</v>
@@ -6765,10 +6765,10 @@
         <v>9.5</v>
       </c>
       <c r="G39" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="H39" s="42" t="s">
         <v>264</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>265</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="52"/>
@@ -6811,7 +6811,7 @@
         <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -6827,7 +6827,7 @@
         <v>4.5</v>
       </c>
       <c r="G41" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>62</v>
@@ -6842,7 +6842,7 @@
         <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C42" s="9">
         <v>6</v>
@@ -6851,16 +6851,16 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F42" s="40">
         <v>9.1999999999999993</v>
       </c>
       <c r="G42" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="52"/>
@@ -6919,7 +6919,7 @@
         <v>24</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>165</v>
@@ -6983,10 +6983,10 @@
         <v>1.72</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="52"/>
@@ -7118,20 +7118,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27">
-      <c r="A1" s="115" t="s">
-        <v>306</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
+      <c r="A1" s="116" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -7140,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -7152,7 +7152,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -7163,7 +7163,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -7173,7 +7173,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -7183,7 +7183,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>5</v>
@@ -7267,7 +7267,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>24</v>
@@ -7450,7 +7450,7 @@
         <v>25</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>24</v>
@@ -7468,7 +7468,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F14" s="9">
         <v>4</v>
@@ -7484,7 +7484,7 @@
         <v>40</v>
       </c>
       <c r="J14" s="56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K14" s="27" t="s">
         <v>24</v>
@@ -7521,7 +7521,7 @@
         <v>46.8</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K15" s="27" t="s">
         <v>66</v>
@@ -7558,7 +7558,7 @@
         <v>35</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K16" s="27" t="s">
         <v>66</v>
@@ -7595,7 +7595,7 @@
         <v>16</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K17" s="27" t="s">
         <v>66</v>
@@ -7613,7 +7613,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
@@ -7637,7 +7637,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="108" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E19" s="108"/>
       <c r="F19" s="109"/>
@@ -7646,7 +7646,7 @@
       <c r="I19" s="111"/>
       <c r="J19" s="112"/>
       <c r="K19" s="113" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L19" s="74"/>
     </row>
@@ -7661,7 +7661,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="93">
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="70" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K20" s="103" t="s">
         <v>43</v>
@@ -7694,7 +7694,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="93">
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="70" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K21" s="103" t="s">
         <v>43</v>
@@ -7727,7 +7727,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="96" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E22" s="96"/>
       <c r="F22" s="97">
@@ -7742,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K22" s="106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L22" s="70"/>
     </row>
@@ -7760,7 +7760,7 @@
         <v>153</v>
       </c>
       <c r="D23" s="100" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E23" s="100"/>
       <c r="F23" s="101">
@@ -7775,10 +7775,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="114" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K23" s="104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L23" s="70"/>
     </row>
@@ -7812,7 +7812,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>38</v>
@@ -7866,7 +7866,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E26">
         <v>330</v>
@@ -7885,13 +7885,13 @@
         <v>46</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="73" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -7973,7 +7973,7 @@
         <v>112</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F29" s="9">
         <v>1</v>
@@ -7989,13 +7989,13 @@
         <v>145</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>113</v>
       </c>
       <c r="L29" s="73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -8077,7 +8077,7 @@
         <v>122</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E32">
         <v>300</v>
@@ -8096,13 +8096,13 @@
         <v>78.39</v>
       </c>
       <c r="J32" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L32" s="73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -8132,7 +8132,7 @@
         <v>26</v>
       </c>
       <c r="J33" s="50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>139</v>
@@ -8152,7 +8152,7 @@
         <v>126</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -8168,7 +8168,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>127</v>
@@ -8183,10 +8183,10 @@
         <v>111</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" t="s">
         <v>196</v>
-      </c>
-      <c r="D35" t="s">
-        <v>197</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
@@ -8202,13 +8202,13 @@
         <v>2</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K35" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L35" s="73" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -8222,7 +8222,7 @@
         <v>129</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
@@ -8238,7 +8238,7 @@
         <v>40</v>
       </c>
       <c r="J36" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K36" s="42" t="s">
         <v>139</v>
@@ -8253,10 +8253,10 @@
         <v>128</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" t="s">
         <v>228</v>
-      </c>
-      <c r="D37" t="s">
-        <v>229</v>
       </c>
       <c r="F37" s="9">
         <v>1</v>
@@ -8272,7 +8272,7 @@
         <v>13.5</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K37" s="42" t="s">
         <v>121</v>
@@ -8290,7 +8290,7 @@
         <v>128</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F38" s="9">
         <v>1</v>
@@ -8324,7 +8324,7 @@
         <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F39" s="9">
         <v>1</v>
@@ -8340,7 +8340,7 @@
         <v>3.75</v>
       </c>
       <c r="J39" s="48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>139</v>
@@ -8628,10 +8628,10 @@
         <v>67</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D48" s="61" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E48" s="63"/>
       <c r="F48" s="64"/>
@@ -8653,7 +8653,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D49" s="44" t="s">
         <v>5</v>

--- a/Document Library/Bill Of Materials/Valkyrie BOM v1.0.0.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="560" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EB1C4C1-7E99-4374-965D-0B524BC889FF}"/>
+  <xr:revisionPtr revIDLastSave="567" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{836CD9A1-9054-41AE-A2CE-B0F57FAA0897}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1517,10 +1517,10 @@
     <t>1 x 20 PCs M4 x 50 SS</t>
   </si>
   <si>
-    <t>1x Sunon MB60252VX</t>
-  </si>
-  <si>
-    <t>60mm Sunon MB60252VX</t>
+    <t>60mm Sunon MF60202V3</t>
+  </si>
+  <si>
+    <t>1x Sunon MF60202V3</t>
   </si>
 </sst>
 </file>
@@ -3239,7 +3239,7 @@
       <c r="H2" s="45"/>
       <c r="I2" s="46">
         <f>I60</f>
-        <v>1872.1400000000003</v>
+        <v>1887.6400000000003</v>
       </c>
       <c r="J2" s="44"/>
       <c r="K2" s="51"/>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B51" t="s">
         <v>111</v>
@@ -5040,23 +5040,23 @@
         <v>158</v>
       </c>
       <c r="D51" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F51" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="10">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="H51" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" s="40">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>24</v>
       </c>
       <c r="J51" s="115" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>185</v>
@@ -5362,7 +5362,7 @@
       <c r="H60" s="45"/>
       <c r="I60" s="46">
         <f>SUM(I20:I59)+I14</f>
-        <v>1872.1400000000003</v>
+        <v>1887.6400000000003</v>
       </c>
       <c r="J60" s="44"/>
       <c r="K60" s="51"/>
@@ -5401,7 +5401,7 @@
     <hyperlink ref="J44" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="J45" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="J50" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J51" r:id="rId23" display="1x Size: NEW" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J51" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="J52" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="J53" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="J32" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
